--- a/public/exports/PGS201.xlsx
+++ b/public/exports/PGS201.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20398"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OHCIS User\Desktop\FFR 2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\calypso\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9886B0BC-DB8C-48F7-A919-E6E34850B751}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{568205F7-ED3C-4AA2-9BC9-EA6B557C516F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7005" xr2:uid="{1DFFECE8-8A5A-4299-B12A-BEC0271E3890}"/>
+    <workbookView xWindow="-28920" yWindow="-90" windowWidth="29040" windowHeight="16440" xr2:uid="{1DFFECE8-8A5A-4299-B12A-BEC0271E3890}"/>
   </bookViews>
   <sheets>
     <sheet name="PGS201" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,15 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -372,7 +381,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.00;[Red]0.00"/>
+  </numFmts>
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -413,6 +425,13 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1024,11 +1043,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="132">
+  <cellXfs count="139">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
@@ -1080,9 +1100,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1103,9 +1120,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1122,12 +1136,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1173,9 +1181,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -1199,9 +1204,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1278,170 +1280,6 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
@@ -1476,6 +1314,185 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -1488,16 +1505,40 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1508,14 +1549,15 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 5" xfId="1" xr:uid="{BBD0298E-B63B-42F9-B6B3-5C5BA46660BB}"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1829,8 +1871,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C59192A-7076-43B9-9856-AF79AF1723F6}">
   <dimension ref="A1:CK990"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="CC1" sqref="CC1:CJ1"/>
+    <sheetView tabSelected="1" topLeftCell="S31" zoomScale="58" zoomScaleNormal="58" workbookViewId="0">
+      <selection activeCell="CH29" sqref="CH29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -1868,7 +1910,10 @@
     <col min="67" max="82" width="5.7109375" style="1" customWidth="1"/>
     <col min="83" max="83" width="5.28515625" style="1" customWidth="1"/>
     <col min="84" max="84" width="4.7109375" style="1" customWidth="1"/>
-    <col min="85" max="88" width="5.7109375" style="1" customWidth="1"/>
+    <col min="85" max="85" width="5.7109375" style="1" customWidth="1"/>
+    <col min="86" max="86" width="8.42578125" style="1" customWidth="1"/>
+    <col min="87" max="87" width="9.85546875" style="1" customWidth="1"/>
+    <col min="88" max="88" width="9.28515625" style="1" customWidth="1"/>
     <col min="89" max="89" width="6.140625" style="1" customWidth="1"/>
     <col min="90" max="16384" width="14.42578125" style="1"/>
   </cols>
@@ -1876,302 +1921,302 @@
     <row r="1" spans="1:89" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="CA1" s="2"/>
       <c r="CB1" s="2"/>
-      <c r="CC1" s="74" t="s">
+      <c r="CC1" s="134" t="s">
         <v>100</v>
       </c>
-      <c r="CD1" s="74"/>
-      <c r="CE1" s="74"/>
-      <c r="CF1" s="74"/>
-      <c r="CG1" s="74"/>
-      <c r="CH1" s="74"/>
-      <c r="CI1" s="74"/>
-      <c r="CJ1" s="74"/>
+      <c r="CD1" s="134"/>
+      <c r="CE1" s="134"/>
+      <c r="CF1" s="134"/>
+      <c r="CG1" s="134"/>
+      <c r="CH1" s="134"/>
+      <c r="CI1" s="134"/>
+      <c r="CJ1" s="134"/>
     </row>
     <row r="2" spans="1:89" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="75" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="75"/>
-      <c r="H2" s="75"/>
-      <c r="I2" s="75"/>
-      <c r="J2" s="75"/>
-      <c r="K2" s="75"/>
-      <c r="L2" s="75"/>
-      <c r="M2" s="75"/>
-      <c r="N2" s="75"/>
-      <c r="O2" s="75"/>
-      <c r="P2" s="75"/>
-      <c r="Q2" s="75"/>
-      <c r="R2" s="75"/>
-      <c r="S2" s="75"/>
-      <c r="T2" s="75"/>
-      <c r="U2" s="75"/>
-      <c r="V2" s="75"/>
-      <c r="W2" s="75"/>
-      <c r="X2" s="75"/>
-      <c r="Y2" s="75"/>
-      <c r="Z2" s="75"/>
-      <c r="AA2" s="75"/>
-      <c r="AB2" s="75"/>
-      <c r="AC2" s="75"/>
-      <c r="AD2" s="75"/>
-      <c r="AE2" s="75"/>
-      <c r="AF2" s="75"/>
-      <c r="AG2" s="75"/>
-      <c r="AH2" s="75"/>
-      <c r="AI2" s="75"/>
-      <c r="AJ2" s="75"/>
-      <c r="AK2" s="75"/>
-      <c r="AL2" s="75"/>
-      <c r="AM2" s="75"/>
-      <c r="AN2" s="75"/>
-      <c r="AO2" s="75"/>
-      <c r="AP2" s="75"/>
-      <c r="AQ2" s="75"/>
-      <c r="AR2" s="75"/>
-      <c r="AS2" s="75"/>
-      <c r="AT2" s="75"/>
-      <c r="AU2" s="75"/>
-      <c r="AV2" s="75"/>
-      <c r="AW2" s="75"/>
-      <c r="AX2" s="75"/>
-      <c r="AY2" s="75"/>
-      <c r="AZ2" s="75"/>
-      <c r="BA2" s="75"/>
-      <c r="BB2" s="75"/>
-      <c r="BC2" s="75"/>
-      <c r="BD2" s="75"/>
-      <c r="BE2" s="75"/>
-      <c r="BF2" s="75"/>
-      <c r="BG2" s="75"/>
-      <c r="BH2" s="75"/>
-      <c r="BI2" s="75"/>
-      <c r="BJ2" s="75"/>
-      <c r="BK2" s="75"/>
-      <c r="BL2" s="75"/>
-      <c r="BM2" s="75"/>
-      <c r="BN2" s="75"/>
-      <c r="BO2" s="75"/>
-      <c r="BP2" s="75"/>
-      <c r="BQ2" s="75"/>
-      <c r="BR2" s="75"/>
-      <c r="BS2" s="75"/>
-      <c r="BT2" s="75"/>
-      <c r="BU2" s="75"/>
-      <c r="BV2" s="75"/>
-      <c r="BW2" s="75"/>
-      <c r="BX2" s="75"/>
-      <c r="BY2" s="75"/>
-      <c r="BZ2" s="75"/>
-      <c r="CA2" s="75"/>
-      <c r="CB2" s="75"/>
-      <c r="CC2" s="75"/>
-      <c r="CD2" s="75"/>
-      <c r="CE2" s="75"/>
-      <c r="CF2" s="75"/>
+      <c r="B2" s="135" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="135"/>
+      <c r="D2" s="135"/>
+      <c r="E2" s="135"/>
+      <c r="F2" s="135"/>
+      <c r="G2" s="135"/>
+      <c r="H2" s="135"/>
+      <c r="I2" s="135"/>
+      <c r="J2" s="135"/>
+      <c r="K2" s="135"/>
+      <c r="L2" s="135"/>
+      <c r="M2" s="135"/>
+      <c r="N2" s="135"/>
+      <c r="O2" s="135"/>
+      <c r="P2" s="135"/>
+      <c r="Q2" s="135"/>
+      <c r="R2" s="135"/>
+      <c r="S2" s="135"/>
+      <c r="T2" s="135"/>
+      <c r="U2" s="135"/>
+      <c r="V2" s="135"/>
+      <c r="W2" s="135"/>
+      <c r="X2" s="135"/>
+      <c r="Y2" s="135"/>
+      <c r="Z2" s="135"/>
+      <c r="AA2" s="135"/>
+      <c r="AB2" s="135"/>
+      <c r="AC2" s="135"/>
+      <c r="AD2" s="135"/>
+      <c r="AE2" s="135"/>
+      <c r="AF2" s="135"/>
+      <c r="AG2" s="135"/>
+      <c r="AH2" s="135"/>
+      <c r="AI2" s="135"/>
+      <c r="AJ2" s="135"/>
+      <c r="AK2" s="135"/>
+      <c r="AL2" s="135"/>
+      <c r="AM2" s="135"/>
+      <c r="AN2" s="135"/>
+      <c r="AO2" s="135"/>
+      <c r="AP2" s="135"/>
+      <c r="AQ2" s="135"/>
+      <c r="AR2" s="135"/>
+      <c r="AS2" s="135"/>
+      <c r="AT2" s="135"/>
+      <c r="AU2" s="135"/>
+      <c r="AV2" s="135"/>
+      <c r="AW2" s="135"/>
+      <c r="AX2" s="135"/>
+      <c r="AY2" s="135"/>
+      <c r="AZ2" s="135"/>
+      <c r="BA2" s="135"/>
+      <c r="BB2" s="135"/>
+      <c r="BC2" s="135"/>
+      <c r="BD2" s="135"/>
+      <c r="BE2" s="135"/>
+      <c r="BF2" s="135"/>
+      <c r="BG2" s="135"/>
+      <c r="BH2" s="135"/>
+      <c r="BI2" s="135"/>
+      <c r="BJ2" s="135"/>
+      <c r="BK2" s="135"/>
+      <c r="BL2" s="135"/>
+      <c r="BM2" s="135"/>
+      <c r="BN2" s="135"/>
+      <c r="BO2" s="135"/>
+      <c r="BP2" s="135"/>
+      <c r="BQ2" s="135"/>
+      <c r="BR2" s="135"/>
+      <c r="BS2" s="135"/>
+      <c r="BT2" s="135"/>
+      <c r="BU2" s="135"/>
+      <c r="BV2" s="135"/>
+      <c r="BW2" s="135"/>
+      <c r="BX2" s="135"/>
+      <c r="BY2" s="135"/>
+      <c r="BZ2" s="135"/>
+      <c r="CA2" s="135"/>
+      <c r="CB2" s="135"/>
+      <c r="CC2" s="135"/>
+      <c r="CD2" s="135"/>
+      <c r="CE2" s="135"/>
+      <c r="CF2" s="135"/>
       <c r="CG2" s="2"/>
       <c r="CH2" s="2"/>
       <c r="CI2" s="2"/>
       <c r="CJ2" s="2"/>
     </row>
     <row r="3" spans="1:89" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="75" t="s">
+      <c r="B3" s="135" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="75"/>
-      <c r="I3" s="75"/>
-      <c r="J3" s="75"/>
-      <c r="K3" s="75"/>
-      <c r="L3" s="75"/>
-      <c r="M3" s="75"/>
-      <c r="N3" s="75"/>
-      <c r="O3" s="75"/>
-      <c r="P3" s="75"/>
-      <c r="Q3" s="75"/>
-      <c r="R3" s="75"/>
-      <c r="S3" s="75"/>
-      <c r="T3" s="75"/>
-      <c r="U3" s="75"/>
-      <c r="V3" s="75"/>
-      <c r="W3" s="75"/>
-      <c r="X3" s="75"/>
-      <c r="Y3" s="75"/>
-      <c r="Z3" s="75"/>
-      <c r="AA3" s="75"/>
-      <c r="AB3" s="75"/>
-      <c r="AC3" s="75"/>
-      <c r="AD3" s="75"/>
-      <c r="AE3" s="75"/>
-      <c r="AF3" s="75"/>
-      <c r="AG3" s="75"/>
-      <c r="AH3" s="75"/>
-      <c r="AI3" s="75"/>
-      <c r="AJ3" s="75"/>
-      <c r="AK3" s="75"/>
-      <c r="AL3" s="75"/>
-      <c r="AM3" s="75"/>
-      <c r="AN3" s="75"/>
-      <c r="AO3" s="75"/>
-      <c r="AP3" s="75"/>
-      <c r="AQ3" s="75"/>
-      <c r="AR3" s="75"/>
-      <c r="AS3" s="75"/>
-      <c r="AT3" s="75"/>
-      <c r="AU3" s="75"/>
-      <c r="AV3" s="75"/>
-      <c r="AW3" s="75"/>
-      <c r="AX3" s="75"/>
-      <c r="AY3" s="75"/>
-      <c r="AZ3" s="75"/>
-      <c r="BA3" s="75"/>
-      <c r="BB3" s="75"/>
-      <c r="BC3" s="75"/>
-      <c r="BD3" s="75"/>
-      <c r="BE3" s="75"/>
-      <c r="BF3" s="75"/>
-      <c r="BG3" s="75"/>
-      <c r="BH3" s="75"/>
-      <c r="BI3" s="75"/>
-      <c r="BJ3" s="75"/>
-      <c r="BK3" s="75"/>
-      <c r="BL3" s="75"/>
-      <c r="BM3" s="75"/>
-      <c r="BN3" s="75"/>
-      <c r="BO3" s="75"/>
-      <c r="BP3" s="75"/>
-      <c r="BQ3" s="75"/>
-      <c r="BR3" s="75"/>
-      <c r="BS3" s="75"/>
-      <c r="BT3" s="75"/>
-      <c r="BU3" s="75"/>
-      <c r="BV3" s="75"/>
-      <c r="BW3" s="75"/>
-      <c r="BX3" s="75"/>
-      <c r="BY3" s="75"/>
-      <c r="BZ3" s="75"/>
-      <c r="CA3" s="75"/>
-      <c r="CB3" s="75"/>
-      <c r="CC3" s="75"/>
-      <c r="CD3" s="75"/>
-      <c r="CE3" s="75"/>
-      <c r="CF3" s="75"/>
+      <c r="C3" s="135"/>
+      <c r="D3" s="135"/>
+      <c r="E3" s="135"/>
+      <c r="F3" s="135"/>
+      <c r="G3" s="135"/>
+      <c r="H3" s="135"/>
+      <c r="I3" s="135"/>
+      <c r="J3" s="135"/>
+      <c r="K3" s="135"/>
+      <c r="L3" s="135"/>
+      <c r="M3" s="135"/>
+      <c r="N3" s="135"/>
+      <c r="O3" s="135"/>
+      <c r="P3" s="135"/>
+      <c r="Q3" s="135"/>
+      <c r="R3" s="135"/>
+      <c r="S3" s="135"/>
+      <c r="T3" s="135"/>
+      <c r="U3" s="135"/>
+      <c r="V3" s="135"/>
+      <c r="W3" s="135"/>
+      <c r="X3" s="135"/>
+      <c r="Y3" s="135"/>
+      <c r="Z3" s="135"/>
+      <c r="AA3" s="135"/>
+      <c r="AB3" s="135"/>
+      <c r="AC3" s="135"/>
+      <c r="AD3" s="135"/>
+      <c r="AE3" s="135"/>
+      <c r="AF3" s="135"/>
+      <c r="AG3" s="135"/>
+      <c r="AH3" s="135"/>
+      <c r="AI3" s="135"/>
+      <c r="AJ3" s="135"/>
+      <c r="AK3" s="135"/>
+      <c r="AL3" s="135"/>
+      <c r="AM3" s="135"/>
+      <c r="AN3" s="135"/>
+      <c r="AO3" s="135"/>
+      <c r="AP3" s="135"/>
+      <c r="AQ3" s="135"/>
+      <c r="AR3" s="135"/>
+      <c r="AS3" s="135"/>
+      <c r="AT3" s="135"/>
+      <c r="AU3" s="135"/>
+      <c r="AV3" s="135"/>
+      <c r="AW3" s="135"/>
+      <c r="AX3" s="135"/>
+      <c r="AY3" s="135"/>
+      <c r="AZ3" s="135"/>
+      <c r="BA3" s="135"/>
+      <c r="BB3" s="135"/>
+      <c r="BC3" s="135"/>
+      <c r="BD3" s="135"/>
+      <c r="BE3" s="135"/>
+      <c r="BF3" s="135"/>
+      <c r="BG3" s="135"/>
+      <c r="BH3" s="135"/>
+      <c r="BI3" s="135"/>
+      <c r="BJ3" s="135"/>
+      <c r="BK3" s="135"/>
+      <c r="BL3" s="135"/>
+      <c r="BM3" s="135"/>
+      <c r="BN3" s="135"/>
+      <c r="BO3" s="135"/>
+      <c r="BP3" s="135"/>
+      <c r="BQ3" s="135"/>
+      <c r="BR3" s="135"/>
+      <c r="BS3" s="135"/>
+      <c r="BT3" s="135"/>
+      <c r="BU3" s="135"/>
+      <c r="BV3" s="135"/>
+      <c r="BW3" s="135"/>
+      <c r="BX3" s="135"/>
+      <c r="BY3" s="135"/>
+      <c r="BZ3" s="135"/>
+      <c r="CA3" s="135"/>
+      <c r="CB3" s="135"/>
+      <c r="CC3" s="135"/>
+      <c r="CD3" s="135"/>
+      <c r="CE3" s="135"/>
+      <c r="CF3" s="135"/>
       <c r="CG3" s="2"/>
       <c r="CH3" s="2"/>
       <c r="CI3" s="2"/>
       <c r="CJ3" s="2"/>
     </row>
     <row r="4" spans="1:89" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="114"/>
-      <c r="B4" s="129" t="s">
+      <c r="A4" s="67"/>
+      <c r="B4" s="136" t="s">
         <v>98</v>
       </c>
-      <c r="C4" s="130"/>
-      <c r="D4" s="130"/>
-      <c r="E4" s="130"/>
-      <c r="F4" s="130"/>
-      <c r="G4" s="130"/>
-      <c r="H4" s="130"/>
-      <c r="I4" s="130"/>
-      <c r="J4" s="130"/>
-      <c r="K4" s="130"/>
-      <c r="L4" s="130"/>
-      <c r="M4" s="130"/>
-      <c r="N4" s="130"/>
-      <c r="O4" s="130"/>
-      <c r="P4" s="130"/>
-      <c r="Q4" s="130"/>
-      <c r="R4" s="130"/>
-      <c r="S4" s="130"/>
-      <c r="T4" s="130"/>
-      <c r="U4" s="130"/>
-      <c r="V4" s="130"/>
-      <c r="W4" s="130"/>
-      <c r="X4" s="130"/>
-      <c r="Y4" s="130"/>
-      <c r="Z4" s="130"/>
-      <c r="AA4" s="130"/>
-      <c r="AB4" s="130"/>
-      <c r="AC4" s="130"/>
-      <c r="AD4" s="130"/>
-      <c r="AE4" s="130"/>
-      <c r="AF4" s="130"/>
-      <c r="AG4" s="130"/>
-      <c r="AH4" s="130"/>
-      <c r="AI4" s="130"/>
-      <c r="AJ4" s="130"/>
-      <c r="AK4" s="130"/>
-      <c r="AL4" s="130"/>
-      <c r="AM4" s="130"/>
-      <c r="AN4" s="130"/>
-      <c r="AO4" s="130"/>
-      <c r="AP4" s="130"/>
-      <c r="AQ4" s="130"/>
-      <c r="AR4" s="130"/>
-      <c r="AS4" s="130"/>
-      <c r="AT4" s="130"/>
-      <c r="AU4" s="130"/>
-      <c r="AV4" s="130"/>
-      <c r="AW4" s="130"/>
-      <c r="AX4" s="130"/>
-      <c r="AY4" s="130"/>
-      <c r="AZ4" s="130"/>
-      <c r="BA4" s="130"/>
-      <c r="BB4" s="130"/>
-      <c r="BC4" s="130"/>
-      <c r="BD4" s="130"/>
-      <c r="BE4" s="130"/>
-      <c r="BF4" s="130"/>
-      <c r="BG4" s="130"/>
-      <c r="BH4" s="130"/>
-      <c r="BI4" s="130"/>
-      <c r="BJ4" s="130"/>
-      <c r="BK4" s="130"/>
-      <c r="BL4" s="130"/>
-      <c r="BM4" s="130"/>
-      <c r="BN4" s="130"/>
-      <c r="BO4" s="130"/>
-      <c r="BP4" s="130"/>
-      <c r="BQ4" s="130"/>
-      <c r="BR4" s="130"/>
-      <c r="BS4" s="130"/>
-      <c r="BT4" s="130"/>
-      <c r="BU4" s="130"/>
-      <c r="BV4" s="130"/>
-      <c r="BW4" s="130"/>
-      <c r="BX4" s="130"/>
-      <c r="BY4" s="130"/>
-      <c r="BZ4" s="130"/>
-      <c r="CA4" s="130"/>
-      <c r="CB4" s="130"/>
-      <c r="CC4" s="130"/>
-      <c r="CD4" s="130"/>
-      <c r="CE4" s="130"/>
-      <c r="CF4" s="130"/>
-      <c r="CG4" s="131"/>
+      <c r="C4" s="137"/>
+      <c r="D4" s="137"/>
+      <c r="E4" s="137"/>
+      <c r="F4" s="137"/>
+      <c r="G4" s="137"/>
+      <c r="H4" s="137"/>
+      <c r="I4" s="137"/>
+      <c r="J4" s="137"/>
+      <c r="K4" s="137"/>
+      <c r="L4" s="137"/>
+      <c r="M4" s="137"/>
+      <c r="N4" s="137"/>
+      <c r="O4" s="137"/>
+      <c r="P4" s="137"/>
+      <c r="Q4" s="137"/>
+      <c r="R4" s="137"/>
+      <c r="S4" s="137"/>
+      <c r="T4" s="137"/>
+      <c r="U4" s="137"/>
+      <c r="V4" s="137"/>
+      <c r="W4" s="137"/>
+      <c r="X4" s="137"/>
+      <c r="Y4" s="137"/>
+      <c r="Z4" s="137"/>
+      <c r="AA4" s="137"/>
+      <c r="AB4" s="137"/>
+      <c r="AC4" s="137"/>
+      <c r="AD4" s="137"/>
+      <c r="AE4" s="137"/>
+      <c r="AF4" s="137"/>
+      <c r="AG4" s="137"/>
+      <c r="AH4" s="137"/>
+      <c r="AI4" s="137"/>
+      <c r="AJ4" s="137"/>
+      <c r="AK4" s="137"/>
+      <c r="AL4" s="137"/>
+      <c r="AM4" s="137"/>
+      <c r="AN4" s="137"/>
+      <c r="AO4" s="137"/>
+      <c r="AP4" s="137"/>
+      <c r="AQ4" s="137"/>
+      <c r="AR4" s="137"/>
+      <c r="AS4" s="137"/>
+      <c r="AT4" s="137"/>
+      <c r="AU4" s="137"/>
+      <c r="AV4" s="137"/>
+      <c r="AW4" s="137"/>
+      <c r="AX4" s="137"/>
+      <c r="AY4" s="137"/>
+      <c r="AZ4" s="137"/>
+      <c r="BA4" s="137"/>
+      <c r="BB4" s="137"/>
+      <c r="BC4" s="137"/>
+      <c r="BD4" s="137"/>
+      <c r="BE4" s="137"/>
+      <c r="BF4" s="137"/>
+      <c r="BG4" s="137"/>
+      <c r="BH4" s="137"/>
+      <c r="BI4" s="137"/>
+      <c r="BJ4" s="137"/>
+      <c r="BK4" s="137"/>
+      <c r="BL4" s="137"/>
+      <c r="BM4" s="137"/>
+      <c r="BN4" s="137"/>
+      <c r="BO4" s="137"/>
+      <c r="BP4" s="137"/>
+      <c r="BQ4" s="137"/>
+      <c r="BR4" s="137"/>
+      <c r="BS4" s="137"/>
+      <c r="BT4" s="137"/>
+      <c r="BU4" s="137"/>
+      <c r="BV4" s="137"/>
+      <c r="BW4" s="137"/>
+      <c r="BX4" s="137"/>
+      <c r="BY4" s="137"/>
+      <c r="BZ4" s="137"/>
+      <c r="CA4" s="137"/>
+      <c r="CB4" s="137"/>
+      <c r="CC4" s="137"/>
+      <c r="CD4" s="137"/>
+      <c r="CE4" s="137"/>
+      <c r="CF4" s="137"/>
+      <c r="CG4" s="79"/>
       <c r="CH4" s="2"/>
       <c r="CI4" s="2"/>
       <c r="CJ4" s="2"/>
     </row>
     <row r="5" spans="1:89" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="118"/>
-      <c r="C5" s="118"/>
-      <c r="D5" s="118"/>
-      <c r="E5" s="118"/>
-      <c r="F5" s="118"/>
-      <c r="G5" s="118"/>
-      <c r="H5" s="118"/>
-      <c r="I5" s="118"/>
-      <c r="J5" s="118"/>
-      <c r="K5" s="118"/>
+      <c r="B5" s="71"/>
+      <c r="C5" s="71"/>
+      <c r="D5" s="71"/>
+      <c r="E5" s="71"/>
+      <c r="F5" s="71"/>
+      <c r="G5" s="71"/>
+      <c r="H5" s="71"/>
+      <c r="I5" s="71"/>
+      <c r="J5" s="71"/>
+      <c r="K5" s="71"/>
       <c r="AF5" s="3"/>
       <c r="AG5" s="3"/>
       <c r="AH5" s="3"/>
@@ -2179,13 +2224,13 @@
       <c r="AJ5" s="3"/>
       <c r="AK5" s="3"/>
       <c r="AL5" s="3"/>
-      <c r="AR5" s="76"/>
-      <c r="AS5" s="76"/>
-      <c r="AT5" s="76"/>
-      <c r="AU5" s="76"/>
-      <c r="AV5" s="76"/>
-      <c r="AW5" s="76"/>
-      <c r="AX5" s="76"/>
+      <c r="AR5" s="138"/>
+      <c r="AS5" s="138"/>
+      <c r="AT5" s="138"/>
+      <c r="AU5" s="138"/>
+      <c r="AV5" s="138"/>
+      <c r="AW5" s="138"/>
+      <c r="AX5" s="138"/>
       <c r="CA5" s="2"/>
       <c r="CB5" s="2"/>
       <c r="CC5" s="2"/>
@@ -2277,23 +2322,23 @@
       <c r="A7" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="73"/>
-      <c r="E7" s="73"/>
-      <c r="F7" s="73"/>
-      <c r="G7" s="73"/>
-      <c r="H7" s="73"/>
-      <c r="I7" s="73"/>
-      <c r="J7" s="73"/>
-      <c r="K7" s="73"/>
-      <c r="L7" s="73"/>
-      <c r="M7" s="73"/>
-      <c r="N7" s="73"/>
-      <c r="O7" s="73"/>
-      <c r="P7" s="73"/>
-      <c r="Q7" s="73"/>
-      <c r="R7" s="73"/>
-      <c r="S7" s="73"/>
-      <c r="T7" s="73"/>
+      <c r="D7" s="133"/>
+      <c r="E7" s="133"/>
+      <c r="F7" s="133"/>
+      <c r="G7" s="133"/>
+      <c r="H7" s="133"/>
+      <c r="I7" s="133"/>
+      <c r="J7" s="133"/>
+      <c r="K7" s="133"/>
+      <c r="L7" s="133"/>
+      <c r="M7" s="133"/>
+      <c r="N7" s="133"/>
+      <c r="O7" s="133"/>
+      <c r="P7" s="133"/>
+      <c r="Q7" s="133"/>
+      <c r="R7" s="133"/>
+      <c r="S7" s="133"/>
+      <c r="T7" s="133"/>
       <c r="AA7" s="5"/>
       <c r="AB7" s="5"/>
       <c r="AC7" s="5"/>
@@ -2304,69 +2349,69 @@
       <c r="AH7" s="5"/>
       <c r="AI7" s="5"/>
       <c r="AJ7" s="5"/>
-      <c r="AL7" s="114"/>
-      <c r="AM7" s="119"/>
-      <c r="AN7" s="120"/>
-      <c r="AO7" s="121"/>
-      <c r="AP7" s="121"/>
-      <c r="AQ7" s="121"/>
-      <c r="AR7" s="121"/>
-      <c r="AS7" s="121"/>
-      <c r="AT7" s="121"/>
-      <c r="AU7" s="119"/>
-      <c r="AV7" s="119"/>
-      <c r="AW7" s="119"/>
-      <c r="AX7" s="119"/>
-      <c r="AY7" s="120"/>
-      <c r="AZ7" s="119"/>
-      <c r="BA7" s="122"/>
-      <c r="BB7" s="122"/>
-      <c r="BC7" s="122"/>
-      <c r="BD7" s="120"/>
-      <c r="BE7" s="119"/>
-      <c r="BF7" s="122"/>
+      <c r="AL7" s="67"/>
+      <c r="AM7" s="72"/>
+      <c r="AN7" s="73"/>
+      <c r="AO7" s="74"/>
+      <c r="AP7" s="74"/>
+      <c r="AQ7" s="74"/>
+      <c r="AR7" s="74"/>
+      <c r="AS7" s="74"/>
+      <c r="AT7" s="74"/>
+      <c r="AU7" s="72"/>
+      <c r="AV7" s="72"/>
+      <c r="AW7" s="72"/>
+      <c r="AX7" s="72"/>
+      <c r="AY7" s="73"/>
+      <c r="AZ7" s="72"/>
+      <c r="BA7" s="75"/>
+      <c r="BB7" s="75"/>
+      <c r="BC7" s="75"/>
+      <c r="BD7" s="73"/>
+      <c r="BE7" s="72"/>
+      <c r="BF7" s="75"/>
       <c r="BL7" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="BT7" s="73"/>
-      <c r="BU7" s="73"/>
-      <c r="BV7" s="73"/>
-      <c r="BW7" s="73"/>
-      <c r="BX7" s="73"/>
-      <c r="BY7" s="73"/>
-      <c r="BZ7" s="73"/>
-      <c r="CA7" s="73"/>
-      <c r="CB7" s="73"/>
-      <c r="CC7" s="73"/>
-      <c r="CD7" s="73"/>
-      <c r="CE7" s="73"/>
-      <c r="CF7" s="73"/>
-      <c r="CG7" s="73"/>
-      <c r="CH7" s="73"/>
-      <c r="CI7" s="73"/>
-      <c r="CJ7" s="73"/>
+      <c r="BT7" s="133"/>
+      <c r="BU7" s="133"/>
+      <c r="BV7" s="133"/>
+      <c r="BW7" s="133"/>
+      <c r="BX7" s="133"/>
+      <c r="BY7" s="133"/>
+      <c r="BZ7" s="133"/>
+      <c r="CA7" s="133"/>
+      <c r="CB7" s="133"/>
+      <c r="CC7" s="133"/>
+      <c r="CD7" s="133"/>
+      <c r="CE7" s="133"/>
+      <c r="CF7" s="133"/>
+      <c r="CG7" s="133"/>
+      <c r="CH7" s="133"/>
+      <c r="CI7" s="133"/>
+      <c r="CJ7" s="133"/>
     </row>
     <row r="8" spans="1:89" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="73"/>
-      <c r="E8" s="73"/>
-      <c r="F8" s="73"/>
-      <c r="G8" s="73"/>
-      <c r="H8" s="73"/>
-      <c r="I8" s="73"/>
-      <c r="J8" s="73"/>
-      <c r="K8" s="73"/>
-      <c r="L8" s="73"/>
-      <c r="M8" s="73"/>
-      <c r="N8" s="73"/>
-      <c r="O8" s="73"/>
-      <c r="P8" s="73"/>
-      <c r="Q8" s="73"/>
-      <c r="R8" s="73"/>
-      <c r="S8" s="73"/>
-      <c r="T8" s="73"/>
+      <c r="D8" s="133"/>
+      <c r="E8" s="133"/>
+      <c r="F8" s="133"/>
+      <c r="G8" s="133"/>
+      <c r="H8" s="133"/>
+      <c r="I8" s="133"/>
+      <c r="J8" s="133"/>
+      <c r="K8" s="133"/>
+      <c r="L8" s="133"/>
+      <c r="M8" s="133"/>
+      <c r="N8" s="133"/>
+      <c r="O8" s="133"/>
+      <c r="P8" s="133"/>
+      <c r="Q8" s="133"/>
+      <c r="R8" s="133"/>
+      <c r="S8" s="133"/>
+      <c r="T8" s="133"/>
       <c r="AA8" s="5"/>
       <c r="AB8" s="5"/>
       <c r="AC8" s="5"/>
@@ -2377,71 +2422,71 @@
       <c r="AH8" s="5"/>
       <c r="AI8" s="5"/>
       <c r="AJ8" s="5"/>
-      <c r="AM8" s="119"/>
-      <c r="AN8" s="120"/>
-      <c r="AO8" s="121"/>
-      <c r="AP8" s="121"/>
-      <c r="AQ8" s="119"/>
-      <c r="AR8" s="120"/>
-      <c r="AS8" s="119"/>
-      <c r="AT8" s="120"/>
-      <c r="AU8" s="119"/>
-      <c r="AV8" s="119"/>
-      <c r="AW8" s="120"/>
-      <c r="AX8" s="119"/>
-      <c r="AY8" s="122"/>
-      <c r="AZ8" s="122"/>
-      <c r="BA8" s="122"/>
-      <c r="BB8" s="122"/>
-      <c r="BC8" s="122"/>
-      <c r="BD8" s="122"/>
-      <c r="BE8" s="122"/>
-      <c r="BF8" s="122"/>
-      <c r="BG8" s="116"/>
+      <c r="AM8" s="72"/>
+      <c r="AN8" s="73"/>
+      <c r="AO8" s="74"/>
+      <c r="AP8" s="74"/>
+      <c r="AQ8" s="72"/>
+      <c r="AR8" s="73"/>
+      <c r="AS8" s="72"/>
+      <c r="AT8" s="73"/>
+      <c r="AU8" s="72"/>
+      <c r="AV8" s="72"/>
+      <c r="AW8" s="73"/>
+      <c r="AX8" s="72"/>
+      <c r="AY8" s="75"/>
+      <c r="AZ8" s="75"/>
+      <c r="BA8" s="75"/>
+      <c r="BB8" s="75"/>
+      <c r="BC8" s="75"/>
+      <c r="BD8" s="75"/>
+      <c r="BE8" s="75"/>
+      <c r="BF8" s="75"/>
+      <c r="BG8" s="69"/>
       <c r="BL8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="BO8" s="62"/>
-      <c r="BR8" s="62"/>
-      <c r="BS8" s="63"/>
-      <c r="BT8" s="73"/>
-      <c r="BU8" s="73"/>
-      <c r="BV8" s="73"/>
-      <c r="BW8" s="73"/>
-      <c r="BX8" s="73"/>
-      <c r="BY8" s="73"/>
-      <c r="BZ8" s="73"/>
-      <c r="CA8" s="73"/>
-      <c r="CB8" s="73"/>
-      <c r="CC8" s="73"/>
-      <c r="CD8" s="73"/>
-      <c r="CE8" s="73"/>
-      <c r="CF8" s="73"/>
-      <c r="CG8" s="73"/>
-      <c r="CH8" s="73"/>
-      <c r="CI8" s="73"/>
-      <c r="CJ8" s="73"/>
+      <c r="BO8" s="56"/>
+      <c r="BR8" s="56"/>
+      <c r="BS8" s="57"/>
+      <c r="BT8" s="133"/>
+      <c r="BU8" s="133"/>
+      <c r="BV8" s="133"/>
+      <c r="BW8" s="133"/>
+      <c r="BX8" s="133"/>
+      <c r="BY8" s="133"/>
+      <c r="BZ8" s="133"/>
+      <c r="CA8" s="133"/>
+      <c r="CB8" s="133"/>
+      <c r="CC8" s="133"/>
+      <c r="CD8" s="133"/>
+      <c r="CE8" s="133"/>
+      <c r="CF8" s="133"/>
+      <c r="CG8" s="133"/>
+      <c r="CH8" s="133"/>
+      <c r="CI8" s="133"/>
+      <c r="CJ8" s="133"/>
     </row>
     <row r="9" spans="1:89" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
-      <c r="D9" s="128"/>
-      <c r="E9" s="127"/>
-      <c r="F9" s="126"/>
-      <c r="G9" s="126"/>
-      <c r="H9" s="128"/>
-      <c r="I9" s="127"/>
-      <c r="J9" s="126"/>
-      <c r="K9" s="126"/>
-      <c r="L9" s="126"/>
-      <c r="M9" s="126"/>
-      <c r="N9" s="128"/>
-      <c r="O9" s="127"/>
-      <c r="P9" s="126"/>
-      <c r="Q9" s="128"/>
-      <c r="R9" s="127"/>
-      <c r="S9" s="126"/>
-      <c r="T9" s="128"/>
-      <c r="U9" s="116"/>
+      <c r="D9" s="78"/>
+      <c r="E9" s="77"/>
+      <c r="F9" s="76"/>
+      <c r="G9" s="76"/>
+      <c r="H9" s="78"/>
+      <c r="I9" s="77"/>
+      <c r="J9" s="76"/>
+      <c r="K9" s="76"/>
+      <c r="L9" s="76"/>
+      <c r="M9" s="76"/>
+      <c r="N9" s="78"/>
+      <c r="O9" s="77"/>
+      <c r="P9" s="76"/>
+      <c r="Q9" s="78"/>
+      <c r="R9" s="77"/>
+      <c r="S9" s="76"/>
+      <c r="T9" s="78"/>
+      <c r="U9" s="69"/>
       <c r="Z9" s="6"/>
       <c r="AA9" s="6"/>
       <c r="AB9" s="6"/>
@@ -2455,8 +2500,8 @@
       <c r="AJ9" s="6"/>
       <c r="AK9" s="6"/>
       <c r="AL9" s="6"/>
-      <c r="AM9" s="117"/>
-      <c r="AN9" s="118"/>
+      <c r="AM9" s="70"/>
+      <c r="AN9" s="71"/>
       <c r="AQ9" s="6"/>
       <c r="AR9" s="6"/>
       <c r="AS9" s="6"/>
@@ -2465,41 +2510,41 @@
       <c r="AV9" s="6"/>
       <c r="AW9" s="6"/>
       <c r="AX9" s="6"/>
-      <c r="AY9" s="115"/>
+      <c r="AY9" s="68"/>
       <c r="AZ9" s="6"/>
-      <c r="BA9" s="117"/>
-      <c r="BB9" s="117"/>
-      <c r="BC9" s="117"/>
-      <c r="BD9" s="117"/>
-      <c r="BE9" s="117"/>
-      <c r="BF9" s="117"/>
+      <c r="BA9" s="70"/>
+      <c r="BB9" s="70"/>
+      <c r="BC9" s="70"/>
+      <c r="BD9" s="70"/>
+      <c r="BE9" s="70"/>
+      <c r="BF9" s="70"/>
       <c r="BG9" s="6"/>
-      <c r="BK9" s="61"/>
-      <c r="BL9" s="68"/>
-      <c r="BM9" s="65"/>
-      <c r="BN9" s="65"/>
-      <c r="BO9" s="69"/>
-      <c r="BP9" s="69"/>
-      <c r="BQ9" s="69"/>
-      <c r="BR9" s="69"/>
-      <c r="BS9" s="66"/>
-      <c r="BT9" s="123"/>
-      <c r="BU9" s="124"/>
-      <c r="BV9" s="124"/>
-      <c r="BW9" s="124"/>
-      <c r="BX9" s="124"/>
-      <c r="BY9" s="124"/>
-      <c r="BZ9" s="124"/>
-      <c r="CA9" s="124"/>
-      <c r="CB9" s="124"/>
-      <c r="CC9" s="124"/>
-      <c r="CD9" s="124"/>
-      <c r="CE9" s="124"/>
-      <c r="CF9" s="124"/>
-      <c r="CG9" s="124"/>
-      <c r="CH9" s="124"/>
-      <c r="CI9" s="124"/>
-      <c r="CJ9" s="125"/>
+      <c r="BK9" s="55"/>
+      <c r="BL9" s="62"/>
+      <c r="BM9" s="59"/>
+      <c r="BN9" s="59"/>
+      <c r="BO9" s="63"/>
+      <c r="BP9" s="63"/>
+      <c r="BQ9" s="63"/>
+      <c r="BR9" s="63"/>
+      <c r="BS9" s="60"/>
+      <c r="BT9" s="124"/>
+      <c r="BU9" s="125"/>
+      <c r="BV9" s="125"/>
+      <c r="BW9" s="125"/>
+      <c r="BX9" s="125"/>
+      <c r="BY9" s="125"/>
+      <c r="BZ9" s="125"/>
+      <c r="CA9" s="125"/>
+      <c r="CB9" s="125"/>
+      <c r="CC9" s="125"/>
+      <c r="CD9" s="125"/>
+      <c r="CE9" s="125"/>
+      <c r="CF9" s="125"/>
+      <c r="CG9" s="125"/>
+      <c r="CH9" s="125"/>
+      <c r="CI9" s="125"/>
+      <c r="CJ9" s="126"/>
     </row>
     <row r="10" spans="1:89" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="4"/>
@@ -2561,20 +2606,20 @@
       <c r="BI10" s="6"/>
       <c r="BJ10" s="6"/>
       <c r="BK10" s="6"/>
-      <c r="BL10" s="60"/>
+      <c r="BL10" s="54"/>
       <c r="BM10" s="6"/>
       <c r="BN10" s="6"/>
       <c r="BO10" s="6"/>
-      <c r="BP10" s="60"/>
-      <c r="BQ10" s="64"/>
-      <c r="BR10" s="60"/>
-      <c r="BS10" s="60"/>
-      <c r="BT10" s="67"/>
-      <c r="BU10" s="67"/>
-      <c r="BV10" s="67"/>
-      <c r="BW10" s="67"/>
-      <c r="BX10" s="67"/>
-      <c r="BY10" s="67"/>
+      <c r="BP10" s="54"/>
+      <c r="BQ10" s="58"/>
+      <c r="BR10" s="54"/>
+      <c r="BS10" s="54"/>
+      <c r="BT10" s="61"/>
+      <c r="BU10" s="61"/>
+      <c r="BV10" s="61"/>
+      <c r="BW10" s="61"/>
+      <c r="BX10" s="61"/>
+      <c r="BY10" s="61"/>
       <c r="BZ10" s="6"/>
       <c r="CA10" s="4"/>
       <c r="CB10" s="4"/>
@@ -2588,671 +2633,671 @@
       <c r="CJ10" s="6"/>
     </row>
     <row r="11" spans="1:89" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="77" t="s">
+      <c r="A11" s="116" t="s">
         <v>92</v>
       </c>
-      <c r="B11" s="77" t="s">
+      <c r="B11" s="116" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="78" t="s">
+      <c r="C11" s="127" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="81" t="s">
+      <c r="D11" s="100" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="81"/>
-      <c r="F11" s="81"/>
-      <c r="G11" s="81"/>
-      <c r="H11" s="82" t="s">
+      <c r="E11" s="100"/>
+      <c r="F11" s="100"/>
+      <c r="G11" s="100"/>
+      <c r="H11" s="130" t="s">
         <v>9</v>
       </c>
-      <c r="I11" s="83"/>
-      <c r="J11" s="84"/>
-      <c r="K11" s="81" t="s">
+      <c r="I11" s="131"/>
+      <c r="J11" s="132"/>
+      <c r="K11" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="L11" s="81"/>
-      <c r="M11" s="81"/>
-      <c r="N11" s="81"/>
-      <c r="O11" s="81" t="s">
+      <c r="L11" s="100"/>
+      <c r="M11" s="100"/>
+      <c r="N11" s="100"/>
+      <c r="O11" s="100" t="s">
         <v>11</v>
       </c>
-      <c r="P11" s="81"/>
-      <c r="Q11" s="81"/>
-      <c r="R11" s="81"/>
-      <c r="S11" s="81"/>
-      <c r="T11" s="81"/>
-      <c r="U11" s="81" t="s">
+      <c r="P11" s="100"/>
+      <c r="Q11" s="100"/>
+      <c r="R11" s="100"/>
+      <c r="S11" s="100"/>
+      <c r="T11" s="100"/>
+      <c r="U11" s="100" t="s">
         <v>12</v>
       </c>
-      <c r="V11" s="81"/>
-      <c r="W11" s="81"/>
-      <c r="X11" s="81"/>
-      <c r="Y11" s="81"/>
-      <c r="Z11" s="81"/>
-      <c r="AA11" s="81"/>
-      <c r="AB11" s="81"/>
-      <c r="AC11" s="81"/>
-      <c r="AD11" s="81"/>
-      <c r="AE11" s="81"/>
-      <c r="AF11" s="81"/>
-      <c r="AG11" s="81"/>
-      <c r="AH11" s="81"/>
-      <c r="AI11" s="81"/>
-      <c r="AJ11" s="81"/>
-      <c r="AK11" s="81"/>
-      <c r="AL11" s="81"/>
-      <c r="AM11" s="81"/>
-      <c r="AN11" s="81"/>
-      <c r="AO11" s="81"/>
-      <c r="AP11" s="81"/>
-      <c r="AQ11" s="81"/>
-      <c r="AR11" s="81"/>
-      <c r="AS11" s="77" t="s">
+      <c r="V11" s="100"/>
+      <c r="W11" s="100"/>
+      <c r="X11" s="100"/>
+      <c r="Y11" s="100"/>
+      <c r="Z11" s="100"/>
+      <c r="AA11" s="100"/>
+      <c r="AB11" s="100"/>
+      <c r="AC11" s="100"/>
+      <c r="AD11" s="100"/>
+      <c r="AE11" s="100"/>
+      <c r="AF11" s="100"/>
+      <c r="AG11" s="100"/>
+      <c r="AH11" s="100"/>
+      <c r="AI11" s="100"/>
+      <c r="AJ11" s="100"/>
+      <c r="AK11" s="100"/>
+      <c r="AL11" s="100"/>
+      <c r="AM11" s="100"/>
+      <c r="AN11" s="100"/>
+      <c r="AO11" s="100"/>
+      <c r="AP11" s="100"/>
+      <c r="AQ11" s="100"/>
+      <c r="AR11" s="100"/>
+      <c r="AS11" s="116" t="s">
         <v>13</v>
       </c>
-      <c r="AT11" s="77"/>
-      <c r="AU11" s="77"/>
-      <c r="AV11" s="77"/>
-      <c r="AW11" s="77"/>
-      <c r="AX11" s="77"/>
-      <c r="AY11" s="77"/>
-      <c r="AZ11" s="77"/>
-      <c r="BA11" s="77"/>
-      <c r="BB11" s="77"/>
-      <c r="BC11" s="77"/>
-      <c r="BD11" s="77"/>
-      <c r="BE11" s="77"/>
-      <c r="BF11" s="77"/>
-      <c r="BG11" s="77"/>
-      <c r="BH11" s="77"/>
-      <c r="BI11" s="77"/>
-      <c r="BJ11" s="81" t="s">
+      <c r="AT11" s="116"/>
+      <c r="AU11" s="116"/>
+      <c r="AV11" s="116"/>
+      <c r="AW11" s="116"/>
+      <c r="AX11" s="116"/>
+      <c r="AY11" s="116"/>
+      <c r="AZ11" s="116"/>
+      <c r="BA11" s="116"/>
+      <c r="BB11" s="116"/>
+      <c r="BC11" s="116"/>
+      <c r="BD11" s="116"/>
+      <c r="BE11" s="116"/>
+      <c r="BF11" s="116"/>
+      <c r="BG11" s="116"/>
+      <c r="BH11" s="116"/>
+      <c r="BI11" s="116"/>
+      <c r="BJ11" s="100" t="s">
         <v>14</v>
       </c>
-      <c r="BK11" s="81"/>
-      <c r="BL11" s="81"/>
-      <c r="BM11" s="81"/>
-      <c r="BN11" s="81"/>
-      <c r="BO11" s="81"/>
-      <c r="BP11" s="81"/>
-      <c r="BQ11" s="81"/>
-      <c r="BR11" s="81"/>
-      <c r="BS11" s="81"/>
-      <c r="BT11" s="81"/>
-      <c r="BU11" s="81"/>
-      <c r="BV11" s="81"/>
-      <c r="BW11" s="81"/>
-      <c r="BX11" s="81"/>
-      <c r="BY11" s="81"/>
-      <c r="BZ11" s="81"/>
-      <c r="CA11" s="81"/>
-      <c r="CB11" s="81"/>
-      <c r="CC11" s="81"/>
-      <c r="CD11" s="81"/>
-      <c r="CE11" s="81"/>
-      <c r="CF11" s="81"/>
-      <c r="CG11" s="81"/>
-      <c r="CH11" s="81"/>
-      <c r="CI11" s="81"/>
-      <c r="CJ11" s="81"/>
+      <c r="BK11" s="100"/>
+      <c r="BL11" s="100"/>
+      <c r="BM11" s="100"/>
+      <c r="BN11" s="100"/>
+      <c r="BO11" s="100"/>
+      <c r="BP11" s="100"/>
+      <c r="BQ11" s="100"/>
+      <c r="BR11" s="100"/>
+      <c r="BS11" s="100"/>
+      <c r="BT11" s="100"/>
+      <c r="BU11" s="100"/>
+      <c r="BV11" s="100"/>
+      <c r="BW11" s="100"/>
+      <c r="BX11" s="100"/>
+      <c r="BY11" s="100"/>
+      <c r="BZ11" s="100"/>
+      <c r="CA11" s="100"/>
+      <c r="CB11" s="100"/>
+      <c r="CC11" s="100"/>
+      <c r="CD11" s="100"/>
+      <c r="CE11" s="100"/>
+      <c r="CF11" s="100"/>
+      <c r="CG11" s="100"/>
+      <c r="CH11" s="100"/>
+      <c r="CI11" s="100"/>
+      <c r="CJ11" s="100"/>
     </row>
     <row r="12" spans="1:89" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="77"/>
-      <c r="B12" s="77"/>
-      <c r="C12" s="79"/>
-      <c r="D12" s="85" t="s">
+      <c r="A12" s="116"/>
+      <c r="B12" s="116"/>
+      <c r="C12" s="128"/>
+      <c r="D12" s="102" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="85" t="s">
+      <c r="E12" s="102" t="s">
         <v>16</v>
       </c>
-      <c r="F12" s="85" t="s">
+      <c r="F12" s="102" t="s">
         <v>17</v>
       </c>
-      <c r="G12" s="85" t="s">
+      <c r="G12" s="102" t="s">
         <v>18</v>
       </c>
-      <c r="H12" s="85" t="s">
+      <c r="H12" s="102" t="s">
         <v>19</v>
       </c>
-      <c r="I12" s="85" t="s">
+      <c r="I12" s="102" t="s">
         <v>20</v>
       </c>
-      <c r="J12" s="85" t="s">
+      <c r="J12" s="102" t="s">
         <v>21</v>
       </c>
-      <c r="K12" s="85" t="s">
+      <c r="K12" s="102" t="s">
         <v>22</v>
       </c>
-      <c r="L12" s="85" t="s">
+      <c r="L12" s="102" t="s">
         <v>23</v>
       </c>
-      <c r="M12" s="85" t="s">
+      <c r="M12" s="102" t="s">
         <v>24</v>
       </c>
-      <c r="N12" s="85" t="s">
+      <c r="N12" s="102" t="s">
         <v>25</v>
       </c>
-      <c r="O12" s="85" t="s">
+      <c r="O12" s="102" t="s">
         <v>26</v>
       </c>
-      <c r="P12" s="85" t="s">
+      <c r="P12" s="102" t="s">
         <v>22</v>
       </c>
-      <c r="Q12" s="85" t="s">
+      <c r="Q12" s="102" t="s">
         <v>27</v>
       </c>
-      <c r="R12" s="85" t="s">
+      <c r="R12" s="102" t="s">
         <v>23</v>
       </c>
-      <c r="S12" s="85" t="s">
+      <c r="S12" s="102" t="s">
         <v>24</v>
       </c>
-      <c r="T12" s="85" t="s">
+      <c r="T12" s="102" t="s">
         <v>28</v>
       </c>
-      <c r="U12" s="85" t="s">
+      <c r="U12" s="102" t="s">
         <v>29</v>
       </c>
-      <c r="V12" s="85" t="s">
+      <c r="V12" s="102" t="s">
         <v>30</v>
       </c>
-      <c r="W12" s="85" t="s">
+      <c r="W12" s="102" t="s">
         <v>31</v>
       </c>
-      <c r="X12" s="104" t="s">
+      <c r="X12" s="101" t="s">
         <v>32</v>
       </c>
-      <c r="Y12" s="85" t="s">
+      <c r="Y12" s="102" t="s">
         <v>33</v>
       </c>
-      <c r="Z12" s="85" t="s">
+      <c r="Z12" s="102" t="s">
         <v>34</v>
       </c>
-      <c r="AA12" s="85" t="s">
+      <c r="AA12" s="102" t="s">
         <v>35</v>
       </c>
-      <c r="AB12" s="93" t="s">
+      <c r="AB12" s="103" t="s">
         <v>36</v>
       </c>
-      <c r="AC12" s="94"/>
-      <c r="AD12" s="94"/>
-      <c r="AE12" s="95"/>
-      <c r="AF12" s="93" t="s">
+      <c r="AC12" s="104"/>
+      <c r="AD12" s="104"/>
+      <c r="AE12" s="105"/>
+      <c r="AF12" s="103" t="s">
         <v>37</v>
       </c>
-      <c r="AG12" s="94"/>
-      <c r="AH12" s="94"/>
-      <c r="AI12" s="94"/>
-      <c r="AJ12" s="95"/>
-      <c r="AK12" s="85" t="s">
+      <c r="AG12" s="104"/>
+      <c r="AH12" s="104"/>
+      <c r="AI12" s="104"/>
+      <c r="AJ12" s="105"/>
+      <c r="AK12" s="102" t="s">
         <v>38</v>
       </c>
-      <c r="AL12" s="100" t="s">
+      <c r="AL12" s="113" t="s">
         <v>39</v>
       </c>
-      <c r="AM12" s="105" t="s">
+      <c r="AM12" s="114" t="s">
         <v>40</v>
       </c>
-      <c r="AN12" s="105"/>
-      <c r="AO12" s="105"/>
-      <c r="AP12" s="106" t="s">
+      <c r="AN12" s="114"/>
+      <c r="AO12" s="114"/>
+      <c r="AP12" s="115" t="s">
         <v>41</v>
       </c>
-      <c r="AQ12" s="105" t="s">
+      <c r="AQ12" s="114" t="s">
         <v>42</v>
       </c>
-      <c r="AR12" s="105"/>
-      <c r="AS12" s="90" t="s">
+      <c r="AR12" s="114"/>
+      <c r="AS12" s="109" t="s">
         <v>43</v>
       </c>
-      <c r="AT12" s="77" t="s">
+      <c r="AT12" s="116" t="s">
         <v>44</v>
       </c>
-      <c r="AU12" s="77"/>
-      <c r="AV12" s="86" t="s">
+      <c r="AU12" s="116"/>
+      <c r="AV12" s="117" t="s">
         <v>45</v>
       </c>
-      <c r="AW12" s="87"/>
-      <c r="AX12" s="81" t="s">
+      <c r="AW12" s="118"/>
+      <c r="AX12" s="100" t="s">
         <v>46</v>
       </c>
-      <c r="AY12" s="81"/>
-      <c r="AZ12" s="81"/>
-      <c r="BA12" s="81"/>
-      <c r="BB12" s="81"/>
-      <c r="BC12" s="81"/>
-      <c r="BD12" s="81"/>
-      <c r="BE12" s="81"/>
-      <c r="BF12" s="81"/>
-      <c r="BG12" s="81"/>
-      <c r="BH12" s="81"/>
-      <c r="BI12" s="81"/>
-      <c r="BJ12" s="90" t="s">
+      <c r="AY12" s="100"/>
+      <c r="AZ12" s="100"/>
+      <c r="BA12" s="100"/>
+      <c r="BB12" s="100"/>
+      <c r="BC12" s="100"/>
+      <c r="BD12" s="100"/>
+      <c r="BE12" s="100"/>
+      <c r="BF12" s="100"/>
+      <c r="BG12" s="100"/>
+      <c r="BH12" s="100"/>
+      <c r="BI12" s="100"/>
+      <c r="BJ12" s="109" t="s">
         <v>43</v>
       </c>
-      <c r="BK12" s="77" t="s">
+      <c r="BK12" s="116" t="s">
         <v>44</v>
       </c>
-      <c r="BL12" s="77"/>
-      <c r="BM12" s="86" t="s">
+      <c r="BL12" s="116"/>
+      <c r="BM12" s="117" t="s">
         <v>45</v>
       </c>
-      <c r="BN12" s="87"/>
-      <c r="BO12" s="81" t="s">
+      <c r="BN12" s="118"/>
+      <c r="BO12" s="100" t="s">
         <v>46</v>
       </c>
-      <c r="BP12" s="81"/>
-      <c r="BQ12" s="81"/>
-      <c r="BR12" s="81"/>
-      <c r="BS12" s="81"/>
-      <c r="BT12" s="81"/>
-      <c r="BU12" s="81"/>
-      <c r="BV12" s="81"/>
-      <c r="BW12" s="81"/>
-      <c r="BX12" s="81"/>
-      <c r="BY12" s="81"/>
-      <c r="BZ12" s="81"/>
-      <c r="CA12" s="77" t="s">
+      <c r="BP12" s="100"/>
+      <c r="BQ12" s="100"/>
+      <c r="BR12" s="100"/>
+      <c r="BS12" s="100"/>
+      <c r="BT12" s="100"/>
+      <c r="BU12" s="100"/>
+      <c r="BV12" s="100"/>
+      <c r="BW12" s="100"/>
+      <c r="BX12" s="100"/>
+      <c r="BY12" s="100"/>
+      <c r="BZ12" s="100"/>
+      <c r="CA12" s="116" t="s">
         <v>47</v>
       </c>
-      <c r="CB12" s="77"/>
-      <c r="CC12" s="99" t="s">
+      <c r="CB12" s="116"/>
+      <c r="CC12" s="112" t="s">
         <v>48</v>
       </c>
-      <c r="CD12" s="81" t="s">
+      <c r="CD12" s="100" t="s">
         <v>49</v>
       </c>
-      <c r="CE12" s="81"/>
-      <c r="CF12" s="85" t="s">
+      <c r="CE12" s="100"/>
+      <c r="CF12" s="102" t="s">
         <v>50</v>
       </c>
-      <c r="CG12" s="85" t="s">
+      <c r="CG12" s="102" t="s">
         <v>51</v>
       </c>
-      <c r="CH12" s="100" t="s">
+      <c r="CH12" s="113" t="s">
         <v>52</v>
       </c>
-      <c r="CI12" s="101" t="s">
+      <c r="CI12" s="121" t="s">
         <v>53</v>
       </c>
-      <c r="CJ12" s="101" t="s">
+      <c r="CJ12" s="121" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:89" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="77"/>
-      <c r="B13" s="77"/>
-      <c r="C13" s="79"/>
-      <c r="D13" s="85"/>
-      <c r="E13" s="85"/>
-      <c r="F13" s="85"/>
-      <c r="G13" s="85"/>
-      <c r="H13" s="85"/>
-      <c r="I13" s="85"/>
-      <c r="J13" s="85"/>
-      <c r="K13" s="85"/>
-      <c r="L13" s="85"/>
-      <c r="M13" s="85"/>
-      <c r="N13" s="85"/>
-      <c r="O13" s="85"/>
-      <c r="P13" s="85"/>
-      <c r="Q13" s="85"/>
-      <c r="R13" s="85"/>
-      <c r="S13" s="85"/>
-      <c r="T13" s="85"/>
-      <c r="U13" s="85"/>
-      <c r="V13" s="85"/>
-      <c r="W13" s="85"/>
-      <c r="X13" s="104"/>
-      <c r="Y13" s="85"/>
-      <c r="Z13" s="85"/>
-      <c r="AA13" s="85"/>
-      <c r="AB13" s="96"/>
-      <c r="AC13" s="97"/>
-      <c r="AD13" s="97"/>
-      <c r="AE13" s="98"/>
-      <c r="AF13" s="96"/>
-      <c r="AG13" s="97"/>
-      <c r="AH13" s="97"/>
-      <c r="AI13" s="97"/>
-      <c r="AJ13" s="98"/>
-      <c r="AK13" s="85"/>
-      <c r="AL13" s="100"/>
-      <c r="AM13" s="105"/>
-      <c r="AN13" s="105"/>
-      <c r="AO13" s="105"/>
-      <c r="AP13" s="106"/>
-      <c r="AQ13" s="105"/>
-      <c r="AR13" s="105"/>
-      <c r="AS13" s="91"/>
-      <c r="AT13" s="77"/>
-      <c r="AU13" s="77"/>
-      <c r="AV13" s="88"/>
-      <c r="AW13" s="89"/>
-      <c r="AX13" s="81" t="s">
+      <c r="A13" s="116"/>
+      <c r="B13" s="116"/>
+      <c r="C13" s="128"/>
+      <c r="D13" s="102"/>
+      <c r="E13" s="102"/>
+      <c r="F13" s="102"/>
+      <c r="G13" s="102"/>
+      <c r="H13" s="102"/>
+      <c r="I13" s="102"/>
+      <c r="J13" s="102"/>
+      <c r="K13" s="102"/>
+      <c r="L13" s="102"/>
+      <c r="M13" s="102"/>
+      <c r="N13" s="102"/>
+      <c r="O13" s="102"/>
+      <c r="P13" s="102"/>
+      <c r="Q13" s="102"/>
+      <c r="R13" s="102"/>
+      <c r="S13" s="102"/>
+      <c r="T13" s="102"/>
+      <c r="U13" s="102"/>
+      <c r="V13" s="102"/>
+      <c r="W13" s="102"/>
+      <c r="X13" s="101"/>
+      <c r="Y13" s="102"/>
+      <c r="Z13" s="102"/>
+      <c r="AA13" s="102"/>
+      <c r="AB13" s="106"/>
+      <c r="AC13" s="107"/>
+      <c r="AD13" s="107"/>
+      <c r="AE13" s="108"/>
+      <c r="AF13" s="106"/>
+      <c r="AG13" s="107"/>
+      <c r="AH13" s="107"/>
+      <c r="AI13" s="107"/>
+      <c r="AJ13" s="108"/>
+      <c r="AK13" s="102"/>
+      <c r="AL13" s="113"/>
+      <c r="AM13" s="114"/>
+      <c r="AN13" s="114"/>
+      <c r="AO13" s="114"/>
+      <c r="AP13" s="115"/>
+      <c r="AQ13" s="114"/>
+      <c r="AR13" s="114"/>
+      <c r="AS13" s="110"/>
+      <c r="AT13" s="116"/>
+      <c r="AU13" s="116"/>
+      <c r="AV13" s="119"/>
+      <c r="AW13" s="120"/>
+      <c r="AX13" s="100" t="s">
         <v>55</v>
       </c>
-      <c r="AY13" s="81"/>
-      <c r="AZ13" s="81"/>
-      <c r="BA13" s="81"/>
-      <c r="BB13" s="81" t="s">
+      <c r="AY13" s="100"/>
+      <c r="AZ13" s="100"/>
+      <c r="BA13" s="100"/>
+      <c r="BB13" s="100" t="s">
         <v>56</v>
       </c>
-      <c r="BC13" s="81"/>
-      <c r="BD13" s="81"/>
-      <c r="BE13" s="81"/>
-      <c r="BF13" s="81"/>
-      <c r="BG13" s="81"/>
-      <c r="BH13" s="81"/>
-      <c r="BI13" s="81"/>
-      <c r="BJ13" s="91"/>
-      <c r="BK13" s="77"/>
-      <c r="BL13" s="77"/>
-      <c r="BM13" s="88"/>
-      <c r="BN13" s="89"/>
-      <c r="BO13" s="81" t="s">
+      <c r="BC13" s="100"/>
+      <c r="BD13" s="100"/>
+      <c r="BE13" s="100"/>
+      <c r="BF13" s="100"/>
+      <c r="BG13" s="100"/>
+      <c r="BH13" s="100"/>
+      <c r="BI13" s="100"/>
+      <c r="BJ13" s="110"/>
+      <c r="BK13" s="116"/>
+      <c r="BL13" s="116"/>
+      <c r="BM13" s="119"/>
+      <c r="BN13" s="120"/>
+      <c r="BO13" s="100" t="s">
         <v>55</v>
       </c>
-      <c r="BP13" s="81"/>
-      <c r="BQ13" s="81"/>
-      <c r="BR13" s="81"/>
-      <c r="BS13" s="81" t="s">
+      <c r="BP13" s="100"/>
+      <c r="BQ13" s="100"/>
+      <c r="BR13" s="100"/>
+      <c r="BS13" s="100" t="s">
         <v>56</v>
       </c>
-      <c r="BT13" s="81"/>
-      <c r="BU13" s="81"/>
-      <c r="BV13" s="81"/>
-      <c r="BW13" s="81"/>
-      <c r="BX13" s="81"/>
-      <c r="BY13" s="81"/>
-      <c r="BZ13" s="81"/>
-      <c r="CA13" s="77"/>
-      <c r="CB13" s="77"/>
-      <c r="CC13" s="99"/>
-      <c r="CD13" s="85" t="s">
+      <c r="BT13" s="100"/>
+      <c r="BU13" s="100"/>
+      <c r="BV13" s="100"/>
+      <c r="BW13" s="100"/>
+      <c r="BX13" s="100"/>
+      <c r="BY13" s="100"/>
+      <c r="BZ13" s="100"/>
+      <c r="CA13" s="116"/>
+      <c r="CB13" s="116"/>
+      <c r="CC13" s="112"/>
+      <c r="CD13" s="102" t="s">
         <v>57</v>
       </c>
-      <c r="CE13" s="85" t="s">
+      <c r="CE13" s="102" t="s">
         <v>58</v>
       </c>
-      <c r="CF13" s="85"/>
-      <c r="CG13" s="85"/>
-      <c r="CH13" s="100"/>
-      <c r="CI13" s="102"/>
-      <c r="CJ13" s="102"/>
+      <c r="CF13" s="102"/>
+      <c r="CG13" s="102"/>
+      <c r="CH13" s="113"/>
+      <c r="CI13" s="122"/>
+      <c r="CJ13" s="122"/>
     </row>
     <row r="14" spans="1:89" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="77"/>
-      <c r="B14" s="77"/>
-      <c r="C14" s="79"/>
-      <c r="D14" s="85"/>
-      <c r="E14" s="85"/>
-      <c r="F14" s="85"/>
-      <c r="G14" s="85"/>
-      <c r="H14" s="85"/>
-      <c r="I14" s="85"/>
-      <c r="J14" s="85"/>
-      <c r="K14" s="85"/>
-      <c r="L14" s="85"/>
-      <c r="M14" s="85"/>
-      <c r="N14" s="85"/>
-      <c r="O14" s="85"/>
-      <c r="P14" s="85"/>
-      <c r="Q14" s="85"/>
-      <c r="R14" s="85"/>
-      <c r="S14" s="85"/>
-      <c r="T14" s="85"/>
-      <c r="U14" s="85"/>
-      <c r="V14" s="85"/>
-      <c r="W14" s="85"/>
-      <c r="X14" s="104"/>
-      <c r="Y14" s="85"/>
-      <c r="Z14" s="85"/>
-      <c r="AA14" s="85"/>
-      <c r="AB14" s="90">
-        <v>0</v>
-      </c>
-      <c r="AC14" s="90">
+      <c r="A14" s="116"/>
+      <c r="B14" s="116"/>
+      <c r="C14" s="128"/>
+      <c r="D14" s="102"/>
+      <c r="E14" s="102"/>
+      <c r="F14" s="102"/>
+      <c r="G14" s="102"/>
+      <c r="H14" s="102"/>
+      <c r="I14" s="102"/>
+      <c r="J14" s="102"/>
+      <c r="K14" s="102"/>
+      <c r="L14" s="102"/>
+      <c r="M14" s="102"/>
+      <c r="N14" s="102"/>
+      <c r="O14" s="102"/>
+      <c r="P14" s="102"/>
+      <c r="Q14" s="102"/>
+      <c r="R14" s="102"/>
+      <c r="S14" s="102"/>
+      <c r="T14" s="102"/>
+      <c r="U14" s="102"/>
+      <c r="V14" s="102"/>
+      <c r="W14" s="102"/>
+      <c r="X14" s="101"/>
+      <c r="Y14" s="102"/>
+      <c r="Z14" s="102"/>
+      <c r="AA14" s="102"/>
+      <c r="AB14" s="109">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="109">
         <v>1</v>
       </c>
-      <c r="AD14" s="90">
+      <c r="AD14" s="109">
         <v>2</v>
       </c>
-      <c r="AE14" s="90">
+      <c r="AE14" s="109">
         <v>3</v>
       </c>
-      <c r="AF14" s="90">
-        <v>0</v>
-      </c>
-      <c r="AG14" s="90">
+      <c r="AF14" s="109">
+        <v>0</v>
+      </c>
+      <c r="AG14" s="109">
         <v>1</v>
       </c>
-      <c r="AH14" s="90">
+      <c r="AH14" s="109">
         <v>2</v>
       </c>
-      <c r="AI14" s="90">
+      <c r="AI14" s="109">
         <v>3</v>
       </c>
-      <c r="AJ14" s="90">
+      <c r="AJ14" s="109">
         <v>4</v>
       </c>
-      <c r="AK14" s="85"/>
-      <c r="AL14" s="100"/>
-      <c r="AM14" s="104" t="s">
+      <c r="AK14" s="102"/>
+      <c r="AL14" s="113"/>
+      <c r="AM14" s="101" t="s">
         <v>59</v>
       </c>
-      <c r="AN14" s="104" t="s">
+      <c r="AN14" s="101" t="s">
         <v>60</v>
       </c>
-      <c r="AO14" s="104" t="s">
+      <c r="AO14" s="101" t="s">
         <v>61</v>
       </c>
-      <c r="AP14" s="106"/>
-      <c r="AQ14" s="104" t="s">
+      <c r="AP14" s="115"/>
+      <c r="AQ14" s="101" t="s">
         <v>62</v>
       </c>
-      <c r="AR14" s="104" t="s">
+      <c r="AR14" s="101" t="s">
         <v>63</v>
       </c>
-      <c r="AS14" s="91"/>
-      <c r="AT14" s="99" t="s">
+      <c r="AS14" s="110"/>
+      <c r="AT14" s="112" t="s">
         <v>62</v>
       </c>
-      <c r="AU14" s="85" t="s">
+      <c r="AU14" s="102" t="s">
         <v>64</v>
       </c>
-      <c r="AV14" s="99" t="s">
+      <c r="AV14" s="112" t="s">
         <v>62</v>
       </c>
-      <c r="AW14" s="85" t="s">
+      <c r="AW14" s="102" t="s">
         <v>64</v>
       </c>
-      <c r="AX14" s="81" t="s">
+      <c r="AX14" s="100" t="s">
         <v>65</v>
       </c>
-      <c r="AY14" s="81"/>
-      <c r="AZ14" s="81"/>
-      <c r="BA14" s="81"/>
-      <c r="BB14" s="81" t="s">
+      <c r="AY14" s="100"/>
+      <c r="AZ14" s="100"/>
+      <c r="BA14" s="100"/>
+      <c r="BB14" s="100" t="s">
         <v>65</v>
       </c>
-      <c r="BC14" s="81"/>
-      <c r="BD14" s="81"/>
-      <c r="BE14" s="81"/>
-      <c r="BF14" s="81" t="s">
+      <c r="BC14" s="100"/>
+      <c r="BD14" s="100"/>
+      <c r="BE14" s="100"/>
+      <c r="BF14" s="100" t="s">
         <v>66</v>
       </c>
-      <c r="BG14" s="81"/>
-      <c r="BH14" s="81"/>
-      <c r="BI14" s="81"/>
-      <c r="BJ14" s="91"/>
-      <c r="BK14" s="99" t="s">
+      <c r="BG14" s="100"/>
+      <c r="BH14" s="100"/>
+      <c r="BI14" s="100"/>
+      <c r="BJ14" s="110"/>
+      <c r="BK14" s="112" t="s">
         <v>62</v>
       </c>
-      <c r="BL14" s="85" t="s">
+      <c r="BL14" s="102" t="s">
         <v>64</v>
       </c>
-      <c r="BM14" s="99" t="s">
+      <c r="BM14" s="112" t="s">
         <v>62</v>
       </c>
-      <c r="BN14" s="85" t="s">
+      <c r="BN14" s="102" t="s">
         <v>64</v>
       </c>
-      <c r="BO14" s="81" t="s">
+      <c r="BO14" s="100" t="s">
         <v>65</v>
       </c>
-      <c r="BP14" s="81"/>
-      <c r="BQ14" s="81"/>
-      <c r="BR14" s="81"/>
-      <c r="BS14" s="81" t="s">
+      <c r="BP14" s="100"/>
+      <c r="BQ14" s="100"/>
+      <c r="BR14" s="100"/>
+      <c r="BS14" s="100" t="s">
         <v>65</v>
       </c>
-      <c r="BT14" s="81"/>
-      <c r="BU14" s="81"/>
-      <c r="BV14" s="81"/>
-      <c r="BW14" s="81" t="s">
+      <c r="BT14" s="100"/>
+      <c r="BU14" s="100"/>
+      <c r="BV14" s="100"/>
+      <c r="BW14" s="100" t="s">
         <v>66</v>
       </c>
-      <c r="BX14" s="81"/>
-      <c r="BY14" s="81"/>
-      <c r="BZ14" s="81"/>
-      <c r="CA14" s="77"/>
-      <c r="CB14" s="77"/>
-      <c r="CC14" s="99"/>
-      <c r="CD14" s="85"/>
-      <c r="CE14" s="85"/>
-      <c r="CF14" s="85"/>
-      <c r="CG14" s="85"/>
-      <c r="CH14" s="100"/>
-      <c r="CI14" s="102"/>
-      <c r="CJ14" s="102"/>
+      <c r="BX14" s="100"/>
+      <c r="BY14" s="100"/>
+      <c r="BZ14" s="100"/>
+      <c r="CA14" s="116"/>
+      <c r="CB14" s="116"/>
+      <c r="CC14" s="112"/>
+      <c r="CD14" s="102"/>
+      <c r="CE14" s="102"/>
+      <c r="CF14" s="102"/>
+      <c r="CG14" s="102"/>
+      <c r="CH14" s="113"/>
+      <c r="CI14" s="122"/>
+      <c r="CJ14" s="122"/>
       <c r="CK14" s="7"/>
     </row>
     <row r="15" spans="1:89" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="77"/>
-      <c r="B15" s="77"/>
-      <c r="C15" s="79"/>
-      <c r="D15" s="85"/>
-      <c r="E15" s="85"/>
-      <c r="F15" s="85"/>
-      <c r="G15" s="85"/>
-      <c r="H15" s="85"/>
-      <c r="I15" s="85"/>
-      <c r="J15" s="85"/>
-      <c r="K15" s="85"/>
-      <c r="L15" s="85"/>
-      <c r="M15" s="85"/>
-      <c r="N15" s="85"/>
-      <c r="O15" s="85"/>
-      <c r="P15" s="85"/>
-      <c r="Q15" s="85"/>
-      <c r="R15" s="85"/>
-      <c r="S15" s="85"/>
-      <c r="T15" s="85"/>
-      <c r="U15" s="85"/>
-      <c r="V15" s="85"/>
-      <c r="W15" s="85"/>
-      <c r="X15" s="104"/>
-      <c r="Y15" s="85"/>
-      <c r="Z15" s="85"/>
-      <c r="AA15" s="85"/>
-      <c r="AB15" s="91"/>
-      <c r="AC15" s="91"/>
-      <c r="AD15" s="91"/>
-      <c r="AE15" s="91"/>
-      <c r="AF15" s="91"/>
-      <c r="AG15" s="91"/>
-      <c r="AH15" s="91"/>
-      <c r="AI15" s="91"/>
-      <c r="AJ15" s="91"/>
-      <c r="AK15" s="85"/>
-      <c r="AL15" s="100"/>
-      <c r="AM15" s="104"/>
-      <c r="AN15" s="104"/>
-      <c r="AO15" s="104"/>
-      <c r="AP15" s="106"/>
-      <c r="AQ15" s="104"/>
-      <c r="AR15" s="104"/>
-      <c r="AS15" s="91"/>
-      <c r="AT15" s="99"/>
-      <c r="AU15" s="85"/>
-      <c r="AV15" s="99"/>
-      <c r="AW15" s="85"/>
-      <c r="AX15" s="81" t="s">
+      <c r="A15" s="116"/>
+      <c r="B15" s="116"/>
+      <c r="C15" s="128"/>
+      <c r="D15" s="102"/>
+      <c r="E15" s="102"/>
+      <c r="F15" s="102"/>
+      <c r="G15" s="102"/>
+      <c r="H15" s="102"/>
+      <c r="I15" s="102"/>
+      <c r="J15" s="102"/>
+      <c r="K15" s="102"/>
+      <c r="L15" s="102"/>
+      <c r="M15" s="102"/>
+      <c r="N15" s="102"/>
+      <c r="O15" s="102"/>
+      <c r="P15" s="102"/>
+      <c r="Q15" s="102"/>
+      <c r="R15" s="102"/>
+      <c r="S15" s="102"/>
+      <c r="T15" s="102"/>
+      <c r="U15" s="102"/>
+      <c r="V15" s="102"/>
+      <c r="W15" s="102"/>
+      <c r="X15" s="101"/>
+      <c r="Y15" s="102"/>
+      <c r="Z15" s="102"/>
+      <c r="AA15" s="102"/>
+      <c r="AB15" s="110"/>
+      <c r="AC15" s="110"/>
+      <c r="AD15" s="110"/>
+      <c r="AE15" s="110"/>
+      <c r="AF15" s="110"/>
+      <c r="AG15" s="110"/>
+      <c r="AH15" s="110"/>
+      <c r="AI15" s="110"/>
+      <c r="AJ15" s="110"/>
+      <c r="AK15" s="102"/>
+      <c r="AL15" s="113"/>
+      <c r="AM15" s="101"/>
+      <c r="AN15" s="101"/>
+      <c r="AO15" s="101"/>
+      <c r="AP15" s="115"/>
+      <c r="AQ15" s="101"/>
+      <c r="AR15" s="101"/>
+      <c r="AS15" s="110"/>
+      <c r="AT15" s="112"/>
+      <c r="AU15" s="102"/>
+      <c r="AV15" s="112"/>
+      <c r="AW15" s="102"/>
+      <c r="AX15" s="100" t="s">
         <v>67</v>
       </c>
-      <c r="AY15" s="81"/>
-      <c r="AZ15" s="81" t="s">
+      <c r="AY15" s="100"/>
+      <c r="AZ15" s="100" t="s">
         <v>68</v>
       </c>
-      <c r="BA15" s="81"/>
-      <c r="BB15" s="81" t="s">
+      <c r="BA15" s="100"/>
+      <c r="BB15" s="100" t="s">
         <v>67</v>
       </c>
-      <c r="BC15" s="81"/>
-      <c r="BD15" s="81" t="s">
+      <c r="BC15" s="100"/>
+      <c r="BD15" s="100" t="s">
         <v>68</v>
       </c>
-      <c r="BE15" s="81"/>
-      <c r="BF15" s="81" t="s">
+      <c r="BE15" s="100"/>
+      <c r="BF15" s="100" t="s">
         <v>67</v>
       </c>
-      <c r="BG15" s="81"/>
-      <c r="BH15" s="81" t="s">
+      <c r="BG15" s="100"/>
+      <c r="BH15" s="100" t="s">
         <v>68</v>
       </c>
-      <c r="BI15" s="81"/>
-      <c r="BJ15" s="91"/>
-      <c r="BK15" s="99"/>
-      <c r="BL15" s="85"/>
-      <c r="BM15" s="99"/>
-      <c r="BN15" s="85"/>
-      <c r="BO15" s="81" t="s">
+      <c r="BI15" s="100"/>
+      <c r="BJ15" s="110"/>
+      <c r="BK15" s="112"/>
+      <c r="BL15" s="102"/>
+      <c r="BM15" s="112"/>
+      <c r="BN15" s="102"/>
+      <c r="BO15" s="100" t="s">
         <v>67</v>
       </c>
-      <c r="BP15" s="81"/>
-      <c r="BQ15" s="81" t="s">
+      <c r="BP15" s="100"/>
+      <c r="BQ15" s="100" t="s">
         <v>68</v>
       </c>
-      <c r="BR15" s="81"/>
-      <c r="BS15" s="81" t="s">
+      <c r="BR15" s="100"/>
+      <c r="BS15" s="100" t="s">
         <v>67</v>
       </c>
-      <c r="BT15" s="81"/>
-      <c r="BU15" s="81" t="s">
+      <c r="BT15" s="100"/>
+      <c r="BU15" s="100" t="s">
         <v>68</v>
       </c>
-      <c r="BV15" s="81"/>
-      <c r="BW15" s="81" t="s">
+      <c r="BV15" s="100"/>
+      <c r="BW15" s="100" t="s">
         <v>67</v>
       </c>
-      <c r="BX15" s="81"/>
-      <c r="BY15" s="81" t="s">
+      <c r="BX15" s="100"/>
+      <c r="BY15" s="100" t="s">
         <v>68</v>
       </c>
-      <c r="BZ15" s="81"/>
-      <c r="CA15" s="77"/>
-      <c r="CB15" s="77"/>
-      <c r="CC15" s="99"/>
-      <c r="CD15" s="85"/>
-      <c r="CE15" s="85"/>
-      <c r="CF15" s="85"/>
-      <c r="CG15" s="85"/>
-      <c r="CH15" s="100"/>
-      <c r="CI15" s="102"/>
-      <c r="CJ15" s="102"/>
+      <c r="BZ15" s="100"/>
+      <c r="CA15" s="116"/>
+      <c r="CB15" s="116"/>
+      <c r="CC15" s="112"/>
+      <c r="CD15" s="102"/>
+      <c r="CE15" s="102"/>
+      <c r="CF15" s="102"/>
+      <c r="CG15" s="102"/>
+      <c r="CH15" s="113"/>
+      <c r="CI15" s="122"/>
+      <c r="CJ15" s="122"/>
       <c r="CK15" s="7"/>
     </row>
     <row r="16" spans="1:89" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="77"/>
-      <c r="B16" s="77"/>
-      <c r="C16" s="80"/>
-      <c r="D16" s="85"/>
-      <c r="E16" s="85"/>
-      <c r="F16" s="85"/>
-      <c r="G16" s="85"/>
+      <c r="A16" s="116"/>
+      <c r="B16" s="116"/>
+      <c r="C16" s="129"/>
+      <c r="D16" s="102"/>
+      <c r="E16" s="102"/>
+      <c r="F16" s="102"/>
+      <c r="G16" s="102"/>
       <c r="H16" s="8" t="s">
         <v>69</v>
       </c>
@@ -3271,7 +3316,7 @@
       <c r="M16" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="N16" s="85"/>
+      <c r="N16" s="102"/>
       <c r="O16" s="8" t="s">
         <v>71</v>
       </c>
@@ -3287,36 +3332,36 @@
       <c r="S16" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="T16" s="85"/>
-      <c r="U16" s="85"/>
-      <c r="V16" s="85"/>
-      <c r="W16" s="85"/>
-      <c r="X16" s="104"/>
-      <c r="Y16" s="85"/>
-      <c r="Z16" s="85"/>
-      <c r="AA16" s="85"/>
-      <c r="AB16" s="92"/>
-      <c r="AC16" s="92"/>
-      <c r="AD16" s="92"/>
-      <c r="AE16" s="92"/>
-      <c r="AF16" s="92"/>
-      <c r="AG16" s="92"/>
-      <c r="AH16" s="92"/>
-      <c r="AI16" s="92"/>
-      <c r="AJ16" s="92"/>
-      <c r="AK16" s="85"/>
-      <c r="AL16" s="100"/>
-      <c r="AM16" s="104"/>
-      <c r="AN16" s="104"/>
-      <c r="AO16" s="104"/>
-      <c r="AP16" s="106"/>
-      <c r="AQ16" s="104"/>
-      <c r="AR16" s="104"/>
-      <c r="AS16" s="92"/>
-      <c r="AT16" s="99"/>
-      <c r="AU16" s="85"/>
-      <c r="AV16" s="99"/>
-      <c r="AW16" s="85"/>
+      <c r="T16" s="102"/>
+      <c r="U16" s="102"/>
+      <c r="V16" s="102"/>
+      <c r="W16" s="102"/>
+      <c r="X16" s="101"/>
+      <c r="Y16" s="102"/>
+      <c r="Z16" s="102"/>
+      <c r="AA16" s="102"/>
+      <c r="AB16" s="111"/>
+      <c r="AC16" s="111"/>
+      <c r="AD16" s="111"/>
+      <c r="AE16" s="111"/>
+      <c r="AF16" s="111"/>
+      <c r="AG16" s="111"/>
+      <c r="AH16" s="111"/>
+      <c r="AI16" s="111"/>
+      <c r="AJ16" s="111"/>
+      <c r="AK16" s="102"/>
+      <c r="AL16" s="113"/>
+      <c r="AM16" s="101"/>
+      <c r="AN16" s="101"/>
+      <c r="AO16" s="101"/>
+      <c r="AP16" s="115"/>
+      <c r="AQ16" s="101"/>
+      <c r="AR16" s="101"/>
+      <c r="AS16" s="111"/>
+      <c r="AT16" s="112"/>
+      <c r="AU16" s="102"/>
+      <c r="AV16" s="112"/>
+      <c r="AW16" s="102"/>
       <c r="AX16" s="8" t="s">
         <v>79</v>
       </c>
@@ -3353,11 +3398,11 @@
       <c r="BI16" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="BJ16" s="92"/>
-      <c r="BK16" s="99"/>
-      <c r="BL16" s="85"/>
-      <c r="BM16" s="99"/>
-      <c r="BN16" s="85"/>
+      <c r="BJ16" s="111"/>
+      <c r="BK16" s="112"/>
+      <c r="BL16" s="102"/>
+      <c r="BM16" s="112"/>
+      <c r="BN16" s="102"/>
       <c r="BO16" s="8" t="s">
         <v>79</v>
       </c>
@@ -3400,14 +3445,14 @@
       <c r="CB16" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="CC16" s="99"/>
-      <c r="CD16" s="85"/>
-      <c r="CE16" s="85"/>
-      <c r="CF16" s="85"/>
-      <c r="CG16" s="85"/>
-      <c r="CH16" s="100"/>
-      <c r="CI16" s="103"/>
-      <c r="CJ16" s="103"/>
+      <c r="CC16" s="112"/>
+      <c r="CD16" s="102"/>
+      <c r="CE16" s="102"/>
+      <c r="CF16" s="102"/>
+      <c r="CG16" s="102"/>
+      <c r="CH16" s="113"/>
+      <c r="CI16" s="123"/>
+      <c r="CJ16" s="123"/>
       <c r="CK16" s="7"/>
     </row>
     <row r="17" spans="1:89" s="11" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -3678,7 +3723,7 @@
       <c r="CK17" s="10"/>
     </row>
     <row r="18" spans="1:89" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="107" t="s">
+      <c r="A18" s="93" t="s">
         <v>93</v>
       </c>
       <c r="B18" s="12" t="s">
@@ -3695,13 +3740,19 @@
       <c r="K18" s="13"/>
       <c r="L18" s="13"/>
       <c r="M18" s="13"/>
-      <c r="N18" s="14"/>
+      <c r="N18" s="86">
+        <f>SUM(K18:M18)</f>
+        <v>0</v>
+      </c>
       <c r="O18" s="13"/>
       <c r="P18" s="13"/>
       <c r="Q18" s="13"/>
       <c r="R18" s="13"/>
       <c r="S18" s="13"/>
-      <c r="T18" s="14"/>
+      <c r="T18" s="86">
+        <f>SUM(P18:S18)</f>
+        <v>0</v>
+      </c>
       <c r="U18" s="13"/>
       <c r="V18" s="13"/>
       <c r="W18" s="13"/>
@@ -3713,17 +3764,17 @@
       <c r="AC18" s="13"/>
       <c r="AD18" s="13"/>
       <c r="AE18" s="13"/>
-      <c r="AF18" s="37"/>
-      <c r="AG18" s="37"/>
-      <c r="AH18" s="37"/>
-      <c r="AI18" s="37"/>
-      <c r="AJ18" s="37"/>
+      <c r="AF18" s="33"/>
+      <c r="AG18" s="33"/>
+      <c r="AH18" s="33"/>
+      <c r="AI18" s="33"/>
+      <c r="AJ18" s="33"/>
       <c r="AK18" s="13"/>
       <c r="AL18" s="13"/>
       <c r="AM18" s="13"/>
-      <c r="AN18" s="15"/>
-      <c r="AO18" s="15"/>
-      <c r="AP18" s="15"/>
+      <c r="AN18" s="14"/>
+      <c r="AO18" s="14"/>
+      <c r="AP18" s="14"/>
       <c r="AQ18" s="13"/>
       <c r="AR18" s="13"/>
       <c r="AS18" s="13"/>
@@ -3760,395 +3811,686 @@
       <c r="BX18" s="13"/>
       <c r="BY18" s="13"/>
       <c r="BZ18" s="13"/>
-      <c r="CA18" s="14"/>
-      <c r="CB18" s="14"/>
-      <c r="CC18" s="16"/>
+      <c r="CA18" s="86">
+        <f>BY18+BW18+BU18+BS18+BQ18+BO18</f>
+        <v>0</v>
+      </c>
+      <c r="CB18" s="86">
+        <f>BZ18+BX18+BV18+BT18+BR18+BP18</f>
+        <v>0</v>
+      </c>
+      <c r="CC18" s="15"/>
       <c r="CD18" s="13"/>
       <c r="CE18" s="13"/>
       <c r="CF18" s="13"/>
       <c r="CG18" s="13"/>
       <c r="CH18" s="13"/>
-      <c r="CI18" s="16"/>
-      <c r="CJ18" s="17"/>
-      <c r="CK18" s="18"/>
+      <c r="CI18" s="15" t="e">
+        <f>CH18/F18</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="CJ18" s="16"/>
+      <c r="CK18" s="17"/>
     </row>
     <row r="19" spans="1:89" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="108"/>
-      <c r="B19" s="19" t="s">
+      <c r="A19" s="94"/>
+      <c r="B19" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="20"/>
-      <c r="J19" s="20"/>
-      <c r="K19" s="20"/>
-      <c r="L19" s="20"/>
-      <c r="M19" s="20"/>
-      <c r="N19" s="21"/>
-      <c r="O19" s="20"/>
-      <c r="P19" s="20"/>
-      <c r="Q19" s="20"/>
-      <c r="R19" s="20"/>
-      <c r="S19" s="20"/>
-      <c r="T19" s="21"/>
-      <c r="U19" s="20"/>
-      <c r="V19" s="20"/>
-      <c r="W19" s="20"/>
-      <c r="X19" s="20"/>
-      <c r="Y19" s="20"/>
-      <c r="Z19" s="20"/>
-      <c r="AA19" s="20"/>
-      <c r="AB19" s="20"/>
-      <c r="AC19" s="20"/>
-      <c r="AD19" s="20"/>
-      <c r="AE19" s="20"/>
-      <c r="AF19" s="39"/>
-      <c r="AG19" s="39"/>
-      <c r="AH19" s="39"/>
-      <c r="AI19" s="39"/>
-      <c r="AJ19" s="39"/>
-      <c r="AK19" s="20"/>
-      <c r="AL19" s="20"/>
-      <c r="AM19" s="20"/>
-      <c r="AN19" s="22"/>
-      <c r="AO19" s="22"/>
-      <c r="AP19" s="22"/>
-      <c r="AQ19" s="20"/>
-      <c r="AR19" s="20"/>
-      <c r="AS19" s="20"/>
-      <c r="AT19" s="20"/>
-      <c r="AU19" s="20"/>
-      <c r="AV19" s="20"/>
-      <c r="AW19" s="20"/>
-      <c r="AX19" s="20"/>
-      <c r="AY19" s="20"/>
-      <c r="AZ19" s="20"/>
-      <c r="BA19" s="20"/>
-      <c r="BB19" s="20"/>
-      <c r="BC19" s="20"/>
-      <c r="BD19" s="20"/>
-      <c r="BE19" s="20"/>
-      <c r="BF19" s="20"/>
-      <c r="BG19" s="20"/>
-      <c r="BH19" s="20"/>
-      <c r="BI19" s="20"/>
-      <c r="BJ19" s="20"/>
-      <c r="BK19" s="20"/>
-      <c r="BL19" s="20"/>
-      <c r="BM19" s="20"/>
-      <c r="BN19" s="20"/>
-      <c r="BO19" s="20"/>
-      <c r="BP19" s="20"/>
-      <c r="BQ19" s="20"/>
-      <c r="BR19" s="20"/>
-      <c r="BS19" s="20"/>
-      <c r="BT19" s="20"/>
-      <c r="BU19" s="20"/>
-      <c r="BV19" s="20"/>
-      <c r="BW19" s="20"/>
-      <c r="BX19" s="20"/>
-      <c r="BY19" s="20"/>
-      <c r="BZ19" s="20"/>
-      <c r="CA19" s="21"/>
-      <c r="CB19" s="21"/>
-      <c r="CC19" s="23"/>
-      <c r="CD19" s="20"/>
-      <c r="CE19" s="20"/>
-      <c r="CF19" s="20"/>
-      <c r="CG19" s="20"/>
-      <c r="CH19" s="20"/>
-      <c r="CI19" s="23"/>
-      <c r="CJ19" s="24"/>
-      <c r="CK19" s="18"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="19"/>
+      <c r="M19" s="19"/>
+      <c r="N19" s="80">
+        <f t="shared" ref="N19:N44" si="0">SUM(K19:M19)</f>
+        <v>0</v>
+      </c>
+      <c r="O19" s="19"/>
+      <c r="P19" s="19"/>
+      <c r="Q19" s="19"/>
+      <c r="R19" s="19"/>
+      <c r="S19" s="19"/>
+      <c r="T19" s="80">
+        <f t="shared" ref="T19:T44" si="1">SUM(P19:S19)</f>
+        <v>0</v>
+      </c>
+      <c r="U19" s="19"/>
+      <c r="V19" s="19"/>
+      <c r="W19" s="19"/>
+      <c r="X19" s="19"/>
+      <c r="Y19" s="19"/>
+      <c r="Z19" s="19"/>
+      <c r="AA19" s="19"/>
+      <c r="AB19" s="19"/>
+      <c r="AC19" s="19"/>
+      <c r="AD19" s="19"/>
+      <c r="AE19" s="19"/>
+      <c r="AF19" s="35"/>
+      <c r="AG19" s="35"/>
+      <c r="AH19" s="35"/>
+      <c r="AI19" s="35"/>
+      <c r="AJ19" s="35"/>
+      <c r="AK19" s="19"/>
+      <c r="AL19" s="19"/>
+      <c r="AM19" s="19"/>
+      <c r="AN19" s="20"/>
+      <c r="AO19" s="20"/>
+      <c r="AP19" s="20"/>
+      <c r="AQ19" s="19"/>
+      <c r="AR19" s="19"/>
+      <c r="AS19" s="19"/>
+      <c r="AT19" s="19"/>
+      <c r="AU19" s="19"/>
+      <c r="AV19" s="19"/>
+      <c r="AW19" s="19"/>
+      <c r="AX19" s="19"/>
+      <c r="AY19" s="19"/>
+      <c r="AZ19" s="19"/>
+      <c r="BA19" s="19"/>
+      <c r="BB19" s="19"/>
+      <c r="BC19" s="19"/>
+      <c r="BD19" s="19"/>
+      <c r="BE19" s="19"/>
+      <c r="BF19" s="19"/>
+      <c r="BG19" s="19"/>
+      <c r="BH19" s="19"/>
+      <c r="BI19" s="19"/>
+      <c r="BJ19" s="19"/>
+      <c r="BK19" s="19"/>
+      <c r="BL19" s="19"/>
+      <c r="BM19" s="19"/>
+      <c r="BN19" s="19"/>
+      <c r="BO19" s="19"/>
+      <c r="BP19" s="19"/>
+      <c r="BQ19" s="19"/>
+      <c r="BR19" s="19"/>
+      <c r="BS19" s="19"/>
+      <c r="BT19" s="19"/>
+      <c r="BU19" s="19"/>
+      <c r="BV19" s="19"/>
+      <c r="BW19" s="19"/>
+      <c r="BX19" s="19"/>
+      <c r="BY19" s="19"/>
+      <c r="BZ19" s="19"/>
+      <c r="CA19" s="80">
+        <f t="shared" ref="CA19:CA44" si="2">BY19+BW19+BU19+BS19+BQ19+BO19</f>
+        <v>0</v>
+      </c>
+      <c r="CB19" s="80">
+        <f t="shared" ref="CB19:CB44" si="3">BZ19+BX19+BV19+BT19+BR19+BP19</f>
+        <v>0</v>
+      </c>
+      <c r="CC19" s="21"/>
+      <c r="CD19" s="19"/>
+      <c r="CE19" s="19"/>
+      <c r="CF19" s="19"/>
+      <c r="CG19" s="19"/>
+      <c r="CH19" s="19"/>
+      <c r="CI19" s="21" t="e">
+        <f t="shared" ref="CI19:CI20" si="4">CH19/F19</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="CJ19" s="22"/>
+      <c r="CK19" s="17"/>
     </row>
     <row r="20" spans="1:89" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="108"/>
-      <c r="B20" s="25" t="s">
+      <c r="A20" s="94"/>
+      <c r="B20" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="20"/>
-      <c r="K20" s="20"/>
-      <c r="L20" s="20"/>
-      <c r="M20" s="20"/>
-      <c r="N20" s="21"/>
-      <c r="O20" s="20"/>
-      <c r="P20" s="20"/>
-      <c r="Q20" s="20"/>
-      <c r="R20" s="20"/>
-      <c r="S20" s="20"/>
-      <c r="T20" s="21"/>
-      <c r="U20" s="20"/>
-      <c r="V20" s="20"/>
-      <c r="W20" s="20"/>
-      <c r="X20" s="20"/>
-      <c r="Y20" s="20"/>
-      <c r="Z20" s="20"/>
-      <c r="AA20" s="20"/>
-      <c r="AB20" s="20"/>
-      <c r="AC20" s="20"/>
-      <c r="AD20" s="20"/>
-      <c r="AE20" s="20"/>
-      <c r="AF20" s="39"/>
-      <c r="AG20" s="39"/>
-      <c r="AH20" s="39"/>
-      <c r="AI20" s="39"/>
-      <c r="AJ20" s="39"/>
-      <c r="AK20" s="20"/>
-      <c r="AL20" s="20"/>
-      <c r="AM20" s="20"/>
-      <c r="AN20" s="22"/>
-      <c r="AO20" s="22"/>
-      <c r="AP20" s="22"/>
-      <c r="AQ20" s="20"/>
-      <c r="AR20" s="20"/>
-      <c r="AS20" s="20"/>
-      <c r="AT20" s="20"/>
-      <c r="AU20" s="20"/>
-      <c r="AV20" s="20"/>
-      <c r="AW20" s="20"/>
-      <c r="AX20" s="20"/>
-      <c r="AY20" s="20"/>
-      <c r="AZ20" s="20"/>
-      <c r="BA20" s="20"/>
-      <c r="BB20" s="20"/>
-      <c r="BC20" s="20"/>
-      <c r="BD20" s="20"/>
-      <c r="BE20" s="20"/>
-      <c r="BF20" s="20"/>
-      <c r="BG20" s="20"/>
-      <c r="BH20" s="20"/>
-      <c r="BI20" s="20"/>
-      <c r="BJ20" s="20"/>
-      <c r="BK20" s="20"/>
-      <c r="BL20" s="20"/>
-      <c r="BM20" s="20"/>
-      <c r="BN20" s="20"/>
-      <c r="BO20" s="20"/>
-      <c r="BP20" s="20"/>
-      <c r="BQ20" s="20"/>
-      <c r="BR20" s="20"/>
-      <c r="BS20" s="20"/>
-      <c r="BT20" s="20"/>
-      <c r="BU20" s="20"/>
-      <c r="BV20" s="20"/>
-      <c r="BW20" s="20"/>
-      <c r="BX20" s="20"/>
-      <c r="BY20" s="20"/>
-      <c r="BZ20" s="20"/>
-      <c r="CA20" s="21"/>
-      <c r="CB20" s="21"/>
-      <c r="CC20" s="23"/>
-      <c r="CD20" s="20"/>
-      <c r="CE20" s="20"/>
-      <c r="CF20" s="20"/>
-      <c r="CG20" s="20"/>
-      <c r="CH20" s="20"/>
-      <c r="CI20" s="23"/>
-      <c r="CJ20" s="24"/>
-      <c r="CK20" s="18"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="19"/>
+      <c r="M20" s="19"/>
+      <c r="N20" s="80">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O20" s="19"/>
+      <c r="P20" s="19"/>
+      <c r="Q20" s="19"/>
+      <c r="R20" s="19"/>
+      <c r="S20" s="19"/>
+      <c r="T20" s="80">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U20" s="19"/>
+      <c r="V20" s="19"/>
+      <c r="W20" s="19"/>
+      <c r="X20" s="19"/>
+      <c r="Y20" s="19"/>
+      <c r="Z20" s="19"/>
+      <c r="AA20" s="19"/>
+      <c r="AB20" s="19"/>
+      <c r="AC20" s="19"/>
+      <c r="AD20" s="19"/>
+      <c r="AE20" s="19"/>
+      <c r="AF20" s="35"/>
+      <c r="AG20" s="35"/>
+      <c r="AH20" s="35"/>
+      <c r="AI20" s="35"/>
+      <c r="AJ20" s="35"/>
+      <c r="AK20" s="19"/>
+      <c r="AL20" s="19"/>
+      <c r="AM20" s="19"/>
+      <c r="AN20" s="20"/>
+      <c r="AO20" s="20"/>
+      <c r="AP20" s="20"/>
+      <c r="AQ20" s="19"/>
+      <c r="AR20" s="19"/>
+      <c r="AS20" s="19"/>
+      <c r="AT20" s="19"/>
+      <c r="AU20" s="19"/>
+      <c r="AV20" s="19"/>
+      <c r="AW20" s="19"/>
+      <c r="AX20" s="19"/>
+      <c r="AY20" s="19"/>
+      <c r="AZ20" s="19"/>
+      <c r="BA20" s="19"/>
+      <c r="BB20" s="19"/>
+      <c r="BC20" s="19"/>
+      <c r="BD20" s="19"/>
+      <c r="BE20" s="19"/>
+      <c r="BF20" s="19"/>
+      <c r="BG20" s="19"/>
+      <c r="BH20" s="19"/>
+      <c r="BI20" s="19"/>
+      <c r="BJ20" s="19"/>
+      <c r="BK20" s="19"/>
+      <c r="BL20" s="19"/>
+      <c r="BM20" s="19"/>
+      <c r="BN20" s="19"/>
+      <c r="BO20" s="19"/>
+      <c r="BP20" s="19"/>
+      <c r="BQ20" s="19"/>
+      <c r="BR20" s="19"/>
+      <c r="BS20" s="19"/>
+      <c r="BT20" s="19"/>
+      <c r="BU20" s="19"/>
+      <c r="BV20" s="19"/>
+      <c r="BW20" s="19"/>
+      <c r="BX20" s="19"/>
+      <c r="BY20" s="19"/>
+      <c r="BZ20" s="19"/>
+      <c r="CA20" s="80">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="CB20" s="80">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="CC20" s="21"/>
+      <c r="CD20" s="19"/>
+      <c r="CE20" s="19"/>
+      <c r="CF20" s="19"/>
+      <c r="CG20" s="19"/>
+      <c r="CH20" s="19"/>
+      <c r="CI20" s="21" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="CJ20" s="22"/>
+      <c r="CK20" s="17"/>
     </row>
     <row r="21" spans="1:89" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="108"/>
-      <c r="B21" s="26" t="s">
+      <c r="A21" s="94"/>
+      <c r="B21" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="21"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="21"/>
-      <c r="K21" s="21"/>
-      <c r="L21" s="21"/>
-      <c r="M21" s="21"/>
-      <c r="N21" s="21"/>
-      <c r="O21" s="21"/>
-      <c r="P21" s="21"/>
-      <c r="Q21" s="21"/>
-      <c r="R21" s="21"/>
-      <c r="S21" s="21"/>
-      <c r="T21" s="21"/>
-      <c r="U21" s="21"/>
-      <c r="V21" s="21"/>
-      <c r="W21" s="21"/>
-      <c r="X21" s="21"/>
-      <c r="Y21" s="21"/>
-      <c r="Z21" s="21"/>
-      <c r="AA21" s="21"/>
-      <c r="AB21" s="21"/>
-      <c r="AC21" s="21"/>
-      <c r="AD21" s="21"/>
-      <c r="AE21" s="21"/>
-      <c r="AF21" s="39"/>
-      <c r="AG21" s="39"/>
-      <c r="AH21" s="39"/>
-      <c r="AI21" s="39"/>
-      <c r="AJ21" s="39"/>
-      <c r="AK21" s="21"/>
-      <c r="AL21" s="21"/>
-      <c r="AM21" s="21"/>
-      <c r="AN21" s="27"/>
-      <c r="AO21" s="27"/>
-      <c r="AP21" s="27"/>
-      <c r="AQ21" s="21"/>
-      <c r="AR21" s="21"/>
-      <c r="AS21" s="21"/>
-      <c r="AT21" s="21"/>
-      <c r="AU21" s="21"/>
-      <c r="AV21" s="21"/>
-      <c r="AW21" s="21"/>
-      <c r="AX21" s="21"/>
-      <c r="AY21" s="21"/>
-      <c r="AZ21" s="21"/>
-      <c r="BA21" s="21"/>
-      <c r="BB21" s="21"/>
-      <c r="BC21" s="21"/>
-      <c r="BD21" s="21"/>
-      <c r="BE21" s="21"/>
-      <c r="BF21" s="21"/>
-      <c r="BG21" s="21"/>
-      <c r="BH21" s="21"/>
-      <c r="BI21" s="21"/>
-      <c r="BJ21" s="21"/>
-      <c r="BK21" s="21"/>
-      <c r="BL21" s="21"/>
-      <c r="BM21" s="21"/>
-      <c r="BN21" s="21"/>
-      <c r="BO21" s="21"/>
-      <c r="BP21" s="21"/>
-      <c r="BQ21" s="21"/>
-      <c r="BR21" s="21"/>
-      <c r="BS21" s="21"/>
-      <c r="BT21" s="21"/>
-      <c r="BU21" s="21"/>
-      <c r="BV21" s="21"/>
-      <c r="BW21" s="21"/>
-      <c r="BX21" s="21"/>
-      <c r="BY21" s="21"/>
-      <c r="BZ21" s="21"/>
-      <c r="CA21" s="21"/>
-      <c r="CB21" s="21"/>
-      <c r="CC21" s="21"/>
-      <c r="CD21" s="21"/>
-      <c r="CE21" s="21"/>
-      <c r="CF21" s="21"/>
-      <c r="CG21" s="21"/>
-      <c r="CH21" s="21"/>
-      <c r="CI21" s="28"/>
-      <c r="CJ21" s="24"/>
-      <c r="CK21" s="18"/>
+      <c r="C21" s="80">
+        <f>SUM(C18:C20)</f>
+        <v>0</v>
+      </c>
+      <c r="D21" s="80">
+        <f t="shared" ref="D21:M21" si="5">SUM(D18:D20)</f>
+        <v>0</v>
+      </c>
+      <c r="E21" s="80">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F21" s="80">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G21" s="80">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H21" s="80">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I21" s="80">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J21" s="80">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K21" s="80">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L21" s="80">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M21" s="80">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N21" s="80">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O21" s="80">
+        <f t="shared" ref="O21" si="6">SUM(O18:O20)</f>
+        <v>0</v>
+      </c>
+      <c r="P21" s="80">
+        <f t="shared" ref="P21" si="7">SUM(P18:P20)</f>
+        <v>0</v>
+      </c>
+      <c r="Q21" s="80">
+        <f t="shared" ref="Q21" si="8">SUM(Q18:Q20)</f>
+        <v>0</v>
+      </c>
+      <c r="R21" s="80">
+        <f t="shared" ref="R21" si="9">SUM(R18:R20)</f>
+        <v>0</v>
+      </c>
+      <c r="S21" s="80">
+        <f t="shared" ref="S21" si="10">SUM(S18:S20)</f>
+        <v>0</v>
+      </c>
+      <c r="T21" s="80">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U21" s="80">
+        <f t="shared" ref="U21" si="11">SUM(U18:U20)</f>
+        <v>0</v>
+      </c>
+      <c r="V21" s="80">
+        <f t="shared" ref="V21" si="12">SUM(V18:V20)</f>
+        <v>0</v>
+      </c>
+      <c r="W21" s="80">
+        <f t="shared" ref="W21" si="13">SUM(W18:W20)</f>
+        <v>0</v>
+      </c>
+      <c r="X21" s="80">
+        <f t="shared" ref="X21:Y21" si="14">SUM(X18:X20)</f>
+        <v>0</v>
+      </c>
+      <c r="Y21" s="80">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Z21" s="80">
+        <f t="shared" ref="Z21" si="15">SUM(Z18:Z20)</f>
+        <v>0</v>
+      </c>
+      <c r="AA21" s="80">
+        <f t="shared" ref="AA21" si="16">SUM(AA18:AA20)</f>
+        <v>0</v>
+      </c>
+      <c r="AB21" s="80">
+        <f t="shared" ref="AB21" si="17">SUM(AB18:AB20)</f>
+        <v>0</v>
+      </c>
+      <c r="AC21" s="80">
+        <f t="shared" ref="AC21" si="18">SUM(AC18:AC20)</f>
+        <v>0</v>
+      </c>
+      <c r="AD21" s="80">
+        <f t="shared" ref="AD21" si="19">SUM(AD18:AD20)</f>
+        <v>0</v>
+      </c>
+      <c r="AE21" s="80">
+        <f t="shared" ref="AE21" si="20">SUM(AE18:AE20)</f>
+        <v>0</v>
+      </c>
+      <c r="AF21" s="81"/>
+      <c r="AG21" s="81"/>
+      <c r="AH21" s="81"/>
+      <c r="AI21" s="81"/>
+      <c r="AJ21" s="81"/>
+      <c r="AK21" s="80">
+        <f t="shared" ref="AK21" si="21">SUM(AK18:AK20)</f>
+        <v>0</v>
+      </c>
+      <c r="AL21" s="80">
+        <f t="shared" ref="AL21" si="22">SUM(AL18:AL20)</f>
+        <v>0</v>
+      </c>
+      <c r="AM21" s="80">
+        <f t="shared" ref="AM21" si="23">SUM(AM18:AM20)</f>
+        <v>0</v>
+      </c>
+      <c r="AN21" s="82">
+        <f t="shared" ref="AN21" si="24">SUM(AN18:AN20)</f>
+        <v>0</v>
+      </c>
+      <c r="AO21" s="82">
+        <f t="shared" ref="AO21" si="25">SUM(AO18:AO20)</f>
+        <v>0</v>
+      </c>
+      <c r="AP21" s="82">
+        <f t="shared" ref="AP21" si="26">SUM(AP18:AP20)</f>
+        <v>0</v>
+      </c>
+      <c r="AQ21" s="80">
+        <f t="shared" ref="AQ21" si="27">SUM(AQ18:AQ20)</f>
+        <v>0</v>
+      </c>
+      <c r="AR21" s="80">
+        <f t="shared" ref="AR21" si="28">SUM(AR18:AR20)</f>
+        <v>0</v>
+      </c>
+      <c r="AS21" s="80">
+        <f t="shared" ref="AS21" si="29">SUM(AS18:AS20)</f>
+        <v>0</v>
+      </c>
+      <c r="AT21" s="80">
+        <f t="shared" ref="AT21" si="30">SUM(AT18:AT20)</f>
+        <v>0</v>
+      </c>
+      <c r="AU21" s="80">
+        <f t="shared" ref="AU21" si="31">SUM(AU18:AU20)</f>
+        <v>0</v>
+      </c>
+      <c r="AV21" s="80">
+        <f t="shared" ref="AV21" si="32">SUM(AV18:AV20)</f>
+        <v>0</v>
+      </c>
+      <c r="AW21" s="80">
+        <f t="shared" ref="AW21" si="33">SUM(AW18:AW20)</f>
+        <v>0</v>
+      </c>
+      <c r="AX21" s="80">
+        <f t="shared" ref="AX21" si="34">SUM(AX18:AX20)</f>
+        <v>0</v>
+      </c>
+      <c r="AY21" s="80">
+        <f t="shared" ref="AY21" si="35">SUM(AY18:AY20)</f>
+        <v>0</v>
+      </c>
+      <c r="AZ21" s="80">
+        <f t="shared" ref="AZ21" si="36">SUM(AZ18:AZ20)</f>
+        <v>0</v>
+      </c>
+      <c r="BA21" s="80">
+        <f t="shared" ref="BA21" si="37">SUM(BA18:BA20)</f>
+        <v>0</v>
+      </c>
+      <c r="BB21" s="80">
+        <f t="shared" ref="BB21" si="38">SUM(BB18:BB20)</f>
+        <v>0</v>
+      </c>
+      <c r="BC21" s="80">
+        <f t="shared" ref="BC21" si="39">SUM(BC18:BC20)</f>
+        <v>0</v>
+      </c>
+      <c r="BD21" s="80">
+        <f t="shared" ref="BD21" si="40">SUM(BD18:BD20)</f>
+        <v>0</v>
+      </c>
+      <c r="BE21" s="80">
+        <f t="shared" ref="BE21" si="41">SUM(BE18:BE20)</f>
+        <v>0</v>
+      </c>
+      <c r="BF21" s="80">
+        <f t="shared" ref="BF21" si="42">SUM(BF18:BF20)</f>
+        <v>0</v>
+      </c>
+      <c r="BG21" s="80">
+        <f t="shared" ref="BG21" si="43">SUM(BG18:BG20)</f>
+        <v>0</v>
+      </c>
+      <c r="BH21" s="80">
+        <f t="shared" ref="BH21" si="44">SUM(BH18:BH20)</f>
+        <v>0</v>
+      </c>
+      <c r="BI21" s="80">
+        <f t="shared" ref="BI21" si="45">SUM(BI18:BI20)</f>
+        <v>0</v>
+      </c>
+      <c r="BJ21" s="80">
+        <f t="shared" ref="BJ21" si="46">SUM(BJ18:BJ20)</f>
+        <v>0</v>
+      </c>
+      <c r="BK21" s="80">
+        <f t="shared" ref="BK21" si="47">SUM(BK18:BK20)</f>
+        <v>0</v>
+      </c>
+      <c r="BL21" s="80">
+        <f t="shared" ref="BL21" si="48">SUM(BL18:BL20)</f>
+        <v>0</v>
+      </c>
+      <c r="BM21" s="80">
+        <f t="shared" ref="BM21" si="49">SUM(BM18:BM20)</f>
+        <v>0</v>
+      </c>
+      <c r="BN21" s="80">
+        <f t="shared" ref="BN21" si="50">SUM(BN18:BN20)</f>
+        <v>0</v>
+      </c>
+      <c r="BO21" s="80">
+        <f t="shared" ref="BO21" si="51">SUM(BO18:BO20)</f>
+        <v>0</v>
+      </c>
+      <c r="BP21" s="80">
+        <f t="shared" ref="BP21" si="52">SUM(BP18:BP20)</f>
+        <v>0</v>
+      </c>
+      <c r="BQ21" s="80">
+        <f t="shared" ref="BQ21" si="53">SUM(BQ18:BQ20)</f>
+        <v>0</v>
+      </c>
+      <c r="BR21" s="80">
+        <f t="shared" ref="BR21" si="54">SUM(BR18:BR20)</f>
+        <v>0</v>
+      </c>
+      <c r="BS21" s="80">
+        <f t="shared" ref="BS21" si="55">SUM(BS18:BS20)</f>
+        <v>0</v>
+      </c>
+      <c r="BT21" s="80">
+        <f t="shared" ref="BT21" si="56">SUM(BT18:BT20)</f>
+        <v>0</v>
+      </c>
+      <c r="BU21" s="80">
+        <f t="shared" ref="BU21" si="57">SUM(BU18:BU20)</f>
+        <v>0</v>
+      </c>
+      <c r="BV21" s="80">
+        <f t="shared" ref="BV21" si="58">SUM(BV18:BV20)</f>
+        <v>0</v>
+      </c>
+      <c r="BW21" s="80">
+        <f t="shared" ref="BW21" si="59">SUM(BW18:BW20)</f>
+        <v>0</v>
+      </c>
+      <c r="BX21" s="80">
+        <f t="shared" ref="BX21" si="60">SUM(BX18:BX20)</f>
+        <v>0</v>
+      </c>
+      <c r="BY21" s="80">
+        <f t="shared" ref="BY21" si="61">SUM(BY18:BY20)</f>
+        <v>0</v>
+      </c>
+      <c r="BZ21" s="80">
+        <f t="shared" ref="BZ21" si="62">SUM(BZ18:BZ20)</f>
+        <v>0</v>
+      </c>
+      <c r="CA21" s="80">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="CB21" s="80">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="CC21" s="80">
+        <f t="shared" ref="CC21" si="63">SUM(CC18:CC20)</f>
+        <v>0</v>
+      </c>
+      <c r="CD21" s="80">
+        <f t="shared" ref="CD21" si="64">SUM(CD18:CD20)</f>
+        <v>0</v>
+      </c>
+      <c r="CE21" s="80">
+        <f t="shared" ref="CE21" si="65">SUM(CE18:CE20)</f>
+        <v>0</v>
+      </c>
+      <c r="CF21" s="80">
+        <f t="shared" ref="CF21" si="66">SUM(CF18:CF20)</f>
+        <v>0</v>
+      </c>
+      <c r="CG21" s="80">
+        <f t="shared" ref="CG21" si="67">SUM(CG18:CG20)</f>
+        <v>0</v>
+      </c>
+      <c r="CH21" s="80">
+        <f t="shared" ref="CH21" si="68">SUM(CH18:CH20)</f>
+        <v>0</v>
+      </c>
+      <c r="CI21" s="85" t="e">
+        <f>CH21/F21</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="CJ21" s="22"/>
+      <c r="CK21" s="17"/>
     </row>
     <row r="22" spans="1:89" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="109"/>
-      <c r="B22" s="29" t="s">
+      <c r="A22" s="95"/>
+      <c r="B22" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="C22" s="30"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="30"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="30"/>
-      <c r="H22" s="30"/>
-      <c r="I22" s="30"/>
-      <c r="J22" s="30"/>
-      <c r="K22" s="30"/>
-      <c r="L22" s="30"/>
-      <c r="M22" s="30"/>
-      <c r="N22" s="31"/>
-      <c r="O22" s="30"/>
-      <c r="P22" s="30"/>
-      <c r="Q22" s="30"/>
-      <c r="R22" s="30"/>
-      <c r="S22" s="30"/>
-      <c r="T22" s="31"/>
-      <c r="U22" s="30"/>
-      <c r="V22" s="30"/>
-      <c r="W22" s="30"/>
-      <c r="X22" s="30"/>
-      <c r="Y22" s="30"/>
-      <c r="Z22" s="30"/>
-      <c r="AA22" s="30"/>
-      <c r="AB22" s="30"/>
-      <c r="AC22" s="30"/>
-      <c r="AD22" s="30"/>
-      <c r="AE22" s="30"/>
-      <c r="AF22" s="34"/>
-      <c r="AG22" s="34"/>
-      <c r="AH22" s="34"/>
-      <c r="AI22" s="34"/>
-      <c r="AJ22" s="34"/>
-      <c r="AK22" s="30"/>
-      <c r="AL22" s="30"/>
-      <c r="AM22" s="30"/>
-      <c r="AN22" s="32"/>
-      <c r="AO22" s="32"/>
-      <c r="AP22" s="32"/>
-      <c r="AQ22" s="30"/>
-      <c r="AR22" s="30"/>
-      <c r="AS22" s="30"/>
-      <c r="AT22" s="30"/>
-      <c r="AU22" s="30"/>
-      <c r="AV22" s="30"/>
-      <c r="AW22" s="30"/>
-      <c r="AX22" s="30"/>
-      <c r="AY22" s="30"/>
-      <c r="AZ22" s="30"/>
-      <c r="BA22" s="30"/>
-      <c r="BB22" s="30"/>
-      <c r="BC22" s="30"/>
-      <c r="BD22" s="30"/>
-      <c r="BE22" s="30"/>
-      <c r="BF22" s="30"/>
-      <c r="BG22" s="30"/>
-      <c r="BH22" s="30"/>
-      <c r="BI22" s="30"/>
-      <c r="BJ22" s="30"/>
-      <c r="BK22" s="30"/>
-      <c r="BL22" s="30"/>
-      <c r="BM22" s="30"/>
-      <c r="BN22" s="30"/>
-      <c r="BO22" s="30"/>
-      <c r="BP22" s="30"/>
-      <c r="BQ22" s="30"/>
-      <c r="BR22" s="30"/>
-      <c r="BS22" s="30"/>
-      <c r="BT22" s="30"/>
-      <c r="BU22" s="30"/>
-      <c r="BV22" s="30"/>
-      <c r="BW22" s="30"/>
-      <c r="BX22" s="30"/>
-      <c r="BY22" s="30"/>
-      <c r="BZ22" s="30"/>
-      <c r="CA22" s="31"/>
-      <c r="CB22" s="31"/>
-      <c r="CC22" s="33"/>
-      <c r="CD22" s="30"/>
-      <c r="CE22" s="30"/>
-      <c r="CF22" s="30"/>
-      <c r="CG22" s="30"/>
-      <c r="CH22" s="30"/>
-      <c r="CI22" s="34"/>
-      <c r="CJ22" s="35"/>
-      <c r="CK22" s="18"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="26"/>
+      <c r="J22" s="26"/>
+      <c r="K22" s="26"/>
+      <c r="L22" s="26"/>
+      <c r="M22" s="26"/>
+      <c r="N22" s="87">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O22" s="26"/>
+      <c r="P22" s="26"/>
+      <c r="Q22" s="26"/>
+      <c r="R22" s="26"/>
+      <c r="S22" s="26"/>
+      <c r="T22" s="87">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U22" s="26"/>
+      <c r="V22" s="26"/>
+      <c r="W22" s="26"/>
+      <c r="X22" s="26"/>
+      <c r="Y22" s="26"/>
+      <c r="Z22" s="26"/>
+      <c r="AA22" s="26"/>
+      <c r="AB22" s="26"/>
+      <c r="AC22" s="26"/>
+      <c r="AD22" s="26"/>
+      <c r="AE22" s="26"/>
+      <c r="AF22" s="30"/>
+      <c r="AG22" s="30"/>
+      <c r="AH22" s="30"/>
+      <c r="AI22" s="30"/>
+      <c r="AJ22" s="30"/>
+      <c r="AK22" s="26"/>
+      <c r="AL22" s="26"/>
+      <c r="AM22" s="26"/>
+      <c r="AN22" s="28"/>
+      <c r="AO22" s="28"/>
+      <c r="AP22" s="28"/>
+      <c r="AQ22" s="26"/>
+      <c r="AR22" s="26"/>
+      <c r="AS22" s="26"/>
+      <c r="AT22" s="26"/>
+      <c r="AU22" s="26"/>
+      <c r="AV22" s="26"/>
+      <c r="AW22" s="26"/>
+      <c r="AX22" s="26"/>
+      <c r="AY22" s="26"/>
+      <c r="AZ22" s="26"/>
+      <c r="BA22" s="26"/>
+      <c r="BB22" s="26"/>
+      <c r="BC22" s="26"/>
+      <c r="BD22" s="26"/>
+      <c r="BE22" s="26"/>
+      <c r="BF22" s="26"/>
+      <c r="BG22" s="26"/>
+      <c r="BH22" s="26"/>
+      <c r="BI22" s="26"/>
+      <c r="BJ22" s="26"/>
+      <c r="BK22" s="26"/>
+      <c r="BL22" s="26"/>
+      <c r="BM22" s="26"/>
+      <c r="BN22" s="26"/>
+      <c r="BO22" s="26"/>
+      <c r="BP22" s="26"/>
+      <c r="BQ22" s="26"/>
+      <c r="BR22" s="26"/>
+      <c r="BS22" s="26"/>
+      <c r="BT22" s="26"/>
+      <c r="BU22" s="26"/>
+      <c r="BV22" s="26"/>
+      <c r="BW22" s="26"/>
+      <c r="BX22" s="26"/>
+      <c r="BY22" s="26"/>
+      <c r="BZ22" s="26"/>
+      <c r="CA22" s="87">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="CB22" s="87">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="CC22" s="29"/>
+      <c r="CD22" s="26"/>
+      <c r="CE22" s="26"/>
+      <c r="CF22" s="26"/>
+      <c r="CG22" s="26"/>
+      <c r="CH22" s="26"/>
+      <c r="CI22" s="30"/>
+      <c r="CJ22" s="31"/>
+      <c r="CK22" s="17"/>
     </row>
     <row r="23" spans="1:89" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="107" t="s">
+      <c r="A23" s="93" t="s">
         <v>94</v>
       </c>
-      <c r="B23" s="36">
+      <c r="B23" s="32">
         <v>1</v>
       </c>
       <c r="C23" s="13"/>
@@ -4162,13 +4504,19 @@
       <c r="K23" s="13"/>
       <c r="L23" s="13"/>
       <c r="M23" s="13"/>
-      <c r="N23" s="14"/>
+      <c r="N23" s="86">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="O23" s="13"/>
       <c r="P23" s="13"/>
       <c r="Q23" s="13"/>
       <c r="R23" s="13"/>
       <c r="S23" s="13"/>
-      <c r="T23" s="14"/>
+      <c r="T23" s="86">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="U23" s="13"/>
       <c r="V23" s="13"/>
       <c r="W23" s="13"/>
@@ -4180,17 +4528,17 @@
       <c r="AC23" s="13"/>
       <c r="AD23" s="13"/>
       <c r="AE23" s="13"/>
-      <c r="AF23" s="37"/>
-      <c r="AG23" s="37"/>
-      <c r="AH23" s="37"/>
-      <c r="AI23" s="37"/>
-      <c r="AJ23" s="37"/>
+      <c r="AF23" s="33"/>
+      <c r="AG23" s="33"/>
+      <c r="AH23" s="33"/>
+      <c r="AI23" s="33"/>
+      <c r="AJ23" s="33"/>
       <c r="AK23" s="13"/>
       <c r="AL23" s="13"/>
       <c r="AM23" s="13"/>
-      <c r="AN23" s="15"/>
-      <c r="AO23" s="15"/>
-      <c r="AP23" s="15"/>
+      <c r="AN23" s="14"/>
+      <c r="AO23" s="14"/>
+      <c r="AP23" s="14"/>
       <c r="AQ23" s="13"/>
       <c r="AR23" s="13"/>
       <c r="AS23" s="13"/>
@@ -4227,857 +4575,1202 @@
       <c r="BX23" s="13"/>
       <c r="BY23" s="13"/>
       <c r="BZ23" s="13"/>
-      <c r="CA23" s="14"/>
-      <c r="CB23" s="14"/>
-      <c r="CC23" s="16"/>
+      <c r="CA23" s="86">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="CB23" s="86">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="CC23" s="15"/>
       <c r="CD23" s="13"/>
       <c r="CE23" s="13"/>
       <c r="CF23" s="13"/>
       <c r="CG23" s="13"/>
       <c r="CH23" s="13"/>
-      <c r="CI23" s="37"/>
-      <c r="CJ23" s="17"/>
-      <c r="CK23" s="18"/>
+      <c r="CI23" s="33"/>
+      <c r="CJ23" s="16"/>
+      <c r="CK23" s="17"/>
     </row>
     <row r="24" spans="1:89" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="108"/>
-      <c r="B24" s="38">
+      <c r="A24" s="94"/>
+      <c r="B24" s="34">
         <v>2</v>
       </c>
-      <c r="C24" s="20"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="20"/>
-      <c r="I24" s="20"/>
-      <c r="J24" s="20"/>
-      <c r="K24" s="20"/>
-      <c r="L24" s="20"/>
-      <c r="M24" s="20"/>
-      <c r="N24" s="21"/>
-      <c r="O24" s="20"/>
-      <c r="P24" s="20"/>
-      <c r="Q24" s="20"/>
-      <c r="R24" s="20"/>
-      <c r="S24" s="20"/>
-      <c r="T24" s="21"/>
-      <c r="U24" s="20"/>
-      <c r="V24" s="20"/>
-      <c r="W24" s="20"/>
-      <c r="X24" s="20"/>
-      <c r="Y24" s="20"/>
-      <c r="Z24" s="20"/>
-      <c r="AA24" s="20"/>
-      <c r="AB24" s="20"/>
-      <c r="AC24" s="20"/>
-      <c r="AD24" s="20"/>
-      <c r="AE24" s="20"/>
-      <c r="AF24" s="39"/>
-      <c r="AG24" s="39"/>
-      <c r="AH24" s="39"/>
-      <c r="AI24" s="39"/>
-      <c r="AJ24" s="39"/>
-      <c r="AK24" s="20"/>
-      <c r="AL24" s="20"/>
-      <c r="AM24" s="20"/>
-      <c r="AN24" s="22"/>
-      <c r="AO24" s="22"/>
-      <c r="AP24" s="22"/>
-      <c r="AQ24" s="20"/>
-      <c r="AR24" s="20"/>
-      <c r="AS24" s="20"/>
-      <c r="AT24" s="20"/>
-      <c r="AU24" s="20"/>
-      <c r="AV24" s="20"/>
-      <c r="AW24" s="20"/>
-      <c r="AX24" s="20"/>
-      <c r="AY24" s="20"/>
-      <c r="AZ24" s="20"/>
-      <c r="BA24" s="20"/>
-      <c r="BB24" s="20"/>
-      <c r="BC24" s="20"/>
-      <c r="BD24" s="20"/>
-      <c r="BE24" s="20"/>
-      <c r="BF24" s="20"/>
-      <c r="BG24" s="20"/>
-      <c r="BH24" s="20"/>
-      <c r="BI24" s="20"/>
-      <c r="BJ24" s="20"/>
-      <c r="BK24" s="20"/>
-      <c r="BL24" s="20"/>
-      <c r="BM24" s="20"/>
-      <c r="BN24" s="20"/>
-      <c r="BO24" s="20"/>
-      <c r="BP24" s="20"/>
-      <c r="BQ24" s="20"/>
-      <c r="BR24" s="20"/>
-      <c r="BS24" s="20"/>
-      <c r="BT24" s="20"/>
-      <c r="BU24" s="20"/>
-      <c r="BV24" s="20"/>
-      <c r="BW24" s="20"/>
-      <c r="BX24" s="20"/>
-      <c r="BY24" s="20"/>
-      <c r="BZ24" s="20"/>
-      <c r="CA24" s="21"/>
-      <c r="CB24" s="21"/>
-      <c r="CC24" s="23"/>
-      <c r="CD24" s="20"/>
-      <c r="CE24" s="20"/>
-      <c r="CF24" s="20"/>
-      <c r="CG24" s="20"/>
-      <c r="CH24" s="20"/>
-      <c r="CI24" s="39"/>
-      <c r="CJ24" s="24"/>
-      <c r="CK24" s="18"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="19"/>
+      <c r="K24" s="19"/>
+      <c r="L24" s="19"/>
+      <c r="M24" s="19"/>
+      <c r="N24" s="80">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O24" s="19"/>
+      <c r="P24" s="19"/>
+      <c r="Q24" s="19"/>
+      <c r="R24" s="19"/>
+      <c r="S24" s="19"/>
+      <c r="T24" s="80">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U24" s="19"/>
+      <c r="V24" s="19"/>
+      <c r="W24" s="19"/>
+      <c r="X24" s="19"/>
+      <c r="Y24" s="19"/>
+      <c r="Z24" s="19"/>
+      <c r="AA24" s="19"/>
+      <c r="AB24" s="19"/>
+      <c r="AC24" s="19"/>
+      <c r="AD24" s="19"/>
+      <c r="AE24" s="19"/>
+      <c r="AF24" s="35"/>
+      <c r="AG24" s="35"/>
+      <c r="AH24" s="35"/>
+      <c r="AI24" s="35"/>
+      <c r="AJ24" s="35"/>
+      <c r="AK24" s="19"/>
+      <c r="AL24" s="19"/>
+      <c r="AM24" s="19"/>
+      <c r="AN24" s="20"/>
+      <c r="AO24" s="20"/>
+      <c r="AP24" s="20"/>
+      <c r="AQ24" s="19"/>
+      <c r="AR24" s="19"/>
+      <c r="AS24" s="19"/>
+      <c r="AT24" s="19"/>
+      <c r="AU24" s="19"/>
+      <c r="AV24" s="19"/>
+      <c r="AW24" s="19"/>
+      <c r="AX24" s="19"/>
+      <c r="AY24" s="19"/>
+      <c r="AZ24" s="19"/>
+      <c r="BA24" s="19"/>
+      <c r="BB24" s="19"/>
+      <c r="BC24" s="19"/>
+      <c r="BD24" s="19"/>
+      <c r="BE24" s="19"/>
+      <c r="BF24" s="19"/>
+      <c r="BG24" s="19"/>
+      <c r="BH24" s="19"/>
+      <c r="BI24" s="19"/>
+      <c r="BJ24" s="19"/>
+      <c r="BK24" s="19"/>
+      <c r="BL24" s="19"/>
+      <c r="BM24" s="19"/>
+      <c r="BN24" s="19"/>
+      <c r="BO24" s="19"/>
+      <c r="BP24" s="19"/>
+      <c r="BQ24" s="19"/>
+      <c r="BR24" s="19"/>
+      <c r="BS24" s="19"/>
+      <c r="BT24" s="19"/>
+      <c r="BU24" s="19"/>
+      <c r="BV24" s="19"/>
+      <c r="BW24" s="19"/>
+      <c r="BX24" s="19"/>
+      <c r="BY24" s="19"/>
+      <c r="BZ24" s="19"/>
+      <c r="CA24" s="80">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="CB24" s="80">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="CC24" s="21"/>
+      <c r="CD24" s="19"/>
+      <c r="CE24" s="19"/>
+      <c r="CF24" s="19"/>
+      <c r="CG24" s="19"/>
+      <c r="CH24" s="19"/>
+      <c r="CI24" s="35"/>
+      <c r="CJ24" s="22"/>
+      <c r="CK24" s="17"/>
     </row>
     <row r="25" spans="1:89" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="108"/>
-      <c r="B25" s="38">
+      <c r="A25" s="94"/>
+      <c r="B25" s="34">
         <v>3</v>
       </c>
-      <c r="C25" s="20"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="20"/>
-      <c r="J25" s="20"/>
-      <c r="K25" s="20"/>
-      <c r="L25" s="20"/>
-      <c r="M25" s="20"/>
-      <c r="N25" s="21"/>
-      <c r="O25" s="20"/>
-      <c r="P25" s="20"/>
-      <c r="Q25" s="20"/>
-      <c r="R25" s="20"/>
-      <c r="S25" s="20"/>
-      <c r="T25" s="21"/>
-      <c r="U25" s="20"/>
-      <c r="V25" s="20"/>
-      <c r="W25" s="20"/>
-      <c r="X25" s="20"/>
-      <c r="Y25" s="20"/>
-      <c r="Z25" s="20"/>
-      <c r="AA25" s="20"/>
-      <c r="AB25" s="20"/>
-      <c r="AC25" s="20"/>
-      <c r="AD25" s="20"/>
-      <c r="AE25" s="20"/>
-      <c r="AF25" s="39"/>
-      <c r="AG25" s="39"/>
-      <c r="AH25" s="39"/>
-      <c r="AI25" s="39"/>
-      <c r="AJ25" s="39"/>
-      <c r="AK25" s="20"/>
-      <c r="AL25" s="20"/>
-      <c r="AM25" s="20"/>
-      <c r="AN25" s="22"/>
-      <c r="AO25" s="22"/>
-      <c r="AP25" s="22"/>
-      <c r="AQ25" s="20"/>
-      <c r="AR25" s="20"/>
-      <c r="AS25" s="20"/>
-      <c r="AT25" s="20"/>
-      <c r="AU25" s="20"/>
-      <c r="AV25" s="20"/>
-      <c r="AW25" s="20"/>
-      <c r="AX25" s="20"/>
-      <c r="AY25" s="20"/>
-      <c r="AZ25" s="20"/>
-      <c r="BA25" s="20"/>
-      <c r="BB25" s="20"/>
-      <c r="BC25" s="20"/>
-      <c r="BD25" s="20"/>
-      <c r="BE25" s="20"/>
-      <c r="BF25" s="20"/>
-      <c r="BG25" s="20"/>
-      <c r="BH25" s="20"/>
-      <c r="BI25" s="20"/>
-      <c r="BJ25" s="20"/>
-      <c r="BK25" s="20"/>
-      <c r="BL25" s="20"/>
-      <c r="BM25" s="20"/>
-      <c r="BN25" s="20"/>
-      <c r="BO25" s="20"/>
-      <c r="BP25" s="20"/>
-      <c r="BQ25" s="20"/>
-      <c r="BR25" s="20"/>
-      <c r="BS25" s="20"/>
-      <c r="BT25" s="20"/>
-      <c r="BU25" s="20"/>
-      <c r="BV25" s="20"/>
-      <c r="BW25" s="20"/>
-      <c r="BX25" s="20"/>
-      <c r="BY25" s="20"/>
-      <c r="BZ25" s="20"/>
-      <c r="CA25" s="21"/>
-      <c r="CB25" s="21"/>
-      <c r="CC25" s="23"/>
-      <c r="CD25" s="20"/>
-      <c r="CE25" s="20"/>
-      <c r="CF25" s="20"/>
-      <c r="CG25" s="20"/>
-      <c r="CH25" s="20"/>
-      <c r="CI25" s="39"/>
-      <c r="CJ25" s="24"/>
-      <c r="CK25" s="18"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="19"/>
+      <c r="K25" s="19"/>
+      <c r="L25" s="19"/>
+      <c r="M25" s="19"/>
+      <c r="N25" s="80">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O25" s="19"/>
+      <c r="P25" s="19"/>
+      <c r="Q25" s="19"/>
+      <c r="R25" s="19"/>
+      <c r="S25" s="19"/>
+      <c r="T25" s="80">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U25" s="19"/>
+      <c r="V25" s="19"/>
+      <c r="W25" s="19"/>
+      <c r="X25" s="19"/>
+      <c r="Y25" s="19"/>
+      <c r="Z25" s="19"/>
+      <c r="AA25" s="19"/>
+      <c r="AB25" s="19"/>
+      <c r="AC25" s="19"/>
+      <c r="AD25" s="19"/>
+      <c r="AE25" s="19"/>
+      <c r="AF25" s="35"/>
+      <c r="AG25" s="35"/>
+      <c r="AH25" s="35"/>
+      <c r="AI25" s="35"/>
+      <c r="AJ25" s="35"/>
+      <c r="AK25" s="19"/>
+      <c r="AL25" s="19"/>
+      <c r="AM25" s="19"/>
+      <c r="AN25" s="20"/>
+      <c r="AO25" s="20"/>
+      <c r="AP25" s="20"/>
+      <c r="AQ25" s="19"/>
+      <c r="AR25" s="19"/>
+      <c r="AS25" s="19"/>
+      <c r="AT25" s="19"/>
+      <c r="AU25" s="19"/>
+      <c r="AV25" s="19"/>
+      <c r="AW25" s="19"/>
+      <c r="AX25" s="19"/>
+      <c r="AY25" s="19"/>
+      <c r="AZ25" s="19"/>
+      <c r="BA25" s="19"/>
+      <c r="BB25" s="19"/>
+      <c r="BC25" s="19"/>
+      <c r="BD25" s="19"/>
+      <c r="BE25" s="19"/>
+      <c r="BF25" s="19"/>
+      <c r="BG25" s="19"/>
+      <c r="BH25" s="19"/>
+      <c r="BI25" s="19"/>
+      <c r="BJ25" s="19"/>
+      <c r="BK25" s="19"/>
+      <c r="BL25" s="19"/>
+      <c r="BM25" s="19"/>
+      <c r="BN25" s="19"/>
+      <c r="BO25" s="19"/>
+      <c r="BP25" s="19"/>
+      <c r="BQ25" s="19"/>
+      <c r="BR25" s="19"/>
+      <c r="BS25" s="19"/>
+      <c r="BT25" s="19"/>
+      <c r="BU25" s="19"/>
+      <c r="BV25" s="19"/>
+      <c r="BW25" s="19"/>
+      <c r="BX25" s="19"/>
+      <c r="BY25" s="19"/>
+      <c r="BZ25" s="19"/>
+      <c r="CA25" s="80">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="CB25" s="80">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="CC25" s="21"/>
+      <c r="CD25" s="19"/>
+      <c r="CE25" s="19"/>
+      <c r="CF25" s="19"/>
+      <c r="CG25" s="19"/>
+      <c r="CH25" s="19"/>
+      <c r="CI25" s="35"/>
+      <c r="CJ25" s="22"/>
+      <c r="CK25" s="17"/>
     </row>
     <row r="26" spans="1:89" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="108"/>
-      <c r="B26" s="38">
+      <c r="A26" s="94"/>
+      <c r="B26" s="34">
         <v>4</v>
       </c>
-      <c r="C26" s="20"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="20"/>
-      <c r="H26" s="20"/>
-      <c r="I26" s="20"/>
-      <c r="J26" s="20"/>
-      <c r="K26" s="20"/>
-      <c r="L26" s="20"/>
-      <c r="M26" s="20"/>
-      <c r="N26" s="21"/>
-      <c r="O26" s="20"/>
-      <c r="P26" s="20"/>
-      <c r="Q26" s="20"/>
-      <c r="R26" s="20"/>
-      <c r="S26" s="20"/>
-      <c r="T26" s="21"/>
-      <c r="U26" s="20"/>
-      <c r="V26" s="20"/>
-      <c r="W26" s="20"/>
-      <c r="X26" s="20"/>
-      <c r="Y26" s="20"/>
-      <c r="Z26" s="20"/>
-      <c r="AA26" s="20"/>
-      <c r="AB26" s="20"/>
-      <c r="AC26" s="20"/>
-      <c r="AD26" s="20"/>
-      <c r="AE26" s="20"/>
-      <c r="AF26" s="39"/>
-      <c r="AG26" s="39"/>
-      <c r="AH26" s="39"/>
-      <c r="AI26" s="39"/>
-      <c r="AJ26" s="39"/>
-      <c r="AK26" s="20"/>
-      <c r="AL26" s="20"/>
-      <c r="AM26" s="20"/>
-      <c r="AN26" s="22"/>
-      <c r="AO26" s="22"/>
-      <c r="AP26" s="22"/>
-      <c r="AQ26" s="20"/>
-      <c r="AR26" s="20"/>
-      <c r="AS26" s="20"/>
-      <c r="AT26" s="20"/>
-      <c r="AU26" s="20"/>
-      <c r="AV26" s="20"/>
-      <c r="AW26" s="20"/>
-      <c r="AX26" s="20"/>
-      <c r="AY26" s="20"/>
-      <c r="AZ26" s="20"/>
-      <c r="BA26" s="20"/>
-      <c r="BB26" s="20"/>
-      <c r="BC26" s="20"/>
-      <c r="BD26" s="20"/>
-      <c r="BE26" s="20"/>
-      <c r="BF26" s="20"/>
-      <c r="BG26" s="20"/>
-      <c r="BH26" s="20"/>
-      <c r="BI26" s="20"/>
-      <c r="BJ26" s="20"/>
-      <c r="BK26" s="20"/>
-      <c r="BL26" s="20"/>
-      <c r="BM26" s="20"/>
-      <c r="BN26" s="20"/>
-      <c r="BO26" s="20"/>
-      <c r="BP26" s="20"/>
-      <c r="BQ26" s="20"/>
-      <c r="BR26" s="20"/>
-      <c r="BS26" s="20"/>
-      <c r="BT26" s="20"/>
-      <c r="BU26" s="20"/>
-      <c r="BV26" s="20"/>
-      <c r="BW26" s="20"/>
-      <c r="BX26" s="20"/>
-      <c r="BY26" s="20"/>
-      <c r="BZ26" s="20"/>
-      <c r="CA26" s="21"/>
-      <c r="CB26" s="21"/>
-      <c r="CC26" s="23"/>
-      <c r="CD26" s="20"/>
-      <c r="CE26" s="20"/>
-      <c r="CF26" s="20"/>
-      <c r="CG26" s="20"/>
-      <c r="CH26" s="20"/>
-      <c r="CI26" s="39"/>
-      <c r="CJ26" s="24"/>
-      <c r="CK26" s="18"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="19"/>
+      <c r="K26" s="19"/>
+      <c r="L26" s="19"/>
+      <c r="M26" s="19"/>
+      <c r="N26" s="80">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O26" s="19"/>
+      <c r="P26" s="19"/>
+      <c r="Q26" s="19"/>
+      <c r="R26" s="19"/>
+      <c r="S26" s="19"/>
+      <c r="T26" s="80">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U26" s="19"/>
+      <c r="V26" s="19"/>
+      <c r="W26" s="19"/>
+      <c r="X26" s="19"/>
+      <c r="Y26" s="19"/>
+      <c r="Z26" s="19"/>
+      <c r="AA26" s="19"/>
+      <c r="AB26" s="19"/>
+      <c r="AC26" s="19"/>
+      <c r="AD26" s="19"/>
+      <c r="AE26" s="19"/>
+      <c r="AF26" s="35"/>
+      <c r="AG26" s="35"/>
+      <c r="AH26" s="35"/>
+      <c r="AI26" s="35"/>
+      <c r="AJ26" s="35"/>
+      <c r="AK26" s="19"/>
+      <c r="AL26" s="19"/>
+      <c r="AM26" s="19"/>
+      <c r="AN26" s="20"/>
+      <c r="AO26" s="20"/>
+      <c r="AP26" s="20"/>
+      <c r="AQ26" s="19"/>
+      <c r="AR26" s="19"/>
+      <c r="AS26" s="19"/>
+      <c r="AT26" s="19"/>
+      <c r="AU26" s="19"/>
+      <c r="AV26" s="19"/>
+      <c r="AW26" s="19"/>
+      <c r="AX26" s="19"/>
+      <c r="AY26" s="19"/>
+      <c r="AZ26" s="19"/>
+      <c r="BA26" s="19"/>
+      <c r="BB26" s="19"/>
+      <c r="BC26" s="19"/>
+      <c r="BD26" s="19"/>
+      <c r="BE26" s="19"/>
+      <c r="BF26" s="19"/>
+      <c r="BG26" s="19"/>
+      <c r="BH26" s="19"/>
+      <c r="BI26" s="19"/>
+      <c r="BJ26" s="19"/>
+      <c r="BK26" s="19"/>
+      <c r="BL26" s="19"/>
+      <c r="BM26" s="19"/>
+      <c r="BN26" s="19"/>
+      <c r="BO26" s="19"/>
+      <c r="BP26" s="19"/>
+      <c r="BQ26" s="19"/>
+      <c r="BR26" s="19"/>
+      <c r="BS26" s="19"/>
+      <c r="BT26" s="19"/>
+      <c r="BU26" s="19"/>
+      <c r="BV26" s="19"/>
+      <c r="BW26" s="19"/>
+      <c r="BX26" s="19"/>
+      <c r="BY26" s="19"/>
+      <c r="BZ26" s="19"/>
+      <c r="CA26" s="80">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="CB26" s="80">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="CC26" s="21"/>
+      <c r="CD26" s="19"/>
+      <c r="CE26" s="19"/>
+      <c r="CF26" s="19"/>
+      <c r="CG26" s="19"/>
+      <c r="CH26" s="19"/>
+      <c r="CI26" s="35"/>
+      <c r="CJ26" s="22"/>
+      <c r="CK26" s="17"/>
     </row>
     <row r="27" spans="1:89" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="108"/>
-      <c r="B27" s="38">
+      <c r="A27" s="94"/>
+      <c r="B27" s="34">
         <v>5</v>
       </c>
-      <c r="C27" s="20"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="20"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="20"/>
-      <c r="I27" s="20"/>
-      <c r="J27" s="20"/>
-      <c r="K27" s="20"/>
-      <c r="L27" s="20"/>
-      <c r="M27" s="20"/>
-      <c r="N27" s="21"/>
-      <c r="O27" s="20"/>
-      <c r="P27" s="20"/>
-      <c r="Q27" s="20"/>
-      <c r="R27" s="20"/>
-      <c r="S27" s="20"/>
-      <c r="T27" s="21"/>
-      <c r="U27" s="20"/>
-      <c r="V27" s="20"/>
-      <c r="W27" s="20"/>
-      <c r="X27" s="20"/>
-      <c r="Y27" s="20"/>
-      <c r="Z27" s="20"/>
-      <c r="AA27" s="20"/>
-      <c r="AB27" s="20"/>
-      <c r="AC27" s="20"/>
-      <c r="AD27" s="20"/>
-      <c r="AE27" s="20"/>
-      <c r="AF27" s="39"/>
-      <c r="AG27" s="39"/>
-      <c r="AH27" s="39"/>
-      <c r="AI27" s="39"/>
-      <c r="AJ27" s="39"/>
-      <c r="AK27" s="20"/>
-      <c r="AL27" s="20"/>
-      <c r="AM27" s="20"/>
-      <c r="AN27" s="22"/>
-      <c r="AO27" s="22"/>
-      <c r="AP27" s="22"/>
-      <c r="AQ27" s="20"/>
-      <c r="AR27" s="20"/>
-      <c r="AS27" s="20"/>
-      <c r="AT27" s="20"/>
-      <c r="AU27" s="20"/>
-      <c r="AV27" s="20"/>
-      <c r="AW27" s="20"/>
-      <c r="AX27" s="20"/>
-      <c r="AY27" s="20"/>
-      <c r="AZ27" s="20"/>
-      <c r="BA27" s="20"/>
-      <c r="BB27" s="20"/>
-      <c r="BC27" s="20"/>
-      <c r="BD27" s="20"/>
-      <c r="BE27" s="20"/>
-      <c r="BF27" s="20"/>
-      <c r="BG27" s="20"/>
-      <c r="BH27" s="20"/>
-      <c r="BI27" s="20"/>
-      <c r="BJ27" s="20"/>
-      <c r="BK27" s="20"/>
-      <c r="BL27" s="20"/>
-      <c r="BM27" s="20"/>
-      <c r="BN27" s="20"/>
-      <c r="BO27" s="20"/>
-      <c r="BP27" s="20"/>
-      <c r="BQ27" s="20"/>
-      <c r="BR27" s="20"/>
-      <c r="BS27" s="20"/>
-      <c r="BT27" s="20"/>
-      <c r="BU27" s="20"/>
-      <c r="BV27" s="20"/>
-      <c r="BW27" s="20"/>
-      <c r="BX27" s="20"/>
-      <c r="BY27" s="20"/>
-      <c r="BZ27" s="20"/>
-      <c r="CA27" s="21"/>
-      <c r="CB27" s="21"/>
-      <c r="CC27" s="23"/>
-      <c r="CD27" s="20"/>
-      <c r="CE27" s="20"/>
-      <c r="CF27" s="20"/>
-      <c r="CG27" s="20"/>
-      <c r="CH27" s="20"/>
-      <c r="CI27" s="39"/>
-      <c r="CJ27" s="24"/>
-      <c r="CK27" s="18"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="19"/>
+      <c r="K27" s="19"/>
+      <c r="L27" s="19"/>
+      <c r="M27" s="19"/>
+      <c r="N27" s="80">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O27" s="19"/>
+      <c r="P27" s="19"/>
+      <c r="Q27" s="19"/>
+      <c r="R27" s="19"/>
+      <c r="S27" s="19"/>
+      <c r="T27" s="80">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U27" s="19"/>
+      <c r="V27" s="19"/>
+      <c r="W27" s="19"/>
+      <c r="X27" s="19"/>
+      <c r="Y27" s="19"/>
+      <c r="Z27" s="19"/>
+      <c r="AA27" s="19"/>
+      <c r="AB27" s="19"/>
+      <c r="AC27" s="19"/>
+      <c r="AD27" s="19"/>
+      <c r="AE27" s="19"/>
+      <c r="AF27" s="35"/>
+      <c r="AG27" s="35"/>
+      <c r="AH27" s="35"/>
+      <c r="AI27" s="35"/>
+      <c r="AJ27" s="35"/>
+      <c r="AK27" s="19"/>
+      <c r="AL27" s="19"/>
+      <c r="AM27" s="19"/>
+      <c r="AN27" s="20"/>
+      <c r="AO27" s="20"/>
+      <c r="AP27" s="20"/>
+      <c r="AQ27" s="19"/>
+      <c r="AR27" s="19"/>
+      <c r="AS27" s="19"/>
+      <c r="AT27" s="19"/>
+      <c r="AU27" s="19"/>
+      <c r="AV27" s="19"/>
+      <c r="AW27" s="19"/>
+      <c r="AX27" s="19"/>
+      <c r="AY27" s="19"/>
+      <c r="AZ27" s="19"/>
+      <c r="BA27" s="19"/>
+      <c r="BB27" s="19"/>
+      <c r="BC27" s="19"/>
+      <c r="BD27" s="19"/>
+      <c r="BE27" s="19"/>
+      <c r="BF27" s="19"/>
+      <c r="BG27" s="19"/>
+      <c r="BH27" s="19"/>
+      <c r="BI27" s="19"/>
+      <c r="BJ27" s="19"/>
+      <c r="BK27" s="19"/>
+      <c r="BL27" s="19"/>
+      <c r="BM27" s="19"/>
+      <c r="BN27" s="19"/>
+      <c r="BO27" s="19"/>
+      <c r="BP27" s="19"/>
+      <c r="BQ27" s="19"/>
+      <c r="BR27" s="19"/>
+      <c r="BS27" s="19"/>
+      <c r="BT27" s="19"/>
+      <c r="BU27" s="19"/>
+      <c r="BV27" s="19"/>
+      <c r="BW27" s="19"/>
+      <c r="BX27" s="19"/>
+      <c r="BY27" s="19"/>
+      <c r="BZ27" s="19"/>
+      <c r="CA27" s="80">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="CB27" s="80">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="CC27" s="21"/>
+      <c r="CD27" s="19"/>
+      <c r="CE27" s="19"/>
+      <c r="CF27" s="19"/>
+      <c r="CG27" s="19"/>
+      <c r="CH27" s="19"/>
+      <c r="CI27" s="35"/>
+      <c r="CJ27" s="22"/>
+      <c r="CK27" s="17"/>
     </row>
     <row r="28" spans="1:89" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="108"/>
-      <c r="B28" s="38">
+      <c r="A28" s="94"/>
+      <c r="B28" s="34">
         <v>6</v>
       </c>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="20"/>
-      <c r="K28" s="20"/>
-      <c r="L28" s="20"/>
-      <c r="M28" s="20"/>
-      <c r="N28" s="21"/>
-      <c r="O28" s="20"/>
-      <c r="P28" s="20"/>
-      <c r="Q28" s="20"/>
-      <c r="R28" s="20"/>
-      <c r="S28" s="20"/>
-      <c r="T28" s="21"/>
-      <c r="U28" s="20"/>
-      <c r="V28" s="20"/>
-      <c r="W28" s="20"/>
-      <c r="X28" s="20"/>
-      <c r="Y28" s="20"/>
-      <c r="Z28" s="20"/>
-      <c r="AA28" s="20"/>
-      <c r="AB28" s="20"/>
-      <c r="AC28" s="20"/>
-      <c r="AD28" s="20"/>
-      <c r="AE28" s="20"/>
-      <c r="AF28" s="39"/>
-      <c r="AG28" s="39"/>
-      <c r="AH28" s="39"/>
-      <c r="AI28" s="39"/>
-      <c r="AJ28" s="39"/>
-      <c r="AK28" s="20"/>
-      <c r="AL28" s="20"/>
-      <c r="AM28" s="20"/>
-      <c r="AN28" s="22"/>
-      <c r="AO28" s="22"/>
-      <c r="AP28" s="22"/>
-      <c r="AQ28" s="20"/>
-      <c r="AR28" s="20"/>
-      <c r="AS28" s="20"/>
-      <c r="AT28" s="20"/>
-      <c r="AU28" s="20"/>
-      <c r="AV28" s="20"/>
-      <c r="AW28" s="20"/>
-      <c r="AX28" s="20"/>
-      <c r="AY28" s="20"/>
-      <c r="AZ28" s="20"/>
-      <c r="BA28" s="20"/>
-      <c r="BB28" s="20"/>
-      <c r="BC28" s="20"/>
-      <c r="BD28" s="20"/>
-      <c r="BE28" s="20"/>
-      <c r="BF28" s="20"/>
-      <c r="BG28" s="20"/>
-      <c r="BH28" s="20"/>
-      <c r="BI28" s="20"/>
-      <c r="BJ28" s="20"/>
-      <c r="BK28" s="20"/>
-      <c r="BL28" s="20"/>
-      <c r="BM28" s="20"/>
-      <c r="BN28" s="20"/>
-      <c r="BO28" s="20"/>
-      <c r="BP28" s="20"/>
-      <c r="BQ28" s="20"/>
-      <c r="BR28" s="20"/>
-      <c r="BS28" s="20"/>
-      <c r="BT28" s="20"/>
-      <c r="BU28" s="20"/>
-      <c r="BV28" s="20"/>
-      <c r="BW28" s="20"/>
-      <c r="BX28" s="20"/>
-      <c r="BY28" s="20"/>
-      <c r="BZ28" s="20"/>
-      <c r="CA28" s="21"/>
-      <c r="CB28" s="21"/>
-      <c r="CC28" s="23"/>
-      <c r="CD28" s="20"/>
-      <c r="CE28" s="20"/>
-      <c r="CF28" s="20"/>
-      <c r="CG28" s="20"/>
-      <c r="CH28" s="20"/>
-      <c r="CI28" s="39"/>
-      <c r="CJ28" s="24"/>
-      <c r="CK28" s="18"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="19"/>
+      <c r="K28" s="19"/>
+      <c r="L28" s="19"/>
+      <c r="M28" s="19"/>
+      <c r="N28" s="80">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O28" s="19"/>
+      <c r="P28" s="19"/>
+      <c r="Q28" s="19"/>
+      <c r="R28" s="19"/>
+      <c r="S28" s="19"/>
+      <c r="T28" s="80">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U28" s="19"/>
+      <c r="V28" s="19"/>
+      <c r="W28" s="19"/>
+      <c r="X28" s="19"/>
+      <c r="Y28" s="19"/>
+      <c r="Z28" s="19"/>
+      <c r="AA28" s="19"/>
+      <c r="AB28" s="19"/>
+      <c r="AC28" s="19"/>
+      <c r="AD28" s="19"/>
+      <c r="AE28" s="19"/>
+      <c r="AF28" s="35"/>
+      <c r="AG28" s="35"/>
+      <c r="AH28" s="35"/>
+      <c r="AI28" s="35"/>
+      <c r="AJ28" s="35"/>
+      <c r="AK28" s="19"/>
+      <c r="AL28" s="19"/>
+      <c r="AM28" s="19"/>
+      <c r="AN28" s="20"/>
+      <c r="AO28" s="20"/>
+      <c r="AP28" s="20"/>
+      <c r="AQ28" s="19"/>
+      <c r="AR28" s="19"/>
+      <c r="AS28" s="19"/>
+      <c r="AT28" s="19"/>
+      <c r="AU28" s="19"/>
+      <c r="AV28" s="19"/>
+      <c r="AW28" s="19"/>
+      <c r="AX28" s="19"/>
+      <c r="AY28" s="19"/>
+      <c r="AZ28" s="19"/>
+      <c r="BA28" s="19"/>
+      <c r="BB28" s="19"/>
+      <c r="BC28" s="19"/>
+      <c r="BD28" s="19"/>
+      <c r="BE28" s="19"/>
+      <c r="BF28" s="19"/>
+      <c r="BG28" s="19"/>
+      <c r="BH28" s="19"/>
+      <c r="BI28" s="19"/>
+      <c r="BJ28" s="19"/>
+      <c r="BK28" s="19"/>
+      <c r="BL28" s="19"/>
+      <c r="BM28" s="19"/>
+      <c r="BN28" s="19"/>
+      <c r="BO28" s="19"/>
+      <c r="BP28" s="19"/>
+      <c r="BQ28" s="19"/>
+      <c r="BR28" s="19"/>
+      <c r="BS28" s="19"/>
+      <c r="BT28" s="19"/>
+      <c r="BU28" s="19"/>
+      <c r="BV28" s="19"/>
+      <c r="BW28" s="19"/>
+      <c r="BX28" s="19"/>
+      <c r="BY28" s="19"/>
+      <c r="BZ28" s="19"/>
+      <c r="CA28" s="80">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="CB28" s="80">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="CC28" s="21"/>
+      <c r="CD28" s="19"/>
+      <c r="CE28" s="19"/>
+      <c r="CF28" s="19"/>
+      <c r="CG28" s="19"/>
+      <c r="CH28" s="19"/>
+      <c r="CI28" s="35"/>
+      <c r="CJ28" s="22"/>
+      <c r="CK28" s="17"/>
     </row>
     <row r="29" spans="1:89" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="108"/>
-      <c r="B29" s="40" t="s">
+      <c r="A29" s="94"/>
+      <c r="B29" s="36" t="s">
         <v>83</v>
       </c>
-      <c r="C29" s="20"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="20"/>
-      <c r="G29" s="20"/>
-      <c r="H29" s="20"/>
-      <c r="I29" s="20"/>
-      <c r="J29" s="20"/>
-      <c r="K29" s="20"/>
-      <c r="L29" s="20"/>
-      <c r="M29" s="20"/>
-      <c r="N29" s="21"/>
-      <c r="O29" s="20"/>
-      <c r="P29" s="20"/>
-      <c r="Q29" s="20"/>
-      <c r="R29" s="20"/>
-      <c r="S29" s="20"/>
-      <c r="T29" s="21"/>
-      <c r="U29" s="20"/>
-      <c r="V29" s="20"/>
-      <c r="W29" s="20"/>
-      <c r="X29" s="20"/>
-      <c r="Y29" s="20"/>
-      <c r="Z29" s="20"/>
-      <c r="AA29" s="20"/>
-      <c r="AB29" s="20"/>
-      <c r="AC29" s="20"/>
-      <c r="AD29" s="20"/>
-      <c r="AE29" s="20"/>
-      <c r="AF29" s="39"/>
-      <c r="AG29" s="39"/>
-      <c r="AH29" s="39"/>
-      <c r="AI29" s="39"/>
-      <c r="AJ29" s="39"/>
-      <c r="AK29" s="20"/>
-      <c r="AL29" s="20"/>
-      <c r="AM29" s="20"/>
-      <c r="AN29" s="22"/>
-      <c r="AO29" s="22"/>
-      <c r="AP29" s="22"/>
-      <c r="AQ29" s="20"/>
-      <c r="AR29" s="20"/>
-      <c r="AS29" s="20"/>
-      <c r="AT29" s="20"/>
-      <c r="AU29" s="20"/>
-      <c r="AV29" s="20"/>
-      <c r="AW29" s="20"/>
-      <c r="AX29" s="20"/>
-      <c r="AY29" s="20"/>
-      <c r="AZ29" s="20"/>
-      <c r="BA29" s="20"/>
-      <c r="BB29" s="20"/>
-      <c r="BC29" s="20"/>
-      <c r="BD29" s="20"/>
-      <c r="BE29" s="20"/>
-      <c r="BF29" s="20"/>
-      <c r="BG29" s="20"/>
-      <c r="BH29" s="20"/>
-      <c r="BI29" s="20"/>
-      <c r="BJ29" s="20"/>
-      <c r="BK29" s="20"/>
-      <c r="BL29" s="20"/>
-      <c r="BM29" s="20"/>
-      <c r="BN29" s="20"/>
-      <c r="BO29" s="20"/>
-      <c r="BP29" s="20"/>
-      <c r="BQ29" s="20"/>
-      <c r="BR29" s="20"/>
-      <c r="BS29" s="20"/>
-      <c r="BT29" s="20"/>
-      <c r="BU29" s="20"/>
-      <c r="BV29" s="20"/>
-      <c r="BW29" s="20"/>
-      <c r="BX29" s="20"/>
-      <c r="BY29" s="20"/>
-      <c r="BZ29" s="20"/>
-      <c r="CA29" s="21"/>
-      <c r="CB29" s="21"/>
-      <c r="CC29" s="23"/>
-      <c r="CD29" s="20"/>
-      <c r="CE29" s="20"/>
-      <c r="CF29" s="20"/>
-      <c r="CG29" s="20"/>
-      <c r="CH29" s="20"/>
-      <c r="CI29" s="39"/>
-      <c r="CJ29" s="24"/>
-      <c r="CK29" s="18"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="19"/>
+      <c r="K29" s="19"/>
+      <c r="L29" s="19"/>
+      <c r="M29" s="19"/>
+      <c r="N29" s="80">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O29" s="19"/>
+      <c r="P29" s="19"/>
+      <c r="Q29" s="19"/>
+      <c r="R29" s="19"/>
+      <c r="S29" s="19"/>
+      <c r="T29" s="80">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U29" s="19"/>
+      <c r="V29" s="19"/>
+      <c r="W29" s="19"/>
+      <c r="X29" s="19"/>
+      <c r="Y29" s="19"/>
+      <c r="Z29" s="19"/>
+      <c r="AA29" s="19"/>
+      <c r="AB29" s="19"/>
+      <c r="AC29" s="19"/>
+      <c r="AD29" s="19"/>
+      <c r="AE29" s="19"/>
+      <c r="AF29" s="35"/>
+      <c r="AG29" s="35"/>
+      <c r="AH29" s="35"/>
+      <c r="AI29" s="35"/>
+      <c r="AJ29" s="35"/>
+      <c r="AK29" s="19"/>
+      <c r="AL29" s="19"/>
+      <c r="AM29" s="19"/>
+      <c r="AN29" s="20"/>
+      <c r="AO29" s="20"/>
+      <c r="AP29" s="20"/>
+      <c r="AQ29" s="19"/>
+      <c r="AR29" s="19"/>
+      <c r="AS29" s="19"/>
+      <c r="AT29" s="19"/>
+      <c r="AU29" s="19"/>
+      <c r="AV29" s="19"/>
+      <c r="AW29" s="19"/>
+      <c r="AX29" s="19"/>
+      <c r="AY29" s="19"/>
+      <c r="AZ29" s="19"/>
+      <c r="BA29" s="19"/>
+      <c r="BB29" s="19"/>
+      <c r="BC29" s="19"/>
+      <c r="BD29" s="19"/>
+      <c r="BE29" s="19"/>
+      <c r="BF29" s="19"/>
+      <c r="BG29" s="19"/>
+      <c r="BH29" s="19"/>
+      <c r="BI29" s="19"/>
+      <c r="BJ29" s="19"/>
+      <c r="BK29" s="19"/>
+      <c r="BL29" s="19"/>
+      <c r="BM29" s="19"/>
+      <c r="BN29" s="19"/>
+      <c r="BO29" s="19"/>
+      <c r="BP29" s="19"/>
+      <c r="BQ29" s="19"/>
+      <c r="BR29" s="19"/>
+      <c r="BS29" s="19"/>
+      <c r="BT29" s="19"/>
+      <c r="BU29" s="19"/>
+      <c r="BV29" s="19"/>
+      <c r="BW29" s="19"/>
+      <c r="BX29" s="19"/>
+      <c r="BY29" s="19"/>
+      <c r="BZ29" s="19"/>
+      <c r="CA29" s="80">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="CB29" s="80">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="CC29" s="21"/>
+      <c r="CD29" s="19"/>
+      <c r="CE29" s="19"/>
+      <c r="CF29" s="19"/>
+      <c r="CG29" s="19"/>
+      <c r="CH29" s="19"/>
+      <c r="CI29" s="35"/>
+      <c r="CJ29" s="22"/>
+      <c r="CK29" s="17"/>
     </row>
     <row r="30" spans="1:89" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="108"/>
-      <c r="B30" s="41" t="s">
+      <c r="A30" s="94"/>
+      <c r="B30" s="37" t="s">
         <v>90</v>
       </c>
-      <c r="C30" s="21"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="21"/>
-      <c r="H30" s="21"/>
-      <c r="I30" s="21"/>
-      <c r="J30" s="21"/>
-      <c r="K30" s="21"/>
-      <c r="L30" s="21"/>
-      <c r="M30" s="21"/>
-      <c r="N30" s="21"/>
-      <c r="O30" s="21"/>
-      <c r="P30" s="21"/>
-      <c r="Q30" s="21"/>
-      <c r="R30" s="21"/>
-      <c r="S30" s="21"/>
-      <c r="T30" s="21"/>
-      <c r="U30" s="21"/>
-      <c r="V30" s="21"/>
-      <c r="W30" s="21"/>
-      <c r="X30" s="21"/>
-      <c r="Y30" s="21"/>
-      <c r="Z30" s="21"/>
-      <c r="AA30" s="21"/>
-      <c r="AB30" s="21"/>
-      <c r="AC30" s="21"/>
-      <c r="AD30" s="21"/>
-      <c r="AE30" s="21"/>
-      <c r="AF30" s="39"/>
-      <c r="AG30" s="39"/>
-      <c r="AH30" s="39"/>
-      <c r="AI30" s="39"/>
-      <c r="AJ30" s="39"/>
-      <c r="AK30" s="21"/>
-      <c r="AL30" s="21"/>
-      <c r="AM30" s="21"/>
-      <c r="AN30" s="27"/>
-      <c r="AO30" s="27"/>
-      <c r="AP30" s="27"/>
-      <c r="AQ30" s="21"/>
-      <c r="AR30" s="21"/>
-      <c r="AS30" s="21"/>
-      <c r="AT30" s="21"/>
-      <c r="AU30" s="21"/>
-      <c r="AV30" s="21"/>
-      <c r="AW30" s="21"/>
-      <c r="AX30" s="21"/>
-      <c r="AY30" s="21"/>
-      <c r="AZ30" s="21"/>
-      <c r="BA30" s="21"/>
-      <c r="BB30" s="21"/>
-      <c r="BC30" s="21"/>
-      <c r="BD30" s="21"/>
-      <c r="BE30" s="21"/>
-      <c r="BF30" s="21"/>
-      <c r="BG30" s="21"/>
-      <c r="BH30" s="21"/>
-      <c r="BI30" s="21"/>
-      <c r="BJ30" s="21"/>
-      <c r="BK30" s="21"/>
-      <c r="BL30" s="21"/>
-      <c r="BM30" s="21"/>
-      <c r="BN30" s="21"/>
-      <c r="BO30" s="21"/>
-      <c r="BP30" s="21"/>
-      <c r="BQ30" s="21"/>
-      <c r="BR30" s="21"/>
-      <c r="BS30" s="21"/>
-      <c r="BT30" s="21"/>
-      <c r="BU30" s="21"/>
-      <c r="BV30" s="21"/>
-      <c r="BW30" s="21"/>
-      <c r="BX30" s="21"/>
-      <c r="BY30" s="21"/>
-      <c r="BZ30" s="21"/>
-      <c r="CA30" s="21"/>
-      <c r="CB30" s="21"/>
-      <c r="CC30" s="21"/>
-      <c r="CD30" s="21"/>
-      <c r="CE30" s="21"/>
-      <c r="CF30" s="21"/>
-      <c r="CG30" s="21"/>
-      <c r="CH30" s="21"/>
-      <c r="CI30" s="21"/>
-      <c r="CJ30" s="42"/>
-      <c r="CK30" s="18"/>
+      <c r="C30" s="80">
+        <f>SUM(C23:C29)</f>
+        <v>0</v>
+      </c>
+      <c r="D30" s="80">
+        <f t="shared" ref="D30:M30" si="69">SUM(D23:D29)</f>
+        <v>0</v>
+      </c>
+      <c r="E30" s="80">
+        <f t="shared" si="69"/>
+        <v>0</v>
+      </c>
+      <c r="F30" s="80">
+        <f t="shared" si="69"/>
+        <v>0</v>
+      </c>
+      <c r="G30" s="80">
+        <f t="shared" si="69"/>
+        <v>0</v>
+      </c>
+      <c r="H30" s="80">
+        <f t="shared" si="69"/>
+        <v>0</v>
+      </c>
+      <c r="I30" s="80">
+        <f t="shared" si="69"/>
+        <v>0</v>
+      </c>
+      <c r="J30" s="80">
+        <f t="shared" si="69"/>
+        <v>0</v>
+      </c>
+      <c r="K30" s="80">
+        <f t="shared" si="69"/>
+        <v>0</v>
+      </c>
+      <c r="L30" s="80">
+        <f t="shared" si="69"/>
+        <v>0</v>
+      </c>
+      <c r="M30" s="80">
+        <f t="shared" si="69"/>
+        <v>0</v>
+      </c>
+      <c r="N30" s="80">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O30" s="80">
+        <f t="shared" ref="O30:S30" si="70">SUM(O23:O29)</f>
+        <v>0</v>
+      </c>
+      <c r="P30" s="80">
+        <f t="shared" si="70"/>
+        <v>0</v>
+      </c>
+      <c r="Q30" s="80">
+        <f t="shared" si="70"/>
+        <v>0</v>
+      </c>
+      <c r="R30" s="80">
+        <f t="shared" si="70"/>
+        <v>0</v>
+      </c>
+      <c r="S30" s="80">
+        <f t="shared" si="70"/>
+        <v>0</v>
+      </c>
+      <c r="T30" s="80">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U30" s="80">
+        <f t="shared" ref="U30:AE30" si="71">SUM(U23:U29)</f>
+        <v>0</v>
+      </c>
+      <c r="V30" s="80">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="W30" s="80">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="X30" s="80">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="Y30" s="80">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="Z30" s="80">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="AA30" s="80">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="AB30" s="80">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="AC30" s="80">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="AD30" s="80">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="AE30" s="80">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="AF30" s="81"/>
+      <c r="AG30" s="81"/>
+      <c r="AH30" s="81"/>
+      <c r="AI30" s="81"/>
+      <c r="AJ30" s="81"/>
+      <c r="AK30" s="80">
+        <f t="shared" ref="AK30:BZ30" si="72">SUM(AK23:AK29)</f>
+        <v>0</v>
+      </c>
+      <c r="AL30" s="80">
+        <f t="shared" si="72"/>
+        <v>0</v>
+      </c>
+      <c r="AM30" s="80">
+        <f t="shared" si="72"/>
+        <v>0</v>
+      </c>
+      <c r="AN30" s="82">
+        <f t="shared" si="72"/>
+        <v>0</v>
+      </c>
+      <c r="AO30" s="82">
+        <f t="shared" si="72"/>
+        <v>0</v>
+      </c>
+      <c r="AP30" s="82">
+        <f t="shared" si="72"/>
+        <v>0</v>
+      </c>
+      <c r="AQ30" s="80">
+        <f t="shared" si="72"/>
+        <v>0</v>
+      </c>
+      <c r="AR30" s="80">
+        <f t="shared" si="72"/>
+        <v>0</v>
+      </c>
+      <c r="AS30" s="80">
+        <f t="shared" si="72"/>
+        <v>0</v>
+      </c>
+      <c r="AT30" s="80">
+        <f t="shared" si="72"/>
+        <v>0</v>
+      </c>
+      <c r="AU30" s="80">
+        <f t="shared" si="72"/>
+        <v>0</v>
+      </c>
+      <c r="AV30" s="80">
+        <f t="shared" si="72"/>
+        <v>0</v>
+      </c>
+      <c r="AW30" s="80">
+        <f t="shared" si="72"/>
+        <v>0</v>
+      </c>
+      <c r="AX30" s="80">
+        <f t="shared" si="72"/>
+        <v>0</v>
+      </c>
+      <c r="AY30" s="80">
+        <f t="shared" si="72"/>
+        <v>0</v>
+      </c>
+      <c r="AZ30" s="80">
+        <f t="shared" si="72"/>
+        <v>0</v>
+      </c>
+      <c r="BA30" s="80">
+        <f t="shared" si="72"/>
+        <v>0</v>
+      </c>
+      <c r="BB30" s="80">
+        <f t="shared" si="72"/>
+        <v>0</v>
+      </c>
+      <c r="BC30" s="80">
+        <f t="shared" si="72"/>
+        <v>0</v>
+      </c>
+      <c r="BD30" s="80">
+        <f t="shared" si="72"/>
+        <v>0</v>
+      </c>
+      <c r="BE30" s="80">
+        <f t="shared" si="72"/>
+        <v>0</v>
+      </c>
+      <c r="BF30" s="80">
+        <f t="shared" si="72"/>
+        <v>0</v>
+      </c>
+      <c r="BG30" s="80">
+        <f t="shared" si="72"/>
+        <v>0</v>
+      </c>
+      <c r="BH30" s="80">
+        <f t="shared" si="72"/>
+        <v>0</v>
+      </c>
+      <c r="BI30" s="80">
+        <f t="shared" si="72"/>
+        <v>0</v>
+      </c>
+      <c r="BJ30" s="80">
+        <f t="shared" si="72"/>
+        <v>0</v>
+      </c>
+      <c r="BK30" s="80">
+        <f t="shared" si="72"/>
+        <v>0</v>
+      </c>
+      <c r="BL30" s="80">
+        <f t="shared" si="72"/>
+        <v>0</v>
+      </c>
+      <c r="BM30" s="80">
+        <f t="shared" si="72"/>
+        <v>0</v>
+      </c>
+      <c r="BN30" s="80">
+        <f t="shared" si="72"/>
+        <v>0</v>
+      </c>
+      <c r="BO30" s="80">
+        <f t="shared" si="72"/>
+        <v>0</v>
+      </c>
+      <c r="BP30" s="80">
+        <f t="shared" si="72"/>
+        <v>0</v>
+      </c>
+      <c r="BQ30" s="80">
+        <f t="shared" si="72"/>
+        <v>0</v>
+      </c>
+      <c r="BR30" s="80">
+        <f t="shared" si="72"/>
+        <v>0</v>
+      </c>
+      <c r="BS30" s="80">
+        <f t="shared" si="72"/>
+        <v>0</v>
+      </c>
+      <c r="BT30" s="80">
+        <f t="shared" si="72"/>
+        <v>0</v>
+      </c>
+      <c r="BU30" s="80">
+        <f t="shared" si="72"/>
+        <v>0</v>
+      </c>
+      <c r="BV30" s="80">
+        <f t="shared" si="72"/>
+        <v>0</v>
+      </c>
+      <c r="BW30" s="80">
+        <f t="shared" si="72"/>
+        <v>0</v>
+      </c>
+      <c r="BX30" s="80">
+        <f t="shared" si="72"/>
+        <v>0</v>
+      </c>
+      <c r="BY30" s="80">
+        <f t="shared" si="72"/>
+        <v>0</v>
+      </c>
+      <c r="BZ30" s="80">
+        <f t="shared" si="72"/>
+        <v>0</v>
+      </c>
+      <c r="CA30" s="80">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="CB30" s="80">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="CC30" s="80">
+        <f t="shared" ref="CC30:CH30" si="73">SUM(CC23:CC29)</f>
+        <v>0</v>
+      </c>
+      <c r="CD30" s="80">
+        <f t="shared" si="73"/>
+        <v>0</v>
+      </c>
+      <c r="CE30" s="80">
+        <f t="shared" si="73"/>
+        <v>0</v>
+      </c>
+      <c r="CF30" s="80">
+        <f t="shared" si="73"/>
+        <v>0</v>
+      </c>
+      <c r="CG30" s="80">
+        <f t="shared" si="73"/>
+        <v>0</v>
+      </c>
+      <c r="CH30" s="80">
+        <f t="shared" si="73"/>
+        <v>0</v>
+      </c>
+      <c r="CI30" s="92" t="e">
+        <f>CH30/F30</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="CJ30" s="91" t="e">
+        <f>CH30/C30</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="CK30" s="17"/>
     </row>
     <row r="31" spans="1:89" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="108"/>
-      <c r="B31" s="25" t="s">
+      <c r="A31" s="94"/>
+      <c r="B31" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="C31" s="20"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="20"/>
-      <c r="G31" s="20"/>
-      <c r="H31" s="20"/>
-      <c r="I31" s="20"/>
-      <c r="J31" s="20"/>
-      <c r="K31" s="20"/>
-      <c r="L31" s="20"/>
-      <c r="M31" s="20"/>
-      <c r="N31" s="21"/>
-      <c r="O31" s="20"/>
-      <c r="P31" s="20"/>
-      <c r="Q31" s="20"/>
-      <c r="R31" s="20"/>
-      <c r="S31" s="20"/>
-      <c r="T31" s="21"/>
-      <c r="U31" s="20"/>
-      <c r="V31" s="20"/>
-      <c r="W31" s="20"/>
-      <c r="X31" s="20"/>
-      <c r="Y31" s="20"/>
-      <c r="Z31" s="20"/>
-      <c r="AA31" s="20"/>
-      <c r="AB31" s="20"/>
-      <c r="AC31" s="20"/>
-      <c r="AD31" s="20"/>
-      <c r="AE31" s="20"/>
-      <c r="AF31" s="39"/>
-      <c r="AG31" s="39"/>
-      <c r="AH31" s="39"/>
-      <c r="AI31" s="39"/>
-      <c r="AJ31" s="39"/>
-      <c r="AK31" s="20"/>
-      <c r="AL31" s="20"/>
-      <c r="AM31" s="20"/>
-      <c r="AN31" s="22"/>
-      <c r="AO31" s="22"/>
-      <c r="AP31" s="22"/>
-      <c r="AQ31" s="20"/>
-      <c r="AR31" s="20"/>
-      <c r="AS31" s="20"/>
-      <c r="AT31" s="20"/>
-      <c r="AU31" s="20"/>
-      <c r="AV31" s="20"/>
-      <c r="AW31" s="20"/>
-      <c r="AX31" s="20"/>
-      <c r="AY31" s="20"/>
-      <c r="AZ31" s="20"/>
-      <c r="BA31" s="20"/>
-      <c r="BB31" s="20"/>
-      <c r="BC31" s="20"/>
-      <c r="BD31" s="20"/>
-      <c r="BE31" s="20"/>
-      <c r="BF31" s="20"/>
-      <c r="BG31" s="20"/>
-      <c r="BH31" s="20"/>
-      <c r="BI31" s="20"/>
-      <c r="BJ31" s="20"/>
-      <c r="BK31" s="20"/>
-      <c r="BL31" s="20"/>
-      <c r="BM31" s="20"/>
-      <c r="BN31" s="20"/>
-      <c r="BO31" s="20"/>
-      <c r="BP31" s="20"/>
-      <c r="BQ31" s="20"/>
-      <c r="BR31" s="20"/>
-      <c r="BS31" s="20"/>
-      <c r="BT31" s="20"/>
-      <c r="BU31" s="20"/>
-      <c r="BV31" s="20"/>
-      <c r="BW31" s="20"/>
-      <c r="BX31" s="20"/>
-      <c r="BY31" s="20"/>
-      <c r="BZ31" s="20"/>
-      <c r="CA31" s="21"/>
-      <c r="CB31" s="21"/>
-      <c r="CC31" s="23"/>
-      <c r="CD31" s="20"/>
-      <c r="CE31" s="20"/>
-      <c r="CF31" s="20"/>
-      <c r="CG31" s="20"/>
-      <c r="CH31" s="20"/>
-      <c r="CI31" s="39"/>
-      <c r="CJ31" s="24"/>
-      <c r="CK31" s="18"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="19"/>
+      <c r="K31" s="19"/>
+      <c r="L31" s="19"/>
+      <c r="M31" s="19"/>
+      <c r="N31" s="80">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O31" s="19"/>
+      <c r="P31" s="19"/>
+      <c r="Q31" s="19"/>
+      <c r="R31" s="19"/>
+      <c r="S31" s="19"/>
+      <c r="T31" s="80">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U31" s="19"/>
+      <c r="V31" s="19"/>
+      <c r="W31" s="19"/>
+      <c r="X31" s="19"/>
+      <c r="Y31" s="19"/>
+      <c r="Z31" s="19"/>
+      <c r="AA31" s="19"/>
+      <c r="AB31" s="19"/>
+      <c r="AC31" s="19"/>
+      <c r="AD31" s="19"/>
+      <c r="AE31" s="19"/>
+      <c r="AF31" s="35"/>
+      <c r="AG31" s="35"/>
+      <c r="AH31" s="35"/>
+      <c r="AI31" s="35"/>
+      <c r="AJ31" s="35"/>
+      <c r="AK31" s="19"/>
+      <c r="AL31" s="19"/>
+      <c r="AM31" s="19"/>
+      <c r="AN31" s="20"/>
+      <c r="AO31" s="20"/>
+      <c r="AP31" s="20"/>
+      <c r="AQ31" s="19"/>
+      <c r="AR31" s="19"/>
+      <c r="AS31" s="19"/>
+      <c r="AT31" s="19"/>
+      <c r="AU31" s="19"/>
+      <c r="AV31" s="19"/>
+      <c r="AW31" s="19"/>
+      <c r="AX31" s="19"/>
+      <c r="AY31" s="19"/>
+      <c r="AZ31" s="19"/>
+      <c r="BA31" s="19"/>
+      <c r="BB31" s="19"/>
+      <c r="BC31" s="19"/>
+      <c r="BD31" s="19"/>
+      <c r="BE31" s="19"/>
+      <c r="BF31" s="19"/>
+      <c r="BG31" s="19"/>
+      <c r="BH31" s="19"/>
+      <c r="BI31" s="19"/>
+      <c r="BJ31" s="19"/>
+      <c r="BK31" s="19"/>
+      <c r="BL31" s="19"/>
+      <c r="BM31" s="19"/>
+      <c r="BN31" s="19"/>
+      <c r="BO31" s="19"/>
+      <c r="BP31" s="19"/>
+      <c r="BQ31" s="19"/>
+      <c r="BR31" s="19"/>
+      <c r="BS31" s="19"/>
+      <c r="BT31" s="19"/>
+      <c r="BU31" s="19"/>
+      <c r="BV31" s="19"/>
+      <c r="BW31" s="19"/>
+      <c r="BX31" s="19"/>
+      <c r="BY31" s="19"/>
+      <c r="BZ31" s="19"/>
+      <c r="CA31" s="80">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="CB31" s="80">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="CC31" s="21"/>
+      <c r="CD31" s="19"/>
+      <c r="CE31" s="19"/>
+      <c r="CF31" s="19"/>
+      <c r="CG31" s="19"/>
+      <c r="CH31" s="19"/>
+      <c r="CI31" s="35"/>
+      <c r="CJ31" s="22"/>
+      <c r="CK31" s="17"/>
     </row>
     <row r="32" spans="1:89" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="109"/>
-      <c r="B32" s="25" t="s">
+      <c r="A32" s="95"/>
+      <c r="B32" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="C32" s="20"/>
-      <c r="D32" s="20"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="20"/>
-      <c r="G32" s="20"/>
-      <c r="H32" s="20"/>
-      <c r="I32" s="20"/>
-      <c r="J32" s="20"/>
-      <c r="K32" s="20"/>
-      <c r="L32" s="20"/>
-      <c r="M32" s="20"/>
-      <c r="N32" s="21"/>
-      <c r="O32" s="20"/>
-      <c r="P32" s="20"/>
-      <c r="Q32" s="20"/>
-      <c r="R32" s="20"/>
-      <c r="S32" s="20"/>
-      <c r="T32" s="21"/>
-      <c r="U32" s="20"/>
-      <c r="V32" s="20"/>
-      <c r="W32" s="20"/>
-      <c r="X32" s="20"/>
-      <c r="Y32" s="20"/>
-      <c r="Z32" s="20"/>
-      <c r="AA32" s="20"/>
-      <c r="AB32" s="20"/>
-      <c r="AC32" s="20"/>
-      <c r="AD32" s="20"/>
-      <c r="AE32" s="20"/>
-      <c r="AF32" s="39"/>
-      <c r="AG32" s="39"/>
-      <c r="AH32" s="39"/>
-      <c r="AI32" s="39"/>
-      <c r="AJ32" s="39"/>
-      <c r="AK32" s="20"/>
-      <c r="AL32" s="20"/>
-      <c r="AM32" s="20"/>
-      <c r="AN32" s="22"/>
-      <c r="AO32" s="22"/>
-      <c r="AP32" s="22"/>
-      <c r="AQ32" s="20"/>
-      <c r="AR32" s="20"/>
-      <c r="AS32" s="20"/>
-      <c r="AT32" s="20"/>
-      <c r="AU32" s="20"/>
-      <c r="AV32" s="20"/>
-      <c r="AW32" s="20"/>
-      <c r="AX32" s="20"/>
-      <c r="AY32" s="20"/>
-      <c r="AZ32" s="20"/>
-      <c r="BA32" s="20"/>
-      <c r="BB32" s="20"/>
-      <c r="BC32" s="20"/>
-      <c r="BD32" s="20"/>
-      <c r="BE32" s="20"/>
-      <c r="BF32" s="20"/>
-      <c r="BG32" s="20"/>
-      <c r="BH32" s="20"/>
-      <c r="BI32" s="20"/>
-      <c r="BJ32" s="20"/>
-      <c r="BK32" s="20"/>
-      <c r="BL32" s="20"/>
-      <c r="BM32" s="20"/>
-      <c r="BN32" s="20"/>
-      <c r="BO32" s="20"/>
-      <c r="BP32" s="20"/>
-      <c r="BQ32" s="20"/>
-      <c r="BR32" s="20"/>
-      <c r="BS32" s="20"/>
-      <c r="BT32" s="20"/>
-      <c r="BU32" s="20"/>
-      <c r="BV32" s="20"/>
-      <c r="BW32" s="20"/>
-      <c r="BX32" s="20"/>
-      <c r="BY32" s="20"/>
-      <c r="BZ32" s="20"/>
-      <c r="CA32" s="21"/>
-      <c r="CB32" s="21"/>
-      <c r="CC32" s="23"/>
-      <c r="CD32" s="20"/>
-      <c r="CE32" s="20"/>
-      <c r="CF32" s="20"/>
-      <c r="CG32" s="20"/>
-      <c r="CH32" s="20"/>
-      <c r="CI32" s="39"/>
-      <c r="CJ32" s="24"/>
-      <c r="CK32" s="18"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="19"/>
+      <c r="H32" s="19"/>
+      <c r="I32" s="19"/>
+      <c r="J32" s="19"/>
+      <c r="K32" s="19"/>
+      <c r="L32" s="19"/>
+      <c r="M32" s="19"/>
+      <c r="N32" s="80">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O32" s="19"/>
+      <c r="P32" s="19"/>
+      <c r="Q32" s="19"/>
+      <c r="R32" s="19"/>
+      <c r="S32" s="19"/>
+      <c r="T32" s="80">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U32" s="19"/>
+      <c r="V32" s="19"/>
+      <c r="W32" s="19"/>
+      <c r="X32" s="19"/>
+      <c r="Y32" s="19"/>
+      <c r="Z32" s="19"/>
+      <c r="AA32" s="19"/>
+      <c r="AB32" s="19"/>
+      <c r="AC32" s="19"/>
+      <c r="AD32" s="19"/>
+      <c r="AE32" s="19"/>
+      <c r="AF32" s="35"/>
+      <c r="AG32" s="35"/>
+      <c r="AH32" s="35"/>
+      <c r="AI32" s="35"/>
+      <c r="AJ32" s="35"/>
+      <c r="AK32" s="19"/>
+      <c r="AL32" s="19"/>
+      <c r="AM32" s="19"/>
+      <c r="AN32" s="20"/>
+      <c r="AO32" s="20"/>
+      <c r="AP32" s="20"/>
+      <c r="AQ32" s="19"/>
+      <c r="AR32" s="19"/>
+      <c r="AS32" s="19"/>
+      <c r="AT32" s="19"/>
+      <c r="AU32" s="19"/>
+      <c r="AV32" s="19"/>
+      <c r="AW32" s="19"/>
+      <c r="AX32" s="19"/>
+      <c r="AY32" s="19"/>
+      <c r="AZ32" s="19"/>
+      <c r="BA32" s="19"/>
+      <c r="BB32" s="19"/>
+      <c r="BC32" s="19"/>
+      <c r="BD32" s="19"/>
+      <c r="BE32" s="19"/>
+      <c r="BF32" s="19"/>
+      <c r="BG32" s="19"/>
+      <c r="BH32" s="19"/>
+      <c r="BI32" s="19"/>
+      <c r="BJ32" s="19"/>
+      <c r="BK32" s="19"/>
+      <c r="BL32" s="19"/>
+      <c r="BM32" s="19"/>
+      <c r="BN32" s="19"/>
+      <c r="BO32" s="19"/>
+      <c r="BP32" s="19"/>
+      <c r="BQ32" s="19"/>
+      <c r="BR32" s="19"/>
+      <c r="BS32" s="19"/>
+      <c r="BT32" s="19"/>
+      <c r="BU32" s="19"/>
+      <c r="BV32" s="19"/>
+      <c r="BW32" s="19"/>
+      <c r="BX32" s="19"/>
+      <c r="BY32" s="19"/>
+      <c r="BZ32" s="19"/>
+      <c r="CA32" s="80">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="CB32" s="80">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="CC32" s="21"/>
+      <c r="CD32" s="19"/>
+      <c r="CE32" s="19"/>
+      <c r="CF32" s="19"/>
+      <c r="CG32" s="19"/>
+      <c r="CH32" s="19"/>
+      <c r="CI32" s="35"/>
+      <c r="CJ32" s="22"/>
+      <c r="CK32" s="17"/>
     </row>
     <row r="33" spans="1:89" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="107" t="s">
+      <c r="A33" s="93" t="s">
         <v>95</v>
       </c>
       <c r="B33" s="12" t="s">
@@ -5094,13 +5787,19 @@
       <c r="K33" s="13"/>
       <c r="L33" s="13"/>
       <c r="M33" s="13"/>
-      <c r="N33" s="14"/>
+      <c r="N33" s="86">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="O33" s="13"/>
       <c r="P33" s="13"/>
       <c r="Q33" s="13"/>
       <c r="R33" s="13"/>
       <c r="S33" s="13"/>
-      <c r="T33" s="14"/>
+      <c r="T33" s="86">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="U33" s="13"/>
       <c r="V33" s="13"/>
       <c r="W33" s="13"/>
@@ -5112,17 +5811,17 @@
       <c r="AC33" s="13"/>
       <c r="AD33" s="13"/>
       <c r="AE33" s="13"/>
-      <c r="AF33" s="37"/>
-      <c r="AG33" s="37"/>
-      <c r="AH33" s="37"/>
-      <c r="AI33" s="37"/>
-      <c r="AJ33" s="37"/>
+      <c r="AF33" s="33"/>
+      <c r="AG33" s="33"/>
+      <c r="AH33" s="33"/>
+      <c r="AI33" s="33"/>
+      <c r="AJ33" s="33"/>
       <c r="AK33" s="13"/>
       <c r="AL33" s="13"/>
       <c r="AM33" s="13"/>
-      <c r="AN33" s="15"/>
-      <c r="AO33" s="15"/>
-      <c r="AP33" s="15"/>
+      <c r="AN33" s="14"/>
+      <c r="AO33" s="14"/>
+      <c r="AP33" s="14"/>
       <c r="AQ33" s="13"/>
       <c r="AR33" s="13"/>
       <c r="AS33" s="13"/>
@@ -5159,1133 +5858,1763 @@
       <c r="BX33" s="13"/>
       <c r="BY33" s="13"/>
       <c r="BZ33" s="13"/>
-      <c r="CA33" s="14"/>
-      <c r="CB33" s="14"/>
-      <c r="CC33" s="16"/>
+      <c r="CA33" s="86">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="CB33" s="86">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="CC33" s="15"/>
       <c r="CD33" s="13"/>
       <c r="CE33" s="13"/>
       <c r="CF33" s="13"/>
       <c r="CG33" s="13"/>
       <c r="CH33" s="13"/>
-      <c r="CI33" s="37"/>
-      <c r="CJ33" s="17"/>
-      <c r="CK33" s="18"/>
+      <c r="CI33" s="33"/>
+      <c r="CJ33" s="16"/>
+      <c r="CK33" s="17"/>
     </row>
     <row r="34" spans="1:89" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="108"/>
-      <c r="B34" s="55">
+      <c r="A34" s="94"/>
+      <c r="B34" s="49">
         <v>1</v>
       </c>
-      <c r="C34" s="49"/>
-      <c r="D34" s="49"/>
-      <c r="E34" s="49"/>
-      <c r="F34" s="49"/>
-      <c r="G34" s="49"/>
-      <c r="H34" s="49"/>
-      <c r="I34" s="49"/>
-      <c r="J34" s="49"/>
-      <c r="K34" s="49"/>
-      <c r="L34" s="49"/>
-      <c r="M34" s="49"/>
-      <c r="N34" s="50"/>
-      <c r="O34" s="49"/>
-      <c r="P34" s="49"/>
-      <c r="Q34" s="49"/>
-      <c r="R34" s="49"/>
-      <c r="S34" s="49"/>
-      <c r="T34" s="50"/>
-      <c r="U34" s="49"/>
-      <c r="V34" s="49"/>
-      <c r="W34" s="49"/>
-      <c r="X34" s="49"/>
-      <c r="Y34" s="49"/>
-      <c r="Z34" s="49"/>
-      <c r="AA34" s="49"/>
-      <c r="AB34" s="49"/>
-      <c r="AC34" s="49"/>
-      <c r="AD34" s="49"/>
-      <c r="AE34" s="49"/>
-      <c r="AF34" s="53"/>
-      <c r="AG34" s="53"/>
-      <c r="AH34" s="53"/>
-      <c r="AI34" s="53"/>
-      <c r="AJ34" s="53"/>
-      <c r="AK34" s="49"/>
-      <c r="AL34" s="49"/>
-      <c r="AM34" s="49"/>
-      <c r="AN34" s="51"/>
-      <c r="AO34" s="51"/>
-      <c r="AP34" s="51"/>
-      <c r="AQ34" s="49"/>
-      <c r="AR34" s="49"/>
-      <c r="AS34" s="49"/>
-      <c r="AT34" s="49"/>
-      <c r="AU34" s="49"/>
-      <c r="AV34" s="49"/>
-      <c r="AW34" s="49"/>
-      <c r="AX34" s="49"/>
-      <c r="AY34" s="49"/>
-      <c r="AZ34" s="49"/>
-      <c r="BA34" s="49"/>
-      <c r="BB34" s="49"/>
-      <c r="BC34" s="49"/>
-      <c r="BD34" s="49"/>
-      <c r="BE34" s="49"/>
-      <c r="BF34" s="49"/>
-      <c r="BG34" s="49"/>
-      <c r="BH34" s="49"/>
-      <c r="BI34" s="49"/>
-      <c r="BJ34" s="49"/>
-      <c r="BK34" s="49"/>
-      <c r="BL34" s="49"/>
-      <c r="BM34" s="49"/>
-      <c r="BN34" s="49"/>
-      <c r="BO34" s="49"/>
-      <c r="BP34" s="49"/>
-      <c r="BQ34" s="49"/>
-      <c r="BR34" s="49"/>
-      <c r="BS34" s="49"/>
-      <c r="BT34" s="49"/>
-      <c r="BU34" s="49"/>
-      <c r="BV34" s="49"/>
-      <c r="BW34" s="49"/>
-      <c r="BX34" s="49"/>
-      <c r="BY34" s="49"/>
-      <c r="BZ34" s="49"/>
-      <c r="CA34" s="50"/>
-      <c r="CB34" s="50"/>
-      <c r="CC34" s="52"/>
-      <c r="CD34" s="49"/>
-      <c r="CE34" s="49"/>
-      <c r="CF34" s="49"/>
-      <c r="CG34" s="49"/>
-      <c r="CH34" s="49"/>
-      <c r="CI34" s="53"/>
-      <c r="CJ34" s="54"/>
-      <c r="CK34" s="18"/>
+      <c r="C34" s="44"/>
+      <c r="D34" s="44"/>
+      <c r="E34" s="44"/>
+      <c r="F34" s="44"/>
+      <c r="G34" s="44"/>
+      <c r="H34" s="44"/>
+      <c r="I34" s="44"/>
+      <c r="J34" s="44"/>
+      <c r="K34" s="44"/>
+      <c r="L34" s="44"/>
+      <c r="M34" s="44"/>
+      <c r="N34" s="88">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O34" s="44"/>
+      <c r="P34" s="44"/>
+      <c r="Q34" s="44"/>
+      <c r="R34" s="44"/>
+      <c r="S34" s="44"/>
+      <c r="T34" s="88">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U34" s="44"/>
+      <c r="V34" s="44"/>
+      <c r="W34" s="44"/>
+      <c r="X34" s="44"/>
+      <c r="Y34" s="44"/>
+      <c r="Z34" s="44"/>
+      <c r="AA34" s="44"/>
+      <c r="AB34" s="44"/>
+      <c r="AC34" s="44"/>
+      <c r="AD34" s="44"/>
+      <c r="AE34" s="44"/>
+      <c r="AF34" s="47"/>
+      <c r="AG34" s="47"/>
+      <c r="AH34" s="47"/>
+      <c r="AI34" s="47"/>
+      <c r="AJ34" s="47"/>
+      <c r="AK34" s="44"/>
+      <c r="AL34" s="44"/>
+      <c r="AM34" s="44"/>
+      <c r="AN34" s="45"/>
+      <c r="AO34" s="45"/>
+      <c r="AP34" s="45"/>
+      <c r="AQ34" s="44"/>
+      <c r="AR34" s="44"/>
+      <c r="AS34" s="44"/>
+      <c r="AT34" s="44"/>
+      <c r="AU34" s="44"/>
+      <c r="AV34" s="44"/>
+      <c r="AW34" s="44"/>
+      <c r="AX34" s="44"/>
+      <c r="AY34" s="44"/>
+      <c r="AZ34" s="44"/>
+      <c r="BA34" s="44"/>
+      <c r="BB34" s="44"/>
+      <c r="BC34" s="44"/>
+      <c r="BD34" s="44"/>
+      <c r="BE34" s="44"/>
+      <c r="BF34" s="44"/>
+      <c r="BG34" s="44"/>
+      <c r="BH34" s="44"/>
+      <c r="BI34" s="44"/>
+      <c r="BJ34" s="44"/>
+      <c r="BK34" s="44"/>
+      <c r="BL34" s="44"/>
+      <c r="BM34" s="44"/>
+      <c r="BN34" s="44"/>
+      <c r="BO34" s="44"/>
+      <c r="BP34" s="44"/>
+      <c r="BQ34" s="44"/>
+      <c r="BR34" s="44"/>
+      <c r="BS34" s="44"/>
+      <c r="BT34" s="44"/>
+      <c r="BU34" s="44"/>
+      <c r="BV34" s="44"/>
+      <c r="BW34" s="44"/>
+      <c r="BX34" s="44"/>
+      <c r="BY34" s="44"/>
+      <c r="BZ34" s="44"/>
+      <c r="CA34" s="88">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="CB34" s="88">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="CC34" s="46"/>
+      <c r="CD34" s="44"/>
+      <c r="CE34" s="44"/>
+      <c r="CF34" s="44"/>
+      <c r="CG34" s="44"/>
+      <c r="CH34" s="44"/>
+      <c r="CI34" s="47"/>
+      <c r="CJ34" s="48"/>
+      <c r="CK34" s="17"/>
     </row>
     <row r="35" spans="1:89" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="108"/>
-      <c r="B35" s="38">
+      <c r="A35" s="94"/>
+      <c r="B35" s="34">
         <v>2</v>
       </c>
-      <c r="C35" s="20"/>
-      <c r="D35" s="20"/>
-      <c r="E35" s="20"/>
-      <c r="F35" s="20"/>
-      <c r="G35" s="20"/>
-      <c r="H35" s="20"/>
-      <c r="I35" s="20"/>
-      <c r="J35" s="20"/>
-      <c r="K35" s="20"/>
-      <c r="L35" s="20"/>
-      <c r="M35" s="20"/>
-      <c r="N35" s="21"/>
-      <c r="O35" s="20"/>
-      <c r="P35" s="20"/>
-      <c r="Q35" s="20"/>
-      <c r="R35" s="20"/>
-      <c r="S35" s="20"/>
-      <c r="T35" s="21"/>
-      <c r="U35" s="20"/>
-      <c r="V35" s="20"/>
-      <c r="W35" s="20"/>
-      <c r="X35" s="20"/>
-      <c r="Y35" s="20"/>
-      <c r="Z35" s="20"/>
-      <c r="AA35" s="20"/>
-      <c r="AB35" s="20"/>
-      <c r="AC35" s="20"/>
-      <c r="AD35" s="20"/>
-      <c r="AE35" s="20"/>
-      <c r="AF35" s="39"/>
-      <c r="AG35" s="39"/>
-      <c r="AH35" s="39"/>
-      <c r="AI35" s="39"/>
-      <c r="AJ35" s="39"/>
-      <c r="AK35" s="20"/>
-      <c r="AL35" s="20"/>
-      <c r="AM35" s="20"/>
-      <c r="AN35" s="22"/>
-      <c r="AO35" s="22"/>
-      <c r="AP35" s="22"/>
-      <c r="AQ35" s="20"/>
-      <c r="AR35" s="20"/>
-      <c r="AS35" s="20"/>
-      <c r="AT35" s="20"/>
-      <c r="AU35" s="20"/>
-      <c r="AV35" s="20"/>
-      <c r="AW35" s="20"/>
-      <c r="AX35" s="20"/>
-      <c r="AY35" s="20"/>
-      <c r="AZ35" s="20"/>
-      <c r="BA35" s="20"/>
-      <c r="BB35" s="20"/>
-      <c r="BC35" s="20"/>
-      <c r="BD35" s="20"/>
-      <c r="BE35" s="20"/>
-      <c r="BF35" s="20"/>
-      <c r="BG35" s="20"/>
-      <c r="BH35" s="20"/>
-      <c r="BI35" s="20"/>
-      <c r="BJ35" s="20"/>
-      <c r="BK35" s="20"/>
-      <c r="BL35" s="20"/>
-      <c r="BM35" s="20"/>
-      <c r="BN35" s="20"/>
-      <c r="BO35" s="20"/>
-      <c r="BP35" s="20"/>
-      <c r="BQ35" s="20"/>
-      <c r="BR35" s="20"/>
-      <c r="BS35" s="20"/>
-      <c r="BT35" s="20"/>
-      <c r="BU35" s="20"/>
-      <c r="BV35" s="20"/>
-      <c r="BW35" s="20"/>
-      <c r="BX35" s="20"/>
-      <c r="BY35" s="20"/>
-      <c r="BZ35" s="20"/>
-      <c r="CA35" s="21"/>
-      <c r="CB35" s="21"/>
-      <c r="CC35" s="23"/>
-      <c r="CD35" s="20"/>
-      <c r="CE35" s="20"/>
-      <c r="CF35" s="20"/>
-      <c r="CG35" s="20"/>
-      <c r="CH35" s="20"/>
-      <c r="CI35" s="39"/>
-      <c r="CJ35" s="24"/>
-      <c r="CK35" s="18"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="19"/>
+      <c r="G35" s="19"/>
+      <c r="H35" s="19"/>
+      <c r="I35" s="19"/>
+      <c r="J35" s="19"/>
+      <c r="K35" s="19"/>
+      <c r="L35" s="19"/>
+      <c r="M35" s="19"/>
+      <c r="N35" s="80">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O35" s="19"/>
+      <c r="P35" s="19"/>
+      <c r="Q35" s="19"/>
+      <c r="R35" s="19"/>
+      <c r="S35" s="19"/>
+      <c r="T35" s="80">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U35" s="19"/>
+      <c r="V35" s="19"/>
+      <c r="W35" s="19"/>
+      <c r="X35" s="19"/>
+      <c r="Y35" s="19"/>
+      <c r="Z35" s="19"/>
+      <c r="AA35" s="19"/>
+      <c r="AB35" s="19"/>
+      <c r="AC35" s="19"/>
+      <c r="AD35" s="19"/>
+      <c r="AE35" s="19"/>
+      <c r="AF35" s="35"/>
+      <c r="AG35" s="35"/>
+      <c r="AH35" s="35"/>
+      <c r="AI35" s="35"/>
+      <c r="AJ35" s="35"/>
+      <c r="AK35" s="19"/>
+      <c r="AL35" s="19"/>
+      <c r="AM35" s="19"/>
+      <c r="AN35" s="20"/>
+      <c r="AO35" s="20"/>
+      <c r="AP35" s="20"/>
+      <c r="AQ35" s="19"/>
+      <c r="AR35" s="19"/>
+      <c r="AS35" s="19"/>
+      <c r="AT35" s="19"/>
+      <c r="AU35" s="19"/>
+      <c r="AV35" s="19"/>
+      <c r="AW35" s="19"/>
+      <c r="AX35" s="19"/>
+      <c r="AY35" s="19"/>
+      <c r="AZ35" s="19"/>
+      <c r="BA35" s="19"/>
+      <c r="BB35" s="19"/>
+      <c r="BC35" s="19"/>
+      <c r="BD35" s="19"/>
+      <c r="BE35" s="19"/>
+      <c r="BF35" s="19"/>
+      <c r="BG35" s="19"/>
+      <c r="BH35" s="19"/>
+      <c r="BI35" s="19"/>
+      <c r="BJ35" s="19"/>
+      <c r="BK35" s="19"/>
+      <c r="BL35" s="19"/>
+      <c r="BM35" s="19"/>
+      <c r="BN35" s="19"/>
+      <c r="BO35" s="19"/>
+      <c r="BP35" s="19"/>
+      <c r="BQ35" s="19"/>
+      <c r="BR35" s="19"/>
+      <c r="BS35" s="19"/>
+      <c r="BT35" s="19"/>
+      <c r="BU35" s="19"/>
+      <c r="BV35" s="19"/>
+      <c r="BW35" s="19"/>
+      <c r="BX35" s="19"/>
+      <c r="BY35" s="19"/>
+      <c r="BZ35" s="19"/>
+      <c r="CA35" s="80">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="CB35" s="80">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="CC35" s="21"/>
+      <c r="CD35" s="19"/>
+      <c r="CE35" s="19"/>
+      <c r="CF35" s="19"/>
+      <c r="CG35" s="19"/>
+      <c r="CH35" s="19"/>
+      <c r="CI35" s="35"/>
+      <c r="CJ35" s="22"/>
+      <c r="CK35" s="17"/>
     </row>
     <row r="36" spans="1:89" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="108"/>
-      <c r="B36" s="38">
+      <c r="A36" s="94"/>
+      <c r="B36" s="34">
         <v>3</v>
       </c>
-      <c r="C36" s="20"/>
-      <c r="D36" s="20"/>
-      <c r="E36" s="20"/>
-      <c r="F36" s="20"/>
-      <c r="G36" s="20"/>
-      <c r="H36" s="20"/>
-      <c r="I36" s="20"/>
-      <c r="J36" s="20"/>
-      <c r="K36" s="20"/>
-      <c r="L36" s="20"/>
-      <c r="M36" s="20"/>
-      <c r="N36" s="21"/>
-      <c r="O36" s="20"/>
-      <c r="P36" s="20"/>
-      <c r="Q36" s="20"/>
-      <c r="R36" s="20"/>
-      <c r="S36" s="20"/>
-      <c r="T36" s="21"/>
-      <c r="U36" s="20"/>
-      <c r="V36" s="20"/>
-      <c r="W36" s="20"/>
-      <c r="X36" s="20"/>
-      <c r="Y36" s="20"/>
-      <c r="Z36" s="20"/>
-      <c r="AA36" s="20"/>
-      <c r="AB36" s="20"/>
-      <c r="AC36" s="20"/>
-      <c r="AD36" s="20"/>
-      <c r="AE36" s="20"/>
-      <c r="AF36" s="20"/>
-      <c r="AG36" s="20"/>
-      <c r="AH36" s="20"/>
-      <c r="AI36" s="20"/>
-      <c r="AJ36" s="20"/>
-      <c r="AK36" s="20"/>
-      <c r="AL36" s="20"/>
-      <c r="AM36" s="20"/>
-      <c r="AN36" s="22"/>
-      <c r="AO36" s="22"/>
-      <c r="AP36" s="22"/>
-      <c r="AQ36" s="20"/>
-      <c r="AR36" s="20"/>
-      <c r="AS36" s="20"/>
-      <c r="AT36" s="20"/>
-      <c r="AU36" s="20"/>
-      <c r="AV36" s="20"/>
-      <c r="AW36" s="20"/>
-      <c r="AX36" s="20"/>
-      <c r="AY36" s="20"/>
-      <c r="AZ36" s="20"/>
-      <c r="BA36" s="20"/>
-      <c r="BB36" s="20"/>
-      <c r="BC36" s="20"/>
-      <c r="BD36" s="20"/>
-      <c r="BE36" s="20"/>
-      <c r="BF36" s="20"/>
-      <c r="BG36" s="20"/>
-      <c r="BH36" s="20"/>
-      <c r="BI36" s="20"/>
-      <c r="BJ36" s="20"/>
-      <c r="BK36" s="20"/>
-      <c r="BL36" s="20"/>
-      <c r="BM36" s="20"/>
-      <c r="BN36" s="20"/>
-      <c r="BO36" s="20"/>
-      <c r="BP36" s="20"/>
-      <c r="BQ36" s="20"/>
-      <c r="BR36" s="20"/>
-      <c r="BS36" s="20"/>
-      <c r="BT36" s="20"/>
-      <c r="BU36" s="20"/>
-      <c r="BV36" s="20"/>
-      <c r="BW36" s="20"/>
-      <c r="BX36" s="20"/>
-      <c r="BY36" s="20"/>
-      <c r="BZ36" s="20"/>
-      <c r="CA36" s="21"/>
-      <c r="CB36" s="21"/>
-      <c r="CC36" s="23"/>
-      <c r="CD36" s="20"/>
-      <c r="CE36" s="20"/>
-      <c r="CF36" s="20"/>
-      <c r="CG36" s="20"/>
-      <c r="CH36" s="20"/>
-      <c r="CI36" s="39"/>
-      <c r="CJ36" s="24"/>
-      <c r="CK36" s="18"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="19"/>
+      <c r="G36" s="19"/>
+      <c r="H36" s="19"/>
+      <c r="I36" s="19"/>
+      <c r="J36" s="19"/>
+      <c r="K36" s="19"/>
+      <c r="L36" s="19"/>
+      <c r="M36" s="19"/>
+      <c r="N36" s="80">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O36" s="19"/>
+      <c r="P36" s="19"/>
+      <c r="Q36" s="19"/>
+      <c r="R36" s="19"/>
+      <c r="S36" s="19"/>
+      <c r="T36" s="80">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U36" s="19"/>
+      <c r="V36" s="19"/>
+      <c r="W36" s="19"/>
+      <c r="X36" s="19"/>
+      <c r="Y36" s="19"/>
+      <c r="Z36" s="19"/>
+      <c r="AA36" s="19"/>
+      <c r="AB36" s="19"/>
+      <c r="AC36" s="19"/>
+      <c r="AD36" s="19"/>
+      <c r="AE36" s="19"/>
+      <c r="AF36" s="19"/>
+      <c r="AG36" s="19"/>
+      <c r="AH36" s="19"/>
+      <c r="AI36" s="19"/>
+      <c r="AJ36" s="19"/>
+      <c r="AK36" s="19"/>
+      <c r="AL36" s="19"/>
+      <c r="AM36" s="19"/>
+      <c r="AN36" s="20"/>
+      <c r="AO36" s="20"/>
+      <c r="AP36" s="20"/>
+      <c r="AQ36" s="19"/>
+      <c r="AR36" s="19"/>
+      <c r="AS36" s="19"/>
+      <c r="AT36" s="19"/>
+      <c r="AU36" s="19"/>
+      <c r="AV36" s="19"/>
+      <c r="AW36" s="19"/>
+      <c r="AX36" s="19"/>
+      <c r="AY36" s="19"/>
+      <c r="AZ36" s="19"/>
+      <c r="BA36" s="19"/>
+      <c r="BB36" s="19"/>
+      <c r="BC36" s="19"/>
+      <c r="BD36" s="19"/>
+      <c r="BE36" s="19"/>
+      <c r="BF36" s="19"/>
+      <c r="BG36" s="19"/>
+      <c r="BH36" s="19"/>
+      <c r="BI36" s="19"/>
+      <c r="BJ36" s="19"/>
+      <c r="BK36" s="19"/>
+      <c r="BL36" s="19"/>
+      <c r="BM36" s="19"/>
+      <c r="BN36" s="19"/>
+      <c r="BO36" s="19"/>
+      <c r="BP36" s="19"/>
+      <c r="BQ36" s="19"/>
+      <c r="BR36" s="19"/>
+      <c r="BS36" s="19"/>
+      <c r="BT36" s="19"/>
+      <c r="BU36" s="19"/>
+      <c r="BV36" s="19"/>
+      <c r="BW36" s="19"/>
+      <c r="BX36" s="19"/>
+      <c r="BY36" s="19"/>
+      <c r="BZ36" s="19"/>
+      <c r="CA36" s="80">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="CB36" s="80">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="CC36" s="21"/>
+      <c r="CD36" s="19"/>
+      <c r="CE36" s="19"/>
+      <c r="CF36" s="19"/>
+      <c r="CG36" s="19"/>
+      <c r="CH36" s="19"/>
+      <c r="CI36" s="35"/>
+      <c r="CJ36" s="22"/>
+      <c r="CK36" s="17"/>
     </row>
     <row r="37" spans="1:89" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="108"/>
-      <c r="B37" s="38">
+      <c r="A37" s="94"/>
+      <c r="B37" s="34">
         <v>4</v>
       </c>
-      <c r="C37" s="20"/>
-      <c r="D37" s="20"/>
-      <c r="E37" s="20"/>
-      <c r="F37" s="20"/>
-      <c r="G37" s="20"/>
-      <c r="H37" s="20"/>
-      <c r="I37" s="20"/>
-      <c r="J37" s="20"/>
-      <c r="K37" s="20"/>
-      <c r="L37" s="20"/>
-      <c r="M37" s="20"/>
-      <c r="N37" s="21"/>
-      <c r="O37" s="20"/>
-      <c r="P37" s="20"/>
-      <c r="Q37" s="20"/>
-      <c r="R37" s="20"/>
-      <c r="S37" s="20"/>
-      <c r="T37" s="21"/>
-      <c r="U37" s="20"/>
-      <c r="V37" s="20"/>
-      <c r="W37" s="20"/>
-      <c r="X37" s="20"/>
-      <c r="Y37" s="20"/>
-      <c r="Z37" s="20"/>
-      <c r="AA37" s="20"/>
-      <c r="AB37" s="20"/>
-      <c r="AC37" s="20"/>
-      <c r="AD37" s="20"/>
-      <c r="AE37" s="20"/>
-      <c r="AF37" s="20"/>
-      <c r="AG37" s="20"/>
-      <c r="AH37" s="20"/>
-      <c r="AI37" s="20"/>
-      <c r="AJ37" s="20"/>
-      <c r="AK37" s="20"/>
-      <c r="AL37" s="20"/>
-      <c r="AM37" s="20"/>
-      <c r="AN37" s="22"/>
-      <c r="AO37" s="22"/>
-      <c r="AP37" s="22"/>
-      <c r="AQ37" s="20"/>
-      <c r="AR37" s="20"/>
-      <c r="AS37" s="20"/>
-      <c r="AT37" s="20"/>
-      <c r="AU37" s="20"/>
-      <c r="AV37" s="20"/>
-      <c r="AW37" s="20"/>
-      <c r="AX37" s="20"/>
-      <c r="AY37" s="20"/>
-      <c r="AZ37" s="20"/>
-      <c r="BA37" s="20"/>
-      <c r="BB37" s="20"/>
-      <c r="BC37" s="20"/>
-      <c r="BD37" s="20"/>
-      <c r="BE37" s="20"/>
-      <c r="BF37" s="20"/>
-      <c r="BG37" s="20"/>
-      <c r="BH37" s="20"/>
-      <c r="BI37" s="20"/>
-      <c r="BJ37" s="20"/>
-      <c r="BK37" s="20"/>
-      <c r="BL37" s="20"/>
-      <c r="BM37" s="20"/>
-      <c r="BN37" s="20"/>
-      <c r="BO37" s="20"/>
-      <c r="BP37" s="20"/>
-      <c r="BQ37" s="20"/>
-      <c r="BR37" s="20"/>
-      <c r="BS37" s="20"/>
-      <c r="BT37" s="20"/>
-      <c r="BU37" s="20"/>
-      <c r="BV37" s="20"/>
-      <c r="BW37" s="20"/>
-      <c r="BX37" s="20"/>
-      <c r="BY37" s="20"/>
-      <c r="BZ37" s="20"/>
-      <c r="CA37" s="21"/>
-      <c r="CB37" s="21"/>
-      <c r="CC37" s="23"/>
-      <c r="CD37" s="20"/>
-      <c r="CE37" s="20"/>
-      <c r="CF37" s="20"/>
-      <c r="CG37" s="20"/>
-      <c r="CH37" s="20"/>
-      <c r="CI37" s="39"/>
-      <c r="CJ37" s="24"/>
-      <c r="CK37" s="18"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="19"/>
+      <c r="G37" s="19"/>
+      <c r="H37" s="19"/>
+      <c r="I37" s="19"/>
+      <c r="J37" s="19"/>
+      <c r="K37" s="19"/>
+      <c r="L37" s="19"/>
+      <c r="M37" s="19"/>
+      <c r="N37" s="80">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O37" s="19"/>
+      <c r="P37" s="19"/>
+      <c r="Q37" s="19"/>
+      <c r="R37" s="19"/>
+      <c r="S37" s="19"/>
+      <c r="T37" s="80">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U37" s="19"/>
+      <c r="V37" s="19"/>
+      <c r="W37" s="19"/>
+      <c r="X37" s="19"/>
+      <c r="Y37" s="19"/>
+      <c r="Z37" s="19"/>
+      <c r="AA37" s="19"/>
+      <c r="AB37" s="19"/>
+      <c r="AC37" s="19"/>
+      <c r="AD37" s="19"/>
+      <c r="AE37" s="19"/>
+      <c r="AF37" s="19"/>
+      <c r="AG37" s="19"/>
+      <c r="AH37" s="19"/>
+      <c r="AI37" s="19"/>
+      <c r="AJ37" s="19"/>
+      <c r="AK37" s="19"/>
+      <c r="AL37" s="19"/>
+      <c r="AM37" s="19"/>
+      <c r="AN37" s="20"/>
+      <c r="AO37" s="20"/>
+      <c r="AP37" s="20"/>
+      <c r="AQ37" s="19"/>
+      <c r="AR37" s="19"/>
+      <c r="AS37" s="19"/>
+      <c r="AT37" s="19"/>
+      <c r="AU37" s="19"/>
+      <c r="AV37" s="19"/>
+      <c r="AW37" s="19"/>
+      <c r="AX37" s="19"/>
+      <c r="AY37" s="19"/>
+      <c r="AZ37" s="19"/>
+      <c r="BA37" s="19"/>
+      <c r="BB37" s="19"/>
+      <c r="BC37" s="19"/>
+      <c r="BD37" s="19"/>
+      <c r="BE37" s="19"/>
+      <c r="BF37" s="19"/>
+      <c r="BG37" s="19"/>
+      <c r="BH37" s="19"/>
+      <c r="BI37" s="19"/>
+      <c r="BJ37" s="19"/>
+      <c r="BK37" s="19"/>
+      <c r="BL37" s="19"/>
+      <c r="BM37" s="19"/>
+      <c r="BN37" s="19"/>
+      <c r="BO37" s="19"/>
+      <c r="BP37" s="19"/>
+      <c r="BQ37" s="19"/>
+      <c r="BR37" s="19"/>
+      <c r="BS37" s="19"/>
+      <c r="BT37" s="19"/>
+      <c r="BU37" s="19"/>
+      <c r="BV37" s="19"/>
+      <c r="BW37" s="19"/>
+      <c r="BX37" s="19"/>
+      <c r="BY37" s="19"/>
+      <c r="BZ37" s="19"/>
+      <c r="CA37" s="80">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="CB37" s="80">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="CC37" s="21"/>
+      <c r="CD37" s="19"/>
+      <c r="CE37" s="19"/>
+      <c r="CF37" s="19"/>
+      <c r="CG37" s="19"/>
+      <c r="CH37" s="19"/>
+      <c r="CI37" s="35"/>
+      <c r="CJ37" s="22"/>
+      <c r="CK37" s="17"/>
     </row>
     <row r="38" spans="1:89" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="108"/>
-      <c r="B38" s="38">
+      <c r="A38" s="94"/>
+      <c r="B38" s="34">
         <v>5</v>
       </c>
-      <c r="C38" s="20"/>
-      <c r="D38" s="20"/>
-      <c r="E38" s="20"/>
-      <c r="F38" s="20"/>
-      <c r="G38" s="20"/>
-      <c r="H38" s="20"/>
-      <c r="I38" s="20"/>
-      <c r="J38" s="20"/>
-      <c r="K38" s="20"/>
-      <c r="L38" s="20"/>
-      <c r="M38" s="20"/>
-      <c r="N38" s="21"/>
-      <c r="O38" s="20"/>
-      <c r="P38" s="20"/>
-      <c r="Q38" s="20"/>
-      <c r="R38" s="20"/>
-      <c r="S38" s="20"/>
-      <c r="T38" s="21"/>
-      <c r="U38" s="20"/>
-      <c r="V38" s="20"/>
-      <c r="W38" s="20"/>
-      <c r="X38" s="20"/>
-      <c r="Y38" s="20"/>
-      <c r="Z38" s="20"/>
-      <c r="AA38" s="20"/>
-      <c r="AB38" s="20"/>
-      <c r="AC38" s="20"/>
-      <c r="AD38" s="20"/>
-      <c r="AE38" s="20"/>
-      <c r="AF38" s="20"/>
-      <c r="AG38" s="20"/>
-      <c r="AH38" s="20"/>
-      <c r="AI38" s="20"/>
-      <c r="AJ38" s="20"/>
-      <c r="AK38" s="20"/>
-      <c r="AL38" s="20"/>
-      <c r="AM38" s="20"/>
-      <c r="AN38" s="22"/>
-      <c r="AO38" s="22"/>
-      <c r="AP38" s="22"/>
-      <c r="AQ38" s="20"/>
-      <c r="AR38" s="20"/>
-      <c r="AS38" s="20"/>
-      <c r="AT38" s="20"/>
-      <c r="AU38" s="20"/>
-      <c r="AV38" s="20"/>
-      <c r="AW38" s="20"/>
-      <c r="AX38" s="20"/>
-      <c r="AY38" s="20"/>
-      <c r="AZ38" s="20"/>
-      <c r="BA38" s="20"/>
-      <c r="BB38" s="20"/>
-      <c r="BC38" s="20"/>
-      <c r="BD38" s="20"/>
-      <c r="BE38" s="20"/>
-      <c r="BF38" s="20"/>
-      <c r="BG38" s="20"/>
-      <c r="BH38" s="20"/>
-      <c r="BI38" s="20"/>
-      <c r="BJ38" s="20"/>
-      <c r="BK38" s="20"/>
-      <c r="BL38" s="20"/>
-      <c r="BM38" s="20"/>
-      <c r="BN38" s="20"/>
-      <c r="BO38" s="20"/>
-      <c r="BP38" s="20"/>
-      <c r="BQ38" s="20"/>
-      <c r="BR38" s="20"/>
-      <c r="BS38" s="20"/>
-      <c r="BT38" s="20"/>
-      <c r="BU38" s="20"/>
-      <c r="BV38" s="20"/>
-      <c r="BW38" s="20"/>
-      <c r="BX38" s="20"/>
-      <c r="BY38" s="20"/>
-      <c r="BZ38" s="20"/>
-      <c r="CA38" s="21"/>
-      <c r="CB38" s="21"/>
-      <c r="CC38" s="23"/>
-      <c r="CD38" s="20"/>
-      <c r="CE38" s="20"/>
-      <c r="CF38" s="20"/>
-      <c r="CG38" s="20"/>
-      <c r="CH38" s="20"/>
-      <c r="CI38" s="39"/>
-      <c r="CJ38" s="24"/>
-      <c r="CK38" s="18"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="19"/>
+      <c r="F38" s="19"/>
+      <c r="G38" s="19"/>
+      <c r="H38" s="19"/>
+      <c r="I38" s="19"/>
+      <c r="J38" s="19"/>
+      <c r="K38" s="19"/>
+      <c r="L38" s="19"/>
+      <c r="M38" s="19"/>
+      <c r="N38" s="80">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O38" s="19"/>
+      <c r="P38" s="19"/>
+      <c r="Q38" s="19"/>
+      <c r="R38" s="19"/>
+      <c r="S38" s="19"/>
+      <c r="T38" s="80">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U38" s="19"/>
+      <c r="V38" s="19"/>
+      <c r="W38" s="19"/>
+      <c r="X38" s="19"/>
+      <c r="Y38" s="19"/>
+      <c r="Z38" s="19"/>
+      <c r="AA38" s="19"/>
+      <c r="AB38" s="19"/>
+      <c r="AC38" s="19"/>
+      <c r="AD38" s="19"/>
+      <c r="AE38" s="19"/>
+      <c r="AF38" s="19"/>
+      <c r="AG38" s="19"/>
+      <c r="AH38" s="19"/>
+      <c r="AI38" s="19"/>
+      <c r="AJ38" s="19"/>
+      <c r="AK38" s="19"/>
+      <c r="AL38" s="19"/>
+      <c r="AM38" s="19"/>
+      <c r="AN38" s="20"/>
+      <c r="AO38" s="20"/>
+      <c r="AP38" s="20"/>
+      <c r="AQ38" s="19"/>
+      <c r="AR38" s="19"/>
+      <c r="AS38" s="19"/>
+      <c r="AT38" s="19"/>
+      <c r="AU38" s="19"/>
+      <c r="AV38" s="19"/>
+      <c r="AW38" s="19"/>
+      <c r="AX38" s="19"/>
+      <c r="AY38" s="19"/>
+      <c r="AZ38" s="19"/>
+      <c r="BA38" s="19"/>
+      <c r="BB38" s="19"/>
+      <c r="BC38" s="19"/>
+      <c r="BD38" s="19"/>
+      <c r="BE38" s="19"/>
+      <c r="BF38" s="19"/>
+      <c r="BG38" s="19"/>
+      <c r="BH38" s="19"/>
+      <c r="BI38" s="19"/>
+      <c r="BJ38" s="19"/>
+      <c r="BK38" s="19"/>
+      <c r="BL38" s="19"/>
+      <c r="BM38" s="19"/>
+      <c r="BN38" s="19"/>
+      <c r="BO38" s="19"/>
+      <c r="BP38" s="19"/>
+      <c r="BQ38" s="19"/>
+      <c r="BR38" s="19"/>
+      <c r="BS38" s="19"/>
+      <c r="BT38" s="19"/>
+      <c r="BU38" s="19"/>
+      <c r="BV38" s="19"/>
+      <c r="BW38" s="19"/>
+      <c r="BX38" s="19"/>
+      <c r="BY38" s="19"/>
+      <c r="BZ38" s="19"/>
+      <c r="CA38" s="80">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="CB38" s="80">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="CC38" s="21"/>
+      <c r="CD38" s="19"/>
+      <c r="CE38" s="19"/>
+      <c r="CF38" s="19"/>
+      <c r="CG38" s="19"/>
+      <c r="CH38" s="19"/>
+      <c r="CI38" s="35"/>
+      <c r="CJ38" s="22"/>
+      <c r="CK38" s="17"/>
     </row>
     <row r="39" spans="1:89" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="108"/>
-      <c r="B39" s="40" t="s">
+      <c r="A39" s="94"/>
+      <c r="B39" s="36" t="s">
         <v>83</v>
       </c>
-      <c r="C39" s="20"/>
-      <c r="D39" s="20"/>
-      <c r="E39" s="20"/>
-      <c r="F39" s="20"/>
-      <c r="G39" s="20"/>
-      <c r="H39" s="20"/>
-      <c r="I39" s="20"/>
-      <c r="J39" s="20"/>
-      <c r="K39" s="20"/>
-      <c r="L39" s="20"/>
-      <c r="M39" s="20"/>
-      <c r="N39" s="21"/>
-      <c r="O39" s="20"/>
-      <c r="P39" s="20"/>
-      <c r="Q39" s="20"/>
-      <c r="R39" s="20"/>
-      <c r="S39" s="20"/>
-      <c r="T39" s="21"/>
-      <c r="U39" s="20"/>
-      <c r="V39" s="20"/>
-      <c r="W39" s="20"/>
-      <c r="X39" s="20"/>
-      <c r="Y39" s="20"/>
-      <c r="Z39" s="20"/>
-      <c r="AA39" s="20"/>
-      <c r="AB39" s="20"/>
-      <c r="AC39" s="20"/>
-      <c r="AD39" s="20"/>
-      <c r="AE39" s="20"/>
-      <c r="AF39" s="20"/>
-      <c r="AG39" s="20"/>
-      <c r="AH39" s="20"/>
-      <c r="AI39" s="20"/>
-      <c r="AJ39" s="20"/>
-      <c r="AK39" s="20"/>
-      <c r="AL39" s="20"/>
-      <c r="AM39" s="20"/>
-      <c r="AN39" s="22"/>
-      <c r="AO39" s="22"/>
-      <c r="AP39" s="22"/>
-      <c r="AQ39" s="20"/>
-      <c r="AR39" s="20"/>
-      <c r="AS39" s="20"/>
-      <c r="AT39" s="20"/>
-      <c r="AU39" s="20"/>
-      <c r="AV39" s="20"/>
-      <c r="AW39" s="20"/>
-      <c r="AX39" s="20"/>
-      <c r="AY39" s="20"/>
-      <c r="AZ39" s="20"/>
-      <c r="BA39" s="20"/>
-      <c r="BB39" s="20"/>
-      <c r="BC39" s="20"/>
-      <c r="BD39" s="20"/>
-      <c r="BE39" s="20"/>
-      <c r="BF39" s="20"/>
-      <c r="BG39" s="20"/>
-      <c r="BH39" s="20"/>
-      <c r="BI39" s="20"/>
-      <c r="BJ39" s="20"/>
-      <c r="BK39" s="20"/>
-      <c r="BL39" s="20"/>
-      <c r="BM39" s="20"/>
-      <c r="BN39" s="20"/>
-      <c r="BO39" s="20"/>
-      <c r="BP39" s="20"/>
-      <c r="BQ39" s="20"/>
-      <c r="BR39" s="20"/>
-      <c r="BS39" s="20"/>
-      <c r="BT39" s="20"/>
-      <c r="BU39" s="20"/>
-      <c r="BV39" s="20"/>
-      <c r="BW39" s="20"/>
-      <c r="BX39" s="20"/>
-      <c r="BY39" s="20"/>
-      <c r="BZ39" s="20"/>
-      <c r="CA39" s="21"/>
-      <c r="CB39" s="21"/>
-      <c r="CC39" s="23"/>
-      <c r="CD39" s="20"/>
-      <c r="CE39" s="20"/>
-      <c r="CF39" s="20"/>
-      <c r="CG39" s="20"/>
-      <c r="CH39" s="20"/>
-      <c r="CI39" s="39"/>
-      <c r="CJ39" s="24"/>
-      <c r="CK39" s="18"/>
+      <c r="C39" s="19"/>
+      <c r="D39" s="19"/>
+      <c r="E39" s="19"/>
+      <c r="F39" s="19"/>
+      <c r="G39" s="19"/>
+      <c r="H39" s="19"/>
+      <c r="I39" s="19"/>
+      <c r="J39" s="19"/>
+      <c r="K39" s="19"/>
+      <c r="L39" s="19"/>
+      <c r="M39" s="19"/>
+      <c r="N39" s="80">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O39" s="19"/>
+      <c r="P39" s="19"/>
+      <c r="Q39" s="19"/>
+      <c r="R39" s="19"/>
+      <c r="S39" s="19"/>
+      <c r="T39" s="80">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U39" s="19"/>
+      <c r="V39" s="19"/>
+      <c r="W39" s="19"/>
+      <c r="X39" s="19"/>
+      <c r="Y39" s="19"/>
+      <c r="Z39" s="19"/>
+      <c r="AA39" s="19"/>
+      <c r="AB39" s="19"/>
+      <c r="AC39" s="19"/>
+      <c r="AD39" s="19"/>
+      <c r="AE39" s="19"/>
+      <c r="AF39" s="19"/>
+      <c r="AG39" s="19"/>
+      <c r="AH39" s="19"/>
+      <c r="AI39" s="19"/>
+      <c r="AJ39" s="19"/>
+      <c r="AK39" s="19"/>
+      <c r="AL39" s="19"/>
+      <c r="AM39" s="19"/>
+      <c r="AN39" s="20"/>
+      <c r="AO39" s="20"/>
+      <c r="AP39" s="20"/>
+      <c r="AQ39" s="19"/>
+      <c r="AR39" s="19"/>
+      <c r="AS39" s="19"/>
+      <c r="AT39" s="19"/>
+      <c r="AU39" s="19"/>
+      <c r="AV39" s="19"/>
+      <c r="AW39" s="19"/>
+      <c r="AX39" s="19"/>
+      <c r="AY39" s="19"/>
+      <c r="AZ39" s="19"/>
+      <c r="BA39" s="19"/>
+      <c r="BB39" s="19"/>
+      <c r="BC39" s="19"/>
+      <c r="BD39" s="19"/>
+      <c r="BE39" s="19"/>
+      <c r="BF39" s="19"/>
+      <c r="BG39" s="19"/>
+      <c r="BH39" s="19"/>
+      <c r="BI39" s="19"/>
+      <c r="BJ39" s="19"/>
+      <c r="BK39" s="19"/>
+      <c r="BL39" s="19"/>
+      <c r="BM39" s="19"/>
+      <c r="BN39" s="19"/>
+      <c r="BO39" s="19"/>
+      <c r="BP39" s="19"/>
+      <c r="BQ39" s="19"/>
+      <c r="BR39" s="19"/>
+      <c r="BS39" s="19"/>
+      <c r="BT39" s="19"/>
+      <c r="BU39" s="19"/>
+      <c r="BV39" s="19"/>
+      <c r="BW39" s="19"/>
+      <c r="BX39" s="19"/>
+      <c r="BY39" s="19"/>
+      <c r="BZ39" s="19"/>
+      <c r="CA39" s="80">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="CB39" s="80">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="CC39" s="21"/>
+      <c r="CD39" s="19"/>
+      <c r="CE39" s="19"/>
+      <c r="CF39" s="19"/>
+      <c r="CG39" s="19"/>
+      <c r="CH39" s="19"/>
+      <c r="CI39" s="35"/>
+      <c r="CJ39" s="22"/>
+      <c r="CK39" s="17"/>
     </row>
     <row r="40" spans="1:89" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="108"/>
-      <c r="B40" s="41" t="s">
+      <c r="A40" s="94"/>
+      <c r="B40" s="37" t="s">
         <v>91</v>
       </c>
-      <c r="C40" s="21"/>
-      <c r="D40" s="21"/>
-      <c r="E40" s="21"/>
-      <c r="F40" s="21"/>
-      <c r="G40" s="21"/>
-      <c r="H40" s="21"/>
-      <c r="I40" s="21"/>
-      <c r="J40" s="21"/>
-      <c r="K40" s="21"/>
-      <c r="L40" s="21"/>
-      <c r="M40" s="21"/>
-      <c r="N40" s="21"/>
-      <c r="O40" s="21"/>
-      <c r="P40" s="21"/>
-      <c r="Q40" s="21"/>
-      <c r="R40" s="21"/>
-      <c r="S40" s="21"/>
-      <c r="T40" s="21"/>
-      <c r="U40" s="21"/>
-      <c r="V40" s="21"/>
-      <c r="W40" s="21"/>
-      <c r="X40" s="21"/>
-      <c r="Y40" s="21"/>
-      <c r="Z40" s="21"/>
-      <c r="AA40" s="21"/>
-      <c r="AB40" s="21"/>
-      <c r="AC40" s="21"/>
-      <c r="AD40" s="21"/>
-      <c r="AE40" s="21"/>
-      <c r="AF40" s="21"/>
-      <c r="AG40" s="21"/>
-      <c r="AH40" s="21"/>
-      <c r="AI40" s="21"/>
-      <c r="AJ40" s="21"/>
-      <c r="AK40" s="21"/>
-      <c r="AL40" s="21"/>
-      <c r="AM40" s="21"/>
-      <c r="AN40" s="27"/>
-      <c r="AO40" s="27"/>
-      <c r="AP40" s="27"/>
-      <c r="AQ40" s="21"/>
-      <c r="AR40" s="21"/>
-      <c r="AS40" s="21"/>
-      <c r="AT40" s="21"/>
-      <c r="AU40" s="21"/>
-      <c r="AV40" s="21"/>
-      <c r="AW40" s="21"/>
-      <c r="AX40" s="21"/>
-      <c r="AY40" s="21"/>
-      <c r="AZ40" s="21"/>
-      <c r="BA40" s="21"/>
-      <c r="BB40" s="21"/>
-      <c r="BC40" s="21"/>
-      <c r="BD40" s="21"/>
-      <c r="BE40" s="21"/>
-      <c r="BF40" s="21"/>
-      <c r="BG40" s="21"/>
-      <c r="BH40" s="21"/>
-      <c r="BI40" s="21"/>
-      <c r="BJ40" s="21"/>
-      <c r="BK40" s="21"/>
-      <c r="BL40" s="21"/>
-      <c r="BM40" s="21"/>
-      <c r="BN40" s="21"/>
-      <c r="BO40" s="21"/>
-      <c r="BP40" s="21"/>
-      <c r="BQ40" s="21"/>
-      <c r="BR40" s="21"/>
-      <c r="BS40" s="21"/>
-      <c r="BT40" s="21"/>
-      <c r="BU40" s="21"/>
-      <c r="BV40" s="21"/>
-      <c r="BW40" s="21"/>
-      <c r="BX40" s="21"/>
-      <c r="BY40" s="21"/>
-      <c r="BZ40" s="21"/>
-      <c r="CA40" s="21"/>
-      <c r="CB40" s="21"/>
-      <c r="CC40" s="21"/>
-      <c r="CD40" s="21"/>
-      <c r="CE40" s="21"/>
-      <c r="CF40" s="21"/>
-      <c r="CG40" s="21"/>
-      <c r="CH40" s="21"/>
-      <c r="CI40" s="21"/>
-      <c r="CJ40" s="42"/>
-      <c r="CK40" s="18"/>
+      <c r="C40" s="80">
+        <f>SUM(C33:C39)</f>
+        <v>0</v>
+      </c>
+      <c r="D40" s="80">
+        <f t="shared" ref="D40:M40" si="74">SUM(D33:D39)</f>
+        <v>0</v>
+      </c>
+      <c r="E40" s="80">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="F40" s="80">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="G40" s="80">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="H40" s="80">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="I40" s="80">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="J40" s="80">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="K40" s="80">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="L40" s="80">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="M40" s="80">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="N40" s="80">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O40" s="80">
+        <f t="shared" ref="O40:S40" si="75">SUM(O33:O39)</f>
+        <v>0</v>
+      </c>
+      <c r="P40" s="80">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="Q40" s="80">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="R40" s="80">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="S40" s="80">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="T40" s="80">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U40" s="80">
+        <f t="shared" ref="U40:BZ40" si="76">SUM(U33:U39)</f>
+        <v>0</v>
+      </c>
+      <c r="V40" s="80">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="W40" s="80">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="X40" s="80">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="Y40" s="80">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="Z40" s="80">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="AA40" s="80">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="AB40" s="80">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="AC40" s="80">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="AD40" s="80">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="AE40" s="80">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="AF40" s="80">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="AG40" s="80">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="AH40" s="80">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="AI40" s="80">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="AJ40" s="80">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="AK40" s="80">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="AL40" s="80">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="AM40" s="80">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="AN40" s="82">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="AO40" s="82">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="AP40" s="82">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="AQ40" s="80">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="AR40" s="80">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="AS40" s="80">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="AT40" s="80">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="AU40" s="80">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="AV40" s="80">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="AW40" s="80">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="AX40" s="80">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="AY40" s="80">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="AZ40" s="80">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="BA40" s="80">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="BB40" s="80">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="BC40" s="80">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="BD40" s="80">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="BE40" s="80">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="BF40" s="80">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="BG40" s="80">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="BH40" s="80">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="BI40" s="80">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="BJ40" s="80">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="BK40" s="80">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="BL40" s="80">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="BM40" s="80">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="BN40" s="80">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="BO40" s="80">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="BP40" s="80">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="BQ40" s="80">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="BR40" s="80">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="BS40" s="80">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="BT40" s="80">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="BU40" s="80">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="BV40" s="80">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="BW40" s="80">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="BX40" s="80">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="BY40" s="80">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="BZ40" s="80">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="CA40" s="80">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="CB40" s="80">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="CC40" s="80">
+        <f t="shared" ref="CC40:CH40" si="77">SUM(CC33:CC39)</f>
+        <v>0</v>
+      </c>
+      <c r="CD40" s="80">
+        <f t="shared" si="77"/>
+        <v>0</v>
+      </c>
+      <c r="CE40" s="80">
+        <f t="shared" si="77"/>
+        <v>0</v>
+      </c>
+      <c r="CF40" s="80">
+        <f t="shared" si="77"/>
+        <v>0</v>
+      </c>
+      <c r="CG40" s="80">
+        <f t="shared" si="77"/>
+        <v>0</v>
+      </c>
+      <c r="CH40" s="80">
+        <f t="shared" si="77"/>
+        <v>0</v>
+      </c>
+      <c r="CI40" s="84" t="e">
+        <f>CH40/F40</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="CJ40" s="90" t="e">
+        <f>CH40/C40</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="CK40" s="17"/>
     </row>
     <row r="41" spans="1:89" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="113"/>
-      <c r="B41" s="25" t="s">
+      <c r="A41" s="99"/>
+      <c r="B41" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="C41" s="20"/>
-      <c r="D41" s="20"/>
-      <c r="E41" s="20"/>
-      <c r="F41" s="20"/>
-      <c r="G41" s="20"/>
-      <c r="H41" s="20"/>
-      <c r="I41" s="20"/>
-      <c r="J41" s="20"/>
-      <c r="K41" s="20"/>
-      <c r="L41" s="20"/>
-      <c r="M41" s="20"/>
-      <c r="N41" s="21"/>
-      <c r="O41" s="20"/>
-      <c r="P41" s="20"/>
-      <c r="Q41" s="20"/>
-      <c r="R41" s="20"/>
-      <c r="S41" s="20"/>
-      <c r="T41" s="21"/>
-      <c r="U41" s="20"/>
-      <c r="V41" s="20"/>
-      <c r="W41" s="20"/>
-      <c r="X41" s="20"/>
-      <c r="Y41" s="20"/>
-      <c r="Z41" s="20"/>
-      <c r="AA41" s="20"/>
-      <c r="AB41" s="20"/>
-      <c r="AC41" s="20"/>
-      <c r="AD41" s="20"/>
-      <c r="AE41" s="20"/>
-      <c r="AF41" s="20"/>
-      <c r="AG41" s="20"/>
-      <c r="AH41" s="20"/>
-      <c r="AI41" s="20"/>
-      <c r="AJ41" s="20"/>
-      <c r="AK41" s="20"/>
-      <c r="AL41" s="20"/>
-      <c r="AM41" s="20"/>
-      <c r="AN41" s="22"/>
-      <c r="AO41" s="22"/>
-      <c r="AP41" s="22"/>
-      <c r="AQ41" s="20"/>
-      <c r="AR41" s="20"/>
-      <c r="AS41" s="20"/>
-      <c r="AT41" s="20"/>
-      <c r="AU41" s="20"/>
-      <c r="AV41" s="20"/>
-      <c r="AW41" s="20"/>
-      <c r="AX41" s="20"/>
-      <c r="AY41" s="20"/>
-      <c r="AZ41" s="20"/>
-      <c r="BA41" s="20"/>
-      <c r="BB41" s="20"/>
-      <c r="BC41" s="20"/>
-      <c r="BD41" s="20"/>
-      <c r="BE41" s="20"/>
-      <c r="BF41" s="20"/>
-      <c r="BG41" s="20"/>
-      <c r="BH41" s="20"/>
-      <c r="BI41" s="20"/>
-      <c r="BJ41" s="20"/>
-      <c r="BK41" s="20"/>
-      <c r="BL41" s="20"/>
-      <c r="BM41" s="20"/>
-      <c r="BN41" s="20"/>
-      <c r="BO41" s="20"/>
-      <c r="BP41" s="20"/>
-      <c r="BQ41" s="20"/>
-      <c r="BR41" s="20"/>
-      <c r="BS41" s="20"/>
-      <c r="BT41" s="20"/>
-      <c r="BU41" s="20"/>
-      <c r="BV41" s="20"/>
-      <c r="BW41" s="20"/>
-      <c r="BX41" s="20"/>
-      <c r="BY41" s="20"/>
-      <c r="BZ41" s="20"/>
-      <c r="CA41" s="21"/>
-      <c r="CB41" s="21"/>
-      <c r="CC41" s="23"/>
-      <c r="CD41" s="20"/>
-      <c r="CE41" s="20"/>
-      <c r="CF41" s="20"/>
-      <c r="CG41" s="20"/>
-      <c r="CH41" s="20"/>
-      <c r="CI41" s="39"/>
-      <c r="CJ41" s="24"/>
-      <c r="CK41" s="18"/>
+      <c r="C41" s="19"/>
+      <c r="D41" s="19"/>
+      <c r="E41" s="19"/>
+      <c r="F41" s="19"/>
+      <c r="G41" s="19"/>
+      <c r="H41" s="19"/>
+      <c r="I41" s="19"/>
+      <c r="J41" s="19"/>
+      <c r="K41" s="19"/>
+      <c r="L41" s="19"/>
+      <c r="M41" s="19"/>
+      <c r="N41" s="80">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O41" s="19"/>
+      <c r="P41" s="19"/>
+      <c r="Q41" s="19"/>
+      <c r="R41" s="19"/>
+      <c r="S41" s="19"/>
+      <c r="T41" s="80">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U41" s="19"/>
+      <c r="V41" s="19"/>
+      <c r="W41" s="19"/>
+      <c r="X41" s="19"/>
+      <c r="Y41" s="19"/>
+      <c r="Z41" s="19"/>
+      <c r="AA41" s="19"/>
+      <c r="AB41" s="19"/>
+      <c r="AC41" s="19"/>
+      <c r="AD41" s="19"/>
+      <c r="AE41" s="19"/>
+      <c r="AF41" s="19"/>
+      <c r="AG41" s="19"/>
+      <c r="AH41" s="19"/>
+      <c r="AI41" s="19"/>
+      <c r="AJ41" s="19"/>
+      <c r="AK41" s="19"/>
+      <c r="AL41" s="19"/>
+      <c r="AM41" s="19"/>
+      <c r="AN41" s="20"/>
+      <c r="AO41" s="20"/>
+      <c r="AP41" s="20"/>
+      <c r="AQ41" s="19"/>
+      <c r="AR41" s="19"/>
+      <c r="AS41" s="19"/>
+      <c r="AT41" s="19"/>
+      <c r="AU41" s="19"/>
+      <c r="AV41" s="19"/>
+      <c r="AW41" s="19"/>
+      <c r="AX41" s="19"/>
+      <c r="AY41" s="19"/>
+      <c r="AZ41" s="19"/>
+      <c r="BA41" s="19"/>
+      <c r="BB41" s="19"/>
+      <c r="BC41" s="19"/>
+      <c r="BD41" s="19"/>
+      <c r="BE41" s="19"/>
+      <c r="BF41" s="19"/>
+      <c r="BG41" s="19"/>
+      <c r="BH41" s="19"/>
+      <c r="BI41" s="19"/>
+      <c r="BJ41" s="19"/>
+      <c r="BK41" s="19"/>
+      <c r="BL41" s="19"/>
+      <c r="BM41" s="19"/>
+      <c r="BN41" s="19"/>
+      <c r="BO41" s="19"/>
+      <c r="BP41" s="19"/>
+      <c r="BQ41" s="19"/>
+      <c r="BR41" s="19"/>
+      <c r="BS41" s="19"/>
+      <c r="BT41" s="19"/>
+      <c r="BU41" s="19"/>
+      <c r="BV41" s="19"/>
+      <c r="BW41" s="19"/>
+      <c r="BX41" s="19"/>
+      <c r="BY41" s="19"/>
+      <c r="BZ41" s="19"/>
+      <c r="CA41" s="80">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="CB41" s="80">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="CC41" s="21"/>
+      <c r="CD41" s="19"/>
+      <c r="CE41" s="19"/>
+      <c r="CF41" s="19"/>
+      <c r="CG41" s="19"/>
+      <c r="CH41" s="19"/>
+      <c r="CI41" s="35"/>
+      <c r="CJ41" s="22"/>
+      <c r="CK41" s="17"/>
     </row>
     <row r="42" spans="1:89" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="110" t="s">
+      <c r="A42" s="96" t="s">
         <v>96</v>
       </c>
-      <c r="B42" s="41" t="s">
+      <c r="B42" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="C42" s="21"/>
-      <c r="D42" s="21"/>
-      <c r="E42" s="21"/>
-      <c r="F42" s="21"/>
-      <c r="G42" s="21"/>
-      <c r="H42" s="21"/>
-      <c r="I42" s="21"/>
-      <c r="J42" s="21"/>
-      <c r="K42" s="21"/>
-      <c r="L42" s="21"/>
-      <c r="M42" s="21"/>
-      <c r="N42" s="21"/>
-      <c r="O42" s="21"/>
-      <c r="P42" s="21"/>
-      <c r="Q42" s="21"/>
-      <c r="R42" s="21"/>
-      <c r="S42" s="21"/>
-      <c r="T42" s="21"/>
-      <c r="U42" s="21"/>
-      <c r="V42" s="21"/>
-      <c r="W42" s="21"/>
-      <c r="X42" s="21"/>
-      <c r="Y42" s="21"/>
-      <c r="Z42" s="21"/>
-      <c r="AA42" s="21"/>
-      <c r="AB42" s="21"/>
-      <c r="AC42" s="21"/>
-      <c r="AD42" s="21"/>
-      <c r="AE42" s="21"/>
-      <c r="AF42" s="21"/>
-      <c r="AG42" s="21"/>
-      <c r="AH42" s="21"/>
-      <c r="AI42" s="21"/>
-      <c r="AJ42" s="21"/>
-      <c r="AK42" s="21"/>
-      <c r="AL42" s="21"/>
-      <c r="AM42" s="21"/>
-      <c r="AN42" s="27"/>
-      <c r="AO42" s="27"/>
-      <c r="AP42" s="27"/>
-      <c r="AQ42" s="21"/>
-      <c r="AR42" s="21"/>
-      <c r="AS42" s="21"/>
-      <c r="AT42" s="21"/>
-      <c r="AU42" s="21"/>
-      <c r="AV42" s="21"/>
-      <c r="AW42" s="21"/>
-      <c r="AX42" s="21"/>
-      <c r="AY42" s="21"/>
-      <c r="AZ42" s="21"/>
-      <c r="BA42" s="21"/>
-      <c r="BB42" s="21"/>
-      <c r="BC42" s="21"/>
-      <c r="BD42" s="21"/>
-      <c r="BE42" s="21"/>
-      <c r="BF42" s="21"/>
-      <c r="BG42" s="21"/>
-      <c r="BH42" s="21"/>
-      <c r="BI42" s="21"/>
-      <c r="BJ42" s="21"/>
-      <c r="BK42" s="21"/>
-      <c r="BL42" s="21"/>
-      <c r="BM42" s="21"/>
-      <c r="BN42" s="21"/>
-      <c r="BO42" s="21"/>
-      <c r="BP42" s="21"/>
-      <c r="BQ42" s="21"/>
-      <c r="BR42" s="21"/>
-      <c r="BS42" s="21"/>
-      <c r="BT42" s="21"/>
-      <c r="BU42" s="21"/>
-      <c r="BV42" s="21"/>
-      <c r="BW42" s="21"/>
-      <c r="BX42" s="21"/>
-      <c r="BY42" s="21"/>
-      <c r="BZ42" s="21"/>
-      <c r="CA42" s="21"/>
-      <c r="CB42" s="21"/>
-      <c r="CC42" s="21"/>
-      <c r="CD42" s="21"/>
-      <c r="CE42" s="21"/>
-      <c r="CF42" s="21"/>
-      <c r="CG42" s="21"/>
-      <c r="CH42" s="21"/>
-      <c r="CI42" s="21"/>
-      <c r="CJ42" s="42"/>
-      <c r="CK42" s="18"/>
-    </row>
-    <row r="43" spans="1:89" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="110"/>
-      <c r="B43" s="70" t="s">
+      <c r="C42" s="80">
+        <f>C40+C30+C21</f>
+        <v>0</v>
+      </c>
+      <c r="D42" s="80">
+        <f t="shared" ref="D42:M42" si="78">D40+D30+D21</f>
+        <v>0</v>
+      </c>
+      <c r="E42" s="80">
+        <f t="shared" si="78"/>
+        <v>0</v>
+      </c>
+      <c r="F42" s="80">
+        <f t="shared" si="78"/>
+        <v>0</v>
+      </c>
+      <c r="G42" s="80">
+        <f t="shared" si="78"/>
+        <v>0</v>
+      </c>
+      <c r="H42" s="80">
+        <f t="shared" si="78"/>
+        <v>0</v>
+      </c>
+      <c r="I42" s="80">
+        <f t="shared" si="78"/>
+        <v>0</v>
+      </c>
+      <c r="J42" s="80">
+        <f t="shared" si="78"/>
+        <v>0</v>
+      </c>
+      <c r="K42" s="80">
+        <f t="shared" si="78"/>
+        <v>0</v>
+      </c>
+      <c r="L42" s="80">
+        <f t="shared" si="78"/>
+        <v>0</v>
+      </c>
+      <c r="M42" s="80">
+        <f t="shared" si="78"/>
+        <v>0</v>
+      </c>
+      <c r="N42" s="80">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O42" s="80">
+        <f t="shared" ref="O42:S42" si="79">O40+O30+O21</f>
+        <v>0</v>
+      </c>
+      <c r="P42" s="80">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+      <c r="Q42" s="80">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+      <c r="R42" s="80">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+      <c r="S42" s="80">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+      <c r="T42" s="80">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U42" s="80">
+        <f t="shared" ref="U42:BZ42" si="80">U40+U30+U21</f>
+        <v>0</v>
+      </c>
+      <c r="V42" s="80">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="W42" s="80">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="X42" s="80">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="Y42" s="80">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="Z42" s="80">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="AA42" s="80">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="AB42" s="80">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="AC42" s="80">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="AD42" s="80">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="AE42" s="80">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="AF42" s="80">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="AG42" s="80">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="AH42" s="80">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="AI42" s="80">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="AJ42" s="80">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="AK42" s="80">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="AL42" s="80">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="AM42" s="80">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="AN42" s="82">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="AO42" s="82">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="AP42" s="82">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="AQ42" s="80">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="AR42" s="80">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="AS42" s="80">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="AT42" s="80">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="AU42" s="80">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="AV42" s="80">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="AW42" s="80">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="AX42" s="80">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="AY42" s="80">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="AZ42" s="80">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="BA42" s="80">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="BB42" s="80">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="BC42" s="80">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="BD42" s="80">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="BE42" s="80">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="BF42" s="80">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="BG42" s="80">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="BH42" s="80">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="BI42" s="80">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="BJ42" s="80">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="BK42" s="80">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="BL42" s="80">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="BM42" s="80">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="BN42" s="80">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="BO42" s="80">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="BP42" s="80">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="BQ42" s="80">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="BR42" s="80">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="BS42" s="80">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="BT42" s="80">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="BU42" s="80">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="BV42" s="80">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="BW42" s="80">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="BX42" s="80">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="BY42" s="80">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="BZ42" s="80">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="CA42" s="80">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="CB42" s="80">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="CC42" s="80">
+        <f t="shared" ref="CC42:CH42" si="81">CC40+CC30+CC21</f>
+        <v>0</v>
+      </c>
+      <c r="CD42" s="80">
+        <f t="shared" si="81"/>
+        <v>0</v>
+      </c>
+      <c r="CE42" s="80">
+        <f t="shared" si="81"/>
+        <v>0</v>
+      </c>
+      <c r="CF42" s="80">
+        <f t="shared" si="81"/>
+        <v>0</v>
+      </c>
+      <c r="CG42" s="80">
+        <f t="shared" si="81"/>
+        <v>0</v>
+      </c>
+      <c r="CH42" s="80">
+        <f t="shared" si="81"/>
+        <v>0</v>
+      </c>
+      <c r="CI42" s="80" t="e">
+        <f>CH42/F42</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="CJ42" s="83" t="e">
+        <f>CH42/C42</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="CK42" s="17"/>
+    </row>
+    <row r="43" spans="1:89" ht="61.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="96"/>
+      <c r="B43" s="64" t="s">
         <v>97</v>
       </c>
-      <c r="C43" s="58"/>
-      <c r="D43" s="58"/>
-      <c r="E43" s="58"/>
-      <c r="F43" s="58"/>
-      <c r="G43" s="58"/>
-      <c r="H43" s="58"/>
-      <c r="I43" s="58"/>
-      <c r="J43" s="58"/>
-      <c r="K43" s="58"/>
-      <c r="L43" s="58"/>
-      <c r="M43" s="58"/>
-      <c r="N43" s="58"/>
-      <c r="O43" s="58"/>
-      <c r="P43" s="58"/>
-      <c r="Q43" s="58"/>
-      <c r="R43" s="58"/>
-      <c r="S43" s="58"/>
-      <c r="T43" s="58"/>
-      <c r="U43" s="58"/>
-      <c r="V43" s="58"/>
-      <c r="W43" s="58"/>
-      <c r="X43" s="58"/>
-      <c r="Y43" s="58"/>
-      <c r="Z43" s="58"/>
-      <c r="AA43" s="58"/>
-      <c r="AB43" s="58"/>
-      <c r="AC43" s="58"/>
-      <c r="AD43" s="58"/>
-      <c r="AE43" s="58"/>
-      <c r="AF43" s="58"/>
-      <c r="AG43" s="58"/>
-      <c r="AH43" s="58"/>
-      <c r="AI43" s="58"/>
-      <c r="AJ43" s="58"/>
-      <c r="AK43" s="58"/>
-      <c r="AL43" s="58"/>
-      <c r="AM43" s="58"/>
-      <c r="AN43" s="59"/>
-      <c r="AO43" s="59"/>
-      <c r="AP43" s="59"/>
-      <c r="AQ43" s="58"/>
-      <c r="AR43" s="58"/>
-      <c r="AS43" s="58"/>
-      <c r="AT43" s="58"/>
-      <c r="AU43" s="58"/>
-      <c r="AV43" s="58"/>
-      <c r="AW43" s="58"/>
-      <c r="AX43" s="58"/>
-      <c r="AY43" s="58"/>
-      <c r="AZ43" s="58"/>
-      <c r="BA43" s="58"/>
-      <c r="BB43" s="58"/>
-      <c r="BC43" s="58"/>
-      <c r="BD43" s="58"/>
-      <c r="BE43" s="58"/>
-      <c r="BF43" s="58"/>
-      <c r="BG43" s="58"/>
-      <c r="BH43" s="58"/>
-      <c r="BI43" s="58"/>
-      <c r="BJ43" s="58"/>
-      <c r="BK43" s="58"/>
-      <c r="BL43" s="58"/>
-      <c r="BM43" s="58"/>
-      <c r="BN43" s="58"/>
-      <c r="BO43" s="58"/>
-      <c r="BP43" s="58"/>
-      <c r="BQ43" s="58"/>
-      <c r="BR43" s="58"/>
-      <c r="BS43" s="58"/>
-      <c r="BT43" s="58"/>
-      <c r="BU43" s="58"/>
-      <c r="BV43" s="58"/>
-      <c r="BW43" s="58"/>
-      <c r="BX43" s="58"/>
-      <c r="BY43" s="58"/>
-      <c r="BZ43" s="58"/>
-      <c r="CA43" s="58"/>
-      <c r="CB43" s="58"/>
-      <c r="CC43" s="58"/>
-      <c r="CD43" s="58"/>
-      <c r="CE43" s="58"/>
-      <c r="CF43" s="58"/>
-      <c r="CG43" s="58"/>
-      <c r="CH43" s="58"/>
-      <c r="CI43" s="71"/>
-      <c r="CJ43" s="72"/>
-      <c r="CK43" s="18"/>
-    </row>
-    <row r="44" spans="1:89" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="111"/>
-      <c r="B44" s="56" t="s">
+      <c r="C43" s="52"/>
+      <c r="D43" s="52"/>
+      <c r="E43" s="52"/>
+      <c r="F43" s="52"/>
+      <c r="G43" s="52"/>
+      <c r="H43" s="52"/>
+      <c r="I43" s="52"/>
+      <c r="J43" s="52"/>
+      <c r="K43" s="52"/>
+      <c r="L43" s="52"/>
+      <c r="M43" s="52"/>
+      <c r="N43" s="89">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O43" s="52"/>
+      <c r="P43" s="52"/>
+      <c r="Q43" s="52"/>
+      <c r="R43" s="52"/>
+      <c r="S43" s="52"/>
+      <c r="T43" s="89">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U43" s="52"/>
+      <c r="V43" s="52"/>
+      <c r="W43" s="52"/>
+      <c r="X43" s="52"/>
+      <c r="Y43" s="52"/>
+      <c r="Z43" s="52"/>
+      <c r="AA43" s="52"/>
+      <c r="AB43" s="52"/>
+      <c r="AC43" s="52"/>
+      <c r="AD43" s="52"/>
+      <c r="AE43" s="52"/>
+      <c r="AF43" s="52"/>
+      <c r="AG43" s="52"/>
+      <c r="AH43" s="52"/>
+      <c r="AI43" s="52"/>
+      <c r="AJ43" s="52"/>
+      <c r="AK43" s="52"/>
+      <c r="AL43" s="52"/>
+      <c r="AM43" s="52"/>
+      <c r="AN43" s="53"/>
+      <c r="AO43" s="53"/>
+      <c r="AP43" s="53"/>
+      <c r="AQ43" s="52"/>
+      <c r="AR43" s="52"/>
+      <c r="AS43" s="52"/>
+      <c r="AT43" s="52"/>
+      <c r="AU43" s="52"/>
+      <c r="AV43" s="52"/>
+      <c r="AW43" s="52"/>
+      <c r="AX43" s="52"/>
+      <c r="AY43" s="52"/>
+      <c r="AZ43" s="52"/>
+      <c r="BA43" s="52"/>
+      <c r="BB43" s="52"/>
+      <c r="BC43" s="52"/>
+      <c r="BD43" s="52"/>
+      <c r="BE43" s="52"/>
+      <c r="BF43" s="52"/>
+      <c r="BG43" s="52"/>
+      <c r="BH43" s="52"/>
+      <c r="BI43" s="52"/>
+      <c r="BJ43" s="52"/>
+      <c r="BK43" s="52"/>
+      <c r="BL43" s="52"/>
+      <c r="BM43" s="52"/>
+      <c r="BN43" s="52"/>
+      <c r="BO43" s="52"/>
+      <c r="BP43" s="52"/>
+      <c r="BQ43" s="52"/>
+      <c r="BR43" s="52"/>
+      <c r="BS43" s="52"/>
+      <c r="BT43" s="52"/>
+      <c r="BU43" s="52"/>
+      <c r="BV43" s="52"/>
+      <c r="BW43" s="52"/>
+      <c r="BX43" s="52"/>
+      <c r="BY43" s="52"/>
+      <c r="BZ43" s="52"/>
+      <c r="CA43" s="89">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="CB43" s="89">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="CC43" s="52"/>
+      <c r="CD43" s="52"/>
+      <c r="CE43" s="52"/>
+      <c r="CF43" s="52"/>
+      <c r="CG43" s="52"/>
+      <c r="CH43" s="52"/>
+      <c r="CI43" s="65"/>
+      <c r="CJ43" s="66"/>
+      <c r="CK43" s="17"/>
+    </row>
+    <row r="44" spans="1:89" ht="59.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="97"/>
+      <c r="B44" s="50" t="s">
         <v>99</v>
       </c>
-      <c r="C44" s="31"/>
-      <c r="D44" s="31"/>
-      <c r="E44" s="31"/>
-      <c r="F44" s="31"/>
-      <c r="G44" s="31"/>
-      <c r="H44" s="31"/>
-      <c r="I44" s="31"/>
-      <c r="J44" s="31"/>
-      <c r="K44" s="31"/>
-      <c r="L44" s="31"/>
-      <c r="M44" s="31"/>
-      <c r="N44" s="31"/>
-      <c r="O44" s="31"/>
-      <c r="P44" s="31"/>
-      <c r="Q44" s="31"/>
-      <c r="R44" s="31"/>
-      <c r="S44" s="31"/>
-      <c r="T44" s="31"/>
-      <c r="U44" s="31"/>
-      <c r="V44" s="31"/>
-      <c r="W44" s="31"/>
-      <c r="X44" s="31"/>
-      <c r="Y44" s="31"/>
-      <c r="Z44" s="31"/>
-      <c r="AA44" s="31"/>
-      <c r="AB44" s="31"/>
-      <c r="AC44" s="31"/>
-      <c r="AD44" s="31"/>
-      <c r="AE44" s="31"/>
-      <c r="AF44" s="31"/>
-      <c r="AG44" s="31"/>
-      <c r="AH44" s="31"/>
-      <c r="AI44" s="31"/>
-      <c r="AJ44" s="31"/>
-      <c r="AK44" s="31"/>
-      <c r="AL44" s="31"/>
-      <c r="AM44" s="31"/>
-      <c r="AN44" s="57"/>
-      <c r="AO44" s="57"/>
-      <c r="AP44" s="57"/>
-      <c r="AQ44" s="31"/>
-      <c r="AR44" s="31"/>
-      <c r="AS44" s="31"/>
-      <c r="AT44" s="31"/>
-      <c r="AU44" s="31"/>
-      <c r="AV44" s="31"/>
-      <c r="AW44" s="31"/>
-      <c r="AX44" s="31"/>
-      <c r="AY44" s="31"/>
-      <c r="AZ44" s="31"/>
-      <c r="BA44" s="31"/>
-      <c r="BB44" s="31"/>
-      <c r="BC44" s="31"/>
-      <c r="BD44" s="31"/>
-      <c r="BE44" s="31"/>
-      <c r="BF44" s="31"/>
-      <c r="BG44" s="31"/>
-      <c r="BH44" s="31"/>
-      <c r="BI44" s="31"/>
-      <c r="BJ44" s="31"/>
-      <c r="BK44" s="31"/>
-      <c r="BL44" s="31"/>
-      <c r="BM44" s="31"/>
-      <c r="BN44" s="31"/>
-      <c r="BO44" s="31"/>
-      <c r="BP44" s="31"/>
-      <c r="BQ44" s="31"/>
-      <c r="BR44" s="31"/>
-      <c r="BS44" s="31"/>
-      <c r="BT44" s="31"/>
-      <c r="BU44" s="31"/>
-      <c r="BV44" s="31"/>
-      <c r="BW44" s="31"/>
-      <c r="BX44" s="31"/>
-      <c r="BY44" s="31"/>
-      <c r="BZ44" s="31"/>
-      <c r="CA44" s="31"/>
-      <c r="CB44" s="31"/>
-      <c r="CC44" s="31"/>
-      <c r="CD44" s="31"/>
-      <c r="CE44" s="31"/>
-      <c r="CF44" s="31"/>
-      <c r="CG44" s="31"/>
-      <c r="CH44" s="31"/>
-      <c r="CI44" s="34"/>
-      <c r="CJ44" s="35"/>
-      <c r="CK44" s="18"/>
-    </row>
-    <row r="45" spans="1:89" s="47" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="43"/>
-      <c r="B45" s="43"/>
-      <c r="C45" s="44"/>
-      <c r="D45" s="44"/>
-      <c r="E45" s="44"/>
-      <c r="F45" s="44"/>
-      <c r="G45" s="44"/>
-      <c r="H45" s="44"/>
-      <c r="I45" s="44"/>
-      <c r="J45" s="44"/>
-      <c r="K45" s="44"/>
-      <c r="L45" s="44"/>
-      <c r="M45" s="44"/>
-      <c r="N45" s="44"/>
-      <c r="O45" s="44"/>
-      <c r="P45" s="44"/>
-      <c r="Q45" s="44"/>
-      <c r="R45" s="44"/>
-      <c r="S45" s="44"/>
-      <c r="T45" s="44"/>
-      <c r="U45" s="44"/>
-      <c r="V45" s="44"/>
-      <c r="W45" s="44"/>
-      <c r="X45" s="44"/>
-      <c r="Y45" s="44"/>
-      <c r="Z45" s="44"/>
-      <c r="AA45" s="44"/>
-      <c r="AB45" s="44"/>
-      <c r="AC45" s="44"/>
-      <c r="AD45" s="44"/>
-      <c r="AE45" s="44"/>
-      <c r="AF45" s="44"/>
-      <c r="AG45" s="44"/>
-      <c r="AH45" s="44"/>
-      <c r="AI45" s="44"/>
-      <c r="AJ45" s="44"/>
-      <c r="AK45" s="44"/>
-      <c r="AL45" s="44"/>
-      <c r="AM45" s="44"/>
-      <c r="AN45" s="45"/>
-      <c r="AO45" s="45"/>
-      <c r="AP45" s="45"/>
-      <c r="AQ45" s="44"/>
-      <c r="AR45" s="44"/>
-      <c r="AS45" s="44"/>
-      <c r="AT45" s="44"/>
-      <c r="AU45" s="44"/>
-      <c r="AV45" s="44"/>
-      <c r="AW45" s="44"/>
-      <c r="AX45" s="44"/>
-      <c r="AY45" s="44"/>
-      <c r="AZ45" s="44"/>
-      <c r="BA45" s="44"/>
-      <c r="BB45" s="44"/>
-      <c r="BC45" s="44"/>
-      <c r="BD45" s="44"/>
-      <c r="BE45" s="44"/>
-      <c r="BF45" s="44"/>
-      <c r="BG45" s="44"/>
-      <c r="BH45" s="44"/>
-      <c r="BI45" s="44"/>
-      <c r="BJ45" s="44"/>
-      <c r="BK45" s="44"/>
-      <c r="BL45" s="44"/>
-      <c r="BM45" s="44"/>
-      <c r="BN45" s="44"/>
-      <c r="BO45" s="44"/>
-      <c r="BP45" s="44"/>
-      <c r="BQ45" s="44"/>
-      <c r="BR45" s="44"/>
-      <c r="BS45" s="44"/>
-      <c r="BT45" s="44"/>
-      <c r="BU45" s="44"/>
-      <c r="BV45" s="44"/>
-      <c r="BW45" s="44"/>
-      <c r="BX45" s="44"/>
-      <c r="BY45" s="44"/>
-      <c r="BZ45" s="44"/>
-      <c r="CA45" s="44"/>
-      <c r="CB45" s="44"/>
-      <c r="CC45" s="44"/>
-      <c r="CD45" s="44"/>
-      <c r="CE45" s="44"/>
-      <c r="CF45" s="44"/>
-      <c r="CG45" s="44"/>
-      <c r="CH45" s="44"/>
-      <c r="CI45" s="44"/>
-      <c r="CJ45" s="44"/>
-      <c r="CK45" s="46"/>
+      <c r="C44" s="27"/>
+      <c r="D44" s="27"/>
+      <c r="E44" s="27"/>
+      <c r="F44" s="27"/>
+      <c r="G44" s="27"/>
+      <c r="H44" s="27"/>
+      <c r="I44" s="27"/>
+      <c r="J44" s="27"/>
+      <c r="K44" s="27"/>
+      <c r="L44" s="27"/>
+      <c r="M44" s="27"/>
+      <c r="N44" s="87">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O44" s="27"/>
+      <c r="P44" s="27"/>
+      <c r="Q44" s="27"/>
+      <c r="R44" s="27"/>
+      <c r="S44" s="27"/>
+      <c r="T44" s="87">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U44" s="27"/>
+      <c r="V44" s="27"/>
+      <c r="W44" s="27"/>
+      <c r="X44" s="27"/>
+      <c r="Y44" s="27"/>
+      <c r="Z44" s="27"/>
+      <c r="AA44" s="27"/>
+      <c r="AB44" s="27"/>
+      <c r="AC44" s="27"/>
+      <c r="AD44" s="27"/>
+      <c r="AE44" s="27"/>
+      <c r="AF44" s="27"/>
+      <c r="AG44" s="27"/>
+      <c r="AH44" s="27"/>
+      <c r="AI44" s="27"/>
+      <c r="AJ44" s="27"/>
+      <c r="AK44" s="27"/>
+      <c r="AL44" s="27"/>
+      <c r="AM44" s="27"/>
+      <c r="AN44" s="51"/>
+      <c r="AO44" s="51"/>
+      <c r="AP44" s="51"/>
+      <c r="AQ44" s="27"/>
+      <c r="AR44" s="27"/>
+      <c r="AS44" s="27"/>
+      <c r="AT44" s="27"/>
+      <c r="AU44" s="27"/>
+      <c r="AV44" s="27"/>
+      <c r="AW44" s="27"/>
+      <c r="AX44" s="27"/>
+      <c r="AY44" s="27"/>
+      <c r="AZ44" s="27"/>
+      <c r="BA44" s="27"/>
+      <c r="BB44" s="27"/>
+      <c r="BC44" s="27"/>
+      <c r="BD44" s="27"/>
+      <c r="BE44" s="27"/>
+      <c r="BF44" s="27"/>
+      <c r="BG44" s="27"/>
+      <c r="BH44" s="27"/>
+      <c r="BI44" s="27"/>
+      <c r="BJ44" s="27"/>
+      <c r="BK44" s="27"/>
+      <c r="BL44" s="27"/>
+      <c r="BM44" s="27"/>
+      <c r="BN44" s="27"/>
+      <c r="BO44" s="27"/>
+      <c r="BP44" s="27"/>
+      <c r="BQ44" s="27"/>
+      <c r="BR44" s="27"/>
+      <c r="BS44" s="27"/>
+      <c r="BT44" s="27"/>
+      <c r="BU44" s="27"/>
+      <c r="BV44" s="27"/>
+      <c r="BW44" s="27"/>
+      <c r="BX44" s="27"/>
+      <c r="BY44" s="27"/>
+      <c r="BZ44" s="27"/>
+      <c r="CA44" s="87">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="CB44" s="87">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="CC44" s="27"/>
+      <c r="CD44" s="27"/>
+      <c r="CE44" s="27"/>
+      <c r="CF44" s="27"/>
+      <c r="CG44" s="27"/>
+      <c r="CH44" s="27"/>
+      <c r="CI44" s="30"/>
+      <c r="CJ44" s="31"/>
+      <c r="CK44" s="17"/>
+    </row>
+    <row r="45" spans="1:89" s="42" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="38"/>
+      <c r="B45" s="38"/>
+      <c r="C45" s="39"/>
+      <c r="D45" s="39"/>
+      <c r="E45" s="39"/>
+      <c r="F45" s="39"/>
+      <c r="G45" s="39"/>
+      <c r="H45" s="39"/>
+      <c r="I45" s="39"/>
+      <c r="J45" s="39"/>
+      <c r="K45" s="39"/>
+      <c r="L45" s="39"/>
+      <c r="M45" s="39"/>
+      <c r="N45" s="39"/>
+      <c r="O45" s="39"/>
+      <c r="P45" s="39"/>
+      <c r="Q45" s="39"/>
+      <c r="R45" s="39"/>
+      <c r="S45" s="39"/>
+      <c r="T45" s="39"/>
+      <c r="U45" s="39"/>
+      <c r="V45" s="39"/>
+      <c r="W45" s="39"/>
+      <c r="X45" s="39"/>
+      <c r="Y45" s="39"/>
+      <c r="Z45" s="39"/>
+      <c r="AA45" s="39"/>
+      <c r="AB45" s="39"/>
+      <c r="AC45" s="39"/>
+      <c r="AD45" s="39"/>
+      <c r="AE45" s="39"/>
+      <c r="AF45" s="39"/>
+      <c r="AG45" s="39"/>
+      <c r="AH45" s="39"/>
+      <c r="AI45" s="39"/>
+      <c r="AJ45" s="39"/>
+      <c r="AK45" s="39"/>
+      <c r="AL45" s="39"/>
+      <c r="AM45" s="39"/>
+      <c r="AN45" s="40"/>
+      <c r="AO45" s="40"/>
+      <c r="AP45" s="40"/>
+      <c r="AQ45" s="39"/>
+      <c r="AR45" s="39"/>
+      <c r="AS45" s="39"/>
+      <c r="AT45" s="39"/>
+      <c r="AU45" s="39"/>
+      <c r="AV45" s="39"/>
+      <c r="AW45" s="39"/>
+      <c r="AX45" s="39"/>
+      <c r="AY45" s="39"/>
+      <c r="AZ45" s="39"/>
+      <c r="BA45" s="39"/>
+      <c r="BB45" s="39"/>
+      <c r="BC45" s="39"/>
+      <c r="BD45" s="39"/>
+      <c r="BE45" s="39"/>
+      <c r="BF45" s="39"/>
+      <c r="BG45" s="39"/>
+      <c r="BH45" s="39"/>
+      <c r="BI45" s="39"/>
+      <c r="BJ45" s="39"/>
+      <c r="BK45" s="39"/>
+      <c r="BL45" s="39"/>
+      <c r="BM45" s="39"/>
+      <c r="BN45" s="39"/>
+      <c r="BO45" s="39"/>
+      <c r="BP45" s="39"/>
+      <c r="BQ45" s="39"/>
+      <c r="BR45" s="39"/>
+      <c r="BS45" s="39"/>
+      <c r="BT45" s="39"/>
+      <c r="BU45" s="39"/>
+      <c r="BV45" s="39"/>
+      <c r="BW45" s="39"/>
+      <c r="BX45" s="39"/>
+      <c r="BY45" s="39"/>
+      <c r="BZ45" s="39"/>
+      <c r="CA45" s="39"/>
+      <c r="CB45" s="39"/>
+      <c r="CC45" s="39"/>
+      <c r="CD45" s="39"/>
+      <c r="CE45" s="39"/>
+      <c r="CF45" s="39"/>
+      <c r="CG45" s="39"/>
+      <c r="CH45" s="39"/>
+      <c r="CI45" s="39"/>
+      <c r="CJ45" s="39"/>
+      <c r="CK45" s="41"/>
     </row>
     <row r="46" spans="1:89" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="2"/>
@@ -6329,12 +7658,12 @@
       <c r="CB46" s="2"/>
       <c r="CC46" s="2"/>
       <c r="CD46" s="3"/>
-      <c r="CE46" s="48"/>
-      <c r="CF46" s="48"/>
-      <c r="CG46" s="48"/>
-      <c r="CH46" s="48"/>
-      <c r="CI46" s="48"/>
-      <c r="CJ46" s="48"/>
+      <c r="CE46" s="43"/>
+      <c r="CF46" s="43"/>
+      <c r="CG46" s="43"/>
+      <c r="CH46" s="43"/>
+      <c r="CI46" s="43"/>
+      <c r="CJ46" s="43"/>
     </row>
     <row r="47" spans="1:89" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="2"/>
@@ -6360,12 +7689,12 @@
       <c r="CB47" s="2"/>
       <c r="CC47" s="2"/>
       <c r="CD47" s="3"/>
-      <c r="CE47" s="48"/>
-      <c r="CF47" s="48"/>
-      <c r="CG47" s="48"/>
-      <c r="CH47" s="48"/>
-      <c r="CI47" s="48"/>
-      <c r="CJ47" s="48"/>
+      <c r="CE47" s="43"/>
+      <c r="CF47" s="43"/>
+      <c r="CG47" s="43"/>
+      <c r="CH47" s="43"/>
+      <c r="CI47" s="43"/>
+      <c r="CJ47" s="43"/>
     </row>
     <row r="48" spans="1:89" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D48" s="2"/>
@@ -6379,16 +7708,16 @@
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
       <c r="U49" s="2"/>
-      <c r="V49" s="112"/>
-      <c r="W49" s="112"/>
+      <c r="V49" s="98"/>
+      <c r="W49" s="98"/>
       <c r="X49" s="2"/>
       <c r="Y49" s="2"/>
       <c r="Z49" s="2"/>
-      <c r="AA49" s="112"/>
+      <c r="AA49" s="98"/>
       <c r="AB49" s="2"/>
       <c r="AC49" s="2"/>
       <c r="AD49" s="2"/>
-      <c r="AE49" s="112"/>
+      <c r="AE49" s="98"/>
       <c r="AF49" s="2"/>
       <c r="AG49" s="2"/>
       <c r="AH49" s="2"/>
@@ -6396,9 +7725,9 @@
       <c r="AJ49" s="2"/>
       <c r="AK49" s="2"/>
       <c r="AL49" s="2"/>
-      <c r="AM49" s="112"/>
-      <c r="AQ49" s="112"/>
-      <c r="AR49" s="112"/>
+      <c r="AM49" s="98"/>
+      <c r="AQ49" s="98"/>
+      <c r="AR49" s="98"/>
       <c r="AS49" s="2"/>
       <c r="AT49" s="2"/>
       <c r="AU49" s="2"/>
@@ -6420,9 +7749,9 @@
       <c r="CA49" s="2"/>
       <c r="CB49" s="2"/>
       <c r="CC49" s="2"/>
-      <c r="CD49" s="112"/>
-      <c r="CE49" s="112"/>
-      <c r="CF49" s="112"/>
+      <c r="CD49" s="98"/>
+      <c r="CE49" s="98"/>
+      <c r="CF49" s="98"/>
       <c r="CG49" s="2"/>
       <c r="CH49" s="2"/>
       <c r="CI49" s="2"/>
@@ -6433,13 +7762,13 @@
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
       <c r="U50" s="2"/>
-      <c r="V50" s="112"/>
-      <c r="W50" s="112"/>
+      <c r="V50" s="98"/>
+      <c r="W50" s="98"/>
       <c r="X50" s="2"/>
       <c r="Y50" s="2"/>
       <c r="Z50" s="2"/>
-      <c r="AA50" s="112"/>
-      <c r="AE50" s="112"/>
+      <c r="AA50" s="98"/>
+      <c r="AE50" s="98"/>
       <c r="AF50" s="2"/>
       <c r="AG50" s="2"/>
       <c r="AH50" s="2"/>
@@ -6447,9 +7776,9 @@
       <c r="AJ50" s="2"/>
       <c r="AK50" s="2"/>
       <c r="AL50" s="2"/>
-      <c r="AM50" s="112"/>
-      <c r="AQ50" s="112"/>
-      <c r="AR50" s="112"/>
+      <c r="AM50" s="98"/>
+      <c r="AQ50" s="98"/>
+      <c r="AR50" s="98"/>
       <c r="AS50" s="2"/>
       <c r="AT50" s="2"/>
       <c r="AU50" s="2"/>
@@ -6471,9 +7800,9 @@
       <c r="CA50" s="2"/>
       <c r="CB50" s="2"/>
       <c r="CC50" s="2"/>
-      <c r="CD50" s="112"/>
-      <c r="CE50" s="112"/>
-      <c r="CF50" s="112"/>
+      <c r="CD50" s="98"/>
+      <c r="CE50" s="98"/>
+      <c r="CF50" s="98"/>
       <c r="CG50" s="2"/>
       <c r="CH50" s="2"/>
       <c r="CI50" s="2"/>
@@ -13993,19 +15322,96 @@
     </row>
   </sheetData>
   <mergeCells count="127">
-    <mergeCell ref="A23:A32"/>
-    <mergeCell ref="A42:A44"/>
-    <mergeCell ref="AQ49:AQ50"/>
-    <mergeCell ref="AR49:AR50"/>
-    <mergeCell ref="CD49:CD50"/>
-    <mergeCell ref="CE49:CE50"/>
-    <mergeCell ref="CF49:CF50"/>
-    <mergeCell ref="A33:A41"/>
-    <mergeCell ref="V49:V50"/>
-    <mergeCell ref="W49:W50"/>
-    <mergeCell ref="AA49:AA50"/>
-    <mergeCell ref="AE49:AE50"/>
-    <mergeCell ref="AM49:AM50"/>
+    <mergeCell ref="D7:T7"/>
+    <mergeCell ref="BT7:CJ7"/>
+    <mergeCell ref="D8:T8"/>
+    <mergeCell ref="BT8:CJ8"/>
+    <mergeCell ref="CC1:CJ1"/>
+    <mergeCell ref="B2:CF2"/>
+    <mergeCell ref="B3:CF3"/>
+    <mergeCell ref="B4:CF4"/>
+    <mergeCell ref="AR5:AX5"/>
+    <mergeCell ref="BT9:CJ9"/>
+    <mergeCell ref="A11:A16"/>
+    <mergeCell ref="B11:B16"/>
+    <mergeCell ref="C11:C16"/>
+    <mergeCell ref="D11:G11"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="K11:N11"/>
+    <mergeCell ref="O11:T11"/>
+    <mergeCell ref="U11:AR11"/>
+    <mergeCell ref="AS11:BI11"/>
+    <mergeCell ref="BJ11:CJ11"/>
+    <mergeCell ref="D12:D16"/>
+    <mergeCell ref="E12:E16"/>
+    <mergeCell ref="F12:F16"/>
+    <mergeCell ref="G12:G16"/>
+    <mergeCell ref="H12:H15"/>
+    <mergeCell ref="I12:I15"/>
+    <mergeCell ref="J12:J15"/>
+    <mergeCell ref="K12:K15"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="V12:V16"/>
+    <mergeCell ref="W12:W16"/>
+    <mergeCell ref="L12:L15"/>
+    <mergeCell ref="M12:M15"/>
+    <mergeCell ref="N12:N16"/>
+    <mergeCell ref="O12:O15"/>
+    <mergeCell ref="P12:P15"/>
+    <mergeCell ref="Q12:Q15"/>
+    <mergeCell ref="AT12:AU13"/>
+    <mergeCell ref="AV12:AW13"/>
+    <mergeCell ref="AX12:BI12"/>
+    <mergeCell ref="BJ12:BJ16"/>
+    <mergeCell ref="AF12:AJ13"/>
+    <mergeCell ref="BK12:BL13"/>
+    <mergeCell ref="BM12:BN13"/>
+    <mergeCell ref="AT14:AT16"/>
+    <mergeCell ref="AU14:AU16"/>
+    <mergeCell ref="AV14:AV16"/>
+    <mergeCell ref="AW14:AW16"/>
+    <mergeCell ref="CH12:CH16"/>
+    <mergeCell ref="CI12:CI16"/>
+    <mergeCell ref="CJ12:CJ16"/>
+    <mergeCell ref="AX13:BA13"/>
+    <mergeCell ref="BB13:BI13"/>
+    <mergeCell ref="BO13:BR13"/>
+    <mergeCell ref="BS13:BZ13"/>
+    <mergeCell ref="CD13:CD16"/>
+    <mergeCell ref="CE13:CE16"/>
+    <mergeCell ref="AX14:BA14"/>
+    <mergeCell ref="BO12:BZ12"/>
+    <mergeCell ref="CA12:CB15"/>
+    <mergeCell ref="CC12:CC16"/>
+    <mergeCell ref="CD12:CE12"/>
+    <mergeCell ref="CF12:CF16"/>
+    <mergeCell ref="CG12:CG16"/>
+    <mergeCell ref="BO14:BR14"/>
+    <mergeCell ref="BS14:BV14"/>
+    <mergeCell ref="BW14:BZ14"/>
+    <mergeCell ref="BO15:BP15"/>
+    <mergeCell ref="BB14:BE14"/>
+    <mergeCell ref="BF14:BI14"/>
+    <mergeCell ref="BK14:BK16"/>
+    <mergeCell ref="BL14:BL16"/>
+    <mergeCell ref="BM14:BM16"/>
+    <mergeCell ref="BN14:BN16"/>
+    <mergeCell ref="AF14:AF16"/>
+    <mergeCell ref="AG14:AG16"/>
+    <mergeCell ref="AH14:AH16"/>
+    <mergeCell ref="AI14:AI16"/>
+    <mergeCell ref="AJ14:AJ16"/>
+    <mergeCell ref="AM14:AM16"/>
+    <mergeCell ref="AK12:AK16"/>
+    <mergeCell ref="AL12:AL16"/>
+    <mergeCell ref="AM12:AO13"/>
+    <mergeCell ref="AP12:AP16"/>
+    <mergeCell ref="AQ12:AR13"/>
+    <mergeCell ref="AS12:AS16"/>
+    <mergeCell ref="AN14:AN16"/>
+    <mergeCell ref="AO14:AO16"/>
+    <mergeCell ref="AQ14:AQ16"/>
+    <mergeCell ref="AR14:AR16"/>
     <mergeCell ref="BQ15:BR15"/>
     <mergeCell ref="BS15:BT15"/>
     <mergeCell ref="BU15:BV15"/>
@@ -14030,96 +15436,19 @@
     <mergeCell ref="R12:R15"/>
     <mergeCell ref="S12:S15"/>
     <mergeCell ref="T12:T16"/>
-    <mergeCell ref="BW14:BZ14"/>
-    <mergeCell ref="BO15:BP15"/>
-    <mergeCell ref="BB14:BE14"/>
-    <mergeCell ref="BF14:BI14"/>
-    <mergeCell ref="BK14:BK16"/>
-    <mergeCell ref="BL14:BL16"/>
-    <mergeCell ref="BM14:BM16"/>
-    <mergeCell ref="BN14:BN16"/>
-    <mergeCell ref="AF14:AF16"/>
-    <mergeCell ref="AG14:AG16"/>
-    <mergeCell ref="AH14:AH16"/>
-    <mergeCell ref="AI14:AI16"/>
-    <mergeCell ref="AJ14:AJ16"/>
-    <mergeCell ref="AM14:AM16"/>
-    <mergeCell ref="AK12:AK16"/>
-    <mergeCell ref="AL12:AL16"/>
-    <mergeCell ref="AM12:AO13"/>
-    <mergeCell ref="AP12:AP16"/>
-    <mergeCell ref="AQ12:AR13"/>
-    <mergeCell ref="AS12:AS16"/>
-    <mergeCell ref="AN14:AN16"/>
-    <mergeCell ref="AO14:AO16"/>
-    <mergeCell ref="AQ14:AQ16"/>
-    <mergeCell ref="AR14:AR16"/>
-    <mergeCell ref="BK12:BL13"/>
-    <mergeCell ref="BM12:BN13"/>
-    <mergeCell ref="AT14:AT16"/>
-    <mergeCell ref="AU14:AU16"/>
-    <mergeCell ref="AV14:AV16"/>
-    <mergeCell ref="AW14:AW16"/>
-    <mergeCell ref="CH12:CH16"/>
-    <mergeCell ref="CI12:CI16"/>
-    <mergeCell ref="CJ12:CJ16"/>
-    <mergeCell ref="AX13:BA13"/>
-    <mergeCell ref="BB13:BI13"/>
-    <mergeCell ref="BO13:BR13"/>
-    <mergeCell ref="BS13:BZ13"/>
-    <mergeCell ref="CD13:CD16"/>
-    <mergeCell ref="CE13:CE16"/>
-    <mergeCell ref="AX14:BA14"/>
-    <mergeCell ref="BO12:BZ12"/>
-    <mergeCell ref="CA12:CB15"/>
-    <mergeCell ref="CC12:CC16"/>
-    <mergeCell ref="CD12:CE12"/>
-    <mergeCell ref="CF12:CF16"/>
-    <mergeCell ref="CG12:CG16"/>
-    <mergeCell ref="BO14:BR14"/>
-    <mergeCell ref="BS14:BV14"/>
-    <mergeCell ref="M12:M15"/>
-    <mergeCell ref="N12:N16"/>
-    <mergeCell ref="O12:O15"/>
-    <mergeCell ref="P12:P15"/>
-    <mergeCell ref="Q12:Q15"/>
-    <mergeCell ref="AT12:AU13"/>
-    <mergeCell ref="AV12:AW13"/>
-    <mergeCell ref="AX12:BI12"/>
-    <mergeCell ref="BJ12:BJ16"/>
-    <mergeCell ref="AF12:AJ13"/>
-    <mergeCell ref="BT9:CJ9"/>
-    <mergeCell ref="A11:A16"/>
-    <mergeCell ref="B11:B16"/>
-    <mergeCell ref="C11:C16"/>
-    <mergeCell ref="D11:G11"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="K11:N11"/>
-    <mergeCell ref="O11:T11"/>
-    <mergeCell ref="U11:AR11"/>
-    <mergeCell ref="AS11:BI11"/>
-    <mergeCell ref="BJ11:CJ11"/>
-    <mergeCell ref="D12:D16"/>
-    <mergeCell ref="E12:E16"/>
-    <mergeCell ref="F12:F16"/>
-    <mergeCell ref="G12:G16"/>
-    <mergeCell ref="H12:H15"/>
-    <mergeCell ref="I12:I15"/>
-    <mergeCell ref="J12:J15"/>
-    <mergeCell ref="K12:K15"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="V12:V16"/>
-    <mergeCell ref="W12:W16"/>
-    <mergeCell ref="L12:L15"/>
-    <mergeCell ref="D7:T7"/>
-    <mergeCell ref="BT7:CJ7"/>
-    <mergeCell ref="D8:T8"/>
-    <mergeCell ref="BT8:CJ8"/>
-    <mergeCell ref="CC1:CJ1"/>
-    <mergeCell ref="B2:CF2"/>
-    <mergeCell ref="B3:CF3"/>
-    <mergeCell ref="B4:CF4"/>
-    <mergeCell ref="AR5:AX5"/>
+    <mergeCell ref="A23:A32"/>
+    <mergeCell ref="A42:A44"/>
+    <mergeCell ref="AQ49:AQ50"/>
+    <mergeCell ref="AR49:AR50"/>
+    <mergeCell ref="CD49:CD50"/>
+    <mergeCell ref="CE49:CE50"/>
+    <mergeCell ref="CF49:CF50"/>
+    <mergeCell ref="A33:A41"/>
+    <mergeCell ref="V49:V50"/>
+    <mergeCell ref="W49:W50"/>
+    <mergeCell ref="AA49:AA50"/>
+    <mergeCell ref="AE49:AE50"/>
+    <mergeCell ref="AM49:AM50"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/public/exports/PGS201.xlsx
+++ b/public/exports/PGS201.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\calypso\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\calypso\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{568205F7-ED3C-4AA2-9BC9-EA6B557C516F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11529DF0-B42D-49E8-8C7B-E2CB43F64165}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-90" windowWidth="29040" windowHeight="16440" xr2:uid="{1DFFECE8-8A5A-4299-B12A-BEC0271E3890}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1DFFECE8-8A5A-4299-B12A-BEC0271E3890}"/>
   </bookViews>
   <sheets>
     <sheet name="PGS201" sheetId="1" r:id="rId1"/>
@@ -381,9 +381,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.00;[Red]0.00"/>
-  </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1048,7 +1045,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="139">
+  <cellXfs count="150">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
@@ -1106,9 +1103,6 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
@@ -1124,9 +1118,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1154,9 +1145,6 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1215,9 +1203,6 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -1273,12 +1258,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
@@ -1339,15 +1318,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -1360,14 +1330,149 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="2" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="48" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1397,159 +1502,89 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="10" fontId="2" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" textRotation="90"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="10" fontId="2" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" textRotation="90"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="10" fontId="2" fillId="3" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" textRotation="90"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="10" fontId="6" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
+    <xf numFmtId="10" fontId="2" fillId="4" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="10" fontId="2" fillId="5" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="10" fontId="2" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="48" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="10" fontId="2" fillId="5" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="10" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="5" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="5" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="5" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="2" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="5" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="5" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="2" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="5" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="5" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1871,8 +1906,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C59192A-7076-43B9-9856-AF79AF1723F6}">
   <dimension ref="A1:CK990"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S31" zoomScale="58" zoomScaleNormal="58" workbookViewId="0">
-      <selection activeCell="CH29" sqref="CH29"/>
+    <sheetView tabSelected="1" topLeftCell="AF9" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="CI18" sqref="CI18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -1912,8 +1947,8 @@
     <col min="84" max="84" width="4.7109375" style="1" customWidth="1"/>
     <col min="85" max="85" width="5.7109375" style="1" customWidth="1"/>
     <col min="86" max="86" width="8.42578125" style="1" customWidth="1"/>
-    <col min="87" max="87" width="9.85546875" style="1" customWidth="1"/>
-    <col min="88" max="88" width="9.28515625" style="1" customWidth="1"/>
+    <col min="87" max="87" width="9.85546875" style="125" customWidth="1"/>
+    <col min="88" max="88" width="9.28515625" style="125" customWidth="1"/>
     <col min="89" max="89" width="6.140625" style="1" customWidth="1"/>
     <col min="90" max="16384" width="14.42578125" style="1"/>
   </cols>
@@ -1921,302 +1956,302 @@
     <row r="1" spans="1:89" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="CA1" s="2"/>
       <c r="CB1" s="2"/>
-      <c r="CC1" s="134" t="s">
+      <c r="CC1" s="82" t="s">
         <v>100</v>
       </c>
-      <c r="CD1" s="134"/>
-      <c r="CE1" s="134"/>
-      <c r="CF1" s="134"/>
-      <c r="CG1" s="134"/>
-      <c r="CH1" s="134"/>
-      <c r="CI1" s="134"/>
-      <c r="CJ1" s="134"/>
+      <c r="CD1" s="82"/>
+      <c r="CE1" s="82"/>
+      <c r="CF1" s="82"/>
+      <c r="CG1" s="82"/>
+      <c r="CH1" s="82"/>
+      <c r="CI1" s="82"/>
+      <c r="CJ1" s="82"/>
     </row>
     <row r="2" spans="1:89" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="135" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="135"/>
-      <c r="D2" s="135"/>
-      <c r="E2" s="135"/>
-      <c r="F2" s="135"/>
-      <c r="G2" s="135"/>
-      <c r="H2" s="135"/>
-      <c r="I2" s="135"/>
-      <c r="J2" s="135"/>
-      <c r="K2" s="135"/>
-      <c r="L2" s="135"/>
-      <c r="M2" s="135"/>
-      <c r="N2" s="135"/>
-      <c r="O2" s="135"/>
-      <c r="P2" s="135"/>
-      <c r="Q2" s="135"/>
-      <c r="R2" s="135"/>
-      <c r="S2" s="135"/>
-      <c r="T2" s="135"/>
-      <c r="U2" s="135"/>
-      <c r="V2" s="135"/>
-      <c r="W2" s="135"/>
-      <c r="X2" s="135"/>
-      <c r="Y2" s="135"/>
-      <c r="Z2" s="135"/>
-      <c r="AA2" s="135"/>
-      <c r="AB2" s="135"/>
-      <c r="AC2" s="135"/>
-      <c r="AD2" s="135"/>
-      <c r="AE2" s="135"/>
-      <c r="AF2" s="135"/>
-      <c r="AG2" s="135"/>
-      <c r="AH2" s="135"/>
-      <c r="AI2" s="135"/>
-      <c r="AJ2" s="135"/>
-      <c r="AK2" s="135"/>
-      <c r="AL2" s="135"/>
-      <c r="AM2" s="135"/>
-      <c r="AN2" s="135"/>
-      <c r="AO2" s="135"/>
-      <c r="AP2" s="135"/>
-      <c r="AQ2" s="135"/>
-      <c r="AR2" s="135"/>
-      <c r="AS2" s="135"/>
-      <c r="AT2" s="135"/>
-      <c r="AU2" s="135"/>
-      <c r="AV2" s="135"/>
-      <c r="AW2" s="135"/>
-      <c r="AX2" s="135"/>
-      <c r="AY2" s="135"/>
-      <c r="AZ2" s="135"/>
-      <c r="BA2" s="135"/>
-      <c r="BB2" s="135"/>
-      <c r="BC2" s="135"/>
-      <c r="BD2" s="135"/>
-      <c r="BE2" s="135"/>
-      <c r="BF2" s="135"/>
-      <c r="BG2" s="135"/>
-      <c r="BH2" s="135"/>
-      <c r="BI2" s="135"/>
-      <c r="BJ2" s="135"/>
-      <c r="BK2" s="135"/>
-      <c r="BL2" s="135"/>
-      <c r="BM2" s="135"/>
-      <c r="BN2" s="135"/>
-      <c r="BO2" s="135"/>
-      <c r="BP2" s="135"/>
-      <c r="BQ2" s="135"/>
-      <c r="BR2" s="135"/>
-      <c r="BS2" s="135"/>
-      <c r="BT2" s="135"/>
-      <c r="BU2" s="135"/>
-      <c r="BV2" s="135"/>
-      <c r="BW2" s="135"/>
-      <c r="BX2" s="135"/>
-      <c r="BY2" s="135"/>
-      <c r="BZ2" s="135"/>
-      <c r="CA2" s="135"/>
-      <c r="CB2" s="135"/>
-      <c r="CC2" s="135"/>
-      <c r="CD2" s="135"/>
-      <c r="CE2" s="135"/>
-      <c r="CF2" s="135"/>
+      <c r="B2" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="83"/>
+      <c r="I2" s="83"/>
+      <c r="J2" s="83"/>
+      <c r="K2" s="83"/>
+      <c r="L2" s="83"/>
+      <c r="M2" s="83"/>
+      <c r="N2" s="83"/>
+      <c r="O2" s="83"/>
+      <c r="P2" s="83"/>
+      <c r="Q2" s="83"/>
+      <c r="R2" s="83"/>
+      <c r="S2" s="83"/>
+      <c r="T2" s="83"/>
+      <c r="U2" s="83"/>
+      <c r="V2" s="83"/>
+      <c r="W2" s="83"/>
+      <c r="X2" s="83"/>
+      <c r="Y2" s="83"/>
+      <c r="Z2" s="83"/>
+      <c r="AA2" s="83"/>
+      <c r="AB2" s="83"/>
+      <c r="AC2" s="83"/>
+      <c r="AD2" s="83"/>
+      <c r="AE2" s="83"/>
+      <c r="AF2" s="83"/>
+      <c r="AG2" s="83"/>
+      <c r="AH2" s="83"/>
+      <c r="AI2" s="83"/>
+      <c r="AJ2" s="83"/>
+      <c r="AK2" s="83"/>
+      <c r="AL2" s="83"/>
+      <c r="AM2" s="83"/>
+      <c r="AN2" s="83"/>
+      <c r="AO2" s="83"/>
+      <c r="AP2" s="83"/>
+      <c r="AQ2" s="83"/>
+      <c r="AR2" s="83"/>
+      <c r="AS2" s="83"/>
+      <c r="AT2" s="83"/>
+      <c r="AU2" s="83"/>
+      <c r="AV2" s="83"/>
+      <c r="AW2" s="83"/>
+      <c r="AX2" s="83"/>
+      <c r="AY2" s="83"/>
+      <c r="AZ2" s="83"/>
+      <c r="BA2" s="83"/>
+      <c r="BB2" s="83"/>
+      <c r="BC2" s="83"/>
+      <c r="BD2" s="83"/>
+      <c r="BE2" s="83"/>
+      <c r="BF2" s="83"/>
+      <c r="BG2" s="83"/>
+      <c r="BH2" s="83"/>
+      <c r="BI2" s="83"/>
+      <c r="BJ2" s="83"/>
+      <c r="BK2" s="83"/>
+      <c r="BL2" s="83"/>
+      <c r="BM2" s="83"/>
+      <c r="BN2" s="83"/>
+      <c r="BO2" s="83"/>
+      <c r="BP2" s="83"/>
+      <c r="BQ2" s="83"/>
+      <c r="BR2" s="83"/>
+      <c r="BS2" s="83"/>
+      <c r="BT2" s="83"/>
+      <c r="BU2" s="83"/>
+      <c r="BV2" s="83"/>
+      <c r="BW2" s="83"/>
+      <c r="BX2" s="83"/>
+      <c r="BY2" s="83"/>
+      <c r="BZ2" s="83"/>
+      <c r="CA2" s="83"/>
+      <c r="CB2" s="83"/>
+      <c r="CC2" s="83"/>
+      <c r="CD2" s="83"/>
+      <c r="CE2" s="83"/>
+      <c r="CF2" s="83"/>
       <c r="CG2" s="2"/>
       <c r="CH2" s="2"/>
-      <c r="CI2" s="2"/>
-      <c r="CJ2" s="2"/>
+      <c r="CI2" s="124"/>
+      <c r="CJ2" s="124"/>
     </row>
     <row r="3" spans="1:89" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="135" t="s">
+      <c r="B3" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="135"/>
-      <c r="D3" s="135"/>
-      <c r="E3" s="135"/>
-      <c r="F3" s="135"/>
-      <c r="G3" s="135"/>
-      <c r="H3" s="135"/>
-      <c r="I3" s="135"/>
-      <c r="J3" s="135"/>
-      <c r="K3" s="135"/>
-      <c r="L3" s="135"/>
-      <c r="M3" s="135"/>
-      <c r="N3" s="135"/>
-      <c r="O3" s="135"/>
-      <c r="P3" s="135"/>
-      <c r="Q3" s="135"/>
-      <c r="R3" s="135"/>
-      <c r="S3" s="135"/>
-      <c r="T3" s="135"/>
-      <c r="U3" s="135"/>
-      <c r="V3" s="135"/>
-      <c r="W3" s="135"/>
-      <c r="X3" s="135"/>
-      <c r="Y3" s="135"/>
-      <c r="Z3" s="135"/>
-      <c r="AA3" s="135"/>
-      <c r="AB3" s="135"/>
-      <c r="AC3" s="135"/>
-      <c r="AD3" s="135"/>
-      <c r="AE3" s="135"/>
-      <c r="AF3" s="135"/>
-      <c r="AG3" s="135"/>
-      <c r="AH3" s="135"/>
-      <c r="AI3" s="135"/>
-      <c r="AJ3" s="135"/>
-      <c r="AK3" s="135"/>
-      <c r="AL3" s="135"/>
-      <c r="AM3" s="135"/>
-      <c r="AN3" s="135"/>
-      <c r="AO3" s="135"/>
-      <c r="AP3" s="135"/>
-      <c r="AQ3" s="135"/>
-      <c r="AR3" s="135"/>
-      <c r="AS3" s="135"/>
-      <c r="AT3" s="135"/>
-      <c r="AU3" s="135"/>
-      <c r="AV3" s="135"/>
-      <c r="AW3" s="135"/>
-      <c r="AX3" s="135"/>
-      <c r="AY3" s="135"/>
-      <c r="AZ3" s="135"/>
-      <c r="BA3" s="135"/>
-      <c r="BB3" s="135"/>
-      <c r="BC3" s="135"/>
-      <c r="BD3" s="135"/>
-      <c r="BE3" s="135"/>
-      <c r="BF3" s="135"/>
-      <c r="BG3" s="135"/>
-      <c r="BH3" s="135"/>
-      <c r="BI3" s="135"/>
-      <c r="BJ3" s="135"/>
-      <c r="BK3" s="135"/>
-      <c r="BL3" s="135"/>
-      <c r="BM3" s="135"/>
-      <c r="BN3" s="135"/>
-      <c r="BO3" s="135"/>
-      <c r="BP3" s="135"/>
-      <c r="BQ3" s="135"/>
-      <c r="BR3" s="135"/>
-      <c r="BS3" s="135"/>
-      <c r="BT3" s="135"/>
-      <c r="BU3" s="135"/>
-      <c r="BV3" s="135"/>
-      <c r="BW3" s="135"/>
-      <c r="BX3" s="135"/>
-      <c r="BY3" s="135"/>
-      <c r="BZ3" s="135"/>
-      <c r="CA3" s="135"/>
-      <c r="CB3" s="135"/>
-      <c r="CC3" s="135"/>
-      <c r="CD3" s="135"/>
-      <c r="CE3" s="135"/>
-      <c r="CF3" s="135"/>
+      <c r="C3" s="83"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="83"/>
+      <c r="F3" s="83"/>
+      <c r="G3" s="83"/>
+      <c r="H3" s="83"/>
+      <c r="I3" s="83"/>
+      <c r="J3" s="83"/>
+      <c r="K3" s="83"/>
+      <c r="L3" s="83"/>
+      <c r="M3" s="83"/>
+      <c r="N3" s="83"/>
+      <c r="O3" s="83"/>
+      <c r="P3" s="83"/>
+      <c r="Q3" s="83"/>
+      <c r="R3" s="83"/>
+      <c r="S3" s="83"/>
+      <c r="T3" s="83"/>
+      <c r="U3" s="83"/>
+      <c r="V3" s="83"/>
+      <c r="W3" s="83"/>
+      <c r="X3" s="83"/>
+      <c r="Y3" s="83"/>
+      <c r="Z3" s="83"/>
+      <c r="AA3" s="83"/>
+      <c r="AB3" s="83"/>
+      <c r="AC3" s="83"/>
+      <c r="AD3" s="83"/>
+      <c r="AE3" s="83"/>
+      <c r="AF3" s="83"/>
+      <c r="AG3" s="83"/>
+      <c r="AH3" s="83"/>
+      <c r="AI3" s="83"/>
+      <c r="AJ3" s="83"/>
+      <c r="AK3" s="83"/>
+      <c r="AL3" s="83"/>
+      <c r="AM3" s="83"/>
+      <c r="AN3" s="83"/>
+      <c r="AO3" s="83"/>
+      <c r="AP3" s="83"/>
+      <c r="AQ3" s="83"/>
+      <c r="AR3" s="83"/>
+      <c r="AS3" s="83"/>
+      <c r="AT3" s="83"/>
+      <c r="AU3" s="83"/>
+      <c r="AV3" s="83"/>
+      <c r="AW3" s="83"/>
+      <c r="AX3" s="83"/>
+      <c r="AY3" s="83"/>
+      <c r="AZ3" s="83"/>
+      <c r="BA3" s="83"/>
+      <c r="BB3" s="83"/>
+      <c r="BC3" s="83"/>
+      <c r="BD3" s="83"/>
+      <c r="BE3" s="83"/>
+      <c r="BF3" s="83"/>
+      <c r="BG3" s="83"/>
+      <c r="BH3" s="83"/>
+      <c r="BI3" s="83"/>
+      <c r="BJ3" s="83"/>
+      <c r="BK3" s="83"/>
+      <c r="BL3" s="83"/>
+      <c r="BM3" s="83"/>
+      <c r="BN3" s="83"/>
+      <c r="BO3" s="83"/>
+      <c r="BP3" s="83"/>
+      <c r="BQ3" s="83"/>
+      <c r="BR3" s="83"/>
+      <c r="BS3" s="83"/>
+      <c r="BT3" s="83"/>
+      <c r="BU3" s="83"/>
+      <c r="BV3" s="83"/>
+      <c r="BW3" s="83"/>
+      <c r="BX3" s="83"/>
+      <c r="BY3" s="83"/>
+      <c r="BZ3" s="83"/>
+      <c r="CA3" s="83"/>
+      <c r="CB3" s="83"/>
+      <c r="CC3" s="83"/>
+      <c r="CD3" s="83"/>
+      <c r="CE3" s="83"/>
+      <c r="CF3" s="83"/>
       <c r="CG3" s="2"/>
       <c r="CH3" s="2"/>
-      <c r="CI3" s="2"/>
-      <c r="CJ3" s="2"/>
+      <c r="CI3" s="124"/>
+      <c r="CJ3" s="124"/>
     </row>
     <row r="4" spans="1:89" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="67"/>
-      <c r="B4" s="136" t="s">
+      <c r="A4" s="61"/>
+      <c r="B4" s="84" t="s">
         <v>98</v>
       </c>
-      <c r="C4" s="137"/>
-      <c r="D4" s="137"/>
-      <c r="E4" s="137"/>
-      <c r="F4" s="137"/>
-      <c r="G4" s="137"/>
-      <c r="H4" s="137"/>
-      <c r="I4" s="137"/>
-      <c r="J4" s="137"/>
-      <c r="K4" s="137"/>
-      <c r="L4" s="137"/>
-      <c r="M4" s="137"/>
-      <c r="N4" s="137"/>
-      <c r="O4" s="137"/>
-      <c r="P4" s="137"/>
-      <c r="Q4" s="137"/>
-      <c r="R4" s="137"/>
-      <c r="S4" s="137"/>
-      <c r="T4" s="137"/>
-      <c r="U4" s="137"/>
-      <c r="V4" s="137"/>
-      <c r="W4" s="137"/>
-      <c r="X4" s="137"/>
-      <c r="Y4" s="137"/>
-      <c r="Z4" s="137"/>
-      <c r="AA4" s="137"/>
-      <c r="AB4" s="137"/>
-      <c r="AC4" s="137"/>
-      <c r="AD4" s="137"/>
-      <c r="AE4" s="137"/>
-      <c r="AF4" s="137"/>
-      <c r="AG4" s="137"/>
-      <c r="AH4" s="137"/>
-      <c r="AI4" s="137"/>
-      <c r="AJ4" s="137"/>
-      <c r="AK4" s="137"/>
-      <c r="AL4" s="137"/>
-      <c r="AM4" s="137"/>
-      <c r="AN4" s="137"/>
-      <c r="AO4" s="137"/>
-      <c r="AP4" s="137"/>
-      <c r="AQ4" s="137"/>
-      <c r="AR4" s="137"/>
-      <c r="AS4" s="137"/>
-      <c r="AT4" s="137"/>
-      <c r="AU4" s="137"/>
-      <c r="AV4" s="137"/>
-      <c r="AW4" s="137"/>
-      <c r="AX4" s="137"/>
-      <c r="AY4" s="137"/>
-      <c r="AZ4" s="137"/>
-      <c r="BA4" s="137"/>
-      <c r="BB4" s="137"/>
-      <c r="BC4" s="137"/>
-      <c r="BD4" s="137"/>
-      <c r="BE4" s="137"/>
-      <c r="BF4" s="137"/>
-      <c r="BG4" s="137"/>
-      <c r="BH4" s="137"/>
-      <c r="BI4" s="137"/>
-      <c r="BJ4" s="137"/>
-      <c r="BK4" s="137"/>
-      <c r="BL4" s="137"/>
-      <c r="BM4" s="137"/>
-      <c r="BN4" s="137"/>
-      <c r="BO4" s="137"/>
-      <c r="BP4" s="137"/>
-      <c r="BQ4" s="137"/>
-      <c r="BR4" s="137"/>
-      <c r="BS4" s="137"/>
-      <c r="BT4" s="137"/>
-      <c r="BU4" s="137"/>
-      <c r="BV4" s="137"/>
-      <c r="BW4" s="137"/>
-      <c r="BX4" s="137"/>
-      <c r="BY4" s="137"/>
-      <c r="BZ4" s="137"/>
-      <c r="CA4" s="137"/>
-      <c r="CB4" s="137"/>
-      <c r="CC4" s="137"/>
-      <c r="CD4" s="137"/>
-      <c r="CE4" s="137"/>
-      <c r="CF4" s="137"/>
-      <c r="CG4" s="79"/>
+      <c r="C4" s="85"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="85"/>
+      <c r="F4" s="85"/>
+      <c r="G4" s="85"/>
+      <c r="H4" s="85"/>
+      <c r="I4" s="85"/>
+      <c r="J4" s="85"/>
+      <c r="K4" s="85"/>
+      <c r="L4" s="85"/>
+      <c r="M4" s="85"/>
+      <c r="N4" s="85"/>
+      <c r="O4" s="85"/>
+      <c r="P4" s="85"/>
+      <c r="Q4" s="85"/>
+      <c r="R4" s="85"/>
+      <c r="S4" s="85"/>
+      <c r="T4" s="85"/>
+      <c r="U4" s="85"/>
+      <c r="V4" s="85"/>
+      <c r="W4" s="85"/>
+      <c r="X4" s="85"/>
+      <c r="Y4" s="85"/>
+      <c r="Z4" s="85"/>
+      <c r="AA4" s="85"/>
+      <c r="AB4" s="85"/>
+      <c r="AC4" s="85"/>
+      <c r="AD4" s="85"/>
+      <c r="AE4" s="85"/>
+      <c r="AF4" s="85"/>
+      <c r="AG4" s="85"/>
+      <c r="AH4" s="85"/>
+      <c r="AI4" s="85"/>
+      <c r="AJ4" s="85"/>
+      <c r="AK4" s="85"/>
+      <c r="AL4" s="85"/>
+      <c r="AM4" s="85"/>
+      <c r="AN4" s="85"/>
+      <c r="AO4" s="85"/>
+      <c r="AP4" s="85"/>
+      <c r="AQ4" s="85"/>
+      <c r="AR4" s="85"/>
+      <c r="AS4" s="85"/>
+      <c r="AT4" s="85"/>
+      <c r="AU4" s="85"/>
+      <c r="AV4" s="85"/>
+      <c r="AW4" s="85"/>
+      <c r="AX4" s="85"/>
+      <c r="AY4" s="85"/>
+      <c r="AZ4" s="85"/>
+      <c r="BA4" s="85"/>
+      <c r="BB4" s="85"/>
+      <c r="BC4" s="85"/>
+      <c r="BD4" s="85"/>
+      <c r="BE4" s="85"/>
+      <c r="BF4" s="85"/>
+      <c r="BG4" s="85"/>
+      <c r="BH4" s="85"/>
+      <c r="BI4" s="85"/>
+      <c r="BJ4" s="85"/>
+      <c r="BK4" s="85"/>
+      <c r="BL4" s="85"/>
+      <c r="BM4" s="85"/>
+      <c r="BN4" s="85"/>
+      <c r="BO4" s="85"/>
+      <c r="BP4" s="85"/>
+      <c r="BQ4" s="85"/>
+      <c r="BR4" s="85"/>
+      <c r="BS4" s="85"/>
+      <c r="BT4" s="85"/>
+      <c r="BU4" s="85"/>
+      <c r="BV4" s="85"/>
+      <c r="BW4" s="85"/>
+      <c r="BX4" s="85"/>
+      <c r="BY4" s="85"/>
+      <c r="BZ4" s="85"/>
+      <c r="CA4" s="85"/>
+      <c r="CB4" s="85"/>
+      <c r="CC4" s="85"/>
+      <c r="CD4" s="85"/>
+      <c r="CE4" s="85"/>
+      <c r="CF4" s="85"/>
+      <c r="CG4" s="73"/>
       <c r="CH4" s="2"/>
-      <c r="CI4" s="2"/>
-      <c r="CJ4" s="2"/>
+      <c r="CI4" s="124"/>
+      <c r="CJ4" s="124"/>
     </row>
     <row r="5" spans="1:89" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="71"/>
-      <c r="C5" s="71"/>
-      <c r="D5" s="71"/>
-      <c r="E5" s="71"/>
-      <c r="F5" s="71"/>
-      <c r="G5" s="71"/>
-      <c r="H5" s="71"/>
-      <c r="I5" s="71"/>
-      <c r="J5" s="71"/>
-      <c r="K5" s="71"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="65"/>
+      <c r="J5" s="65"/>
+      <c r="K5" s="65"/>
       <c r="AF5" s="3"/>
       <c r="AG5" s="3"/>
       <c r="AH5" s="3"/>
@@ -2224,13 +2259,13 @@
       <c r="AJ5" s="3"/>
       <c r="AK5" s="3"/>
       <c r="AL5" s="3"/>
-      <c r="AR5" s="138"/>
-      <c r="AS5" s="138"/>
-      <c r="AT5" s="138"/>
-      <c r="AU5" s="138"/>
-      <c r="AV5" s="138"/>
-      <c r="AW5" s="138"/>
-      <c r="AX5" s="138"/>
+      <c r="AR5" s="86"/>
+      <c r="AS5" s="86"/>
+      <c r="AT5" s="86"/>
+      <c r="AU5" s="86"/>
+      <c r="AV5" s="86"/>
+      <c r="AW5" s="86"/>
+      <c r="AX5" s="86"/>
       <c r="CA5" s="2"/>
       <c r="CB5" s="2"/>
       <c r="CC5" s="2"/>
@@ -2315,30 +2350,30 @@
       <c r="CF6" s="4"/>
       <c r="CG6" s="4"/>
       <c r="CH6" s="4"/>
-      <c r="CI6" s="4"/>
-      <c r="CJ6" s="4"/>
+      <c r="CI6" s="126"/>
+      <c r="CJ6" s="126"/>
     </row>
     <row r="7" spans="1:89" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="133"/>
-      <c r="E7" s="133"/>
-      <c r="F7" s="133"/>
-      <c r="G7" s="133"/>
-      <c r="H7" s="133"/>
-      <c r="I7" s="133"/>
-      <c r="J7" s="133"/>
-      <c r="K7" s="133"/>
-      <c r="L7" s="133"/>
-      <c r="M7" s="133"/>
-      <c r="N7" s="133"/>
-      <c r="O7" s="133"/>
-      <c r="P7" s="133"/>
-      <c r="Q7" s="133"/>
-      <c r="R7" s="133"/>
-      <c r="S7" s="133"/>
-      <c r="T7" s="133"/>
+      <c r="D7" s="81"/>
+      <c r="E7" s="81"/>
+      <c r="F7" s="81"/>
+      <c r="G7" s="81"/>
+      <c r="H7" s="81"/>
+      <c r="I7" s="81"/>
+      <c r="J7" s="81"/>
+      <c r="K7" s="81"/>
+      <c r="L7" s="81"/>
+      <c r="M7" s="81"/>
+      <c r="N7" s="81"/>
+      <c r="O7" s="81"/>
+      <c r="P7" s="81"/>
+      <c r="Q7" s="81"/>
+      <c r="R7" s="81"/>
+      <c r="S7" s="81"/>
+      <c r="T7" s="81"/>
       <c r="AA7" s="5"/>
       <c r="AB7" s="5"/>
       <c r="AC7" s="5"/>
@@ -2349,69 +2384,69 @@
       <c r="AH7" s="5"/>
       <c r="AI7" s="5"/>
       <c r="AJ7" s="5"/>
-      <c r="AL7" s="67"/>
-      <c r="AM7" s="72"/>
-      <c r="AN7" s="73"/>
-      <c r="AO7" s="74"/>
-      <c r="AP7" s="74"/>
-      <c r="AQ7" s="74"/>
-      <c r="AR7" s="74"/>
-      <c r="AS7" s="74"/>
-      <c r="AT7" s="74"/>
-      <c r="AU7" s="72"/>
-      <c r="AV7" s="72"/>
-      <c r="AW7" s="72"/>
-      <c r="AX7" s="72"/>
-      <c r="AY7" s="73"/>
-      <c r="AZ7" s="72"/>
-      <c r="BA7" s="75"/>
-      <c r="BB7" s="75"/>
-      <c r="BC7" s="75"/>
-      <c r="BD7" s="73"/>
-      <c r="BE7" s="72"/>
-      <c r="BF7" s="75"/>
+      <c r="AL7" s="61"/>
+      <c r="AM7" s="66"/>
+      <c r="AN7" s="67"/>
+      <c r="AO7" s="68"/>
+      <c r="AP7" s="68"/>
+      <c r="AQ7" s="68"/>
+      <c r="AR7" s="68"/>
+      <c r="AS7" s="68"/>
+      <c r="AT7" s="68"/>
+      <c r="AU7" s="66"/>
+      <c r="AV7" s="66"/>
+      <c r="AW7" s="66"/>
+      <c r="AX7" s="66"/>
+      <c r="AY7" s="67"/>
+      <c r="AZ7" s="66"/>
+      <c r="BA7" s="69"/>
+      <c r="BB7" s="69"/>
+      <c r="BC7" s="69"/>
+      <c r="BD7" s="67"/>
+      <c r="BE7" s="66"/>
+      <c r="BF7" s="69"/>
       <c r="BL7" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="BT7" s="133"/>
-      <c r="BU7" s="133"/>
-      <c r="BV7" s="133"/>
-      <c r="BW7" s="133"/>
-      <c r="BX7" s="133"/>
-      <c r="BY7" s="133"/>
-      <c r="BZ7" s="133"/>
-      <c r="CA7" s="133"/>
-      <c r="CB7" s="133"/>
-      <c r="CC7" s="133"/>
-      <c r="CD7" s="133"/>
-      <c r="CE7" s="133"/>
-      <c r="CF7" s="133"/>
-      <c r="CG7" s="133"/>
-      <c r="CH7" s="133"/>
-      <c r="CI7" s="133"/>
-      <c r="CJ7" s="133"/>
+      <c r="BT7" s="81"/>
+      <c r="BU7" s="81"/>
+      <c r="BV7" s="81"/>
+      <c r="BW7" s="81"/>
+      <c r="BX7" s="81"/>
+      <c r="BY7" s="81"/>
+      <c r="BZ7" s="81"/>
+      <c r="CA7" s="81"/>
+      <c r="CB7" s="81"/>
+      <c r="CC7" s="81"/>
+      <c r="CD7" s="81"/>
+      <c r="CE7" s="81"/>
+      <c r="CF7" s="81"/>
+      <c r="CG7" s="81"/>
+      <c r="CH7" s="81"/>
+      <c r="CI7" s="81"/>
+      <c r="CJ7" s="81"/>
     </row>
     <row r="8" spans="1:89" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="133"/>
-      <c r="E8" s="133"/>
-      <c r="F8" s="133"/>
-      <c r="G8" s="133"/>
-      <c r="H8" s="133"/>
-      <c r="I8" s="133"/>
-      <c r="J8" s="133"/>
-      <c r="K8" s="133"/>
-      <c r="L8" s="133"/>
-      <c r="M8" s="133"/>
-      <c r="N8" s="133"/>
-      <c r="O8" s="133"/>
-      <c r="P8" s="133"/>
-      <c r="Q8" s="133"/>
-      <c r="R8" s="133"/>
-      <c r="S8" s="133"/>
-      <c r="T8" s="133"/>
+      <c r="D8" s="81"/>
+      <c r="E8" s="81"/>
+      <c r="F8" s="81"/>
+      <c r="G8" s="81"/>
+      <c r="H8" s="81"/>
+      <c r="I8" s="81"/>
+      <c r="J8" s="81"/>
+      <c r="K8" s="81"/>
+      <c r="L8" s="81"/>
+      <c r="M8" s="81"/>
+      <c r="N8" s="81"/>
+      <c r="O8" s="81"/>
+      <c r="P8" s="81"/>
+      <c r="Q8" s="81"/>
+      <c r="R8" s="81"/>
+      <c r="S8" s="81"/>
+      <c r="T8" s="81"/>
       <c r="AA8" s="5"/>
       <c r="AB8" s="5"/>
       <c r="AC8" s="5"/>
@@ -2422,71 +2457,71 @@
       <c r="AH8" s="5"/>
       <c r="AI8" s="5"/>
       <c r="AJ8" s="5"/>
-      <c r="AM8" s="72"/>
-      <c r="AN8" s="73"/>
-      <c r="AO8" s="74"/>
-      <c r="AP8" s="74"/>
-      <c r="AQ8" s="72"/>
-      <c r="AR8" s="73"/>
-      <c r="AS8" s="72"/>
-      <c r="AT8" s="73"/>
-      <c r="AU8" s="72"/>
-      <c r="AV8" s="72"/>
-      <c r="AW8" s="73"/>
-      <c r="AX8" s="72"/>
-      <c r="AY8" s="75"/>
-      <c r="AZ8" s="75"/>
-      <c r="BA8" s="75"/>
-      <c r="BB8" s="75"/>
-      <c r="BC8" s="75"/>
-      <c r="BD8" s="75"/>
-      <c r="BE8" s="75"/>
-      <c r="BF8" s="75"/>
-      <c r="BG8" s="69"/>
+      <c r="AM8" s="66"/>
+      <c r="AN8" s="67"/>
+      <c r="AO8" s="68"/>
+      <c r="AP8" s="68"/>
+      <c r="AQ8" s="66"/>
+      <c r="AR8" s="67"/>
+      <c r="AS8" s="66"/>
+      <c r="AT8" s="67"/>
+      <c r="AU8" s="66"/>
+      <c r="AV8" s="66"/>
+      <c r="AW8" s="67"/>
+      <c r="AX8" s="66"/>
+      <c r="AY8" s="69"/>
+      <c r="AZ8" s="69"/>
+      <c r="BA8" s="69"/>
+      <c r="BB8" s="69"/>
+      <c r="BC8" s="69"/>
+      <c r="BD8" s="69"/>
+      <c r="BE8" s="69"/>
+      <c r="BF8" s="69"/>
+      <c r="BG8" s="63"/>
       <c r="BL8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="BO8" s="56"/>
-      <c r="BR8" s="56"/>
-      <c r="BS8" s="57"/>
-      <c r="BT8" s="133"/>
-      <c r="BU8" s="133"/>
-      <c r="BV8" s="133"/>
-      <c r="BW8" s="133"/>
-      <c r="BX8" s="133"/>
-      <c r="BY8" s="133"/>
-      <c r="BZ8" s="133"/>
-      <c r="CA8" s="133"/>
-      <c r="CB8" s="133"/>
-      <c r="CC8" s="133"/>
-      <c r="CD8" s="133"/>
-      <c r="CE8" s="133"/>
-      <c r="CF8" s="133"/>
-      <c r="CG8" s="133"/>
-      <c r="CH8" s="133"/>
-      <c r="CI8" s="133"/>
-      <c r="CJ8" s="133"/>
+      <c r="BO8" s="52"/>
+      <c r="BR8" s="52"/>
+      <c r="BS8" s="53"/>
+      <c r="BT8" s="81"/>
+      <c r="BU8" s="81"/>
+      <c r="BV8" s="81"/>
+      <c r="BW8" s="81"/>
+      <c r="BX8" s="81"/>
+      <c r="BY8" s="81"/>
+      <c r="BZ8" s="81"/>
+      <c r="CA8" s="81"/>
+      <c r="CB8" s="81"/>
+      <c r="CC8" s="81"/>
+      <c r="CD8" s="81"/>
+      <c r="CE8" s="81"/>
+      <c r="CF8" s="81"/>
+      <c r="CG8" s="81"/>
+      <c r="CH8" s="81"/>
+      <c r="CI8" s="81"/>
+      <c r="CJ8" s="81"/>
     </row>
     <row r="9" spans="1:89" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
-      <c r="D9" s="78"/>
-      <c r="E9" s="77"/>
-      <c r="F9" s="76"/>
-      <c r="G9" s="76"/>
-      <c r="H9" s="78"/>
-      <c r="I9" s="77"/>
-      <c r="J9" s="76"/>
-      <c r="K9" s="76"/>
-      <c r="L9" s="76"/>
-      <c r="M9" s="76"/>
-      <c r="N9" s="78"/>
-      <c r="O9" s="77"/>
-      <c r="P9" s="76"/>
-      <c r="Q9" s="78"/>
-      <c r="R9" s="77"/>
-      <c r="S9" s="76"/>
-      <c r="T9" s="78"/>
-      <c r="U9" s="69"/>
+      <c r="D9" s="72"/>
+      <c r="E9" s="71"/>
+      <c r="F9" s="70"/>
+      <c r="G9" s="70"/>
+      <c r="H9" s="72"/>
+      <c r="I9" s="71"/>
+      <c r="J9" s="70"/>
+      <c r="K9" s="70"/>
+      <c r="L9" s="70"/>
+      <c r="M9" s="70"/>
+      <c r="N9" s="72"/>
+      <c r="O9" s="71"/>
+      <c r="P9" s="70"/>
+      <c r="Q9" s="72"/>
+      <c r="R9" s="71"/>
+      <c r="S9" s="70"/>
+      <c r="T9" s="72"/>
+      <c r="U9" s="63"/>
       <c r="Z9" s="6"/>
       <c r="AA9" s="6"/>
       <c r="AB9" s="6"/>
@@ -2500,8 +2535,8 @@
       <c r="AJ9" s="6"/>
       <c r="AK9" s="6"/>
       <c r="AL9" s="6"/>
-      <c r="AM9" s="70"/>
-      <c r="AN9" s="71"/>
+      <c r="AM9" s="64"/>
+      <c r="AN9" s="65"/>
       <c r="AQ9" s="6"/>
       <c r="AR9" s="6"/>
       <c r="AS9" s="6"/>
@@ -2510,41 +2545,41 @@
       <c r="AV9" s="6"/>
       <c r="AW9" s="6"/>
       <c r="AX9" s="6"/>
-      <c r="AY9" s="68"/>
+      <c r="AY9" s="62"/>
       <c r="AZ9" s="6"/>
-      <c r="BA9" s="70"/>
-      <c r="BB9" s="70"/>
-      <c r="BC9" s="70"/>
-      <c r="BD9" s="70"/>
-      <c r="BE9" s="70"/>
-      <c r="BF9" s="70"/>
+      <c r="BA9" s="64"/>
+      <c r="BB9" s="64"/>
+      <c r="BC9" s="64"/>
+      <c r="BD9" s="64"/>
+      <c r="BE9" s="64"/>
+      <c r="BF9" s="64"/>
       <c r="BG9" s="6"/>
-      <c r="BK9" s="55"/>
-      <c r="BL9" s="62"/>
-      <c r="BM9" s="59"/>
-      <c r="BN9" s="59"/>
-      <c r="BO9" s="63"/>
-      <c r="BP9" s="63"/>
-      <c r="BQ9" s="63"/>
-      <c r="BR9" s="63"/>
-      <c r="BS9" s="60"/>
-      <c r="BT9" s="124"/>
-      <c r="BU9" s="125"/>
-      <c r="BV9" s="125"/>
-      <c r="BW9" s="125"/>
-      <c r="BX9" s="125"/>
-      <c r="BY9" s="125"/>
-      <c r="BZ9" s="125"/>
-      <c r="CA9" s="125"/>
-      <c r="CB9" s="125"/>
-      <c r="CC9" s="125"/>
-      <c r="CD9" s="125"/>
-      <c r="CE9" s="125"/>
-      <c r="CF9" s="125"/>
-      <c r="CG9" s="125"/>
-      <c r="CH9" s="125"/>
-      <c r="CI9" s="125"/>
-      <c r="CJ9" s="126"/>
+      <c r="BK9" s="51"/>
+      <c r="BL9" s="58"/>
+      <c r="BM9" s="55"/>
+      <c r="BN9" s="55"/>
+      <c r="BO9" s="59"/>
+      <c r="BP9" s="59"/>
+      <c r="BQ9" s="59"/>
+      <c r="BR9" s="59"/>
+      <c r="BS9" s="56"/>
+      <c r="BT9" s="87"/>
+      <c r="BU9" s="88"/>
+      <c r="BV9" s="88"/>
+      <c r="BW9" s="88"/>
+      <c r="BX9" s="88"/>
+      <c r="BY9" s="88"/>
+      <c r="BZ9" s="88"/>
+      <c r="CA9" s="88"/>
+      <c r="CB9" s="88"/>
+      <c r="CC9" s="88"/>
+      <c r="CD9" s="88"/>
+      <c r="CE9" s="88"/>
+      <c r="CF9" s="88"/>
+      <c r="CG9" s="88"/>
+      <c r="CH9" s="88"/>
+      <c r="CI9" s="88"/>
+      <c r="CJ9" s="89"/>
     </row>
     <row r="10" spans="1:89" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="4"/>
@@ -2606,20 +2641,20 @@
       <c r="BI10" s="6"/>
       <c r="BJ10" s="6"/>
       <c r="BK10" s="6"/>
-      <c r="BL10" s="54"/>
+      <c r="BL10" s="50"/>
       <c r="BM10" s="6"/>
       <c r="BN10" s="6"/>
       <c r="BO10" s="6"/>
-      <c r="BP10" s="54"/>
-      <c r="BQ10" s="58"/>
-      <c r="BR10" s="54"/>
-      <c r="BS10" s="54"/>
-      <c r="BT10" s="61"/>
-      <c r="BU10" s="61"/>
-      <c r="BV10" s="61"/>
-      <c r="BW10" s="61"/>
-      <c r="BX10" s="61"/>
-      <c r="BY10" s="61"/>
+      <c r="BP10" s="50"/>
+      <c r="BQ10" s="54"/>
+      <c r="BR10" s="50"/>
+      <c r="BS10" s="50"/>
+      <c r="BT10" s="57"/>
+      <c r="BU10" s="57"/>
+      <c r="BV10" s="57"/>
+      <c r="BW10" s="57"/>
+      <c r="BX10" s="57"/>
+      <c r="BY10" s="57"/>
       <c r="BZ10" s="6"/>
       <c r="CA10" s="4"/>
       <c r="CB10" s="4"/>
@@ -2629,675 +2664,675 @@
       <c r="CF10" s="6"/>
       <c r="CG10" s="6"/>
       <c r="CH10" s="6"/>
-      <c r="CI10" s="6"/>
-      <c r="CJ10" s="6"/>
+      <c r="CI10" s="127"/>
+      <c r="CJ10" s="127"/>
     </row>
     <row r="11" spans="1:89" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="116" t="s">
+      <c r="A11" s="90" t="s">
         <v>92</v>
       </c>
-      <c r="B11" s="116" t="s">
+      <c r="B11" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="127" t="s">
+      <c r="C11" s="91" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="100" t="s">
+      <c r="D11" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="100"/>
-      <c r="F11" s="100"/>
-      <c r="G11" s="100"/>
-      <c r="H11" s="130" t="s">
+      <c r="E11" s="94"/>
+      <c r="F11" s="94"/>
+      <c r="G11" s="94"/>
+      <c r="H11" s="95" t="s">
         <v>9</v>
       </c>
-      <c r="I11" s="131"/>
-      <c r="J11" s="132"/>
-      <c r="K11" s="100" t="s">
+      <c r="I11" s="96"/>
+      <c r="J11" s="97"/>
+      <c r="K11" s="94" t="s">
         <v>10</v>
       </c>
-      <c r="L11" s="100"/>
-      <c r="M11" s="100"/>
-      <c r="N11" s="100"/>
-      <c r="O11" s="100" t="s">
+      <c r="L11" s="94"/>
+      <c r="M11" s="94"/>
+      <c r="N11" s="94"/>
+      <c r="O11" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="P11" s="100"/>
-      <c r="Q11" s="100"/>
-      <c r="R11" s="100"/>
-      <c r="S11" s="100"/>
-      <c r="T11" s="100"/>
-      <c r="U11" s="100" t="s">
+      <c r="P11" s="94"/>
+      <c r="Q11" s="94"/>
+      <c r="R11" s="94"/>
+      <c r="S11" s="94"/>
+      <c r="T11" s="94"/>
+      <c r="U11" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="V11" s="100"/>
-      <c r="W11" s="100"/>
-      <c r="X11" s="100"/>
-      <c r="Y11" s="100"/>
-      <c r="Z11" s="100"/>
-      <c r="AA11" s="100"/>
-      <c r="AB11" s="100"/>
-      <c r="AC11" s="100"/>
-      <c r="AD11" s="100"/>
-      <c r="AE11" s="100"/>
-      <c r="AF11" s="100"/>
-      <c r="AG11" s="100"/>
-      <c r="AH11" s="100"/>
-      <c r="AI11" s="100"/>
-      <c r="AJ11" s="100"/>
-      <c r="AK11" s="100"/>
-      <c r="AL11" s="100"/>
-      <c r="AM11" s="100"/>
-      <c r="AN11" s="100"/>
-      <c r="AO11" s="100"/>
-      <c r="AP11" s="100"/>
-      <c r="AQ11" s="100"/>
-      <c r="AR11" s="100"/>
-      <c r="AS11" s="116" t="s">
+      <c r="V11" s="94"/>
+      <c r="W11" s="94"/>
+      <c r="X11" s="94"/>
+      <c r="Y11" s="94"/>
+      <c r="Z11" s="94"/>
+      <c r="AA11" s="94"/>
+      <c r="AB11" s="94"/>
+      <c r="AC11" s="94"/>
+      <c r="AD11" s="94"/>
+      <c r="AE11" s="94"/>
+      <c r="AF11" s="94"/>
+      <c r="AG11" s="94"/>
+      <c r="AH11" s="94"/>
+      <c r="AI11" s="94"/>
+      <c r="AJ11" s="94"/>
+      <c r="AK11" s="94"/>
+      <c r="AL11" s="94"/>
+      <c r="AM11" s="94"/>
+      <c r="AN11" s="94"/>
+      <c r="AO11" s="94"/>
+      <c r="AP11" s="94"/>
+      <c r="AQ11" s="94"/>
+      <c r="AR11" s="94"/>
+      <c r="AS11" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="AT11" s="116"/>
-      <c r="AU11" s="116"/>
-      <c r="AV11" s="116"/>
-      <c r="AW11" s="116"/>
-      <c r="AX11" s="116"/>
-      <c r="AY11" s="116"/>
-      <c r="AZ11" s="116"/>
-      <c r="BA11" s="116"/>
-      <c r="BB11" s="116"/>
-      <c r="BC11" s="116"/>
-      <c r="BD11" s="116"/>
-      <c r="BE11" s="116"/>
-      <c r="BF11" s="116"/>
-      <c r="BG11" s="116"/>
-      <c r="BH11" s="116"/>
-      <c r="BI11" s="116"/>
-      <c r="BJ11" s="100" t="s">
+      <c r="AT11" s="90"/>
+      <c r="AU11" s="90"/>
+      <c r="AV11" s="90"/>
+      <c r="AW11" s="90"/>
+      <c r="AX11" s="90"/>
+      <c r="AY11" s="90"/>
+      <c r="AZ11" s="90"/>
+      <c r="BA11" s="90"/>
+      <c r="BB11" s="90"/>
+      <c r="BC11" s="90"/>
+      <c r="BD11" s="90"/>
+      <c r="BE11" s="90"/>
+      <c r="BF11" s="90"/>
+      <c r="BG11" s="90"/>
+      <c r="BH11" s="90"/>
+      <c r="BI11" s="90"/>
+      <c r="BJ11" s="94" t="s">
         <v>14</v>
       </c>
-      <c r="BK11" s="100"/>
-      <c r="BL11" s="100"/>
-      <c r="BM11" s="100"/>
-      <c r="BN11" s="100"/>
-      <c r="BO11" s="100"/>
-      <c r="BP11" s="100"/>
-      <c r="BQ11" s="100"/>
-      <c r="BR11" s="100"/>
-      <c r="BS11" s="100"/>
-      <c r="BT11" s="100"/>
-      <c r="BU11" s="100"/>
-      <c r="BV11" s="100"/>
-      <c r="BW11" s="100"/>
-      <c r="BX11" s="100"/>
-      <c r="BY11" s="100"/>
-      <c r="BZ11" s="100"/>
-      <c r="CA11" s="100"/>
-      <c r="CB11" s="100"/>
-      <c r="CC11" s="100"/>
-      <c r="CD11" s="100"/>
-      <c r="CE11" s="100"/>
-      <c r="CF11" s="100"/>
-      <c r="CG11" s="100"/>
-      <c r="CH11" s="100"/>
-      <c r="CI11" s="100"/>
-      <c r="CJ11" s="100"/>
+      <c r="BK11" s="94"/>
+      <c r="BL11" s="94"/>
+      <c r="BM11" s="94"/>
+      <c r="BN11" s="94"/>
+      <c r="BO11" s="94"/>
+      <c r="BP11" s="94"/>
+      <c r="BQ11" s="94"/>
+      <c r="BR11" s="94"/>
+      <c r="BS11" s="94"/>
+      <c r="BT11" s="94"/>
+      <c r="BU11" s="94"/>
+      <c r="BV11" s="94"/>
+      <c r="BW11" s="94"/>
+      <c r="BX11" s="94"/>
+      <c r="BY11" s="94"/>
+      <c r="BZ11" s="94"/>
+      <c r="CA11" s="94"/>
+      <c r="CB11" s="94"/>
+      <c r="CC11" s="94"/>
+      <c r="CD11" s="94"/>
+      <c r="CE11" s="94"/>
+      <c r="CF11" s="94"/>
+      <c r="CG11" s="94"/>
+      <c r="CH11" s="94"/>
+      <c r="CI11" s="94"/>
+      <c r="CJ11" s="94"/>
     </row>
     <row r="12" spans="1:89" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="116"/>
-      <c r="B12" s="116"/>
-      <c r="C12" s="128"/>
-      <c r="D12" s="102" t="s">
+      <c r="A12" s="90"/>
+      <c r="B12" s="90"/>
+      <c r="C12" s="92"/>
+      <c r="D12" s="98" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="102" t="s">
+      <c r="E12" s="98" t="s">
         <v>16</v>
       </c>
-      <c r="F12" s="102" t="s">
+      <c r="F12" s="98" t="s">
         <v>17</v>
       </c>
-      <c r="G12" s="102" t="s">
+      <c r="G12" s="98" t="s">
         <v>18</v>
       </c>
-      <c r="H12" s="102" t="s">
+      <c r="H12" s="98" t="s">
         <v>19</v>
       </c>
-      <c r="I12" s="102" t="s">
+      <c r="I12" s="98" t="s">
         <v>20</v>
       </c>
-      <c r="J12" s="102" t="s">
+      <c r="J12" s="98" t="s">
         <v>21</v>
       </c>
-      <c r="K12" s="102" t="s">
+      <c r="K12" s="98" t="s">
         <v>22</v>
       </c>
-      <c r="L12" s="102" t="s">
+      <c r="L12" s="98" t="s">
         <v>23</v>
       </c>
-      <c r="M12" s="102" t="s">
+      <c r="M12" s="98" t="s">
         <v>24</v>
       </c>
-      <c r="N12" s="102" t="s">
+      <c r="N12" s="98" t="s">
         <v>25</v>
       </c>
-      <c r="O12" s="102" t="s">
+      <c r="O12" s="98" t="s">
         <v>26</v>
       </c>
-      <c r="P12" s="102" t="s">
+      <c r="P12" s="98" t="s">
         <v>22</v>
       </c>
-      <c r="Q12" s="102" t="s">
+      <c r="Q12" s="98" t="s">
         <v>27</v>
       </c>
-      <c r="R12" s="102" t="s">
+      <c r="R12" s="98" t="s">
         <v>23</v>
       </c>
-      <c r="S12" s="102" t="s">
+      <c r="S12" s="98" t="s">
         <v>24</v>
       </c>
-      <c r="T12" s="102" t="s">
+      <c r="T12" s="98" t="s">
         <v>28</v>
       </c>
-      <c r="U12" s="102" t="s">
+      <c r="U12" s="98" t="s">
         <v>29</v>
       </c>
-      <c r="V12" s="102" t="s">
+      <c r="V12" s="98" t="s">
         <v>30</v>
       </c>
-      <c r="W12" s="102" t="s">
+      <c r="W12" s="98" t="s">
         <v>31</v>
       </c>
-      <c r="X12" s="101" t="s">
+      <c r="X12" s="114" t="s">
         <v>32</v>
       </c>
-      <c r="Y12" s="102" t="s">
+      <c r="Y12" s="98" t="s">
         <v>33</v>
       </c>
-      <c r="Z12" s="102" t="s">
+      <c r="Z12" s="98" t="s">
         <v>34</v>
       </c>
-      <c r="AA12" s="102" t="s">
+      <c r="AA12" s="98" t="s">
         <v>35</v>
       </c>
-      <c r="AB12" s="103" t="s">
+      <c r="AB12" s="106" t="s">
         <v>36</v>
       </c>
-      <c r="AC12" s="104"/>
-      <c r="AD12" s="104"/>
-      <c r="AE12" s="105"/>
-      <c r="AF12" s="103" t="s">
+      <c r="AC12" s="107"/>
+      <c r="AD12" s="107"/>
+      <c r="AE12" s="108"/>
+      <c r="AF12" s="106" t="s">
         <v>37</v>
       </c>
-      <c r="AG12" s="104"/>
-      <c r="AH12" s="104"/>
-      <c r="AI12" s="104"/>
-      <c r="AJ12" s="105"/>
-      <c r="AK12" s="102" t="s">
+      <c r="AG12" s="107"/>
+      <c r="AH12" s="107"/>
+      <c r="AI12" s="107"/>
+      <c r="AJ12" s="108"/>
+      <c r="AK12" s="98" t="s">
         <v>38</v>
       </c>
       <c r="AL12" s="113" t="s">
         <v>39</v>
       </c>
-      <c r="AM12" s="114" t="s">
+      <c r="AM12" s="115" t="s">
         <v>40</v>
       </c>
-      <c r="AN12" s="114"/>
-      <c r="AO12" s="114"/>
-      <c r="AP12" s="115" t="s">
+      <c r="AN12" s="115"/>
+      <c r="AO12" s="115"/>
+      <c r="AP12" s="116" t="s">
         <v>41</v>
       </c>
-      <c r="AQ12" s="114" t="s">
+      <c r="AQ12" s="115" t="s">
         <v>42</v>
       </c>
-      <c r="AR12" s="114"/>
-      <c r="AS12" s="109" t="s">
+      <c r="AR12" s="115"/>
+      <c r="AS12" s="103" t="s">
         <v>43</v>
       </c>
-      <c r="AT12" s="116" t="s">
+      <c r="AT12" s="90" t="s">
         <v>44</v>
       </c>
-      <c r="AU12" s="116"/>
-      <c r="AV12" s="117" t="s">
+      <c r="AU12" s="90"/>
+      <c r="AV12" s="99" t="s">
         <v>45</v>
       </c>
-      <c r="AW12" s="118"/>
-      <c r="AX12" s="100" t="s">
+      <c r="AW12" s="100"/>
+      <c r="AX12" s="94" t="s">
         <v>46</v>
       </c>
-      <c r="AY12" s="100"/>
-      <c r="AZ12" s="100"/>
-      <c r="BA12" s="100"/>
-      <c r="BB12" s="100"/>
-      <c r="BC12" s="100"/>
-      <c r="BD12" s="100"/>
-      <c r="BE12" s="100"/>
-      <c r="BF12" s="100"/>
-      <c r="BG12" s="100"/>
-      <c r="BH12" s="100"/>
-      <c r="BI12" s="100"/>
-      <c r="BJ12" s="109" t="s">
+      <c r="AY12" s="94"/>
+      <c r="AZ12" s="94"/>
+      <c r="BA12" s="94"/>
+      <c r="BB12" s="94"/>
+      <c r="BC12" s="94"/>
+      <c r="BD12" s="94"/>
+      <c r="BE12" s="94"/>
+      <c r="BF12" s="94"/>
+      <c r="BG12" s="94"/>
+      <c r="BH12" s="94"/>
+      <c r="BI12" s="94"/>
+      <c r="BJ12" s="103" t="s">
         <v>43</v>
       </c>
-      <c r="BK12" s="116" t="s">
+      <c r="BK12" s="90" t="s">
         <v>44</v>
       </c>
-      <c r="BL12" s="116"/>
-      <c r="BM12" s="117" t="s">
+      <c r="BL12" s="90"/>
+      <c r="BM12" s="99" t="s">
         <v>45</v>
       </c>
-      <c r="BN12" s="118"/>
-      <c r="BO12" s="100" t="s">
+      <c r="BN12" s="100"/>
+      <c r="BO12" s="94" t="s">
         <v>46</v>
       </c>
-      <c r="BP12" s="100"/>
-      <c r="BQ12" s="100"/>
-      <c r="BR12" s="100"/>
-      <c r="BS12" s="100"/>
-      <c r="BT12" s="100"/>
-      <c r="BU12" s="100"/>
-      <c r="BV12" s="100"/>
-      <c r="BW12" s="100"/>
-      <c r="BX12" s="100"/>
-      <c r="BY12" s="100"/>
-      <c r="BZ12" s="100"/>
-      <c r="CA12" s="116" t="s">
+      <c r="BP12" s="94"/>
+      <c r="BQ12" s="94"/>
+      <c r="BR12" s="94"/>
+      <c r="BS12" s="94"/>
+      <c r="BT12" s="94"/>
+      <c r="BU12" s="94"/>
+      <c r="BV12" s="94"/>
+      <c r="BW12" s="94"/>
+      <c r="BX12" s="94"/>
+      <c r="BY12" s="94"/>
+      <c r="BZ12" s="94"/>
+      <c r="CA12" s="90" t="s">
         <v>47</v>
       </c>
-      <c r="CB12" s="116"/>
+      <c r="CB12" s="90"/>
       <c r="CC12" s="112" t="s">
         <v>48</v>
       </c>
-      <c r="CD12" s="100" t="s">
+      <c r="CD12" s="94" t="s">
         <v>49</v>
       </c>
-      <c r="CE12" s="100"/>
-      <c r="CF12" s="102" t="s">
+      <c r="CE12" s="94"/>
+      <c r="CF12" s="98" t="s">
         <v>50</v>
       </c>
-      <c r="CG12" s="102" t="s">
+      <c r="CG12" s="98" t="s">
         <v>51</v>
       </c>
       <c r="CH12" s="113" t="s">
         <v>52</v>
       </c>
-      <c r="CI12" s="121" t="s">
+      <c r="CI12" s="128" t="s">
         <v>53</v>
       </c>
-      <c r="CJ12" s="121" t="s">
+      <c r="CJ12" s="128" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:89" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="116"/>
-      <c r="B13" s="116"/>
-      <c r="C13" s="128"/>
-      <c r="D13" s="102"/>
-      <c r="E13" s="102"/>
-      <c r="F13" s="102"/>
-      <c r="G13" s="102"/>
-      <c r="H13" s="102"/>
-      <c r="I13" s="102"/>
-      <c r="J13" s="102"/>
-      <c r="K13" s="102"/>
-      <c r="L13" s="102"/>
-      <c r="M13" s="102"/>
-      <c r="N13" s="102"/>
-      <c r="O13" s="102"/>
-      <c r="P13" s="102"/>
-      <c r="Q13" s="102"/>
-      <c r="R13" s="102"/>
-      <c r="S13" s="102"/>
-      <c r="T13" s="102"/>
-      <c r="U13" s="102"/>
-      <c r="V13" s="102"/>
-      <c r="W13" s="102"/>
-      <c r="X13" s="101"/>
-      <c r="Y13" s="102"/>
-      <c r="Z13" s="102"/>
-      <c r="AA13" s="102"/>
-      <c r="AB13" s="106"/>
-      <c r="AC13" s="107"/>
-      <c r="AD13" s="107"/>
-      <c r="AE13" s="108"/>
-      <c r="AF13" s="106"/>
-      <c r="AG13" s="107"/>
-      <c r="AH13" s="107"/>
-      <c r="AI13" s="107"/>
-      <c r="AJ13" s="108"/>
-      <c r="AK13" s="102"/>
+      <c r="A13" s="90"/>
+      <c r="B13" s="90"/>
+      <c r="C13" s="92"/>
+      <c r="D13" s="98"/>
+      <c r="E13" s="98"/>
+      <c r="F13" s="98"/>
+      <c r="G13" s="98"/>
+      <c r="H13" s="98"/>
+      <c r="I13" s="98"/>
+      <c r="J13" s="98"/>
+      <c r="K13" s="98"/>
+      <c r="L13" s="98"/>
+      <c r="M13" s="98"/>
+      <c r="N13" s="98"/>
+      <c r="O13" s="98"/>
+      <c r="P13" s="98"/>
+      <c r="Q13" s="98"/>
+      <c r="R13" s="98"/>
+      <c r="S13" s="98"/>
+      <c r="T13" s="98"/>
+      <c r="U13" s="98"/>
+      <c r="V13" s="98"/>
+      <c r="W13" s="98"/>
+      <c r="X13" s="114"/>
+      <c r="Y13" s="98"/>
+      <c r="Z13" s="98"/>
+      <c r="AA13" s="98"/>
+      <c r="AB13" s="109"/>
+      <c r="AC13" s="110"/>
+      <c r="AD13" s="110"/>
+      <c r="AE13" s="111"/>
+      <c r="AF13" s="109"/>
+      <c r="AG13" s="110"/>
+      <c r="AH13" s="110"/>
+      <c r="AI13" s="110"/>
+      <c r="AJ13" s="111"/>
+      <c r="AK13" s="98"/>
       <c r="AL13" s="113"/>
-      <c r="AM13" s="114"/>
-      <c r="AN13" s="114"/>
-      <c r="AO13" s="114"/>
-      <c r="AP13" s="115"/>
-      <c r="AQ13" s="114"/>
-      <c r="AR13" s="114"/>
-      <c r="AS13" s="110"/>
-      <c r="AT13" s="116"/>
-      <c r="AU13" s="116"/>
-      <c r="AV13" s="119"/>
-      <c r="AW13" s="120"/>
-      <c r="AX13" s="100" t="s">
+      <c r="AM13" s="115"/>
+      <c r="AN13" s="115"/>
+      <c r="AO13" s="115"/>
+      <c r="AP13" s="116"/>
+      <c r="AQ13" s="115"/>
+      <c r="AR13" s="115"/>
+      <c r="AS13" s="104"/>
+      <c r="AT13" s="90"/>
+      <c r="AU13" s="90"/>
+      <c r="AV13" s="101"/>
+      <c r="AW13" s="102"/>
+      <c r="AX13" s="94" t="s">
         <v>55</v>
       </c>
-      <c r="AY13" s="100"/>
-      <c r="AZ13" s="100"/>
-      <c r="BA13" s="100"/>
-      <c r="BB13" s="100" t="s">
+      <c r="AY13" s="94"/>
+      <c r="AZ13" s="94"/>
+      <c r="BA13" s="94"/>
+      <c r="BB13" s="94" t="s">
         <v>56</v>
       </c>
-      <c r="BC13" s="100"/>
-      <c r="BD13" s="100"/>
-      <c r="BE13" s="100"/>
-      <c r="BF13" s="100"/>
-      <c r="BG13" s="100"/>
-      <c r="BH13" s="100"/>
-      <c r="BI13" s="100"/>
-      <c r="BJ13" s="110"/>
-      <c r="BK13" s="116"/>
-      <c r="BL13" s="116"/>
-      <c r="BM13" s="119"/>
-      <c r="BN13" s="120"/>
-      <c r="BO13" s="100" t="s">
+      <c r="BC13" s="94"/>
+      <c r="BD13" s="94"/>
+      <c r="BE13" s="94"/>
+      <c r="BF13" s="94"/>
+      <c r="BG13" s="94"/>
+      <c r="BH13" s="94"/>
+      <c r="BI13" s="94"/>
+      <c r="BJ13" s="104"/>
+      <c r="BK13" s="90"/>
+      <c r="BL13" s="90"/>
+      <c r="BM13" s="101"/>
+      <c r="BN13" s="102"/>
+      <c r="BO13" s="94" t="s">
         <v>55</v>
       </c>
-      <c r="BP13" s="100"/>
-      <c r="BQ13" s="100"/>
-      <c r="BR13" s="100"/>
-      <c r="BS13" s="100" t="s">
+      <c r="BP13" s="94"/>
+      <c r="BQ13" s="94"/>
+      <c r="BR13" s="94"/>
+      <c r="BS13" s="94" t="s">
         <v>56</v>
       </c>
-      <c r="BT13" s="100"/>
-      <c r="BU13" s="100"/>
-      <c r="BV13" s="100"/>
-      <c r="BW13" s="100"/>
-      <c r="BX13" s="100"/>
-      <c r="BY13" s="100"/>
-      <c r="BZ13" s="100"/>
-      <c r="CA13" s="116"/>
-      <c r="CB13" s="116"/>
+      <c r="BT13" s="94"/>
+      <c r="BU13" s="94"/>
+      <c r="BV13" s="94"/>
+      <c r="BW13" s="94"/>
+      <c r="BX13" s="94"/>
+      <c r="BY13" s="94"/>
+      <c r="BZ13" s="94"/>
+      <c r="CA13" s="90"/>
+      <c r="CB13" s="90"/>
       <c r="CC13" s="112"/>
-      <c r="CD13" s="102" t="s">
+      <c r="CD13" s="98" t="s">
         <v>57</v>
       </c>
-      <c r="CE13" s="102" t="s">
+      <c r="CE13" s="98" t="s">
         <v>58</v>
       </c>
-      <c r="CF13" s="102"/>
-      <c r="CG13" s="102"/>
+      <c r="CF13" s="98"/>
+      <c r="CG13" s="98"/>
       <c r="CH13" s="113"/>
-      <c r="CI13" s="122"/>
-      <c r="CJ13" s="122"/>
+      <c r="CI13" s="129"/>
+      <c r="CJ13" s="129"/>
     </row>
     <row r="14" spans="1:89" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="116"/>
-      <c r="B14" s="116"/>
-      <c r="C14" s="128"/>
-      <c r="D14" s="102"/>
-      <c r="E14" s="102"/>
-      <c r="F14" s="102"/>
-      <c r="G14" s="102"/>
-      <c r="H14" s="102"/>
-      <c r="I14" s="102"/>
-      <c r="J14" s="102"/>
-      <c r="K14" s="102"/>
-      <c r="L14" s="102"/>
-      <c r="M14" s="102"/>
-      <c r="N14" s="102"/>
-      <c r="O14" s="102"/>
-      <c r="P14" s="102"/>
-      <c r="Q14" s="102"/>
-      <c r="R14" s="102"/>
-      <c r="S14" s="102"/>
-      <c r="T14" s="102"/>
-      <c r="U14" s="102"/>
-      <c r="V14" s="102"/>
-      <c r="W14" s="102"/>
-      <c r="X14" s="101"/>
-      <c r="Y14" s="102"/>
-      <c r="Z14" s="102"/>
-      <c r="AA14" s="102"/>
-      <c r="AB14" s="109">
-        <v>0</v>
-      </c>
-      <c r="AC14" s="109">
+      <c r="A14" s="90"/>
+      <c r="B14" s="90"/>
+      <c r="C14" s="92"/>
+      <c r="D14" s="98"/>
+      <c r="E14" s="98"/>
+      <c r="F14" s="98"/>
+      <c r="G14" s="98"/>
+      <c r="H14" s="98"/>
+      <c r="I14" s="98"/>
+      <c r="J14" s="98"/>
+      <c r="K14" s="98"/>
+      <c r="L14" s="98"/>
+      <c r="M14" s="98"/>
+      <c r="N14" s="98"/>
+      <c r="O14" s="98"/>
+      <c r="P14" s="98"/>
+      <c r="Q14" s="98"/>
+      <c r="R14" s="98"/>
+      <c r="S14" s="98"/>
+      <c r="T14" s="98"/>
+      <c r="U14" s="98"/>
+      <c r="V14" s="98"/>
+      <c r="W14" s="98"/>
+      <c r="X14" s="114"/>
+      <c r="Y14" s="98"/>
+      <c r="Z14" s="98"/>
+      <c r="AA14" s="98"/>
+      <c r="AB14" s="103">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="103">
         <v>1</v>
       </c>
-      <c r="AD14" s="109">
+      <c r="AD14" s="103">
         <v>2</v>
       </c>
-      <c r="AE14" s="109">
+      <c r="AE14" s="103">
         <v>3</v>
       </c>
-      <c r="AF14" s="109">
-        <v>0</v>
-      </c>
-      <c r="AG14" s="109">
+      <c r="AF14" s="103">
+        <v>0</v>
+      </c>
+      <c r="AG14" s="103">
         <v>1</v>
       </c>
-      <c r="AH14" s="109">
+      <c r="AH14" s="103">
         <v>2</v>
       </c>
-      <c r="AI14" s="109">
+      <c r="AI14" s="103">
         <v>3</v>
       </c>
-      <c r="AJ14" s="109">
+      <c r="AJ14" s="103">
         <v>4</v>
       </c>
-      <c r="AK14" s="102"/>
+      <c r="AK14" s="98"/>
       <c r="AL14" s="113"/>
-      <c r="AM14" s="101" t="s">
+      <c r="AM14" s="114" t="s">
         <v>59</v>
       </c>
-      <c r="AN14" s="101" t="s">
+      <c r="AN14" s="114" t="s">
         <v>60</v>
       </c>
-      <c r="AO14" s="101" t="s">
+      <c r="AO14" s="114" t="s">
         <v>61</v>
       </c>
-      <c r="AP14" s="115"/>
-      <c r="AQ14" s="101" t="s">
+      <c r="AP14" s="116"/>
+      <c r="AQ14" s="114" t="s">
         <v>62</v>
       </c>
-      <c r="AR14" s="101" t="s">
+      <c r="AR14" s="114" t="s">
         <v>63</v>
       </c>
-      <c r="AS14" s="110"/>
+      <c r="AS14" s="104"/>
       <c r="AT14" s="112" t="s">
         <v>62</v>
       </c>
-      <c r="AU14" s="102" t="s">
+      <c r="AU14" s="98" t="s">
         <v>64</v>
       </c>
       <c r="AV14" s="112" t="s">
         <v>62</v>
       </c>
-      <c r="AW14" s="102" t="s">
+      <c r="AW14" s="98" t="s">
         <v>64</v>
       </c>
-      <c r="AX14" s="100" t="s">
+      <c r="AX14" s="94" t="s">
         <v>65</v>
       </c>
-      <c r="AY14" s="100"/>
-      <c r="AZ14" s="100"/>
-      <c r="BA14" s="100"/>
-      <c r="BB14" s="100" t="s">
+      <c r="AY14" s="94"/>
+      <c r="AZ14" s="94"/>
+      <c r="BA14" s="94"/>
+      <c r="BB14" s="94" t="s">
         <v>65</v>
       </c>
-      <c r="BC14" s="100"/>
-      <c r="BD14" s="100"/>
-      <c r="BE14" s="100"/>
-      <c r="BF14" s="100" t="s">
+      <c r="BC14" s="94"/>
+      <c r="BD14" s="94"/>
+      <c r="BE14" s="94"/>
+      <c r="BF14" s="94" t="s">
         <v>66</v>
       </c>
-      <c r="BG14" s="100"/>
-      <c r="BH14" s="100"/>
-      <c r="BI14" s="100"/>
-      <c r="BJ14" s="110"/>
+      <c r="BG14" s="94"/>
+      <c r="BH14" s="94"/>
+      <c r="BI14" s="94"/>
+      <c r="BJ14" s="104"/>
       <c r="BK14" s="112" t="s">
         <v>62</v>
       </c>
-      <c r="BL14" s="102" t="s">
+      <c r="BL14" s="98" t="s">
         <v>64</v>
       </c>
       <c r="BM14" s="112" t="s">
         <v>62</v>
       </c>
-      <c r="BN14" s="102" t="s">
+      <c r="BN14" s="98" t="s">
         <v>64</v>
       </c>
-      <c r="BO14" s="100" t="s">
+      <c r="BO14" s="94" t="s">
         <v>65</v>
       </c>
-      <c r="BP14" s="100"/>
-      <c r="BQ14" s="100"/>
-      <c r="BR14" s="100"/>
-      <c r="BS14" s="100" t="s">
+      <c r="BP14" s="94"/>
+      <c r="BQ14" s="94"/>
+      <c r="BR14" s="94"/>
+      <c r="BS14" s="94" t="s">
         <v>65</v>
       </c>
-      <c r="BT14" s="100"/>
-      <c r="BU14" s="100"/>
-      <c r="BV14" s="100"/>
-      <c r="BW14" s="100" t="s">
+      <c r="BT14" s="94"/>
+      <c r="BU14" s="94"/>
+      <c r="BV14" s="94"/>
+      <c r="BW14" s="94" t="s">
         <v>66</v>
       </c>
-      <c r="BX14" s="100"/>
-      <c r="BY14" s="100"/>
-      <c r="BZ14" s="100"/>
-      <c r="CA14" s="116"/>
-      <c r="CB14" s="116"/>
+      <c r="BX14" s="94"/>
+      <c r="BY14" s="94"/>
+      <c r="BZ14" s="94"/>
+      <c r="CA14" s="90"/>
+      <c r="CB14" s="90"/>
       <c r="CC14" s="112"/>
-      <c r="CD14" s="102"/>
-      <c r="CE14" s="102"/>
-      <c r="CF14" s="102"/>
-      <c r="CG14" s="102"/>
+      <c r="CD14" s="98"/>
+      <c r="CE14" s="98"/>
+      <c r="CF14" s="98"/>
+      <c r="CG14" s="98"/>
       <c r="CH14" s="113"/>
-      <c r="CI14" s="122"/>
-      <c r="CJ14" s="122"/>
+      <c r="CI14" s="129"/>
+      <c r="CJ14" s="129"/>
       <c r="CK14" s="7"/>
     </row>
     <row r="15" spans="1:89" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="116"/>
-      <c r="B15" s="116"/>
-      <c r="C15" s="128"/>
-      <c r="D15" s="102"/>
-      <c r="E15" s="102"/>
-      <c r="F15" s="102"/>
-      <c r="G15" s="102"/>
-      <c r="H15" s="102"/>
-      <c r="I15" s="102"/>
-      <c r="J15" s="102"/>
-      <c r="K15" s="102"/>
-      <c r="L15" s="102"/>
-      <c r="M15" s="102"/>
-      <c r="N15" s="102"/>
-      <c r="O15" s="102"/>
-      <c r="P15" s="102"/>
-      <c r="Q15" s="102"/>
-      <c r="R15" s="102"/>
-      <c r="S15" s="102"/>
-      <c r="T15" s="102"/>
-      <c r="U15" s="102"/>
-      <c r="V15" s="102"/>
-      <c r="W15" s="102"/>
-      <c r="X15" s="101"/>
-      <c r="Y15" s="102"/>
-      <c r="Z15" s="102"/>
-      <c r="AA15" s="102"/>
-      <c r="AB15" s="110"/>
-      <c r="AC15" s="110"/>
-      <c r="AD15" s="110"/>
-      <c r="AE15" s="110"/>
-      <c r="AF15" s="110"/>
-      <c r="AG15" s="110"/>
-      <c r="AH15" s="110"/>
-      <c r="AI15" s="110"/>
-      <c r="AJ15" s="110"/>
-      <c r="AK15" s="102"/>
+      <c r="A15" s="90"/>
+      <c r="B15" s="90"/>
+      <c r="C15" s="92"/>
+      <c r="D15" s="98"/>
+      <c r="E15" s="98"/>
+      <c r="F15" s="98"/>
+      <c r="G15" s="98"/>
+      <c r="H15" s="98"/>
+      <c r="I15" s="98"/>
+      <c r="J15" s="98"/>
+      <c r="K15" s="98"/>
+      <c r="L15" s="98"/>
+      <c r="M15" s="98"/>
+      <c r="N15" s="98"/>
+      <c r="O15" s="98"/>
+      <c r="P15" s="98"/>
+      <c r="Q15" s="98"/>
+      <c r="R15" s="98"/>
+      <c r="S15" s="98"/>
+      <c r="T15" s="98"/>
+      <c r="U15" s="98"/>
+      <c r="V15" s="98"/>
+      <c r="W15" s="98"/>
+      <c r="X15" s="114"/>
+      <c r="Y15" s="98"/>
+      <c r="Z15" s="98"/>
+      <c r="AA15" s="98"/>
+      <c r="AB15" s="104"/>
+      <c r="AC15" s="104"/>
+      <c r="AD15" s="104"/>
+      <c r="AE15" s="104"/>
+      <c r="AF15" s="104"/>
+      <c r="AG15" s="104"/>
+      <c r="AH15" s="104"/>
+      <c r="AI15" s="104"/>
+      <c r="AJ15" s="104"/>
+      <c r="AK15" s="98"/>
       <c r="AL15" s="113"/>
-      <c r="AM15" s="101"/>
-      <c r="AN15" s="101"/>
-      <c r="AO15" s="101"/>
-      <c r="AP15" s="115"/>
-      <c r="AQ15" s="101"/>
-      <c r="AR15" s="101"/>
-      <c r="AS15" s="110"/>
+      <c r="AM15" s="114"/>
+      <c r="AN15" s="114"/>
+      <c r="AO15" s="114"/>
+      <c r="AP15" s="116"/>
+      <c r="AQ15" s="114"/>
+      <c r="AR15" s="114"/>
+      <c r="AS15" s="104"/>
       <c r="AT15" s="112"/>
-      <c r="AU15" s="102"/>
+      <c r="AU15" s="98"/>
       <c r="AV15" s="112"/>
-      <c r="AW15" s="102"/>
-      <c r="AX15" s="100" t="s">
+      <c r="AW15" s="98"/>
+      <c r="AX15" s="94" t="s">
         <v>67</v>
       </c>
-      <c r="AY15" s="100"/>
-      <c r="AZ15" s="100" t="s">
+      <c r="AY15" s="94"/>
+      <c r="AZ15" s="94" t="s">
         <v>68</v>
       </c>
-      <c r="BA15" s="100"/>
-      <c r="BB15" s="100" t="s">
+      <c r="BA15" s="94"/>
+      <c r="BB15" s="94" t="s">
         <v>67</v>
       </c>
-      <c r="BC15" s="100"/>
-      <c r="BD15" s="100" t="s">
+      <c r="BC15" s="94"/>
+      <c r="BD15" s="94" t="s">
         <v>68</v>
       </c>
-      <c r="BE15" s="100"/>
-      <c r="BF15" s="100" t="s">
+      <c r="BE15" s="94"/>
+      <c r="BF15" s="94" t="s">
         <v>67</v>
       </c>
-      <c r="BG15" s="100"/>
-      <c r="BH15" s="100" t="s">
+      <c r="BG15" s="94"/>
+      <c r="BH15" s="94" t="s">
         <v>68</v>
       </c>
-      <c r="BI15" s="100"/>
-      <c r="BJ15" s="110"/>
+      <c r="BI15" s="94"/>
+      <c r="BJ15" s="104"/>
       <c r="BK15" s="112"/>
-      <c r="BL15" s="102"/>
+      <c r="BL15" s="98"/>
       <c r="BM15" s="112"/>
-      <c r="BN15" s="102"/>
-      <c r="BO15" s="100" t="s">
+      <c r="BN15" s="98"/>
+      <c r="BO15" s="94" t="s">
         <v>67</v>
       </c>
-      <c r="BP15" s="100"/>
-      <c r="BQ15" s="100" t="s">
+      <c r="BP15" s="94"/>
+      <c r="BQ15" s="94" t="s">
         <v>68</v>
       </c>
-      <c r="BR15" s="100"/>
-      <c r="BS15" s="100" t="s">
+      <c r="BR15" s="94"/>
+      <c r="BS15" s="94" t="s">
         <v>67</v>
       </c>
-      <c r="BT15" s="100"/>
-      <c r="BU15" s="100" t="s">
+      <c r="BT15" s="94"/>
+      <c r="BU15" s="94" t="s">
         <v>68</v>
       </c>
-      <c r="BV15" s="100"/>
-      <c r="BW15" s="100" t="s">
+      <c r="BV15" s="94"/>
+      <c r="BW15" s="94" t="s">
         <v>67</v>
       </c>
-      <c r="BX15" s="100"/>
-      <c r="BY15" s="100" t="s">
+      <c r="BX15" s="94"/>
+      <c r="BY15" s="94" t="s">
         <v>68</v>
       </c>
-      <c r="BZ15" s="100"/>
-      <c r="CA15" s="116"/>
-      <c r="CB15" s="116"/>
+      <c r="BZ15" s="94"/>
+      <c r="CA15" s="90"/>
+      <c r="CB15" s="90"/>
       <c r="CC15" s="112"/>
-      <c r="CD15" s="102"/>
-      <c r="CE15" s="102"/>
-      <c r="CF15" s="102"/>
-      <c r="CG15" s="102"/>
+      <c r="CD15" s="98"/>
+      <c r="CE15" s="98"/>
+      <c r="CF15" s="98"/>
+      <c r="CG15" s="98"/>
       <c r="CH15" s="113"/>
-      <c r="CI15" s="122"/>
-      <c r="CJ15" s="122"/>
+      <c r="CI15" s="129"/>
+      <c r="CJ15" s="129"/>
       <c r="CK15" s="7"/>
     </row>
     <row r="16" spans="1:89" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="116"/>
-      <c r="B16" s="116"/>
-      <c r="C16" s="129"/>
-      <c r="D16" s="102"/>
-      <c r="E16" s="102"/>
-      <c r="F16" s="102"/>
-      <c r="G16" s="102"/>
+      <c r="A16" s="90"/>
+      <c r="B16" s="90"/>
+      <c r="C16" s="93"/>
+      <c r="D16" s="98"/>
+      <c r="E16" s="98"/>
+      <c r="F16" s="98"/>
+      <c r="G16" s="98"/>
       <c r="H16" s="8" t="s">
         <v>69</v>
       </c>
@@ -3316,7 +3351,7 @@
       <c r="M16" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="N16" s="102"/>
+      <c r="N16" s="98"/>
       <c r="O16" s="8" t="s">
         <v>71</v>
       </c>
@@ -3332,36 +3367,36 @@
       <c r="S16" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="T16" s="102"/>
-      <c r="U16" s="102"/>
-      <c r="V16" s="102"/>
-      <c r="W16" s="102"/>
-      <c r="X16" s="101"/>
-      <c r="Y16" s="102"/>
-      <c r="Z16" s="102"/>
-      <c r="AA16" s="102"/>
-      <c r="AB16" s="111"/>
-      <c r="AC16" s="111"/>
-      <c r="AD16" s="111"/>
-      <c r="AE16" s="111"/>
-      <c r="AF16" s="111"/>
-      <c r="AG16" s="111"/>
-      <c r="AH16" s="111"/>
-      <c r="AI16" s="111"/>
-      <c r="AJ16" s="111"/>
-      <c r="AK16" s="102"/>
+      <c r="T16" s="98"/>
+      <c r="U16" s="98"/>
+      <c r="V16" s="98"/>
+      <c r="W16" s="98"/>
+      <c r="X16" s="114"/>
+      <c r="Y16" s="98"/>
+      <c r="Z16" s="98"/>
+      <c r="AA16" s="98"/>
+      <c r="AB16" s="105"/>
+      <c r="AC16" s="105"/>
+      <c r="AD16" s="105"/>
+      <c r="AE16" s="105"/>
+      <c r="AF16" s="105"/>
+      <c r="AG16" s="105"/>
+      <c r="AH16" s="105"/>
+      <c r="AI16" s="105"/>
+      <c r="AJ16" s="105"/>
+      <c r="AK16" s="98"/>
       <c r="AL16" s="113"/>
-      <c r="AM16" s="101"/>
-      <c r="AN16" s="101"/>
-      <c r="AO16" s="101"/>
-      <c r="AP16" s="115"/>
-      <c r="AQ16" s="101"/>
-      <c r="AR16" s="101"/>
-      <c r="AS16" s="111"/>
+      <c r="AM16" s="114"/>
+      <c r="AN16" s="114"/>
+      <c r="AO16" s="114"/>
+      <c r="AP16" s="116"/>
+      <c r="AQ16" s="114"/>
+      <c r="AR16" s="114"/>
+      <c r="AS16" s="105"/>
       <c r="AT16" s="112"/>
-      <c r="AU16" s="102"/>
+      <c r="AU16" s="98"/>
       <c r="AV16" s="112"/>
-      <c r="AW16" s="102"/>
+      <c r="AW16" s="98"/>
       <c r="AX16" s="8" t="s">
         <v>79</v>
       </c>
@@ -3398,11 +3433,11 @@
       <c r="BI16" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="BJ16" s="111"/>
+      <c r="BJ16" s="105"/>
       <c r="BK16" s="112"/>
-      <c r="BL16" s="102"/>
+      <c r="BL16" s="98"/>
       <c r="BM16" s="112"/>
-      <c r="BN16" s="102"/>
+      <c r="BN16" s="98"/>
       <c r="BO16" s="8" t="s">
         <v>79</v>
       </c>
@@ -3446,13 +3481,13 @@
         <v>80</v>
       </c>
       <c r="CC16" s="112"/>
-      <c r="CD16" s="102"/>
-      <c r="CE16" s="102"/>
-      <c r="CF16" s="102"/>
-      <c r="CG16" s="102"/>
+      <c r="CD16" s="98"/>
+      <c r="CE16" s="98"/>
+      <c r="CF16" s="98"/>
+      <c r="CG16" s="98"/>
       <c r="CH16" s="113"/>
-      <c r="CI16" s="123"/>
-      <c r="CJ16" s="123"/>
+      <c r="CI16" s="130"/>
+      <c r="CJ16" s="130"/>
       <c r="CK16" s="7"/>
     </row>
     <row r="17" spans="1:89" s="11" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -3714,16 +3749,16 @@
       <c r="CH17" s="9">
         <v>86</v>
       </c>
-      <c r="CI17" s="9">
+      <c r="CI17" s="131">
         <v>87</v>
       </c>
-      <c r="CJ17" s="9">
+      <c r="CJ17" s="131">
         <v>88</v>
       </c>
       <c r="CK17" s="10"/>
     </row>
     <row r="18" spans="1:89" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="93" t="s">
+      <c r="A18" s="117" t="s">
         <v>93</v>
       </c>
       <c r="B18" s="12" t="s">
@@ -3740,7 +3775,7 @@
       <c r="K18" s="13"/>
       <c r="L18" s="13"/>
       <c r="M18" s="13"/>
-      <c r="N18" s="86">
+      <c r="N18" s="77">
         <f>SUM(K18:M18)</f>
         <v>0</v>
       </c>
@@ -3749,7 +3784,7 @@
       <c r="Q18" s="13"/>
       <c r="R18" s="13"/>
       <c r="S18" s="13"/>
-      <c r="T18" s="86">
+      <c r="T18" s="77">
         <f>SUM(P18:S18)</f>
         <v>0</v>
       </c>
@@ -3764,11 +3799,11 @@
       <c r="AC18" s="13"/>
       <c r="AD18" s="13"/>
       <c r="AE18" s="13"/>
-      <c r="AF18" s="33"/>
-      <c r="AG18" s="33"/>
-      <c r="AH18" s="33"/>
-      <c r="AI18" s="33"/>
-      <c r="AJ18" s="33"/>
+      <c r="AF18" s="30"/>
+      <c r="AG18" s="30"/>
+      <c r="AH18" s="30"/>
+      <c r="AI18" s="30"/>
+      <c r="AJ18" s="30"/>
       <c r="AK18" s="13"/>
       <c r="AL18" s="13"/>
       <c r="AM18" s="13"/>
@@ -3811,11 +3846,11 @@
       <c r="BX18" s="13"/>
       <c r="BY18" s="13"/>
       <c r="BZ18" s="13"/>
-      <c r="CA18" s="86">
+      <c r="CA18" s="77">
         <f>BY18+BW18+BU18+BS18+BQ18+BO18</f>
         <v>0</v>
       </c>
-      <c r="CB18" s="86">
+      <c r="CB18" s="77">
         <f>BZ18+BX18+BV18+BT18+BR18+BP18</f>
         <v>0</v>
       </c>
@@ -3825,672 +3860,672 @@
       <c r="CF18" s="13"/>
       <c r="CG18" s="13"/>
       <c r="CH18" s="13"/>
-      <c r="CI18" s="15" t="e">
+      <c r="CI18" s="132" t="e">
         <f>CH18/F18</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="CJ18" s="16"/>
-      <c r="CK18" s="17"/>
+      <c r="CJ18" s="133"/>
+      <c r="CK18" s="16"/>
     </row>
     <row r="19" spans="1:89" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="94"/>
-      <c r="B19" s="18" t="s">
+      <c r="A19" s="118"/>
+      <c r="B19" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="19"/>
-      <c r="K19" s="19"/>
-      <c r="L19" s="19"/>
-      <c r="M19" s="19"/>
-      <c r="N19" s="80">
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="18"/>
+      <c r="M19" s="18"/>
+      <c r="N19" s="74">
         <f t="shared" ref="N19:N44" si="0">SUM(K19:M19)</f>
         <v>0</v>
       </c>
-      <c r="O19" s="19"/>
-      <c r="P19" s="19"/>
-      <c r="Q19" s="19"/>
-      <c r="R19" s="19"/>
-      <c r="S19" s="19"/>
-      <c r="T19" s="80">
+      <c r="O19" s="18"/>
+      <c r="P19" s="18"/>
+      <c r="Q19" s="18"/>
+      <c r="R19" s="18"/>
+      <c r="S19" s="18"/>
+      <c r="T19" s="74">
         <f t="shared" ref="T19:T44" si="1">SUM(P19:S19)</f>
         <v>0</v>
       </c>
-      <c r="U19" s="19"/>
-      <c r="V19" s="19"/>
-      <c r="W19" s="19"/>
-      <c r="X19" s="19"/>
-      <c r="Y19" s="19"/>
-      <c r="Z19" s="19"/>
-      <c r="AA19" s="19"/>
-      <c r="AB19" s="19"/>
-      <c r="AC19" s="19"/>
-      <c r="AD19" s="19"/>
-      <c r="AE19" s="19"/>
-      <c r="AF19" s="35"/>
-      <c r="AG19" s="35"/>
-      <c r="AH19" s="35"/>
-      <c r="AI19" s="35"/>
-      <c r="AJ19" s="35"/>
-      <c r="AK19" s="19"/>
-      <c r="AL19" s="19"/>
-      <c r="AM19" s="19"/>
-      <c r="AN19" s="20"/>
-      <c r="AO19" s="20"/>
-      <c r="AP19" s="20"/>
-      <c r="AQ19" s="19"/>
-      <c r="AR19" s="19"/>
-      <c r="AS19" s="19"/>
-      <c r="AT19" s="19"/>
-      <c r="AU19" s="19"/>
-      <c r="AV19" s="19"/>
-      <c r="AW19" s="19"/>
-      <c r="AX19" s="19"/>
-      <c r="AY19" s="19"/>
-      <c r="AZ19" s="19"/>
-      <c r="BA19" s="19"/>
-      <c r="BB19" s="19"/>
-      <c r="BC19" s="19"/>
-      <c r="BD19" s="19"/>
-      <c r="BE19" s="19"/>
-      <c r="BF19" s="19"/>
-      <c r="BG19" s="19"/>
-      <c r="BH19" s="19"/>
-      <c r="BI19" s="19"/>
-      <c r="BJ19" s="19"/>
-      <c r="BK19" s="19"/>
-      <c r="BL19" s="19"/>
-      <c r="BM19" s="19"/>
-      <c r="BN19" s="19"/>
-      <c r="BO19" s="19"/>
-      <c r="BP19" s="19"/>
-      <c r="BQ19" s="19"/>
-      <c r="BR19" s="19"/>
-      <c r="BS19" s="19"/>
-      <c r="BT19" s="19"/>
-      <c r="BU19" s="19"/>
-      <c r="BV19" s="19"/>
-      <c r="BW19" s="19"/>
-      <c r="BX19" s="19"/>
-      <c r="BY19" s="19"/>
-      <c r="BZ19" s="19"/>
-      <c r="CA19" s="80">
+      <c r="U19" s="18"/>
+      <c r="V19" s="18"/>
+      <c r="W19" s="18"/>
+      <c r="X19" s="18"/>
+      <c r="Y19" s="18"/>
+      <c r="Z19" s="18"/>
+      <c r="AA19" s="18"/>
+      <c r="AB19" s="18"/>
+      <c r="AC19" s="18"/>
+      <c r="AD19" s="18"/>
+      <c r="AE19" s="18"/>
+      <c r="AF19" s="32"/>
+      <c r="AG19" s="32"/>
+      <c r="AH19" s="32"/>
+      <c r="AI19" s="32"/>
+      <c r="AJ19" s="32"/>
+      <c r="AK19" s="18"/>
+      <c r="AL19" s="18"/>
+      <c r="AM19" s="18"/>
+      <c r="AN19" s="19"/>
+      <c r="AO19" s="19"/>
+      <c r="AP19" s="19"/>
+      <c r="AQ19" s="18"/>
+      <c r="AR19" s="18"/>
+      <c r="AS19" s="18"/>
+      <c r="AT19" s="18"/>
+      <c r="AU19" s="18"/>
+      <c r="AV19" s="18"/>
+      <c r="AW19" s="18"/>
+      <c r="AX19" s="18"/>
+      <c r="AY19" s="18"/>
+      <c r="AZ19" s="18"/>
+      <c r="BA19" s="18"/>
+      <c r="BB19" s="18"/>
+      <c r="BC19" s="18"/>
+      <c r="BD19" s="18"/>
+      <c r="BE19" s="18"/>
+      <c r="BF19" s="18"/>
+      <c r="BG19" s="18"/>
+      <c r="BH19" s="18"/>
+      <c r="BI19" s="18"/>
+      <c r="BJ19" s="18"/>
+      <c r="BK19" s="18"/>
+      <c r="BL19" s="18"/>
+      <c r="BM19" s="18"/>
+      <c r="BN19" s="18"/>
+      <c r="BO19" s="18"/>
+      <c r="BP19" s="18"/>
+      <c r="BQ19" s="18"/>
+      <c r="BR19" s="18"/>
+      <c r="BS19" s="18"/>
+      <c r="BT19" s="18"/>
+      <c r="BU19" s="18"/>
+      <c r="BV19" s="18"/>
+      <c r="BW19" s="18"/>
+      <c r="BX19" s="18"/>
+      <c r="BY19" s="18"/>
+      <c r="BZ19" s="18"/>
+      <c r="CA19" s="74">
         <f t="shared" ref="CA19:CA44" si="2">BY19+BW19+BU19+BS19+BQ19+BO19</f>
         <v>0</v>
       </c>
-      <c r="CB19" s="80">
+      <c r="CB19" s="74">
         <f t="shared" ref="CB19:CB44" si="3">BZ19+BX19+BV19+BT19+BR19+BP19</f>
         <v>0</v>
       </c>
-      <c r="CC19" s="21"/>
-      <c r="CD19" s="19"/>
-      <c r="CE19" s="19"/>
-      <c r="CF19" s="19"/>
-      <c r="CG19" s="19"/>
-      <c r="CH19" s="19"/>
-      <c r="CI19" s="21" t="e">
+      <c r="CC19" s="20"/>
+      <c r="CD19" s="18"/>
+      <c r="CE19" s="18"/>
+      <c r="CF19" s="18"/>
+      <c r="CG19" s="18"/>
+      <c r="CH19" s="18"/>
+      <c r="CI19" s="134" t="e">
         <f t="shared" ref="CI19:CI20" si="4">CH19/F19</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="CJ19" s="22"/>
-      <c r="CK19" s="17"/>
+      <c r="CJ19" s="135"/>
+      <c r="CK19" s="16"/>
     </row>
     <row r="20" spans="1:89" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="94"/>
-      <c r="B20" s="23" t="s">
+      <c r="A20" s="118"/>
+      <c r="B20" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="19"/>
-      <c r="K20" s="19"/>
-      <c r="L20" s="19"/>
-      <c r="M20" s="19"/>
-      <c r="N20" s="80">
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="18"/>
+      <c r="L20" s="18"/>
+      <c r="M20" s="18"/>
+      <c r="N20" s="74">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O20" s="19"/>
-      <c r="P20" s="19"/>
-      <c r="Q20" s="19"/>
-      <c r="R20" s="19"/>
-      <c r="S20" s="19"/>
-      <c r="T20" s="80">
+      <c r="O20" s="18"/>
+      <c r="P20" s="18"/>
+      <c r="Q20" s="18"/>
+      <c r="R20" s="18"/>
+      <c r="S20" s="18"/>
+      <c r="T20" s="74">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U20" s="19"/>
-      <c r="V20" s="19"/>
-      <c r="W20" s="19"/>
-      <c r="X20" s="19"/>
-      <c r="Y20" s="19"/>
-      <c r="Z20" s="19"/>
-      <c r="AA20" s="19"/>
-      <c r="AB20" s="19"/>
-      <c r="AC20" s="19"/>
-      <c r="AD20" s="19"/>
-      <c r="AE20" s="19"/>
-      <c r="AF20" s="35"/>
-      <c r="AG20" s="35"/>
-      <c r="AH20" s="35"/>
-      <c r="AI20" s="35"/>
-      <c r="AJ20" s="35"/>
-      <c r="AK20" s="19"/>
-      <c r="AL20" s="19"/>
-      <c r="AM20" s="19"/>
-      <c r="AN20" s="20"/>
-      <c r="AO20" s="20"/>
-      <c r="AP20" s="20"/>
-      <c r="AQ20" s="19"/>
-      <c r="AR20" s="19"/>
-      <c r="AS20" s="19"/>
-      <c r="AT20" s="19"/>
-      <c r="AU20" s="19"/>
-      <c r="AV20" s="19"/>
-      <c r="AW20" s="19"/>
-      <c r="AX20" s="19"/>
-      <c r="AY20" s="19"/>
-      <c r="AZ20" s="19"/>
-      <c r="BA20" s="19"/>
-      <c r="BB20" s="19"/>
-      <c r="BC20" s="19"/>
-      <c r="BD20" s="19"/>
-      <c r="BE20" s="19"/>
-      <c r="BF20" s="19"/>
-      <c r="BG20" s="19"/>
-      <c r="BH20" s="19"/>
-      <c r="BI20" s="19"/>
-      <c r="BJ20" s="19"/>
-      <c r="BK20" s="19"/>
-      <c r="BL20" s="19"/>
-      <c r="BM20" s="19"/>
-      <c r="BN20" s="19"/>
-      <c r="BO20" s="19"/>
-      <c r="BP20" s="19"/>
-      <c r="BQ20" s="19"/>
-      <c r="BR20" s="19"/>
-      <c r="BS20" s="19"/>
-      <c r="BT20" s="19"/>
-      <c r="BU20" s="19"/>
-      <c r="BV20" s="19"/>
-      <c r="BW20" s="19"/>
-      <c r="BX20" s="19"/>
-      <c r="BY20" s="19"/>
-      <c r="BZ20" s="19"/>
-      <c r="CA20" s="80">
+      <c r="U20" s="18"/>
+      <c r="V20" s="18"/>
+      <c r="W20" s="18"/>
+      <c r="X20" s="18"/>
+      <c r="Y20" s="18"/>
+      <c r="Z20" s="18"/>
+      <c r="AA20" s="18"/>
+      <c r="AB20" s="18"/>
+      <c r="AC20" s="18"/>
+      <c r="AD20" s="18"/>
+      <c r="AE20" s="18"/>
+      <c r="AF20" s="32"/>
+      <c r="AG20" s="32"/>
+      <c r="AH20" s="32"/>
+      <c r="AI20" s="32"/>
+      <c r="AJ20" s="32"/>
+      <c r="AK20" s="18"/>
+      <c r="AL20" s="18"/>
+      <c r="AM20" s="18"/>
+      <c r="AN20" s="19"/>
+      <c r="AO20" s="19"/>
+      <c r="AP20" s="19"/>
+      <c r="AQ20" s="18"/>
+      <c r="AR20" s="18"/>
+      <c r="AS20" s="18"/>
+      <c r="AT20" s="18"/>
+      <c r="AU20" s="18"/>
+      <c r="AV20" s="18"/>
+      <c r="AW20" s="18"/>
+      <c r="AX20" s="18"/>
+      <c r="AY20" s="18"/>
+      <c r="AZ20" s="18"/>
+      <c r="BA20" s="18"/>
+      <c r="BB20" s="18"/>
+      <c r="BC20" s="18"/>
+      <c r="BD20" s="18"/>
+      <c r="BE20" s="18"/>
+      <c r="BF20" s="18"/>
+      <c r="BG20" s="18"/>
+      <c r="BH20" s="18"/>
+      <c r="BI20" s="18"/>
+      <c r="BJ20" s="18"/>
+      <c r="BK20" s="18"/>
+      <c r="BL20" s="18"/>
+      <c r="BM20" s="18"/>
+      <c r="BN20" s="18"/>
+      <c r="BO20" s="18"/>
+      <c r="BP20" s="18"/>
+      <c r="BQ20" s="18"/>
+      <c r="BR20" s="18"/>
+      <c r="BS20" s="18"/>
+      <c r="BT20" s="18"/>
+      <c r="BU20" s="18"/>
+      <c r="BV20" s="18"/>
+      <c r="BW20" s="18"/>
+      <c r="BX20" s="18"/>
+      <c r="BY20" s="18"/>
+      <c r="BZ20" s="18"/>
+      <c r="CA20" s="74">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="CB20" s="80">
+      <c r="CB20" s="74">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="CC20" s="21"/>
-      <c r="CD20" s="19"/>
-      <c r="CE20" s="19"/>
-      <c r="CF20" s="19"/>
-      <c r="CG20" s="19"/>
-      <c r="CH20" s="19"/>
-      <c r="CI20" s="21" t="e">
+      <c r="CC20" s="20"/>
+      <c r="CD20" s="18"/>
+      <c r="CE20" s="18"/>
+      <c r="CF20" s="18"/>
+      <c r="CG20" s="18"/>
+      <c r="CH20" s="18"/>
+      <c r="CI20" s="134" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="CJ20" s="22"/>
-      <c r="CK20" s="17"/>
+      <c r="CJ20" s="135"/>
+      <c r="CK20" s="16"/>
     </row>
     <row r="21" spans="1:89" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="94"/>
-      <c r="B21" s="24" t="s">
+      <c r="A21" s="118"/>
+      <c r="B21" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="C21" s="80">
+      <c r="C21" s="74">
         <f>SUM(C18:C20)</f>
         <v>0</v>
       </c>
-      <c r="D21" s="80">
+      <c r="D21" s="74">
         <f t="shared" ref="D21:M21" si="5">SUM(D18:D20)</f>
         <v>0</v>
       </c>
-      <c r="E21" s="80">
+      <c r="E21" s="74">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="F21" s="80">
+      <c r="F21" s="74">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G21" s="80">
+      <c r="G21" s="74">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="H21" s="80">
+      <c r="H21" s="74">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="I21" s="80">
+      <c r="I21" s="74">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J21" s="80">
+      <c r="J21" s="74">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K21" s="80">
+      <c r="K21" s="74">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L21" s="80">
+      <c r="L21" s="74">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="M21" s="80">
+      <c r="M21" s="74">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N21" s="80">
+      <c r="N21" s="74">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O21" s="80">
+      <c r="O21" s="74">
         <f t="shared" ref="O21" si="6">SUM(O18:O20)</f>
         <v>0</v>
       </c>
-      <c r="P21" s="80">
+      <c r="P21" s="74">
         <f t="shared" ref="P21" si="7">SUM(P18:P20)</f>
         <v>0</v>
       </c>
-      <c r="Q21" s="80">
+      <c r="Q21" s="74">
         <f t="shared" ref="Q21" si="8">SUM(Q18:Q20)</f>
         <v>0</v>
       </c>
-      <c r="R21" s="80">
+      <c r="R21" s="74">
         <f t="shared" ref="R21" si="9">SUM(R18:R20)</f>
         <v>0</v>
       </c>
-      <c r="S21" s="80">
+      <c r="S21" s="74">
         <f t="shared" ref="S21" si="10">SUM(S18:S20)</f>
         <v>0</v>
       </c>
-      <c r="T21" s="80">
+      <c r="T21" s="74">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U21" s="80">
+      <c r="U21" s="74">
         <f t="shared" ref="U21" si="11">SUM(U18:U20)</f>
         <v>0</v>
       </c>
-      <c r="V21" s="80">
+      <c r="V21" s="74">
         <f t="shared" ref="V21" si="12">SUM(V18:V20)</f>
         <v>0</v>
       </c>
-      <c r="W21" s="80">
+      <c r="W21" s="74">
         <f t="shared" ref="W21" si="13">SUM(W18:W20)</f>
         <v>0</v>
       </c>
-      <c r="X21" s="80">
+      <c r="X21" s="74">
         <f t="shared" ref="X21:Y21" si="14">SUM(X18:X20)</f>
         <v>0</v>
       </c>
-      <c r="Y21" s="80">
+      <c r="Y21" s="74">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="Z21" s="80">
+      <c r="Z21" s="74">
         <f t="shared" ref="Z21" si="15">SUM(Z18:Z20)</f>
         <v>0</v>
       </c>
-      <c r="AA21" s="80">
+      <c r="AA21" s="74">
         <f t="shared" ref="AA21" si="16">SUM(AA18:AA20)</f>
         <v>0</v>
       </c>
-      <c r="AB21" s="80">
+      <c r="AB21" s="74">
         <f t="shared" ref="AB21" si="17">SUM(AB18:AB20)</f>
         <v>0</v>
       </c>
-      <c r="AC21" s="80">
+      <c r="AC21" s="74">
         <f t="shared" ref="AC21" si="18">SUM(AC18:AC20)</f>
         <v>0</v>
       </c>
-      <c r="AD21" s="80">
+      <c r="AD21" s="74">
         <f t="shared" ref="AD21" si="19">SUM(AD18:AD20)</f>
         <v>0</v>
       </c>
-      <c r="AE21" s="80">
+      <c r="AE21" s="74">
         <f t="shared" ref="AE21" si="20">SUM(AE18:AE20)</f>
         <v>0</v>
       </c>
-      <c r="AF21" s="81"/>
-      <c r="AG21" s="81"/>
-      <c r="AH21" s="81"/>
-      <c r="AI21" s="81"/>
-      <c r="AJ21" s="81"/>
-      <c r="AK21" s="80">
+      <c r="AF21" s="75"/>
+      <c r="AG21" s="75"/>
+      <c r="AH21" s="75"/>
+      <c r="AI21" s="75"/>
+      <c r="AJ21" s="75"/>
+      <c r="AK21" s="74">
         <f t="shared" ref="AK21" si="21">SUM(AK18:AK20)</f>
         <v>0</v>
       </c>
-      <c r="AL21" s="80">
+      <c r="AL21" s="74">
         <f t="shared" ref="AL21" si="22">SUM(AL18:AL20)</f>
         <v>0</v>
       </c>
-      <c r="AM21" s="80">
+      <c r="AM21" s="74">
         <f t="shared" ref="AM21" si="23">SUM(AM18:AM20)</f>
         <v>0</v>
       </c>
-      <c r="AN21" s="82">
+      <c r="AN21" s="76">
         <f t="shared" ref="AN21" si="24">SUM(AN18:AN20)</f>
         <v>0</v>
       </c>
-      <c r="AO21" s="82">
+      <c r="AO21" s="76">
         <f t="shared" ref="AO21" si="25">SUM(AO18:AO20)</f>
         <v>0</v>
       </c>
-      <c r="AP21" s="82">
+      <c r="AP21" s="76">
         <f t="shared" ref="AP21" si="26">SUM(AP18:AP20)</f>
         <v>0</v>
       </c>
-      <c r="AQ21" s="80">
+      <c r="AQ21" s="74">
         <f t="shared" ref="AQ21" si="27">SUM(AQ18:AQ20)</f>
         <v>0</v>
       </c>
-      <c r="AR21" s="80">
+      <c r="AR21" s="74">
         <f t="shared" ref="AR21" si="28">SUM(AR18:AR20)</f>
         <v>0</v>
       </c>
-      <c r="AS21" s="80">
+      <c r="AS21" s="74">
         <f t="shared" ref="AS21" si="29">SUM(AS18:AS20)</f>
         <v>0</v>
       </c>
-      <c r="AT21" s="80">
+      <c r="AT21" s="74">
         <f t="shared" ref="AT21" si="30">SUM(AT18:AT20)</f>
         <v>0</v>
       </c>
-      <c r="AU21" s="80">
+      <c r="AU21" s="74">
         <f t="shared" ref="AU21" si="31">SUM(AU18:AU20)</f>
         <v>0</v>
       </c>
-      <c r="AV21" s="80">
+      <c r="AV21" s="74">
         <f t="shared" ref="AV21" si="32">SUM(AV18:AV20)</f>
         <v>0</v>
       </c>
-      <c r="AW21" s="80">
+      <c r="AW21" s="74">
         <f t="shared" ref="AW21" si="33">SUM(AW18:AW20)</f>
         <v>0</v>
       </c>
-      <c r="AX21" s="80">
+      <c r="AX21" s="74">
         <f t="shared" ref="AX21" si="34">SUM(AX18:AX20)</f>
         <v>0</v>
       </c>
-      <c r="AY21" s="80">
+      <c r="AY21" s="74">
         <f t="shared" ref="AY21" si="35">SUM(AY18:AY20)</f>
         <v>0</v>
       </c>
-      <c r="AZ21" s="80">
+      <c r="AZ21" s="74">
         <f t="shared" ref="AZ21" si="36">SUM(AZ18:AZ20)</f>
         <v>0</v>
       </c>
-      <c r="BA21" s="80">
+      <c r="BA21" s="74">
         <f t="shared" ref="BA21" si="37">SUM(BA18:BA20)</f>
         <v>0</v>
       </c>
-      <c r="BB21" s="80">
+      <c r="BB21" s="74">
         <f t="shared" ref="BB21" si="38">SUM(BB18:BB20)</f>
         <v>0</v>
       </c>
-      <c r="BC21" s="80">
+      <c r="BC21" s="74">
         <f t="shared" ref="BC21" si="39">SUM(BC18:BC20)</f>
         <v>0</v>
       </c>
-      <c r="BD21" s="80">
+      <c r="BD21" s="74">
         <f t="shared" ref="BD21" si="40">SUM(BD18:BD20)</f>
         <v>0</v>
       </c>
-      <c r="BE21" s="80">
+      <c r="BE21" s="74">
         <f t="shared" ref="BE21" si="41">SUM(BE18:BE20)</f>
         <v>0</v>
       </c>
-      <c r="BF21" s="80">
+      <c r="BF21" s="74">
         <f t="shared" ref="BF21" si="42">SUM(BF18:BF20)</f>
         <v>0</v>
       </c>
-      <c r="BG21" s="80">
+      <c r="BG21" s="74">
         <f t="shared" ref="BG21" si="43">SUM(BG18:BG20)</f>
         <v>0</v>
       </c>
-      <c r="BH21" s="80">
+      <c r="BH21" s="74">
         <f t="shared" ref="BH21" si="44">SUM(BH18:BH20)</f>
         <v>0</v>
       </c>
-      <c r="BI21" s="80">
+      <c r="BI21" s="74">
         <f t="shared" ref="BI21" si="45">SUM(BI18:BI20)</f>
         <v>0</v>
       </c>
-      <c r="BJ21" s="80">
+      <c r="BJ21" s="74">
         <f t="shared" ref="BJ21" si="46">SUM(BJ18:BJ20)</f>
         <v>0</v>
       </c>
-      <c r="BK21" s="80">
+      <c r="BK21" s="74">
         <f t="shared" ref="BK21" si="47">SUM(BK18:BK20)</f>
         <v>0</v>
       </c>
-      <c r="BL21" s="80">
+      <c r="BL21" s="74">
         <f t="shared" ref="BL21" si="48">SUM(BL18:BL20)</f>
         <v>0</v>
       </c>
-      <c r="BM21" s="80">
+      <c r="BM21" s="74">
         <f t="shared" ref="BM21" si="49">SUM(BM18:BM20)</f>
         <v>0</v>
       </c>
-      <c r="BN21" s="80">
+      <c r="BN21" s="74">
         <f t="shared" ref="BN21" si="50">SUM(BN18:BN20)</f>
         <v>0</v>
       </c>
-      <c r="BO21" s="80">
+      <c r="BO21" s="74">
         <f t="shared" ref="BO21" si="51">SUM(BO18:BO20)</f>
         <v>0</v>
       </c>
-      <c r="BP21" s="80">
+      <c r="BP21" s="74">
         <f t="shared" ref="BP21" si="52">SUM(BP18:BP20)</f>
         <v>0</v>
       </c>
-      <c r="BQ21" s="80">
+      <c r="BQ21" s="74">
         <f t="shared" ref="BQ21" si="53">SUM(BQ18:BQ20)</f>
         <v>0</v>
       </c>
-      <c r="BR21" s="80">
+      <c r="BR21" s="74">
         <f t="shared" ref="BR21" si="54">SUM(BR18:BR20)</f>
         <v>0</v>
       </c>
-      <c r="BS21" s="80">
+      <c r="BS21" s="74">
         <f t="shared" ref="BS21" si="55">SUM(BS18:BS20)</f>
         <v>0</v>
       </c>
-      <c r="BT21" s="80">
+      <c r="BT21" s="74">
         <f t="shared" ref="BT21" si="56">SUM(BT18:BT20)</f>
         <v>0</v>
       </c>
-      <c r="BU21" s="80">
+      <c r="BU21" s="74">
         <f t="shared" ref="BU21" si="57">SUM(BU18:BU20)</f>
         <v>0</v>
       </c>
-      <c r="BV21" s="80">
+      <c r="BV21" s="74">
         <f t="shared" ref="BV21" si="58">SUM(BV18:BV20)</f>
         <v>0</v>
       </c>
-      <c r="BW21" s="80">
+      <c r="BW21" s="74">
         <f t="shared" ref="BW21" si="59">SUM(BW18:BW20)</f>
         <v>0</v>
       </c>
-      <c r="BX21" s="80">
+      <c r="BX21" s="74">
         <f t="shared" ref="BX21" si="60">SUM(BX18:BX20)</f>
         <v>0</v>
       </c>
-      <c r="BY21" s="80">
+      <c r="BY21" s="74">
         <f t="shared" ref="BY21" si="61">SUM(BY18:BY20)</f>
         <v>0</v>
       </c>
-      <c r="BZ21" s="80">
+      <c r="BZ21" s="74">
         <f t="shared" ref="BZ21" si="62">SUM(BZ18:BZ20)</f>
         <v>0</v>
       </c>
-      <c r="CA21" s="80">
+      <c r="CA21" s="74">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="CB21" s="80">
+      <c r="CB21" s="74">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="CC21" s="80">
+      <c r="CC21" s="74">
         <f t="shared" ref="CC21" si="63">SUM(CC18:CC20)</f>
         <v>0</v>
       </c>
-      <c r="CD21" s="80">
+      <c r="CD21" s="74">
         <f t="shared" ref="CD21" si="64">SUM(CD18:CD20)</f>
         <v>0</v>
       </c>
-      <c r="CE21" s="80">
+      <c r="CE21" s="74">
         <f t="shared" ref="CE21" si="65">SUM(CE18:CE20)</f>
         <v>0</v>
       </c>
-      <c r="CF21" s="80">
+      <c r="CF21" s="74">
         <f t="shared" ref="CF21" si="66">SUM(CF18:CF20)</f>
         <v>0</v>
       </c>
-      <c r="CG21" s="80">
+      <c r="CG21" s="74">
         <f t="shared" ref="CG21" si="67">SUM(CG18:CG20)</f>
         <v>0</v>
       </c>
-      <c r="CH21" s="80">
+      <c r="CH21" s="74">
         <f t="shared" ref="CH21" si="68">SUM(CH18:CH20)</f>
         <v>0</v>
       </c>
-      <c r="CI21" s="85" t="e">
+      <c r="CI21" s="136" t="e">
         <f>CH21/F21</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="CJ21" s="22"/>
-      <c r="CK21" s="17"/>
+      <c r="CJ21" s="135"/>
+      <c r="CK21" s="16"/>
     </row>
     <row r="22" spans="1:89" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="95"/>
-      <c r="B22" s="25" t="s">
+      <c r="A22" s="119"/>
+      <c r="B22" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="C22" s="26"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="26"/>
-      <c r="I22" s="26"/>
-      <c r="J22" s="26"/>
-      <c r="K22" s="26"/>
-      <c r="L22" s="26"/>
-      <c r="M22" s="26"/>
-      <c r="N22" s="87">
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="24"/>
+      <c r="J22" s="24"/>
+      <c r="K22" s="24"/>
+      <c r="L22" s="24"/>
+      <c r="M22" s="24"/>
+      <c r="N22" s="78">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O22" s="26"/>
-      <c r="P22" s="26"/>
-      <c r="Q22" s="26"/>
-      <c r="R22" s="26"/>
-      <c r="S22" s="26"/>
-      <c r="T22" s="87">
+      <c r="O22" s="24"/>
+      <c r="P22" s="24"/>
+      <c r="Q22" s="24"/>
+      <c r="R22" s="24"/>
+      <c r="S22" s="24"/>
+      <c r="T22" s="78">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U22" s="26"/>
-      <c r="V22" s="26"/>
-      <c r="W22" s="26"/>
-      <c r="X22" s="26"/>
-      <c r="Y22" s="26"/>
-      <c r="Z22" s="26"/>
-      <c r="AA22" s="26"/>
-      <c r="AB22" s="26"/>
-      <c r="AC22" s="26"/>
-      <c r="AD22" s="26"/>
-      <c r="AE22" s="26"/>
-      <c r="AF22" s="30"/>
-      <c r="AG22" s="30"/>
-      <c r="AH22" s="30"/>
-      <c r="AI22" s="30"/>
-      <c r="AJ22" s="30"/>
-      <c r="AK22" s="26"/>
-      <c r="AL22" s="26"/>
-      <c r="AM22" s="26"/>
-      <c r="AN22" s="28"/>
-      <c r="AO22" s="28"/>
-      <c r="AP22" s="28"/>
-      <c r="AQ22" s="26"/>
-      <c r="AR22" s="26"/>
-      <c r="AS22" s="26"/>
-      <c r="AT22" s="26"/>
-      <c r="AU22" s="26"/>
-      <c r="AV22" s="26"/>
-      <c r="AW22" s="26"/>
-      <c r="AX22" s="26"/>
-      <c r="AY22" s="26"/>
-      <c r="AZ22" s="26"/>
-      <c r="BA22" s="26"/>
-      <c r="BB22" s="26"/>
-      <c r="BC22" s="26"/>
-      <c r="BD22" s="26"/>
-      <c r="BE22" s="26"/>
-      <c r="BF22" s="26"/>
-      <c r="BG22" s="26"/>
-      <c r="BH22" s="26"/>
-      <c r="BI22" s="26"/>
-      <c r="BJ22" s="26"/>
-      <c r="BK22" s="26"/>
-      <c r="BL22" s="26"/>
-      <c r="BM22" s="26"/>
-      <c r="BN22" s="26"/>
-      <c r="BO22" s="26"/>
-      <c r="BP22" s="26"/>
-      <c r="BQ22" s="26"/>
-      <c r="BR22" s="26"/>
-      <c r="BS22" s="26"/>
-      <c r="BT22" s="26"/>
-      <c r="BU22" s="26"/>
-      <c r="BV22" s="26"/>
-      <c r="BW22" s="26"/>
-      <c r="BX22" s="26"/>
-      <c r="BY22" s="26"/>
-      <c r="BZ22" s="26"/>
-      <c r="CA22" s="87">
+      <c r="U22" s="24"/>
+      <c r="V22" s="24"/>
+      <c r="W22" s="24"/>
+      <c r="X22" s="24"/>
+      <c r="Y22" s="24"/>
+      <c r="Z22" s="24"/>
+      <c r="AA22" s="24"/>
+      <c r="AB22" s="24"/>
+      <c r="AC22" s="24"/>
+      <c r="AD22" s="24"/>
+      <c r="AE22" s="24"/>
+      <c r="AF22" s="28"/>
+      <c r="AG22" s="28"/>
+      <c r="AH22" s="28"/>
+      <c r="AI22" s="28"/>
+      <c r="AJ22" s="28"/>
+      <c r="AK22" s="24"/>
+      <c r="AL22" s="24"/>
+      <c r="AM22" s="24"/>
+      <c r="AN22" s="26"/>
+      <c r="AO22" s="26"/>
+      <c r="AP22" s="26"/>
+      <c r="AQ22" s="24"/>
+      <c r="AR22" s="24"/>
+      <c r="AS22" s="24"/>
+      <c r="AT22" s="24"/>
+      <c r="AU22" s="24"/>
+      <c r="AV22" s="24"/>
+      <c r="AW22" s="24"/>
+      <c r="AX22" s="24"/>
+      <c r="AY22" s="24"/>
+      <c r="AZ22" s="24"/>
+      <c r="BA22" s="24"/>
+      <c r="BB22" s="24"/>
+      <c r="BC22" s="24"/>
+      <c r="BD22" s="24"/>
+      <c r="BE22" s="24"/>
+      <c r="BF22" s="24"/>
+      <c r="BG22" s="24"/>
+      <c r="BH22" s="24"/>
+      <c r="BI22" s="24"/>
+      <c r="BJ22" s="24"/>
+      <c r="BK22" s="24"/>
+      <c r="BL22" s="24"/>
+      <c r="BM22" s="24"/>
+      <c r="BN22" s="24"/>
+      <c r="BO22" s="24"/>
+      <c r="BP22" s="24"/>
+      <c r="BQ22" s="24"/>
+      <c r="BR22" s="24"/>
+      <c r="BS22" s="24"/>
+      <c r="BT22" s="24"/>
+      <c r="BU22" s="24"/>
+      <c r="BV22" s="24"/>
+      <c r="BW22" s="24"/>
+      <c r="BX22" s="24"/>
+      <c r="BY22" s="24"/>
+      <c r="BZ22" s="24"/>
+      <c r="CA22" s="78">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="CB22" s="87">
+      <c r="CB22" s="78">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="CC22" s="29"/>
-      <c r="CD22" s="26"/>
-      <c r="CE22" s="26"/>
-      <c r="CF22" s="26"/>
-      <c r="CG22" s="26"/>
-      <c r="CH22" s="26"/>
-      <c r="CI22" s="30"/>
-      <c r="CJ22" s="31"/>
-      <c r="CK22" s="17"/>
+      <c r="CC22" s="27"/>
+      <c r="CD22" s="24"/>
+      <c r="CE22" s="24"/>
+      <c r="CF22" s="24"/>
+      <c r="CG22" s="24"/>
+      <c r="CH22" s="24"/>
+      <c r="CI22" s="137"/>
+      <c r="CJ22" s="138"/>
+      <c r="CK22" s="16"/>
     </row>
     <row r="23" spans="1:89" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="93" t="s">
+      <c r="A23" s="117" t="s">
         <v>94</v>
       </c>
-      <c r="B23" s="32">
+      <c r="B23" s="29">
         <v>1</v>
       </c>
       <c r="C23" s="13"/>
@@ -4504,7 +4539,7 @@
       <c r="K23" s="13"/>
       <c r="L23" s="13"/>
       <c r="M23" s="13"/>
-      <c r="N23" s="86">
+      <c r="N23" s="77">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4513,7 +4548,7 @@
       <c r="Q23" s="13"/>
       <c r="R23" s="13"/>
       <c r="S23" s="13"/>
-      <c r="T23" s="86">
+      <c r="T23" s="77">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4528,11 +4563,11 @@
       <c r="AC23" s="13"/>
       <c r="AD23" s="13"/>
       <c r="AE23" s="13"/>
-      <c r="AF23" s="33"/>
-      <c r="AG23" s="33"/>
-      <c r="AH23" s="33"/>
-      <c r="AI23" s="33"/>
-      <c r="AJ23" s="33"/>
+      <c r="AF23" s="30"/>
+      <c r="AG23" s="30"/>
+      <c r="AH23" s="30"/>
+      <c r="AI23" s="30"/>
+      <c r="AJ23" s="30"/>
       <c r="AK23" s="13"/>
       <c r="AL23" s="13"/>
       <c r="AM23" s="13"/>
@@ -4575,11 +4610,11 @@
       <c r="BX23" s="13"/>
       <c r="BY23" s="13"/>
       <c r="BZ23" s="13"/>
-      <c r="CA23" s="86">
+      <c r="CA23" s="77">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="CB23" s="86">
+      <c r="CB23" s="77">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -4589,1188 +4624,1188 @@
       <c r="CF23" s="13"/>
       <c r="CG23" s="13"/>
       <c r="CH23" s="13"/>
-      <c r="CI23" s="33"/>
-      <c r="CJ23" s="16"/>
-      <c r="CK23" s="17"/>
+      <c r="CI23" s="139"/>
+      <c r="CJ23" s="133"/>
+      <c r="CK23" s="16"/>
     </row>
     <row r="24" spans="1:89" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="94"/>
-      <c r="B24" s="34">
+      <c r="A24" s="118"/>
+      <c r="B24" s="31">
         <v>2</v>
       </c>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="19"/>
-      <c r="K24" s="19"/>
-      <c r="L24" s="19"/>
-      <c r="M24" s="19"/>
-      <c r="N24" s="80">
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="18"/>
+      <c r="K24" s="18"/>
+      <c r="L24" s="18"/>
+      <c r="M24" s="18"/>
+      <c r="N24" s="74">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O24" s="19"/>
-      <c r="P24" s="19"/>
-      <c r="Q24" s="19"/>
-      <c r="R24" s="19"/>
-      <c r="S24" s="19"/>
-      <c r="T24" s="80">
+      <c r="O24" s="18"/>
+      <c r="P24" s="18"/>
+      <c r="Q24" s="18"/>
+      <c r="R24" s="18"/>
+      <c r="S24" s="18"/>
+      <c r="T24" s="74">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U24" s="19"/>
-      <c r="V24" s="19"/>
-      <c r="W24" s="19"/>
-      <c r="X24" s="19"/>
-      <c r="Y24" s="19"/>
-      <c r="Z24" s="19"/>
-      <c r="AA24" s="19"/>
-      <c r="AB24" s="19"/>
-      <c r="AC24" s="19"/>
-      <c r="AD24" s="19"/>
-      <c r="AE24" s="19"/>
-      <c r="AF24" s="35"/>
-      <c r="AG24" s="35"/>
-      <c r="AH24" s="35"/>
-      <c r="AI24" s="35"/>
-      <c r="AJ24" s="35"/>
-      <c r="AK24" s="19"/>
-      <c r="AL24" s="19"/>
-      <c r="AM24" s="19"/>
-      <c r="AN24" s="20"/>
-      <c r="AO24" s="20"/>
-      <c r="AP24" s="20"/>
-      <c r="AQ24" s="19"/>
-      <c r="AR24" s="19"/>
-      <c r="AS24" s="19"/>
-      <c r="AT24" s="19"/>
-      <c r="AU24" s="19"/>
-      <c r="AV24" s="19"/>
-      <c r="AW24" s="19"/>
-      <c r="AX24" s="19"/>
-      <c r="AY24" s="19"/>
-      <c r="AZ24" s="19"/>
-      <c r="BA24" s="19"/>
-      <c r="BB24" s="19"/>
-      <c r="BC24" s="19"/>
-      <c r="BD24" s="19"/>
-      <c r="BE24" s="19"/>
-      <c r="BF24" s="19"/>
-      <c r="BG24" s="19"/>
-      <c r="BH24" s="19"/>
-      <c r="BI24" s="19"/>
-      <c r="BJ24" s="19"/>
-      <c r="BK24" s="19"/>
-      <c r="BL24" s="19"/>
-      <c r="BM24" s="19"/>
-      <c r="BN24" s="19"/>
-      <c r="BO24" s="19"/>
-      <c r="BP24" s="19"/>
-      <c r="BQ24" s="19"/>
-      <c r="BR24" s="19"/>
-      <c r="BS24" s="19"/>
-      <c r="BT24" s="19"/>
-      <c r="BU24" s="19"/>
-      <c r="BV24" s="19"/>
-      <c r="BW24" s="19"/>
-      <c r="BX24" s="19"/>
-      <c r="BY24" s="19"/>
-      <c r="BZ24" s="19"/>
-      <c r="CA24" s="80">
+      <c r="U24" s="18"/>
+      <c r="V24" s="18"/>
+      <c r="W24" s="18"/>
+      <c r="X24" s="18"/>
+      <c r="Y24" s="18"/>
+      <c r="Z24" s="18"/>
+      <c r="AA24" s="18"/>
+      <c r="AB24" s="18"/>
+      <c r="AC24" s="18"/>
+      <c r="AD24" s="18"/>
+      <c r="AE24" s="18"/>
+      <c r="AF24" s="32"/>
+      <c r="AG24" s="32"/>
+      <c r="AH24" s="32"/>
+      <c r="AI24" s="32"/>
+      <c r="AJ24" s="32"/>
+      <c r="AK24" s="18"/>
+      <c r="AL24" s="18"/>
+      <c r="AM24" s="18"/>
+      <c r="AN24" s="19"/>
+      <c r="AO24" s="19"/>
+      <c r="AP24" s="19"/>
+      <c r="AQ24" s="18"/>
+      <c r="AR24" s="18"/>
+      <c r="AS24" s="18"/>
+      <c r="AT24" s="18"/>
+      <c r="AU24" s="18"/>
+      <c r="AV24" s="18"/>
+      <c r="AW24" s="18"/>
+      <c r="AX24" s="18"/>
+      <c r="AY24" s="18"/>
+      <c r="AZ24" s="18"/>
+      <c r="BA24" s="18"/>
+      <c r="BB24" s="18"/>
+      <c r="BC24" s="18"/>
+      <c r="BD24" s="18"/>
+      <c r="BE24" s="18"/>
+      <c r="BF24" s="18"/>
+      <c r="BG24" s="18"/>
+      <c r="BH24" s="18"/>
+      <c r="BI24" s="18"/>
+      <c r="BJ24" s="18"/>
+      <c r="BK24" s="18"/>
+      <c r="BL24" s="18"/>
+      <c r="BM24" s="18"/>
+      <c r="BN24" s="18"/>
+      <c r="BO24" s="18"/>
+      <c r="BP24" s="18"/>
+      <c r="BQ24" s="18"/>
+      <c r="BR24" s="18"/>
+      <c r="BS24" s="18"/>
+      <c r="BT24" s="18"/>
+      <c r="BU24" s="18"/>
+      <c r="BV24" s="18"/>
+      <c r="BW24" s="18"/>
+      <c r="BX24" s="18"/>
+      <c r="BY24" s="18"/>
+      <c r="BZ24" s="18"/>
+      <c r="CA24" s="74">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="CB24" s="80">
+      <c r="CB24" s="74">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="CC24" s="21"/>
-      <c r="CD24" s="19"/>
-      <c r="CE24" s="19"/>
-      <c r="CF24" s="19"/>
-      <c r="CG24" s="19"/>
-      <c r="CH24" s="19"/>
-      <c r="CI24" s="35"/>
-      <c r="CJ24" s="22"/>
-      <c r="CK24" s="17"/>
+      <c r="CC24" s="20"/>
+      <c r="CD24" s="18"/>
+      <c r="CE24" s="18"/>
+      <c r="CF24" s="18"/>
+      <c r="CG24" s="18"/>
+      <c r="CH24" s="18"/>
+      <c r="CI24" s="140"/>
+      <c r="CJ24" s="135"/>
+      <c r="CK24" s="16"/>
     </row>
     <row r="25" spans="1:89" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="94"/>
-      <c r="B25" s="34">
+      <c r="A25" s="118"/>
+      <c r="B25" s="31">
         <v>3</v>
       </c>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="19"/>
-      <c r="K25" s="19"/>
-      <c r="L25" s="19"/>
-      <c r="M25" s="19"/>
-      <c r="N25" s="80">
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="18"/>
+      <c r="L25" s="18"/>
+      <c r="M25" s="18"/>
+      <c r="N25" s="74">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O25" s="19"/>
-      <c r="P25" s="19"/>
-      <c r="Q25" s="19"/>
-      <c r="R25" s="19"/>
-      <c r="S25" s="19"/>
-      <c r="T25" s="80">
+      <c r="O25" s="18"/>
+      <c r="P25" s="18"/>
+      <c r="Q25" s="18"/>
+      <c r="R25" s="18"/>
+      <c r="S25" s="18"/>
+      <c r="T25" s="74">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U25" s="19"/>
-      <c r="V25" s="19"/>
-      <c r="W25" s="19"/>
-      <c r="X25" s="19"/>
-      <c r="Y25" s="19"/>
-      <c r="Z25" s="19"/>
-      <c r="AA25" s="19"/>
-      <c r="AB25" s="19"/>
-      <c r="AC25" s="19"/>
-      <c r="AD25" s="19"/>
-      <c r="AE25" s="19"/>
-      <c r="AF25" s="35"/>
-      <c r="AG25" s="35"/>
-      <c r="AH25" s="35"/>
-      <c r="AI25" s="35"/>
-      <c r="AJ25" s="35"/>
-      <c r="AK25" s="19"/>
-      <c r="AL25" s="19"/>
-      <c r="AM25" s="19"/>
-      <c r="AN25" s="20"/>
-      <c r="AO25" s="20"/>
-      <c r="AP25" s="20"/>
-      <c r="AQ25" s="19"/>
-      <c r="AR25" s="19"/>
-      <c r="AS25" s="19"/>
-      <c r="AT25" s="19"/>
-      <c r="AU25" s="19"/>
-      <c r="AV25" s="19"/>
-      <c r="AW25" s="19"/>
-      <c r="AX25" s="19"/>
-      <c r="AY25" s="19"/>
-      <c r="AZ25" s="19"/>
-      <c r="BA25" s="19"/>
-      <c r="BB25" s="19"/>
-      <c r="BC25" s="19"/>
-      <c r="BD25" s="19"/>
-      <c r="BE25" s="19"/>
-      <c r="BF25" s="19"/>
-      <c r="BG25" s="19"/>
-      <c r="BH25" s="19"/>
-      <c r="BI25" s="19"/>
-      <c r="BJ25" s="19"/>
-      <c r="BK25" s="19"/>
-      <c r="BL25" s="19"/>
-      <c r="BM25" s="19"/>
-      <c r="BN25" s="19"/>
-      <c r="BO25" s="19"/>
-      <c r="BP25" s="19"/>
-      <c r="BQ25" s="19"/>
-      <c r="BR25" s="19"/>
-      <c r="BS25" s="19"/>
-      <c r="BT25" s="19"/>
-      <c r="BU25" s="19"/>
-      <c r="BV25" s="19"/>
-      <c r="BW25" s="19"/>
-      <c r="BX25" s="19"/>
-      <c r="BY25" s="19"/>
-      <c r="BZ25" s="19"/>
-      <c r="CA25" s="80">
+      <c r="U25" s="18"/>
+      <c r="V25" s="18"/>
+      <c r="W25" s="18"/>
+      <c r="X25" s="18"/>
+      <c r="Y25" s="18"/>
+      <c r="Z25" s="18"/>
+      <c r="AA25" s="18"/>
+      <c r="AB25" s="18"/>
+      <c r="AC25" s="18"/>
+      <c r="AD25" s="18"/>
+      <c r="AE25" s="18"/>
+      <c r="AF25" s="32"/>
+      <c r="AG25" s="32"/>
+      <c r="AH25" s="32"/>
+      <c r="AI25" s="32"/>
+      <c r="AJ25" s="32"/>
+      <c r="AK25" s="18"/>
+      <c r="AL25" s="18"/>
+      <c r="AM25" s="18"/>
+      <c r="AN25" s="19"/>
+      <c r="AO25" s="19"/>
+      <c r="AP25" s="19"/>
+      <c r="AQ25" s="18"/>
+      <c r="AR25" s="18"/>
+      <c r="AS25" s="18"/>
+      <c r="AT25" s="18"/>
+      <c r="AU25" s="18"/>
+      <c r="AV25" s="18"/>
+      <c r="AW25" s="18"/>
+      <c r="AX25" s="18"/>
+      <c r="AY25" s="18"/>
+      <c r="AZ25" s="18"/>
+      <c r="BA25" s="18"/>
+      <c r="BB25" s="18"/>
+      <c r="BC25" s="18"/>
+      <c r="BD25" s="18"/>
+      <c r="BE25" s="18"/>
+      <c r="BF25" s="18"/>
+      <c r="BG25" s="18"/>
+      <c r="BH25" s="18"/>
+      <c r="BI25" s="18"/>
+      <c r="BJ25" s="18"/>
+      <c r="BK25" s="18"/>
+      <c r="BL25" s="18"/>
+      <c r="BM25" s="18"/>
+      <c r="BN25" s="18"/>
+      <c r="BO25" s="18"/>
+      <c r="BP25" s="18"/>
+      <c r="BQ25" s="18"/>
+      <c r="BR25" s="18"/>
+      <c r="BS25" s="18"/>
+      <c r="BT25" s="18"/>
+      <c r="BU25" s="18"/>
+      <c r="BV25" s="18"/>
+      <c r="BW25" s="18"/>
+      <c r="BX25" s="18"/>
+      <c r="BY25" s="18"/>
+      <c r="BZ25" s="18"/>
+      <c r="CA25" s="74">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="CB25" s="80">
+      <c r="CB25" s="74">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="CC25" s="21"/>
-      <c r="CD25" s="19"/>
-      <c r="CE25" s="19"/>
-      <c r="CF25" s="19"/>
-      <c r="CG25" s="19"/>
-      <c r="CH25" s="19"/>
-      <c r="CI25" s="35"/>
-      <c r="CJ25" s="22"/>
-      <c r="CK25" s="17"/>
+      <c r="CC25" s="20"/>
+      <c r="CD25" s="18"/>
+      <c r="CE25" s="18"/>
+      <c r="CF25" s="18"/>
+      <c r="CG25" s="18"/>
+      <c r="CH25" s="18"/>
+      <c r="CI25" s="140"/>
+      <c r="CJ25" s="135"/>
+      <c r="CK25" s="16"/>
     </row>
     <row r="26" spans="1:89" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="94"/>
-      <c r="B26" s="34">
+      <c r="A26" s="118"/>
+      <c r="B26" s="31">
         <v>4</v>
       </c>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="19"/>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="19"/>
-      <c r="K26" s="19"/>
-      <c r="L26" s="19"/>
-      <c r="M26" s="19"/>
-      <c r="N26" s="80">
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="18"/>
+      <c r="J26" s="18"/>
+      <c r="K26" s="18"/>
+      <c r="L26" s="18"/>
+      <c r="M26" s="18"/>
+      <c r="N26" s="74">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O26" s="19"/>
-      <c r="P26" s="19"/>
-      <c r="Q26" s="19"/>
-      <c r="R26" s="19"/>
-      <c r="S26" s="19"/>
-      <c r="T26" s="80">
+      <c r="O26" s="18"/>
+      <c r="P26" s="18"/>
+      <c r="Q26" s="18"/>
+      <c r="R26" s="18"/>
+      <c r="S26" s="18"/>
+      <c r="T26" s="74">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U26" s="19"/>
-      <c r="V26" s="19"/>
-      <c r="W26" s="19"/>
-      <c r="X26" s="19"/>
-      <c r="Y26" s="19"/>
-      <c r="Z26" s="19"/>
-      <c r="AA26" s="19"/>
-      <c r="AB26" s="19"/>
-      <c r="AC26" s="19"/>
-      <c r="AD26" s="19"/>
-      <c r="AE26" s="19"/>
-      <c r="AF26" s="35"/>
-      <c r="AG26" s="35"/>
-      <c r="AH26" s="35"/>
-      <c r="AI26" s="35"/>
-      <c r="AJ26" s="35"/>
-      <c r="AK26" s="19"/>
-      <c r="AL26" s="19"/>
-      <c r="AM26" s="19"/>
-      <c r="AN26" s="20"/>
-      <c r="AO26" s="20"/>
-      <c r="AP26" s="20"/>
-      <c r="AQ26" s="19"/>
-      <c r="AR26" s="19"/>
-      <c r="AS26" s="19"/>
-      <c r="AT26" s="19"/>
-      <c r="AU26" s="19"/>
-      <c r="AV26" s="19"/>
-      <c r="AW26" s="19"/>
-      <c r="AX26" s="19"/>
-      <c r="AY26" s="19"/>
-      <c r="AZ26" s="19"/>
-      <c r="BA26" s="19"/>
-      <c r="BB26" s="19"/>
-      <c r="BC26" s="19"/>
-      <c r="BD26" s="19"/>
-      <c r="BE26" s="19"/>
-      <c r="BF26" s="19"/>
-      <c r="BG26" s="19"/>
-      <c r="BH26" s="19"/>
-      <c r="BI26" s="19"/>
-      <c r="BJ26" s="19"/>
-      <c r="BK26" s="19"/>
-      <c r="BL26" s="19"/>
-      <c r="BM26" s="19"/>
-      <c r="BN26" s="19"/>
-      <c r="BO26" s="19"/>
-      <c r="BP26" s="19"/>
-      <c r="BQ26" s="19"/>
-      <c r="BR26" s="19"/>
-      <c r="BS26" s="19"/>
-      <c r="BT26" s="19"/>
-      <c r="BU26" s="19"/>
-      <c r="BV26" s="19"/>
-      <c r="BW26" s="19"/>
-      <c r="BX26" s="19"/>
-      <c r="BY26" s="19"/>
-      <c r="BZ26" s="19"/>
-      <c r="CA26" s="80">
+      <c r="U26" s="18"/>
+      <c r="V26" s="18"/>
+      <c r="W26" s="18"/>
+      <c r="X26" s="18"/>
+      <c r="Y26" s="18"/>
+      <c r="Z26" s="18"/>
+      <c r="AA26" s="18"/>
+      <c r="AB26" s="18"/>
+      <c r="AC26" s="18"/>
+      <c r="AD26" s="18"/>
+      <c r="AE26" s="18"/>
+      <c r="AF26" s="32"/>
+      <c r="AG26" s="32"/>
+      <c r="AH26" s="32"/>
+      <c r="AI26" s="32"/>
+      <c r="AJ26" s="32"/>
+      <c r="AK26" s="18"/>
+      <c r="AL26" s="18"/>
+      <c r="AM26" s="18"/>
+      <c r="AN26" s="19"/>
+      <c r="AO26" s="19"/>
+      <c r="AP26" s="19"/>
+      <c r="AQ26" s="18"/>
+      <c r="AR26" s="18"/>
+      <c r="AS26" s="18"/>
+      <c r="AT26" s="18"/>
+      <c r="AU26" s="18"/>
+      <c r="AV26" s="18"/>
+      <c r="AW26" s="18"/>
+      <c r="AX26" s="18"/>
+      <c r="AY26" s="18"/>
+      <c r="AZ26" s="18"/>
+      <c r="BA26" s="18"/>
+      <c r="BB26" s="18"/>
+      <c r="BC26" s="18"/>
+      <c r="BD26" s="18"/>
+      <c r="BE26" s="18"/>
+      <c r="BF26" s="18"/>
+      <c r="BG26" s="18"/>
+      <c r="BH26" s="18"/>
+      <c r="BI26" s="18"/>
+      <c r="BJ26" s="18"/>
+      <c r="BK26" s="18"/>
+      <c r="BL26" s="18"/>
+      <c r="BM26" s="18"/>
+      <c r="BN26" s="18"/>
+      <c r="BO26" s="18"/>
+      <c r="BP26" s="18"/>
+      <c r="BQ26" s="18"/>
+      <c r="BR26" s="18"/>
+      <c r="BS26" s="18"/>
+      <c r="BT26" s="18"/>
+      <c r="BU26" s="18"/>
+      <c r="BV26" s="18"/>
+      <c r="BW26" s="18"/>
+      <c r="BX26" s="18"/>
+      <c r="BY26" s="18"/>
+      <c r="BZ26" s="18"/>
+      <c r="CA26" s="74">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="CB26" s="80">
+      <c r="CB26" s="74">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="CC26" s="21"/>
-      <c r="CD26" s="19"/>
-      <c r="CE26" s="19"/>
-      <c r="CF26" s="19"/>
-      <c r="CG26" s="19"/>
-      <c r="CH26" s="19"/>
-      <c r="CI26" s="35"/>
-      <c r="CJ26" s="22"/>
-      <c r="CK26" s="17"/>
+      <c r="CC26" s="20"/>
+      <c r="CD26" s="18"/>
+      <c r="CE26" s="18"/>
+      <c r="CF26" s="18"/>
+      <c r="CG26" s="18"/>
+      <c r="CH26" s="18"/>
+      <c r="CI26" s="140"/>
+      <c r="CJ26" s="135"/>
+      <c r="CK26" s="16"/>
     </row>
     <row r="27" spans="1:89" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="94"/>
-      <c r="B27" s="34">
+      <c r="A27" s="118"/>
+      <c r="B27" s="31">
         <v>5</v>
       </c>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="19"/>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="19"/>
-      <c r="K27" s="19"/>
-      <c r="L27" s="19"/>
-      <c r="M27" s="19"/>
-      <c r="N27" s="80">
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="18"/>
+      <c r="J27" s="18"/>
+      <c r="K27" s="18"/>
+      <c r="L27" s="18"/>
+      <c r="M27" s="18"/>
+      <c r="N27" s="74">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O27" s="19"/>
-      <c r="P27" s="19"/>
-      <c r="Q27" s="19"/>
-      <c r="R27" s="19"/>
-      <c r="S27" s="19"/>
-      <c r="T27" s="80">
+      <c r="O27" s="18"/>
+      <c r="P27" s="18"/>
+      <c r="Q27" s="18"/>
+      <c r="R27" s="18"/>
+      <c r="S27" s="18"/>
+      <c r="T27" s="74">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U27" s="19"/>
-      <c r="V27" s="19"/>
-      <c r="W27" s="19"/>
-      <c r="X27" s="19"/>
-      <c r="Y27" s="19"/>
-      <c r="Z27" s="19"/>
-      <c r="AA27" s="19"/>
-      <c r="AB27" s="19"/>
-      <c r="AC27" s="19"/>
-      <c r="AD27" s="19"/>
-      <c r="AE27" s="19"/>
-      <c r="AF27" s="35"/>
-      <c r="AG27" s="35"/>
-      <c r="AH27" s="35"/>
-      <c r="AI27" s="35"/>
-      <c r="AJ27" s="35"/>
-      <c r="AK27" s="19"/>
-      <c r="AL27" s="19"/>
-      <c r="AM27" s="19"/>
-      <c r="AN27" s="20"/>
-      <c r="AO27" s="20"/>
-      <c r="AP27" s="20"/>
-      <c r="AQ27" s="19"/>
-      <c r="AR27" s="19"/>
-      <c r="AS27" s="19"/>
-      <c r="AT27" s="19"/>
-      <c r="AU27" s="19"/>
-      <c r="AV27" s="19"/>
-      <c r="AW27" s="19"/>
-      <c r="AX27" s="19"/>
-      <c r="AY27" s="19"/>
-      <c r="AZ27" s="19"/>
-      <c r="BA27" s="19"/>
-      <c r="BB27" s="19"/>
-      <c r="BC27" s="19"/>
-      <c r="BD27" s="19"/>
-      <c r="BE27" s="19"/>
-      <c r="BF27" s="19"/>
-      <c r="BG27" s="19"/>
-      <c r="BH27" s="19"/>
-      <c r="BI27" s="19"/>
-      <c r="BJ27" s="19"/>
-      <c r="BK27" s="19"/>
-      <c r="BL27" s="19"/>
-      <c r="BM27" s="19"/>
-      <c r="BN27" s="19"/>
-      <c r="BO27" s="19"/>
-      <c r="BP27" s="19"/>
-      <c r="BQ27" s="19"/>
-      <c r="BR27" s="19"/>
-      <c r="BS27" s="19"/>
-      <c r="BT27" s="19"/>
-      <c r="BU27" s="19"/>
-      <c r="BV27" s="19"/>
-      <c r="BW27" s="19"/>
-      <c r="BX27" s="19"/>
-      <c r="BY27" s="19"/>
-      <c r="BZ27" s="19"/>
-      <c r="CA27" s="80">
+      <c r="U27" s="18"/>
+      <c r="V27" s="18"/>
+      <c r="W27" s="18"/>
+      <c r="X27" s="18"/>
+      <c r="Y27" s="18"/>
+      <c r="Z27" s="18"/>
+      <c r="AA27" s="18"/>
+      <c r="AB27" s="18"/>
+      <c r="AC27" s="18"/>
+      <c r="AD27" s="18"/>
+      <c r="AE27" s="18"/>
+      <c r="AF27" s="32"/>
+      <c r="AG27" s="32"/>
+      <c r="AH27" s="32"/>
+      <c r="AI27" s="32"/>
+      <c r="AJ27" s="32"/>
+      <c r="AK27" s="18"/>
+      <c r="AL27" s="18"/>
+      <c r="AM27" s="18"/>
+      <c r="AN27" s="19"/>
+      <c r="AO27" s="19"/>
+      <c r="AP27" s="19"/>
+      <c r="AQ27" s="18"/>
+      <c r="AR27" s="18"/>
+      <c r="AS27" s="18"/>
+      <c r="AT27" s="18"/>
+      <c r="AU27" s="18"/>
+      <c r="AV27" s="18"/>
+      <c r="AW27" s="18"/>
+      <c r="AX27" s="18"/>
+      <c r="AY27" s="18"/>
+      <c r="AZ27" s="18"/>
+      <c r="BA27" s="18"/>
+      <c r="BB27" s="18"/>
+      <c r="BC27" s="18"/>
+      <c r="BD27" s="18"/>
+      <c r="BE27" s="18"/>
+      <c r="BF27" s="18"/>
+      <c r="BG27" s="18"/>
+      <c r="BH27" s="18"/>
+      <c r="BI27" s="18"/>
+      <c r="BJ27" s="18"/>
+      <c r="BK27" s="18"/>
+      <c r="BL27" s="18"/>
+      <c r="BM27" s="18"/>
+      <c r="BN27" s="18"/>
+      <c r="BO27" s="18"/>
+      <c r="BP27" s="18"/>
+      <c r="BQ27" s="18"/>
+      <c r="BR27" s="18"/>
+      <c r="BS27" s="18"/>
+      <c r="BT27" s="18"/>
+      <c r="BU27" s="18"/>
+      <c r="BV27" s="18"/>
+      <c r="BW27" s="18"/>
+      <c r="BX27" s="18"/>
+      <c r="BY27" s="18"/>
+      <c r="BZ27" s="18"/>
+      <c r="CA27" s="74">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="CB27" s="80">
+      <c r="CB27" s="74">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="CC27" s="21"/>
-      <c r="CD27" s="19"/>
-      <c r="CE27" s="19"/>
-      <c r="CF27" s="19"/>
-      <c r="CG27" s="19"/>
-      <c r="CH27" s="19"/>
-      <c r="CI27" s="35"/>
-      <c r="CJ27" s="22"/>
-      <c r="CK27" s="17"/>
+      <c r="CC27" s="20"/>
+      <c r="CD27" s="18"/>
+      <c r="CE27" s="18"/>
+      <c r="CF27" s="18"/>
+      <c r="CG27" s="18"/>
+      <c r="CH27" s="18"/>
+      <c r="CI27" s="140"/>
+      <c r="CJ27" s="135"/>
+      <c r="CK27" s="16"/>
     </row>
     <row r="28" spans="1:89" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="94"/>
-      <c r="B28" s="34">
+      <c r="A28" s="118"/>
+      <c r="B28" s="31">
         <v>6</v>
       </c>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="19"/>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="19"/>
-      <c r="K28" s="19"/>
-      <c r="L28" s="19"/>
-      <c r="M28" s="19"/>
-      <c r="N28" s="80">
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="18"/>
+      <c r="J28" s="18"/>
+      <c r="K28" s="18"/>
+      <c r="L28" s="18"/>
+      <c r="M28" s="18"/>
+      <c r="N28" s="74">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O28" s="19"/>
-      <c r="P28" s="19"/>
-      <c r="Q28" s="19"/>
-      <c r="R28" s="19"/>
-      <c r="S28" s="19"/>
-      <c r="T28" s="80">
+      <c r="O28" s="18"/>
+      <c r="P28" s="18"/>
+      <c r="Q28" s="18"/>
+      <c r="R28" s="18"/>
+      <c r="S28" s="18"/>
+      <c r="T28" s="74">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U28" s="19"/>
-      <c r="V28" s="19"/>
-      <c r="W28" s="19"/>
-      <c r="X28" s="19"/>
-      <c r="Y28" s="19"/>
-      <c r="Z28" s="19"/>
-      <c r="AA28" s="19"/>
-      <c r="AB28" s="19"/>
-      <c r="AC28" s="19"/>
-      <c r="AD28" s="19"/>
-      <c r="AE28" s="19"/>
-      <c r="AF28" s="35"/>
-      <c r="AG28" s="35"/>
-      <c r="AH28" s="35"/>
-      <c r="AI28" s="35"/>
-      <c r="AJ28" s="35"/>
-      <c r="AK28" s="19"/>
-      <c r="AL28" s="19"/>
-      <c r="AM28" s="19"/>
-      <c r="AN28" s="20"/>
-      <c r="AO28" s="20"/>
-      <c r="AP28" s="20"/>
-      <c r="AQ28" s="19"/>
-      <c r="AR28" s="19"/>
-      <c r="AS28" s="19"/>
-      <c r="AT28" s="19"/>
-      <c r="AU28" s="19"/>
-      <c r="AV28" s="19"/>
-      <c r="AW28" s="19"/>
-      <c r="AX28" s="19"/>
-      <c r="AY28" s="19"/>
-      <c r="AZ28" s="19"/>
-      <c r="BA28" s="19"/>
-      <c r="BB28" s="19"/>
-      <c r="BC28" s="19"/>
-      <c r="BD28" s="19"/>
-      <c r="BE28" s="19"/>
-      <c r="BF28" s="19"/>
-      <c r="BG28" s="19"/>
-      <c r="BH28" s="19"/>
-      <c r="BI28" s="19"/>
-      <c r="BJ28" s="19"/>
-      <c r="BK28" s="19"/>
-      <c r="BL28" s="19"/>
-      <c r="BM28" s="19"/>
-      <c r="BN28" s="19"/>
-      <c r="BO28" s="19"/>
-      <c r="BP28" s="19"/>
-      <c r="BQ28" s="19"/>
-      <c r="BR28" s="19"/>
-      <c r="BS28" s="19"/>
-      <c r="BT28" s="19"/>
-      <c r="BU28" s="19"/>
-      <c r="BV28" s="19"/>
-      <c r="BW28" s="19"/>
-      <c r="BX28" s="19"/>
-      <c r="BY28" s="19"/>
-      <c r="BZ28" s="19"/>
-      <c r="CA28" s="80">
+      <c r="U28" s="18"/>
+      <c r="V28" s="18"/>
+      <c r="W28" s="18"/>
+      <c r="X28" s="18"/>
+      <c r="Y28" s="18"/>
+      <c r="Z28" s="18"/>
+      <c r="AA28" s="18"/>
+      <c r="AB28" s="18"/>
+      <c r="AC28" s="18"/>
+      <c r="AD28" s="18"/>
+      <c r="AE28" s="18"/>
+      <c r="AF28" s="32"/>
+      <c r="AG28" s="32"/>
+      <c r="AH28" s="32"/>
+      <c r="AI28" s="32"/>
+      <c r="AJ28" s="32"/>
+      <c r="AK28" s="18"/>
+      <c r="AL28" s="18"/>
+      <c r="AM28" s="18"/>
+      <c r="AN28" s="19"/>
+      <c r="AO28" s="19"/>
+      <c r="AP28" s="19"/>
+      <c r="AQ28" s="18"/>
+      <c r="AR28" s="18"/>
+      <c r="AS28" s="18"/>
+      <c r="AT28" s="18"/>
+      <c r="AU28" s="18"/>
+      <c r="AV28" s="18"/>
+      <c r="AW28" s="18"/>
+      <c r="AX28" s="18"/>
+      <c r="AY28" s="18"/>
+      <c r="AZ28" s="18"/>
+      <c r="BA28" s="18"/>
+      <c r="BB28" s="18"/>
+      <c r="BC28" s="18"/>
+      <c r="BD28" s="18"/>
+      <c r="BE28" s="18"/>
+      <c r="BF28" s="18"/>
+      <c r="BG28" s="18"/>
+      <c r="BH28" s="18"/>
+      <c r="BI28" s="18"/>
+      <c r="BJ28" s="18"/>
+      <c r="BK28" s="18"/>
+      <c r="BL28" s="18"/>
+      <c r="BM28" s="18"/>
+      <c r="BN28" s="18"/>
+      <c r="BO28" s="18"/>
+      <c r="BP28" s="18"/>
+      <c r="BQ28" s="18"/>
+      <c r="BR28" s="18"/>
+      <c r="BS28" s="18"/>
+      <c r="BT28" s="18"/>
+      <c r="BU28" s="18"/>
+      <c r="BV28" s="18"/>
+      <c r="BW28" s="18"/>
+      <c r="BX28" s="18"/>
+      <c r="BY28" s="18"/>
+      <c r="BZ28" s="18"/>
+      <c r="CA28" s="74">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="CB28" s="80">
+      <c r="CB28" s="74">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="CC28" s="21"/>
-      <c r="CD28" s="19"/>
-      <c r="CE28" s="19"/>
-      <c r="CF28" s="19"/>
-      <c r="CG28" s="19"/>
-      <c r="CH28" s="19"/>
-      <c r="CI28" s="35"/>
-      <c r="CJ28" s="22"/>
-      <c r="CK28" s="17"/>
+      <c r="CC28" s="20"/>
+      <c r="CD28" s="18"/>
+      <c r="CE28" s="18"/>
+      <c r="CF28" s="18"/>
+      <c r="CG28" s="18"/>
+      <c r="CH28" s="18"/>
+      <c r="CI28" s="140"/>
+      <c r="CJ28" s="135"/>
+      <c r="CK28" s="16"/>
     </row>
     <row r="29" spans="1:89" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="94"/>
-      <c r="B29" s="36" t="s">
+      <c r="A29" s="118"/>
+      <c r="B29" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="19"/>
-      <c r="G29" s="19"/>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="19"/>
-      <c r="K29" s="19"/>
-      <c r="L29" s="19"/>
-      <c r="M29" s="19"/>
-      <c r="N29" s="80">
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="18"/>
+      <c r="J29" s="18"/>
+      <c r="K29" s="18"/>
+      <c r="L29" s="18"/>
+      <c r="M29" s="18"/>
+      <c r="N29" s="74">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O29" s="19"/>
-      <c r="P29" s="19"/>
-      <c r="Q29" s="19"/>
-      <c r="R29" s="19"/>
-      <c r="S29" s="19"/>
-      <c r="T29" s="80">
+      <c r="O29" s="18"/>
+      <c r="P29" s="18"/>
+      <c r="Q29" s="18"/>
+      <c r="R29" s="18"/>
+      <c r="S29" s="18"/>
+      <c r="T29" s="74">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U29" s="19"/>
-      <c r="V29" s="19"/>
-      <c r="W29" s="19"/>
-      <c r="X29" s="19"/>
-      <c r="Y29" s="19"/>
-      <c r="Z29" s="19"/>
-      <c r="AA29" s="19"/>
-      <c r="AB29" s="19"/>
-      <c r="AC29" s="19"/>
-      <c r="AD29" s="19"/>
-      <c r="AE29" s="19"/>
-      <c r="AF29" s="35"/>
-      <c r="AG29" s="35"/>
-      <c r="AH29" s="35"/>
-      <c r="AI29" s="35"/>
-      <c r="AJ29" s="35"/>
-      <c r="AK29" s="19"/>
-      <c r="AL29" s="19"/>
-      <c r="AM29" s="19"/>
-      <c r="AN29" s="20"/>
-      <c r="AO29" s="20"/>
-      <c r="AP29" s="20"/>
-      <c r="AQ29" s="19"/>
-      <c r="AR29" s="19"/>
-      <c r="AS29" s="19"/>
-      <c r="AT29" s="19"/>
-      <c r="AU29" s="19"/>
-      <c r="AV29" s="19"/>
-      <c r="AW29" s="19"/>
-      <c r="AX29" s="19"/>
-      <c r="AY29" s="19"/>
-      <c r="AZ29" s="19"/>
-      <c r="BA29" s="19"/>
-      <c r="BB29" s="19"/>
-      <c r="BC29" s="19"/>
-      <c r="BD29" s="19"/>
-      <c r="BE29" s="19"/>
-      <c r="BF29" s="19"/>
-      <c r="BG29" s="19"/>
-      <c r="BH29" s="19"/>
-      <c r="BI29" s="19"/>
-      <c r="BJ29" s="19"/>
-      <c r="BK29" s="19"/>
-      <c r="BL29" s="19"/>
-      <c r="BM29" s="19"/>
-      <c r="BN29" s="19"/>
-      <c r="BO29" s="19"/>
-      <c r="BP29" s="19"/>
-      <c r="BQ29" s="19"/>
-      <c r="BR29" s="19"/>
-      <c r="BS29" s="19"/>
-      <c r="BT29" s="19"/>
-      <c r="BU29" s="19"/>
-      <c r="BV29" s="19"/>
-      <c r="BW29" s="19"/>
-      <c r="BX29" s="19"/>
-      <c r="BY29" s="19"/>
-      <c r="BZ29" s="19"/>
-      <c r="CA29" s="80">
+      <c r="U29" s="18"/>
+      <c r="V29" s="18"/>
+      <c r="W29" s="18"/>
+      <c r="X29" s="18"/>
+      <c r="Y29" s="18"/>
+      <c r="Z29" s="18"/>
+      <c r="AA29" s="18"/>
+      <c r="AB29" s="18"/>
+      <c r="AC29" s="18"/>
+      <c r="AD29" s="18"/>
+      <c r="AE29" s="18"/>
+      <c r="AF29" s="32"/>
+      <c r="AG29" s="32"/>
+      <c r="AH29" s="32"/>
+      <c r="AI29" s="32"/>
+      <c r="AJ29" s="32"/>
+      <c r="AK29" s="18"/>
+      <c r="AL29" s="18"/>
+      <c r="AM29" s="18"/>
+      <c r="AN29" s="19"/>
+      <c r="AO29" s="19"/>
+      <c r="AP29" s="19"/>
+      <c r="AQ29" s="18"/>
+      <c r="AR29" s="18"/>
+      <c r="AS29" s="18"/>
+      <c r="AT29" s="18"/>
+      <c r="AU29" s="18"/>
+      <c r="AV29" s="18"/>
+      <c r="AW29" s="18"/>
+      <c r="AX29" s="18"/>
+      <c r="AY29" s="18"/>
+      <c r="AZ29" s="18"/>
+      <c r="BA29" s="18"/>
+      <c r="BB29" s="18"/>
+      <c r="BC29" s="18"/>
+      <c r="BD29" s="18"/>
+      <c r="BE29" s="18"/>
+      <c r="BF29" s="18"/>
+      <c r="BG29" s="18"/>
+      <c r="BH29" s="18"/>
+      <c r="BI29" s="18"/>
+      <c r="BJ29" s="18"/>
+      <c r="BK29" s="18"/>
+      <c r="BL29" s="18"/>
+      <c r="BM29" s="18"/>
+      <c r="BN29" s="18"/>
+      <c r="BO29" s="18"/>
+      <c r="BP29" s="18"/>
+      <c r="BQ29" s="18"/>
+      <c r="BR29" s="18"/>
+      <c r="BS29" s="18"/>
+      <c r="BT29" s="18"/>
+      <c r="BU29" s="18"/>
+      <c r="BV29" s="18"/>
+      <c r="BW29" s="18"/>
+      <c r="BX29" s="18"/>
+      <c r="BY29" s="18"/>
+      <c r="BZ29" s="18"/>
+      <c r="CA29" s="74">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="CB29" s="80">
+      <c r="CB29" s="74">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="CC29" s="21"/>
-      <c r="CD29" s="19"/>
-      <c r="CE29" s="19"/>
-      <c r="CF29" s="19"/>
-      <c r="CG29" s="19"/>
-      <c r="CH29" s="19"/>
-      <c r="CI29" s="35"/>
-      <c r="CJ29" s="22"/>
-      <c r="CK29" s="17"/>
+      <c r="CC29" s="20"/>
+      <c r="CD29" s="18"/>
+      <c r="CE29" s="18"/>
+      <c r="CF29" s="18"/>
+      <c r="CG29" s="18"/>
+      <c r="CH29" s="18"/>
+      <c r="CI29" s="140"/>
+      <c r="CJ29" s="135"/>
+      <c r="CK29" s="16"/>
     </row>
     <row r="30" spans="1:89" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="94"/>
-      <c r="B30" s="37" t="s">
+      <c r="A30" s="118"/>
+      <c r="B30" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="C30" s="80">
+      <c r="C30" s="74">
         <f>SUM(C23:C29)</f>
         <v>0</v>
       </c>
-      <c r="D30" s="80">
+      <c r="D30" s="74">
         <f t="shared" ref="D30:M30" si="69">SUM(D23:D29)</f>
         <v>0</v>
       </c>
-      <c r="E30" s="80">
+      <c r="E30" s="74">
         <f t="shared" si="69"/>
         <v>0</v>
       </c>
-      <c r="F30" s="80">
+      <c r="F30" s="74">
         <f t="shared" si="69"/>
         <v>0</v>
       </c>
-      <c r="G30" s="80">
+      <c r="G30" s="74">
         <f t="shared" si="69"/>
         <v>0</v>
       </c>
-      <c r="H30" s="80">
+      <c r="H30" s="74">
         <f t="shared" si="69"/>
         <v>0</v>
       </c>
-      <c r="I30" s="80">
+      <c r="I30" s="74">
         <f t="shared" si="69"/>
         <v>0</v>
       </c>
-      <c r="J30" s="80">
+      <c r="J30" s="74">
         <f t="shared" si="69"/>
         <v>0</v>
       </c>
-      <c r="K30" s="80">
+      <c r="K30" s="74">
         <f t="shared" si="69"/>
         <v>0</v>
       </c>
-      <c r="L30" s="80">
+      <c r="L30" s="74">
         <f t="shared" si="69"/>
         <v>0</v>
       </c>
-      <c r="M30" s="80">
+      <c r="M30" s="74">
         <f t="shared" si="69"/>
         <v>0</v>
       </c>
-      <c r="N30" s="80">
+      <c r="N30" s="74">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O30" s="80">
+      <c r="O30" s="74">
         <f t="shared" ref="O30:S30" si="70">SUM(O23:O29)</f>
         <v>0</v>
       </c>
-      <c r="P30" s="80">
+      <c r="P30" s="74">
         <f t="shared" si="70"/>
         <v>0</v>
       </c>
-      <c r="Q30" s="80">
+      <c r="Q30" s="74">
         <f t="shared" si="70"/>
         <v>0</v>
       </c>
-      <c r="R30" s="80">
+      <c r="R30" s="74">
         <f t="shared" si="70"/>
         <v>0</v>
       </c>
-      <c r="S30" s="80">
+      <c r="S30" s="74">
         <f t="shared" si="70"/>
         <v>0</v>
       </c>
-      <c r="T30" s="80">
+      <c r="T30" s="74">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U30" s="80">
+      <c r="U30" s="74">
         <f t="shared" ref="U30:AE30" si="71">SUM(U23:U29)</f>
         <v>0</v>
       </c>
-      <c r="V30" s="80">
+      <c r="V30" s="74">
         <f t="shared" si="71"/>
         <v>0</v>
       </c>
-      <c r="W30" s="80">
+      <c r="W30" s="74">
         <f t="shared" si="71"/>
         <v>0</v>
       </c>
-      <c r="X30" s="80">
+      <c r="X30" s="74">
         <f t="shared" si="71"/>
         <v>0</v>
       </c>
-      <c r="Y30" s="80">
+      <c r="Y30" s="74">
         <f t="shared" si="71"/>
         <v>0</v>
       </c>
-      <c r="Z30" s="80">
+      <c r="Z30" s="74">
         <f t="shared" si="71"/>
         <v>0</v>
       </c>
-      <c r="AA30" s="80">
+      <c r="AA30" s="74">
         <f t="shared" si="71"/>
         <v>0</v>
       </c>
-      <c r="AB30" s="80">
+      <c r="AB30" s="74">
         <f t="shared" si="71"/>
         <v>0</v>
       </c>
-      <c r="AC30" s="80">
+      <c r="AC30" s="74">
         <f t="shared" si="71"/>
         <v>0</v>
       </c>
-      <c r="AD30" s="80">
+      <c r="AD30" s="74">
         <f t="shared" si="71"/>
         <v>0</v>
       </c>
-      <c r="AE30" s="80">
+      <c r="AE30" s="74">
         <f t="shared" si="71"/>
         <v>0</v>
       </c>
-      <c r="AF30" s="81"/>
-      <c r="AG30" s="81"/>
-      <c r="AH30" s="81"/>
-      <c r="AI30" s="81"/>
-      <c r="AJ30" s="81"/>
-      <c r="AK30" s="80">
+      <c r="AF30" s="75"/>
+      <c r="AG30" s="75"/>
+      <c r="AH30" s="75"/>
+      <c r="AI30" s="75"/>
+      <c r="AJ30" s="75"/>
+      <c r="AK30" s="74">
         <f t="shared" ref="AK30:BZ30" si="72">SUM(AK23:AK29)</f>
         <v>0</v>
       </c>
-      <c r="AL30" s="80">
+      <c r="AL30" s="74">
         <f t="shared" si="72"/>
         <v>0</v>
       </c>
-      <c r="AM30" s="80">
+      <c r="AM30" s="74">
         <f t="shared" si="72"/>
         <v>0</v>
       </c>
-      <c r="AN30" s="82">
+      <c r="AN30" s="76">
         <f t="shared" si="72"/>
         <v>0</v>
       </c>
-      <c r="AO30" s="82">
+      <c r="AO30" s="76">
         <f t="shared" si="72"/>
         <v>0</v>
       </c>
-      <c r="AP30" s="82">
+      <c r="AP30" s="76">
         <f t="shared" si="72"/>
         <v>0</v>
       </c>
-      <c r="AQ30" s="80">
+      <c r="AQ30" s="74">
         <f t="shared" si="72"/>
         <v>0</v>
       </c>
-      <c r="AR30" s="80">
+      <c r="AR30" s="74">
         <f t="shared" si="72"/>
         <v>0</v>
       </c>
-      <c r="AS30" s="80">
+      <c r="AS30" s="74">
         <f t="shared" si="72"/>
         <v>0</v>
       </c>
-      <c r="AT30" s="80">
+      <c r="AT30" s="74">
         <f t="shared" si="72"/>
         <v>0</v>
       </c>
-      <c r="AU30" s="80">
+      <c r="AU30" s="74">
         <f t="shared" si="72"/>
         <v>0</v>
       </c>
-      <c r="AV30" s="80">
+      <c r="AV30" s="74">
         <f t="shared" si="72"/>
         <v>0</v>
       </c>
-      <c r="AW30" s="80">
+      <c r="AW30" s="74">
         <f t="shared" si="72"/>
         <v>0</v>
       </c>
-      <c r="AX30" s="80">
+      <c r="AX30" s="74">
         <f t="shared" si="72"/>
         <v>0</v>
       </c>
-      <c r="AY30" s="80">
+      <c r="AY30" s="74">
         <f t="shared" si="72"/>
         <v>0</v>
       </c>
-      <c r="AZ30" s="80">
+      <c r="AZ30" s="74">
         <f t="shared" si="72"/>
         <v>0</v>
       </c>
-      <c r="BA30" s="80">
+      <c r="BA30" s="74">
         <f t="shared" si="72"/>
         <v>0</v>
       </c>
-      <c r="BB30" s="80">
+      <c r="BB30" s="74">
         <f t="shared" si="72"/>
         <v>0</v>
       </c>
-      <c r="BC30" s="80">
+      <c r="BC30" s="74">
         <f t="shared" si="72"/>
         <v>0</v>
       </c>
-      <c r="BD30" s="80">
+      <c r="BD30" s="74">
         <f t="shared" si="72"/>
         <v>0</v>
       </c>
-      <c r="BE30" s="80">
+      <c r="BE30" s="74">
         <f t="shared" si="72"/>
         <v>0</v>
       </c>
-      <c r="BF30" s="80">
+      <c r="BF30" s="74">
         <f t="shared" si="72"/>
         <v>0</v>
       </c>
-      <c r="BG30" s="80">
+      <c r="BG30" s="74">
         <f t="shared" si="72"/>
         <v>0</v>
       </c>
-      <c r="BH30" s="80">
+      <c r="BH30" s="74">
         <f t="shared" si="72"/>
         <v>0</v>
       </c>
-      <c r="BI30" s="80">
+      <c r="BI30" s="74">
         <f t="shared" si="72"/>
         <v>0</v>
       </c>
-      <c r="BJ30" s="80">
+      <c r="BJ30" s="74">
         <f t="shared" si="72"/>
         <v>0</v>
       </c>
-      <c r="BK30" s="80">
+      <c r="BK30" s="74">
         <f t="shared" si="72"/>
         <v>0</v>
       </c>
-      <c r="BL30" s="80">
+      <c r="BL30" s="74">
         <f t="shared" si="72"/>
         <v>0</v>
       </c>
-      <c r="BM30" s="80">
+      <c r="BM30" s="74">
         <f t="shared" si="72"/>
         <v>0</v>
       </c>
-      <c r="BN30" s="80">
+      <c r="BN30" s="74">
         <f t="shared" si="72"/>
         <v>0</v>
       </c>
-      <c r="BO30" s="80">
+      <c r="BO30" s="74">
         <f t="shared" si="72"/>
         <v>0</v>
       </c>
-      <c r="BP30" s="80">
+      <c r="BP30" s="74">
         <f t="shared" si="72"/>
         <v>0</v>
       </c>
-      <c r="BQ30" s="80">
+      <c r="BQ30" s="74">
         <f t="shared" si="72"/>
         <v>0</v>
       </c>
-      <c r="BR30" s="80">
+      <c r="BR30" s="74">
         <f t="shared" si="72"/>
         <v>0</v>
       </c>
-      <c r="BS30" s="80">
+      <c r="BS30" s="74">
         <f t="shared" si="72"/>
         <v>0</v>
       </c>
-      <c r="BT30" s="80">
+      <c r="BT30" s="74">
         <f t="shared" si="72"/>
         <v>0</v>
       </c>
-      <c r="BU30" s="80">
+      <c r="BU30" s="74">
         <f t="shared" si="72"/>
         <v>0</v>
       </c>
-      <c r="BV30" s="80">
+      <c r="BV30" s="74">
         <f t="shared" si="72"/>
         <v>0</v>
       </c>
-      <c r="BW30" s="80">
+      <c r="BW30" s="74">
         <f t="shared" si="72"/>
         <v>0</v>
       </c>
-      <c r="BX30" s="80">
+      <c r="BX30" s="74">
         <f t="shared" si="72"/>
         <v>0</v>
       </c>
-      <c r="BY30" s="80">
+      <c r="BY30" s="74">
         <f t="shared" si="72"/>
         <v>0</v>
       </c>
-      <c r="BZ30" s="80">
+      <c r="BZ30" s="74">
         <f t="shared" si="72"/>
         <v>0</v>
       </c>
-      <c r="CA30" s="80">
+      <c r="CA30" s="74">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="CB30" s="80">
+      <c r="CB30" s="74">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="CC30" s="80">
+      <c r="CC30" s="74">
         <f t="shared" ref="CC30:CH30" si="73">SUM(CC23:CC29)</f>
         <v>0</v>
       </c>
-      <c r="CD30" s="80">
+      <c r="CD30" s="74">
         <f t="shared" si="73"/>
         <v>0</v>
       </c>
-      <c r="CE30" s="80">
+      <c r="CE30" s="74">
         <f t="shared" si="73"/>
         <v>0</v>
       </c>
-      <c r="CF30" s="80">
+      <c r="CF30" s="74">
         <f t="shared" si="73"/>
         <v>0</v>
       </c>
-      <c r="CG30" s="80">
+      <c r="CG30" s="74">
         <f t="shared" si="73"/>
         <v>0</v>
       </c>
-      <c r="CH30" s="80">
+      <c r="CH30" s="74">
         <f t="shared" si="73"/>
         <v>0</v>
       </c>
-      <c r="CI30" s="92" t="e">
+      <c r="CI30" s="141" t="e">
         <f>CH30/F30</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="CJ30" s="91" t="e">
+      <c r="CJ30" s="142" t="e">
         <f>CH30/C30</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="CK30" s="17"/>
+      <c r="CK30" s="16"/>
     </row>
     <row r="31" spans="1:89" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="94"/>
-      <c r="B31" s="23" t="s">
+      <c r="A31" s="118"/>
+      <c r="B31" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="C31" s="19"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="19"/>
-      <c r="G31" s="19"/>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="19"/>
-      <c r="K31" s="19"/>
-      <c r="L31" s="19"/>
-      <c r="M31" s="19"/>
-      <c r="N31" s="80">
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="18"/>
+      <c r="I31" s="18"/>
+      <c r="J31" s="18"/>
+      <c r="K31" s="18"/>
+      <c r="L31" s="18"/>
+      <c r="M31" s="18"/>
+      <c r="N31" s="74">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O31" s="19"/>
-      <c r="P31" s="19"/>
-      <c r="Q31" s="19"/>
-      <c r="R31" s="19"/>
-      <c r="S31" s="19"/>
-      <c r="T31" s="80">
+      <c r="O31" s="18"/>
+      <c r="P31" s="18"/>
+      <c r="Q31" s="18"/>
+      <c r="R31" s="18"/>
+      <c r="S31" s="18"/>
+      <c r="T31" s="74">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U31" s="19"/>
-      <c r="V31" s="19"/>
-      <c r="W31" s="19"/>
-      <c r="X31" s="19"/>
-      <c r="Y31" s="19"/>
-      <c r="Z31" s="19"/>
-      <c r="AA31" s="19"/>
-      <c r="AB31" s="19"/>
-      <c r="AC31" s="19"/>
-      <c r="AD31" s="19"/>
-      <c r="AE31" s="19"/>
-      <c r="AF31" s="35"/>
-      <c r="AG31" s="35"/>
-      <c r="AH31" s="35"/>
-      <c r="AI31" s="35"/>
-      <c r="AJ31" s="35"/>
-      <c r="AK31" s="19"/>
-      <c r="AL31" s="19"/>
-      <c r="AM31" s="19"/>
-      <c r="AN31" s="20"/>
-      <c r="AO31" s="20"/>
-      <c r="AP31" s="20"/>
-      <c r="AQ31" s="19"/>
-      <c r="AR31" s="19"/>
-      <c r="AS31" s="19"/>
-      <c r="AT31" s="19"/>
-      <c r="AU31" s="19"/>
-      <c r="AV31" s="19"/>
-      <c r="AW31" s="19"/>
-      <c r="AX31" s="19"/>
-      <c r="AY31" s="19"/>
-      <c r="AZ31" s="19"/>
-      <c r="BA31" s="19"/>
-      <c r="BB31" s="19"/>
-      <c r="BC31" s="19"/>
-      <c r="BD31" s="19"/>
-      <c r="BE31" s="19"/>
-      <c r="BF31" s="19"/>
-      <c r="BG31" s="19"/>
-      <c r="BH31" s="19"/>
-      <c r="BI31" s="19"/>
-      <c r="BJ31" s="19"/>
-      <c r="BK31" s="19"/>
-      <c r="BL31" s="19"/>
-      <c r="BM31" s="19"/>
-      <c r="BN31" s="19"/>
-      <c r="BO31" s="19"/>
-      <c r="BP31" s="19"/>
-      <c r="BQ31" s="19"/>
-      <c r="BR31" s="19"/>
-      <c r="BS31" s="19"/>
-      <c r="BT31" s="19"/>
-      <c r="BU31" s="19"/>
-      <c r="BV31" s="19"/>
-      <c r="BW31" s="19"/>
-      <c r="BX31" s="19"/>
-      <c r="BY31" s="19"/>
-      <c r="BZ31" s="19"/>
-      <c r="CA31" s="80">
+      <c r="U31" s="18"/>
+      <c r="V31" s="18"/>
+      <c r="W31" s="18"/>
+      <c r="X31" s="18"/>
+      <c r="Y31" s="18"/>
+      <c r="Z31" s="18"/>
+      <c r="AA31" s="18"/>
+      <c r="AB31" s="18"/>
+      <c r="AC31" s="18"/>
+      <c r="AD31" s="18"/>
+      <c r="AE31" s="18"/>
+      <c r="AF31" s="32"/>
+      <c r="AG31" s="32"/>
+      <c r="AH31" s="32"/>
+      <c r="AI31" s="32"/>
+      <c r="AJ31" s="32"/>
+      <c r="AK31" s="18"/>
+      <c r="AL31" s="18"/>
+      <c r="AM31" s="18"/>
+      <c r="AN31" s="19"/>
+      <c r="AO31" s="19"/>
+      <c r="AP31" s="19"/>
+      <c r="AQ31" s="18"/>
+      <c r="AR31" s="18"/>
+      <c r="AS31" s="18"/>
+      <c r="AT31" s="18"/>
+      <c r="AU31" s="18"/>
+      <c r="AV31" s="18"/>
+      <c r="AW31" s="18"/>
+      <c r="AX31" s="18"/>
+      <c r="AY31" s="18"/>
+      <c r="AZ31" s="18"/>
+      <c r="BA31" s="18"/>
+      <c r="BB31" s="18"/>
+      <c r="BC31" s="18"/>
+      <c r="BD31" s="18"/>
+      <c r="BE31" s="18"/>
+      <c r="BF31" s="18"/>
+      <c r="BG31" s="18"/>
+      <c r="BH31" s="18"/>
+      <c r="BI31" s="18"/>
+      <c r="BJ31" s="18"/>
+      <c r="BK31" s="18"/>
+      <c r="BL31" s="18"/>
+      <c r="BM31" s="18"/>
+      <c r="BN31" s="18"/>
+      <c r="BO31" s="18"/>
+      <c r="BP31" s="18"/>
+      <c r="BQ31" s="18"/>
+      <c r="BR31" s="18"/>
+      <c r="BS31" s="18"/>
+      <c r="BT31" s="18"/>
+      <c r="BU31" s="18"/>
+      <c r="BV31" s="18"/>
+      <c r="BW31" s="18"/>
+      <c r="BX31" s="18"/>
+      <c r="BY31" s="18"/>
+      <c r="BZ31" s="18"/>
+      <c r="CA31" s="74">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="CB31" s="80">
+      <c r="CB31" s="74">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="CC31" s="21"/>
-      <c r="CD31" s="19"/>
-      <c r="CE31" s="19"/>
-      <c r="CF31" s="19"/>
-      <c r="CG31" s="19"/>
-      <c r="CH31" s="19"/>
-      <c r="CI31" s="35"/>
-      <c r="CJ31" s="22"/>
-      <c r="CK31" s="17"/>
+      <c r="CC31" s="20"/>
+      <c r="CD31" s="18"/>
+      <c r="CE31" s="18"/>
+      <c r="CF31" s="18"/>
+      <c r="CG31" s="18"/>
+      <c r="CH31" s="18"/>
+      <c r="CI31" s="140"/>
+      <c r="CJ31" s="135"/>
+      <c r="CK31" s="16"/>
     </row>
     <row r="32" spans="1:89" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="95"/>
-      <c r="B32" s="23" t="s">
+      <c r="A32" s="119"/>
+      <c r="B32" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="C32" s="19"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="19"/>
-      <c r="G32" s="19"/>
-      <c r="H32" s="19"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="19"/>
-      <c r="K32" s="19"/>
-      <c r="L32" s="19"/>
-      <c r="M32" s="19"/>
-      <c r="N32" s="80">
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
+      <c r="H32" s="18"/>
+      <c r="I32" s="18"/>
+      <c r="J32" s="18"/>
+      <c r="K32" s="18"/>
+      <c r="L32" s="18"/>
+      <c r="M32" s="18"/>
+      <c r="N32" s="74">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O32" s="19"/>
-      <c r="P32" s="19"/>
-      <c r="Q32" s="19"/>
-      <c r="R32" s="19"/>
-      <c r="S32" s="19"/>
-      <c r="T32" s="80">
+      <c r="O32" s="18"/>
+      <c r="P32" s="18"/>
+      <c r="Q32" s="18"/>
+      <c r="R32" s="18"/>
+      <c r="S32" s="18"/>
+      <c r="T32" s="74">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U32" s="19"/>
-      <c r="V32" s="19"/>
-      <c r="W32" s="19"/>
-      <c r="X32" s="19"/>
-      <c r="Y32" s="19"/>
-      <c r="Z32" s="19"/>
-      <c r="AA32" s="19"/>
-      <c r="AB32" s="19"/>
-      <c r="AC32" s="19"/>
-      <c r="AD32" s="19"/>
-      <c r="AE32" s="19"/>
-      <c r="AF32" s="35"/>
-      <c r="AG32" s="35"/>
-      <c r="AH32" s="35"/>
-      <c r="AI32" s="35"/>
-      <c r="AJ32" s="35"/>
-      <c r="AK32" s="19"/>
-      <c r="AL32" s="19"/>
-      <c r="AM32" s="19"/>
-      <c r="AN32" s="20"/>
-      <c r="AO32" s="20"/>
-      <c r="AP32" s="20"/>
-      <c r="AQ32" s="19"/>
-      <c r="AR32" s="19"/>
-      <c r="AS32" s="19"/>
-      <c r="AT32" s="19"/>
-      <c r="AU32" s="19"/>
-      <c r="AV32" s="19"/>
-      <c r="AW32" s="19"/>
-      <c r="AX32" s="19"/>
-      <c r="AY32" s="19"/>
-      <c r="AZ32" s="19"/>
-      <c r="BA32" s="19"/>
-      <c r="BB32" s="19"/>
-      <c r="BC32" s="19"/>
-      <c r="BD32" s="19"/>
-      <c r="BE32" s="19"/>
-      <c r="BF32" s="19"/>
-      <c r="BG32" s="19"/>
-      <c r="BH32" s="19"/>
-      <c r="BI32" s="19"/>
-      <c r="BJ32" s="19"/>
-      <c r="BK32" s="19"/>
-      <c r="BL32" s="19"/>
-      <c r="BM32" s="19"/>
-      <c r="BN32" s="19"/>
-      <c r="BO32" s="19"/>
-      <c r="BP32" s="19"/>
-      <c r="BQ32" s="19"/>
-      <c r="BR32" s="19"/>
-      <c r="BS32" s="19"/>
-      <c r="BT32" s="19"/>
-      <c r="BU32" s="19"/>
-      <c r="BV32" s="19"/>
-      <c r="BW32" s="19"/>
-      <c r="BX32" s="19"/>
-      <c r="BY32" s="19"/>
-      <c r="BZ32" s="19"/>
-      <c r="CA32" s="80">
+      <c r="U32" s="18"/>
+      <c r="V32" s="18"/>
+      <c r="W32" s="18"/>
+      <c r="X32" s="18"/>
+      <c r="Y32" s="18"/>
+      <c r="Z32" s="18"/>
+      <c r="AA32" s="18"/>
+      <c r="AB32" s="18"/>
+      <c r="AC32" s="18"/>
+      <c r="AD32" s="18"/>
+      <c r="AE32" s="18"/>
+      <c r="AF32" s="32"/>
+      <c r="AG32" s="32"/>
+      <c r="AH32" s="32"/>
+      <c r="AI32" s="32"/>
+      <c r="AJ32" s="32"/>
+      <c r="AK32" s="18"/>
+      <c r="AL32" s="18"/>
+      <c r="AM32" s="18"/>
+      <c r="AN32" s="19"/>
+      <c r="AO32" s="19"/>
+      <c r="AP32" s="19"/>
+      <c r="AQ32" s="18"/>
+      <c r="AR32" s="18"/>
+      <c r="AS32" s="18"/>
+      <c r="AT32" s="18"/>
+      <c r="AU32" s="18"/>
+      <c r="AV32" s="18"/>
+      <c r="AW32" s="18"/>
+      <c r="AX32" s="18"/>
+      <c r="AY32" s="18"/>
+      <c r="AZ32" s="18"/>
+      <c r="BA32" s="18"/>
+      <c r="BB32" s="18"/>
+      <c r="BC32" s="18"/>
+      <c r="BD32" s="18"/>
+      <c r="BE32" s="18"/>
+      <c r="BF32" s="18"/>
+      <c r="BG32" s="18"/>
+      <c r="BH32" s="18"/>
+      <c r="BI32" s="18"/>
+      <c r="BJ32" s="18"/>
+      <c r="BK32" s="18"/>
+      <c r="BL32" s="18"/>
+      <c r="BM32" s="18"/>
+      <c r="BN32" s="18"/>
+      <c r="BO32" s="18"/>
+      <c r="BP32" s="18"/>
+      <c r="BQ32" s="18"/>
+      <c r="BR32" s="18"/>
+      <c r="BS32" s="18"/>
+      <c r="BT32" s="18"/>
+      <c r="BU32" s="18"/>
+      <c r="BV32" s="18"/>
+      <c r="BW32" s="18"/>
+      <c r="BX32" s="18"/>
+      <c r="BY32" s="18"/>
+      <c r="BZ32" s="18"/>
+      <c r="CA32" s="74">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="CB32" s="80">
+      <c r="CB32" s="74">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="CC32" s="21"/>
-      <c r="CD32" s="19"/>
-      <c r="CE32" s="19"/>
-      <c r="CF32" s="19"/>
-      <c r="CG32" s="19"/>
-      <c r="CH32" s="19"/>
-      <c r="CI32" s="35"/>
-      <c r="CJ32" s="22"/>
-      <c r="CK32" s="17"/>
+      <c r="CC32" s="20"/>
+      <c r="CD32" s="18"/>
+      <c r="CE32" s="18"/>
+      <c r="CF32" s="18"/>
+      <c r="CG32" s="18"/>
+      <c r="CH32" s="18"/>
+      <c r="CI32" s="140"/>
+      <c r="CJ32" s="135"/>
+      <c r="CK32" s="16"/>
     </row>
     <row r="33" spans="1:89" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="93" t="s">
+      <c r="A33" s="117" t="s">
         <v>95</v>
       </c>
       <c r="B33" s="12" t="s">
@@ -5787,7 +5822,7 @@
       <c r="K33" s="13"/>
       <c r="L33" s="13"/>
       <c r="M33" s="13"/>
-      <c r="N33" s="86">
+      <c r="N33" s="77">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -5796,7 +5831,7 @@
       <c r="Q33" s="13"/>
       <c r="R33" s="13"/>
       <c r="S33" s="13"/>
-      <c r="T33" s="86">
+      <c r="T33" s="77">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -5811,11 +5846,11 @@
       <c r="AC33" s="13"/>
       <c r="AD33" s="13"/>
       <c r="AE33" s="13"/>
-      <c r="AF33" s="33"/>
-      <c r="AG33" s="33"/>
-      <c r="AH33" s="33"/>
-      <c r="AI33" s="33"/>
-      <c r="AJ33" s="33"/>
+      <c r="AF33" s="30"/>
+      <c r="AG33" s="30"/>
+      <c r="AH33" s="30"/>
+      <c r="AI33" s="30"/>
+      <c r="AJ33" s="30"/>
       <c r="AK33" s="13"/>
       <c r="AL33" s="13"/>
       <c r="AM33" s="13"/>
@@ -5858,11 +5893,11 @@
       <c r="BX33" s="13"/>
       <c r="BY33" s="13"/>
       <c r="BZ33" s="13"/>
-      <c r="CA33" s="86">
+      <c r="CA33" s="77">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="CB33" s="86">
+      <c r="CB33" s="77">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -5872,1749 +5907,1749 @@
       <c r="CF33" s="13"/>
       <c r="CG33" s="13"/>
       <c r="CH33" s="13"/>
-      <c r="CI33" s="33"/>
-      <c r="CJ33" s="16"/>
-      <c r="CK33" s="17"/>
+      <c r="CI33" s="139"/>
+      <c r="CJ33" s="133"/>
+      <c r="CK33" s="16"/>
     </row>
     <row r="34" spans="1:89" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="94"/>
-      <c r="B34" s="49">
+      <c r="A34" s="118"/>
+      <c r="B34" s="45">
         <v>1</v>
       </c>
-      <c r="C34" s="44"/>
-      <c r="D34" s="44"/>
-      <c r="E34" s="44"/>
-      <c r="F34" s="44"/>
-      <c r="G34" s="44"/>
-      <c r="H34" s="44"/>
-      <c r="I34" s="44"/>
-      <c r="J34" s="44"/>
-      <c r="K34" s="44"/>
-      <c r="L34" s="44"/>
-      <c r="M34" s="44"/>
-      <c r="N34" s="88">
+      <c r="C34" s="41"/>
+      <c r="D34" s="41"/>
+      <c r="E34" s="41"/>
+      <c r="F34" s="41"/>
+      <c r="G34" s="41"/>
+      <c r="H34" s="41"/>
+      <c r="I34" s="41"/>
+      <c r="J34" s="41"/>
+      <c r="K34" s="41"/>
+      <c r="L34" s="41"/>
+      <c r="M34" s="41"/>
+      <c r="N34" s="79">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O34" s="44"/>
-      <c r="P34" s="44"/>
-      <c r="Q34" s="44"/>
-      <c r="R34" s="44"/>
-      <c r="S34" s="44"/>
-      <c r="T34" s="88">
+      <c r="O34" s="41"/>
+      <c r="P34" s="41"/>
+      <c r="Q34" s="41"/>
+      <c r="R34" s="41"/>
+      <c r="S34" s="41"/>
+      <c r="T34" s="79">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U34" s="44"/>
-      <c r="V34" s="44"/>
-      <c r="W34" s="44"/>
-      <c r="X34" s="44"/>
-      <c r="Y34" s="44"/>
-      <c r="Z34" s="44"/>
-      <c r="AA34" s="44"/>
-      <c r="AB34" s="44"/>
-      <c r="AC34" s="44"/>
-      <c r="AD34" s="44"/>
-      <c r="AE34" s="44"/>
-      <c r="AF34" s="47"/>
-      <c r="AG34" s="47"/>
-      <c r="AH34" s="47"/>
-      <c r="AI34" s="47"/>
-      <c r="AJ34" s="47"/>
-      <c r="AK34" s="44"/>
-      <c r="AL34" s="44"/>
-      <c r="AM34" s="44"/>
-      <c r="AN34" s="45"/>
-      <c r="AO34" s="45"/>
-      <c r="AP34" s="45"/>
-      <c r="AQ34" s="44"/>
-      <c r="AR34" s="44"/>
-      <c r="AS34" s="44"/>
-      <c r="AT34" s="44"/>
-      <c r="AU34" s="44"/>
-      <c r="AV34" s="44"/>
-      <c r="AW34" s="44"/>
-      <c r="AX34" s="44"/>
-      <c r="AY34" s="44"/>
-      <c r="AZ34" s="44"/>
-      <c r="BA34" s="44"/>
-      <c r="BB34" s="44"/>
-      <c r="BC34" s="44"/>
-      <c r="BD34" s="44"/>
-      <c r="BE34" s="44"/>
-      <c r="BF34" s="44"/>
-      <c r="BG34" s="44"/>
-      <c r="BH34" s="44"/>
-      <c r="BI34" s="44"/>
-      <c r="BJ34" s="44"/>
-      <c r="BK34" s="44"/>
-      <c r="BL34" s="44"/>
-      <c r="BM34" s="44"/>
-      <c r="BN34" s="44"/>
-      <c r="BO34" s="44"/>
-      <c r="BP34" s="44"/>
-      <c r="BQ34" s="44"/>
-      <c r="BR34" s="44"/>
-      <c r="BS34" s="44"/>
-      <c r="BT34" s="44"/>
-      <c r="BU34" s="44"/>
-      <c r="BV34" s="44"/>
-      <c r="BW34" s="44"/>
-      <c r="BX34" s="44"/>
-      <c r="BY34" s="44"/>
-      <c r="BZ34" s="44"/>
-      <c r="CA34" s="88">
+      <c r="U34" s="41"/>
+      <c r="V34" s="41"/>
+      <c r="W34" s="41"/>
+      <c r="X34" s="41"/>
+      <c r="Y34" s="41"/>
+      <c r="Z34" s="41"/>
+      <c r="AA34" s="41"/>
+      <c r="AB34" s="41"/>
+      <c r="AC34" s="41"/>
+      <c r="AD34" s="41"/>
+      <c r="AE34" s="41"/>
+      <c r="AF34" s="44"/>
+      <c r="AG34" s="44"/>
+      <c r="AH34" s="44"/>
+      <c r="AI34" s="44"/>
+      <c r="AJ34" s="44"/>
+      <c r="AK34" s="41"/>
+      <c r="AL34" s="41"/>
+      <c r="AM34" s="41"/>
+      <c r="AN34" s="42"/>
+      <c r="AO34" s="42"/>
+      <c r="AP34" s="42"/>
+      <c r="AQ34" s="41"/>
+      <c r="AR34" s="41"/>
+      <c r="AS34" s="41"/>
+      <c r="AT34" s="41"/>
+      <c r="AU34" s="41"/>
+      <c r="AV34" s="41"/>
+      <c r="AW34" s="41"/>
+      <c r="AX34" s="41"/>
+      <c r="AY34" s="41"/>
+      <c r="AZ34" s="41"/>
+      <c r="BA34" s="41"/>
+      <c r="BB34" s="41"/>
+      <c r="BC34" s="41"/>
+      <c r="BD34" s="41"/>
+      <c r="BE34" s="41"/>
+      <c r="BF34" s="41"/>
+      <c r="BG34" s="41"/>
+      <c r="BH34" s="41"/>
+      <c r="BI34" s="41"/>
+      <c r="BJ34" s="41"/>
+      <c r="BK34" s="41"/>
+      <c r="BL34" s="41"/>
+      <c r="BM34" s="41"/>
+      <c r="BN34" s="41"/>
+      <c r="BO34" s="41"/>
+      <c r="BP34" s="41"/>
+      <c r="BQ34" s="41"/>
+      <c r="BR34" s="41"/>
+      <c r="BS34" s="41"/>
+      <c r="BT34" s="41"/>
+      <c r="BU34" s="41"/>
+      <c r="BV34" s="41"/>
+      <c r="BW34" s="41"/>
+      <c r="BX34" s="41"/>
+      <c r="BY34" s="41"/>
+      <c r="BZ34" s="41"/>
+      <c r="CA34" s="79">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="CB34" s="88">
+      <c r="CB34" s="79">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="CC34" s="46"/>
-      <c r="CD34" s="44"/>
-      <c r="CE34" s="44"/>
-      <c r="CF34" s="44"/>
-      <c r="CG34" s="44"/>
-      <c r="CH34" s="44"/>
-      <c r="CI34" s="47"/>
-      <c r="CJ34" s="48"/>
-      <c r="CK34" s="17"/>
+      <c r="CC34" s="43"/>
+      <c r="CD34" s="41"/>
+      <c r="CE34" s="41"/>
+      <c r="CF34" s="41"/>
+      <c r="CG34" s="41"/>
+      <c r="CH34" s="41"/>
+      <c r="CI34" s="143"/>
+      <c r="CJ34" s="144"/>
+      <c r="CK34" s="16"/>
     </row>
     <row r="35" spans="1:89" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="94"/>
-      <c r="B35" s="34">
+      <c r="A35" s="118"/>
+      <c r="B35" s="31">
         <v>2</v>
       </c>
-      <c r="C35" s="19"/>
-      <c r="D35" s="19"/>
-      <c r="E35" s="19"/>
-      <c r="F35" s="19"/>
-      <c r="G35" s="19"/>
-      <c r="H35" s="19"/>
-      <c r="I35" s="19"/>
-      <c r="J35" s="19"/>
-      <c r="K35" s="19"/>
-      <c r="L35" s="19"/>
-      <c r="M35" s="19"/>
-      <c r="N35" s="80">
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="18"/>
+      <c r="H35" s="18"/>
+      <c r="I35" s="18"/>
+      <c r="J35" s="18"/>
+      <c r="K35" s="18"/>
+      <c r="L35" s="18"/>
+      <c r="M35" s="18"/>
+      <c r="N35" s="74">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O35" s="19"/>
-      <c r="P35" s="19"/>
-      <c r="Q35" s="19"/>
-      <c r="R35" s="19"/>
-      <c r="S35" s="19"/>
-      <c r="T35" s="80">
+      <c r="O35" s="18"/>
+      <c r="P35" s="18"/>
+      <c r="Q35" s="18"/>
+      <c r="R35" s="18"/>
+      <c r="S35" s="18"/>
+      <c r="T35" s="74">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U35" s="19"/>
-      <c r="V35" s="19"/>
-      <c r="W35" s="19"/>
-      <c r="X35" s="19"/>
-      <c r="Y35" s="19"/>
-      <c r="Z35" s="19"/>
-      <c r="AA35" s="19"/>
-      <c r="AB35" s="19"/>
-      <c r="AC35" s="19"/>
-      <c r="AD35" s="19"/>
-      <c r="AE35" s="19"/>
-      <c r="AF35" s="35"/>
-      <c r="AG35" s="35"/>
-      <c r="AH35" s="35"/>
-      <c r="AI35" s="35"/>
-      <c r="AJ35" s="35"/>
-      <c r="AK35" s="19"/>
-      <c r="AL35" s="19"/>
-      <c r="AM35" s="19"/>
-      <c r="AN35" s="20"/>
-      <c r="AO35" s="20"/>
-      <c r="AP35" s="20"/>
-      <c r="AQ35" s="19"/>
-      <c r="AR35" s="19"/>
-      <c r="AS35" s="19"/>
-      <c r="AT35" s="19"/>
-      <c r="AU35" s="19"/>
-      <c r="AV35" s="19"/>
-      <c r="AW35" s="19"/>
-      <c r="AX35" s="19"/>
-      <c r="AY35" s="19"/>
-      <c r="AZ35" s="19"/>
-      <c r="BA35" s="19"/>
-      <c r="BB35" s="19"/>
-      <c r="BC35" s="19"/>
-      <c r="BD35" s="19"/>
-      <c r="BE35" s="19"/>
-      <c r="BF35" s="19"/>
-      <c r="BG35" s="19"/>
-      <c r="BH35" s="19"/>
-      <c r="BI35" s="19"/>
-      <c r="BJ35" s="19"/>
-      <c r="BK35" s="19"/>
-      <c r="BL35" s="19"/>
-      <c r="BM35" s="19"/>
-      <c r="BN35" s="19"/>
-      <c r="BO35" s="19"/>
-      <c r="BP35" s="19"/>
-      <c r="BQ35" s="19"/>
-      <c r="BR35" s="19"/>
-      <c r="BS35" s="19"/>
-      <c r="BT35" s="19"/>
-      <c r="BU35" s="19"/>
-      <c r="BV35" s="19"/>
-      <c r="BW35" s="19"/>
-      <c r="BX35" s="19"/>
-      <c r="BY35" s="19"/>
-      <c r="BZ35" s="19"/>
-      <c r="CA35" s="80">
+      <c r="U35" s="18"/>
+      <c r="V35" s="18"/>
+      <c r="W35" s="18"/>
+      <c r="X35" s="18"/>
+      <c r="Y35" s="18"/>
+      <c r="Z35" s="18"/>
+      <c r="AA35" s="18"/>
+      <c r="AB35" s="18"/>
+      <c r="AC35" s="18"/>
+      <c r="AD35" s="18"/>
+      <c r="AE35" s="18"/>
+      <c r="AF35" s="32"/>
+      <c r="AG35" s="32"/>
+      <c r="AH35" s="32"/>
+      <c r="AI35" s="32"/>
+      <c r="AJ35" s="32"/>
+      <c r="AK35" s="18"/>
+      <c r="AL35" s="18"/>
+      <c r="AM35" s="18"/>
+      <c r="AN35" s="19"/>
+      <c r="AO35" s="19"/>
+      <c r="AP35" s="19"/>
+      <c r="AQ35" s="18"/>
+      <c r="AR35" s="18"/>
+      <c r="AS35" s="18"/>
+      <c r="AT35" s="18"/>
+      <c r="AU35" s="18"/>
+      <c r="AV35" s="18"/>
+      <c r="AW35" s="18"/>
+      <c r="AX35" s="18"/>
+      <c r="AY35" s="18"/>
+      <c r="AZ35" s="18"/>
+      <c r="BA35" s="18"/>
+      <c r="BB35" s="18"/>
+      <c r="BC35" s="18"/>
+      <c r="BD35" s="18"/>
+      <c r="BE35" s="18"/>
+      <c r="BF35" s="18"/>
+      <c r="BG35" s="18"/>
+      <c r="BH35" s="18"/>
+      <c r="BI35" s="18"/>
+      <c r="BJ35" s="18"/>
+      <c r="BK35" s="18"/>
+      <c r="BL35" s="18"/>
+      <c r="BM35" s="18"/>
+      <c r="BN35" s="18"/>
+      <c r="BO35" s="18"/>
+      <c r="BP35" s="18"/>
+      <c r="BQ35" s="18"/>
+      <c r="BR35" s="18"/>
+      <c r="BS35" s="18"/>
+      <c r="BT35" s="18"/>
+      <c r="BU35" s="18"/>
+      <c r="BV35" s="18"/>
+      <c r="BW35" s="18"/>
+      <c r="BX35" s="18"/>
+      <c r="BY35" s="18"/>
+      <c r="BZ35" s="18"/>
+      <c r="CA35" s="74">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="CB35" s="80">
+      <c r="CB35" s="74">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="CC35" s="21"/>
-      <c r="CD35" s="19"/>
-      <c r="CE35" s="19"/>
-      <c r="CF35" s="19"/>
-      <c r="CG35" s="19"/>
-      <c r="CH35" s="19"/>
-      <c r="CI35" s="35"/>
-      <c r="CJ35" s="22"/>
-      <c r="CK35" s="17"/>
+      <c r="CC35" s="20"/>
+      <c r="CD35" s="18"/>
+      <c r="CE35" s="18"/>
+      <c r="CF35" s="18"/>
+      <c r="CG35" s="18"/>
+      <c r="CH35" s="18"/>
+      <c r="CI35" s="140"/>
+      <c r="CJ35" s="135"/>
+      <c r="CK35" s="16"/>
     </row>
     <row r="36" spans="1:89" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="94"/>
-      <c r="B36" s="34">
+      <c r="A36" s="118"/>
+      <c r="B36" s="31">
         <v>3</v>
       </c>
-      <c r="C36" s="19"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="19"/>
-      <c r="F36" s="19"/>
-      <c r="G36" s="19"/>
-      <c r="H36" s="19"/>
-      <c r="I36" s="19"/>
-      <c r="J36" s="19"/>
-      <c r="K36" s="19"/>
-      <c r="L36" s="19"/>
-      <c r="M36" s="19"/>
-      <c r="N36" s="80">
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="18"/>
+      <c r="H36" s="18"/>
+      <c r="I36" s="18"/>
+      <c r="J36" s="18"/>
+      <c r="K36" s="18"/>
+      <c r="L36" s="18"/>
+      <c r="M36" s="18"/>
+      <c r="N36" s="74">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O36" s="19"/>
-      <c r="P36" s="19"/>
-      <c r="Q36" s="19"/>
-      <c r="R36" s="19"/>
-      <c r="S36" s="19"/>
-      <c r="T36" s="80">
+      <c r="O36" s="18"/>
+      <c r="P36" s="18"/>
+      <c r="Q36" s="18"/>
+      <c r="R36" s="18"/>
+      <c r="S36" s="18"/>
+      <c r="T36" s="74">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U36" s="19"/>
-      <c r="V36" s="19"/>
-      <c r="W36" s="19"/>
-      <c r="X36" s="19"/>
-      <c r="Y36" s="19"/>
-      <c r="Z36" s="19"/>
-      <c r="AA36" s="19"/>
-      <c r="AB36" s="19"/>
-      <c r="AC36" s="19"/>
-      <c r="AD36" s="19"/>
-      <c r="AE36" s="19"/>
-      <c r="AF36" s="19"/>
-      <c r="AG36" s="19"/>
-      <c r="AH36" s="19"/>
-      <c r="AI36" s="19"/>
-      <c r="AJ36" s="19"/>
-      <c r="AK36" s="19"/>
-      <c r="AL36" s="19"/>
-      <c r="AM36" s="19"/>
-      <c r="AN36" s="20"/>
-      <c r="AO36" s="20"/>
-      <c r="AP36" s="20"/>
-      <c r="AQ36" s="19"/>
-      <c r="AR36" s="19"/>
-      <c r="AS36" s="19"/>
-      <c r="AT36" s="19"/>
-      <c r="AU36" s="19"/>
-      <c r="AV36" s="19"/>
-      <c r="AW36" s="19"/>
-      <c r="AX36" s="19"/>
-      <c r="AY36" s="19"/>
-      <c r="AZ36" s="19"/>
-      <c r="BA36" s="19"/>
-      <c r="BB36" s="19"/>
-      <c r="BC36" s="19"/>
-      <c r="BD36" s="19"/>
-      <c r="BE36" s="19"/>
-      <c r="BF36" s="19"/>
-      <c r="BG36" s="19"/>
-      <c r="BH36" s="19"/>
-      <c r="BI36" s="19"/>
-      <c r="BJ36" s="19"/>
-      <c r="BK36" s="19"/>
-      <c r="BL36" s="19"/>
-      <c r="BM36" s="19"/>
-      <c r="BN36" s="19"/>
-      <c r="BO36" s="19"/>
-      <c r="BP36" s="19"/>
-      <c r="BQ36" s="19"/>
-      <c r="BR36" s="19"/>
-      <c r="BS36" s="19"/>
-      <c r="BT36" s="19"/>
-      <c r="BU36" s="19"/>
-      <c r="BV36" s="19"/>
-      <c r="BW36" s="19"/>
-      <c r="BX36" s="19"/>
-      <c r="BY36" s="19"/>
-      <c r="BZ36" s="19"/>
-      <c r="CA36" s="80">
+      <c r="U36" s="18"/>
+      <c r="V36" s="18"/>
+      <c r="W36" s="18"/>
+      <c r="X36" s="18"/>
+      <c r="Y36" s="18"/>
+      <c r="Z36" s="18"/>
+      <c r="AA36" s="18"/>
+      <c r="AB36" s="18"/>
+      <c r="AC36" s="18"/>
+      <c r="AD36" s="18"/>
+      <c r="AE36" s="18"/>
+      <c r="AF36" s="18"/>
+      <c r="AG36" s="18"/>
+      <c r="AH36" s="18"/>
+      <c r="AI36" s="18"/>
+      <c r="AJ36" s="18"/>
+      <c r="AK36" s="18"/>
+      <c r="AL36" s="18"/>
+      <c r="AM36" s="18"/>
+      <c r="AN36" s="19"/>
+      <c r="AO36" s="19"/>
+      <c r="AP36" s="19"/>
+      <c r="AQ36" s="18"/>
+      <c r="AR36" s="18"/>
+      <c r="AS36" s="18"/>
+      <c r="AT36" s="18"/>
+      <c r="AU36" s="18"/>
+      <c r="AV36" s="18"/>
+      <c r="AW36" s="18"/>
+      <c r="AX36" s="18"/>
+      <c r="AY36" s="18"/>
+      <c r="AZ36" s="18"/>
+      <c r="BA36" s="18"/>
+      <c r="BB36" s="18"/>
+      <c r="BC36" s="18"/>
+      <c r="BD36" s="18"/>
+      <c r="BE36" s="18"/>
+      <c r="BF36" s="18"/>
+      <c r="BG36" s="18"/>
+      <c r="BH36" s="18"/>
+      <c r="BI36" s="18"/>
+      <c r="BJ36" s="18"/>
+      <c r="BK36" s="18"/>
+      <c r="BL36" s="18"/>
+      <c r="BM36" s="18"/>
+      <c r="BN36" s="18"/>
+      <c r="BO36" s="18"/>
+      <c r="BP36" s="18"/>
+      <c r="BQ36" s="18"/>
+      <c r="BR36" s="18"/>
+      <c r="BS36" s="18"/>
+      <c r="BT36" s="18"/>
+      <c r="BU36" s="18"/>
+      <c r="BV36" s="18"/>
+      <c r="BW36" s="18"/>
+      <c r="BX36" s="18"/>
+      <c r="BY36" s="18"/>
+      <c r="BZ36" s="18"/>
+      <c r="CA36" s="74">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="CB36" s="80">
+      <c r="CB36" s="74">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="CC36" s="21"/>
-      <c r="CD36" s="19"/>
-      <c r="CE36" s="19"/>
-      <c r="CF36" s="19"/>
-      <c r="CG36" s="19"/>
-      <c r="CH36" s="19"/>
-      <c r="CI36" s="35"/>
-      <c r="CJ36" s="22"/>
-      <c r="CK36" s="17"/>
+      <c r="CC36" s="20"/>
+      <c r="CD36" s="18"/>
+      <c r="CE36" s="18"/>
+      <c r="CF36" s="18"/>
+      <c r="CG36" s="18"/>
+      <c r="CH36" s="18"/>
+      <c r="CI36" s="140"/>
+      <c r="CJ36" s="135"/>
+      <c r="CK36" s="16"/>
     </row>
     <row r="37" spans="1:89" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="94"/>
-      <c r="B37" s="34">
+      <c r="A37" s="118"/>
+      <c r="B37" s="31">
         <v>4</v>
       </c>
-      <c r="C37" s="19"/>
-      <c r="D37" s="19"/>
-      <c r="E37" s="19"/>
-      <c r="F37" s="19"/>
-      <c r="G37" s="19"/>
-      <c r="H37" s="19"/>
-      <c r="I37" s="19"/>
-      <c r="J37" s="19"/>
-      <c r="K37" s="19"/>
-      <c r="L37" s="19"/>
-      <c r="M37" s="19"/>
-      <c r="N37" s="80">
+      <c r="C37" s="18"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="18"/>
+      <c r="H37" s="18"/>
+      <c r="I37" s="18"/>
+      <c r="J37" s="18"/>
+      <c r="K37" s="18"/>
+      <c r="L37" s="18"/>
+      <c r="M37" s="18"/>
+      <c r="N37" s="74">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O37" s="19"/>
-      <c r="P37" s="19"/>
-      <c r="Q37" s="19"/>
-      <c r="R37" s="19"/>
-      <c r="S37" s="19"/>
-      <c r="T37" s="80">
+      <c r="O37" s="18"/>
+      <c r="P37" s="18"/>
+      <c r="Q37" s="18"/>
+      <c r="R37" s="18"/>
+      <c r="S37" s="18"/>
+      <c r="T37" s="74">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U37" s="19"/>
-      <c r="V37" s="19"/>
-      <c r="W37" s="19"/>
-      <c r="X37" s="19"/>
-      <c r="Y37" s="19"/>
-      <c r="Z37" s="19"/>
-      <c r="AA37" s="19"/>
-      <c r="AB37" s="19"/>
-      <c r="AC37" s="19"/>
-      <c r="AD37" s="19"/>
-      <c r="AE37" s="19"/>
-      <c r="AF37" s="19"/>
-      <c r="AG37" s="19"/>
-      <c r="AH37" s="19"/>
-      <c r="AI37" s="19"/>
-      <c r="AJ37" s="19"/>
-      <c r="AK37" s="19"/>
-      <c r="AL37" s="19"/>
-      <c r="AM37" s="19"/>
-      <c r="AN37" s="20"/>
-      <c r="AO37" s="20"/>
-      <c r="AP37" s="20"/>
-      <c r="AQ37" s="19"/>
-      <c r="AR37" s="19"/>
-      <c r="AS37" s="19"/>
-      <c r="AT37" s="19"/>
-      <c r="AU37" s="19"/>
-      <c r="AV37" s="19"/>
-      <c r="AW37" s="19"/>
-      <c r="AX37" s="19"/>
-      <c r="AY37" s="19"/>
-      <c r="AZ37" s="19"/>
-      <c r="BA37" s="19"/>
-      <c r="BB37" s="19"/>
-      <c r="BC37" s="19"/>
-      <c r="BD37" s="19"/>
-      <c r="BE37" s="19"/>
-      <c r="BF37" s="19"/>
-      <c r="BG37" s="19"/>
-      <c r="BH37" s="19"/>
-      <c r="BI37" s="19"/>
-      <c r="BJ37" s="19"/>
-      <c r="BK37" s="19"/>
-      <c r="BL37" s="19"/>
-      <c r="BM37" s="19"/>
-      <c r="BN37" s="19"/>
-      <c r="BO37" s="19"/>
-      <c r="BP37" s="19"/>
-      <c r="BQ37" s="19"/>
-      <c r="BR37" s="19"/>
-      <c r="BS37" s="19"/>
-      <c r="BT37" s="19"/>
-      <c r="BU37" s="19"/>
-      <c r="BV37" s="19"/>
-      <c r="BW37" s="19"/>
-      <c r="BX37" s="19"/>
-      <c r="BY37" s="19"/>
-      <c r="BZ37" s="19"/>
-      <c r="CA37" s="80">
+      <c r="U37" s="18"/>
+      <c r="V37" s="18"/>
+      <c r="W37" s="18"/>
+      <c r="X37" s="18"/>
+      <c r="Y37" s="18"/>
+      <c r="Z37" s="18"/>
+      <c r="AA37" s="18"/>
+      <c r="AB37" s="18"/>
+      <c r="AC37" s="18"/>
+      <c r="AD37" s="18"/>
+      <c r="AE37" s="18"/>
+      <c r="AF37" s="18"/>
+      <c r="AG37" s="18"/>
+      <c r="AH37" s="18"/>
+      <c r="AI37" s="18"/>
+      <c r="AJ37" s="18"/>
+      <c r="AK37" s="18"/>
+      <c r="AL37" s="18"/>
+      <c r="AM37" s="18"/>
+      <c r="AN37" s="19"/>
+      <c r="AO37" s="19"/>
+      <c r="AP37" s="19"/>
+      <c r="AQ37" s="18"/>
+      <c r="AR37" s="18"/>
+      <c r="AS37" s="18"/>
+      <c r="AT37" s="18"/>
+      <c r="AU37" s="18"/>
+      <c r="AV37" s="18"/>
+      <c r="AW37" s="18"/>
+      <c r="AX37" s="18"/>
+      <c r="AY37" s="18"/>
+      <c r="AZ37" s="18"/>
+      <c r="BA37" s="18"/>
+      <c r="BB37" s="18"/>
+      <c r="BC37" s="18"/>
+      <c r="BD37" s="18"/>
+      <c r="BE37" s="18"/>
+      <c r="BF37" s="18"/>
+      <c r="BG37" s="18"/>
+      <c r="BH37" s="18"/>
+      <c r="BI37" s="18"/>
+      <c r="BJ37" s="18"/>
+      <c r="BK37" s="18"/>
+      <c r="BL37" s="18"/>
+      <c r="BM37" s="18"/>
+      <c r="BN37" s="18"/>
+      <c r="BO37" s="18"/>
+      <c r="BP37" s="18"/>
+      <c r="BQ37" s="18"/>
+      <c r="BR37" s="18"/>
+      <c r="BS37" s="18"/>
+      <c r="BT37" s="18"/>
+      <c r="BU37" s="18"/>
+      <c r="BV37" s="18"/>
+      <c r="BW37" s="18"/>
+      <c r="BX37" s="18"/>
+      <c r="BY37" s="18"/>
+      <c r="BZ37" s="18"/>
+      <c r="CA37" s="74">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="CB37" s="80">
+      <c r="CB37" s="74">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="CC37" s="21"/>
-      <c r="CD37" s="19"/>
-      <c r="CE37" s="19"/>
-      <c r="CF37" s="19"/>
-      <c r="CG37" s="19"/>
-      <c r="CH37" s="19"/>
-      <c r="CI37" s="35"/>
-      <c r="CJ37" s="22"/>
-      <c r="CK37" s="17"/>
+      <c r="CC37" s="20"/>
+      <c r="CD37" s="18"/>
+      <c r="CE37" s="18"/>
+      <c r="CF37" s="18"/>
+      <c r="CG37" s="18"/>
+      <c r="CH37" s="18"/>
+      <c r="CI37" s="140"/>
+      <c r="CJ37" s="135"/>
+      <c r="CK37" s="16"/>
     </row>
     <row r="38" spans="1:89" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="94"/>
-      <c r="B38" s="34">
+      <c r="A38" s="118"/>
+      <c r="B38" s="31">
         <v>5</v>
       </c>
-      <c r="C38" s="19"/>
-      <c r="D38" s="19"/>
-      <c r="E38" s="19"/>
-      <c r="F38" s="19"/>
-      <c r="G38" s="19"/>
-      <c r="H38" s="19"/>
-      <c r="I38" s="19"/>
-      <c r="J38" s="19"/>
-      <c r="K38" s="19"/>
-      <c r="L38" s="19"/>
-      <c r="M38" s="19"/>
-      <c r="N38" s="80">
+      <c r="C38" s="18"/>
+      <c r="D38" s="18"/>
+      <c r="E38" s="18"/>
+      <c r="F38" s="18"/>
+      <c r="G38" s="18"/>
+      <c r="H38" s="18"/>
+      <c r="I38" s="18"/>
+      <c r="J38" s="18"/>
+      <c r="K38" s="18"/>
+      <c r="L38" s="18"/>
+      <c r="M38" s="18"/>
+      <c r="N38" s="74">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O38" s="19"/>
-      <c r="P38" s="19"/>
-      <c r="Q38" s="19"/>
-      <c r="R38" s="19"/>
-      <c r="S38" s="19"/>
-      <c r="T38" s="80">
+      <c r="O38" s="18"/>
+      <c r="P38" s="18"/>
+      <c r="Q38" s="18"/>
+      <c r="R38" s="18"/>
+      <c r="S38" s="18"/>
+      <c r="T38" s="74">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U38" s="19"/>
-      <c r="V38" s="19"/>
-      <c r="W38" s="19"/>
-      <c r="X38" s="19"/>
-      <c r="Y38" s="19"/>
-      <c r="Z38" s="19"/>
-      <c r="AA38" s="19"/>
-      <c r="AB38" s="19"/>
-      <c r="AC38" s="19"/>
-      <c r="AD38" s="19"/>
-      <c r="AE38" s="19"/>
-      <c r="AF38" s="19"/>
-      <c r="AG38" s="19"/>
-      <c r="AH38" s="19"/>
-      <c r="AI38" s="19"/>
-      <c r="AJ38" s="19"/>
-      <c r="AK38" s="19"/>
-      <c r="AL38" s="19"/>
-      <c r="AM38" s="19"/>
-      <c r="AN38" s="20"/>
-      <c r="AO38" s="20"/>
-      <c r="AP38" s="20"/>
-      <c r="AQ38" s="19"/>
-      <c r="AR38" s="19"/>
-      <c r="AS38" s="19"/>
-      <c r="AT38" s="19"/>
-      <c r="AU38" s="19"/>
-      <c r="AV38" s="19"/>
-      <c r="AW38" s="19"/>
-      <c r="AX38" s="19"/>
-      <c r="AY38" s="19"/>
-      <c r="AZ38" s="19"/>
-      <c r="BA38" s="19"/>
-      <c r="BB38" s="19"/>
-      <c r="BC38" s="19"/>
-      <c r="BD38" s="19"/>
-      <c r="BE38" s="19"/>
-      <c r="BF38" s="19"/>
-      <c r="BG38" s="19"/>
-      <c r="BH38" s="19"/>
-      <c r="BI38" s="19"/>
-      <c r="BJ38" s="19"/>
-      <c r="BK38" s="19"/>
-      <c r="BL38" s="19"/>
-      <c r="BM38" s="19"/>
-      <c r="BN38" s="19"/>
-      <c r="BO38" s="19"/>
-      <c r="BP38" s="19"/>
-      <c r="BQ38" s="19"/>
-      <c r="BR38" s="19"/>
-      <c r="BS38" s="19"/>
-      <c r="BT38" s="19"/>
-      <c r="BU38" s="19"/>
-      <c r="BV38" s="19"/>
-      <c r="BW38" s="19"/>
-      <c r="BX38" s="19"/>
-      <c r="BY38" s="19"/>
-      <c r="BZ38" s="19"/>
-      <c r="CA38" s="80">
+      <c r="U38" s="18"/>
+      <c r="V38" s="18"/>
+      <c r="W38" s="18"/>
+      <c r="X38" s="18"/>
+      <c r="Y38" s="18"/>
+      <c r="Z38" s="18"/>
+      <c r="AA38" s="18"/>
+      <c r="AB38" s="18"/>
+      <c r="AC38" s="18"/>
+      <c r="AD38" s="18"/>
+      <c r="AE38" s="18"/>
+      <c r="AF38" s="18"/>
+      <c r="AG38" s="18"/>
+      <c r="AH38" s="18"/>
+      <c r="AI38" s="18"/>
+      <c r="AJ38" s="18"/>
+      <c r="AK38" s="18"/>
+      <c r="AL38" s="18"/>
+      <c r="AM38" s="18"/>
+      <c r="AN38" s="19"/>
+      <c r="AO38" s="19"/>
+      <c r="AP38" s="19"/>
+      <c r="AQ38" s="18"/>
+      <c r="AR38" s="18"/>
+      <c r="AS38" s="18"/>
+      <c r="AT38" s="18"/>
+      <c r="AU38" s="18"/>
+      <c r="AV38" s="18"/>
+      <c r="AW38" s="18"/>
+      <c r="AX38" s="18"/>
+      <c r="AY38" s="18"/>
+      <c r="AZ38" s="18"/>
+      <c r="BA38" s="18"/>
+      <c r="BB38" s="18"/>
+      <c r="BC38" s="18"/>
+      <c r="BD38" s="18"/>
+      <c r="BE38" s="18"/>
+      <c r="BF38" s="18"/>
+      <c r="BG38" s="18"/>
+      <c r="BH38" s="18"/>
+      <c r="BI38" s="18"/>
+      <c r="BJ38" s="18"/>
+      <c r="BK38" s="18"/>
+      <c r="BL38" s="18"/>
+      <c r="BM38" s="18"/>
+      <c r="BN38" s="18"/>
+      <c r="BO38" s="18"/>
+      <c r="BP38" s="18"/>
+      <c r="BQ38" s="18"/>
+      <c r="BR38" s="18"/>
+      <c r="BS38" s="18"/>
+      <c r="BT38" s="18"/>
+      <c r="BU38" s="18"/>
+      <c r="BV38" s="18"/>
+      <c r="BW38" s="18"/>
+      <c r="BX38" s="18"/>
+      <c r="BY38" s="18"/>
+      <c r="BZ38" s="18"/>
+      <c r="CA38" s="74">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="CB38" s="80">
+      <c r="CB38" s="74">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="CC38" s="21"/>
-      <c r="CD38" s="19"/>
-      <c r="CE38" s="19"/>
-      <c r="CF38" s="19"/>
-      <c r="CG38" s="19"/>
-      <c r="CH38" s="19"/>
-      <c r="CI38" s="35"/>
-      <c r="CJ38" s="22"/>
-      <c r="CK38" s="17"/>
+      <c r="CC38" s="20"/>
+      <c r="CD38" s="18"/>
+      <c r="CE38" s="18"/>
+      <c r="CF38" s="18"/>
+      <c r="CG38" s="18"/>
+      <c r="CH38" s="18"/>
+      <c r="CI38" s="140"/>
+      <c r="CJ38" s="135"/>
+      <c r="CK38" s="16"/>
     </row>
     <row r="39" spans="1:89" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="94"/>
-      <c r="B39" s="36" t="s">
+      <c r="A39" s="118"/>
+      <c r="B39" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="C39" s="19"/>
-      <c r="D39" s="19"/>
-      <c r="E39" s="19"/>
-      <c r="F39" s="19"/>
-      <c r="G39" s="19"/>
-      <c r="H39" s="19"/>
-      <c r="I39" s="19"/>
-      <c r="J39" s="19"/>
-      <c r="K39" s="19"/>
-      <c r="L39" s="19"/>
-      <c r="M39" s="19"/>
-      <c r="N39" s="80">
+      <c r="C39" s="18"/>
+      <c r="D39" s="18"/>
+      <c r="E39" s="18"/>
+      <c r="F39" s="18"/>
+      <c r="G39" s="18"/>
+      <c r="H39" s="18"/>
+      <c r="I39" s="18"/>
+      <c r="J39" s="18"/>
+      <c r="K39" s="18"/>
+      <c r="L39" s="18"/>
+      <c r="M39" s="18"/>
+      <c r="N39" s="74">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O39" s="19"/>
-      <c r="P39" s="19"/>
-      <c r="Q39" s="19"/>
-      <c r="R39" s="19"/>
-      <c r="S39" s="19"/>
-      <c r="T39" s="80">
+      <c r="O39" s="18"/>
+      <c r="P39" s="18"/>
+      <c r="Q39" s="18"/>
+      <c r="R39" s="18"/>
+      <c r="S39" s="18"/>
+      <c r="T39" s="74">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U39" s="19"/>
-      <c r="V39" s="19"/>
-      <c r="W39" s="19"/>
-      <c r="X39" s="19"/>
-      <c r="Y39" s="19"/>
-      <c r="Z39" s="19"/>
-      <c r="AA39" s="19"/>
-      <c r="AB39" s="19"/>
-      <c r="AC39" s="19"/>
-      <c r="AD39" s="19"/>
-      <c r="AE39" s="19"/>
-      <c r="AF39" s="19"/>
-      <c r="AG39" s="19"/>
-      <c r="AH39" s="19"/>
-      <c r="AI39" s="19"/>
-      <c r="AJ39" s="19"/>
-      <c r="AK39" s="19"/>
-      <c r="AL39" s="19"/>
-      <c r="AM39" s="19"/>
-      <c r="AN39" s="20"/>
-      <c r="AO39" s="20"/>
-      <c r="AP39" s="20"/>
-      <c r="AQ39" s="19"/>
-      <c r="AR39" s="19"/>
-      <c r="AS39" s="19"/>
-      <c r="AT39" s="19"/>
-      <c r="AU39" s="19"/>
-      <c r="AV39" s="19"/>
-      <c r="AW39" s="19"/>
-      <c r="AX39" s="19"/>
-      <c r="AY39" s="19"/>
-      <c r="AZ39" s="19"/>
-      <c r="BA39" s="19"/>
-      <c r="BB39" s="19"/>
-      <c r="BC39" s="19"/>
-      <c r="BD39" s="19"/>
-      <c r="BE39" s="19"/>
-      <c r="BF39" s="19"/>
-      <c r="BG39" s="19"/>
-      <c r="BH39" s="19"/>
-      <c r="BI39" s="19"/>
-      <c r="BJ39" s="19"/>
-      <c r="BK39" s="19"/>
-      <c r="BL39" s="19"/>
-      <c r="BM39" s="19"/>
-      <c r="BN39" s="19"/>
-      <c r="BO39" s="19"/>
-      <c r="BP39" s="19"/>
-      <c r="BQ39" s="19"/>
-      <c r="BR39" s="19"/>
-      <c r="BS39" s="19"/>
-      <c r="BT39" s="19"/>
-      <c r="BU39" s="19"/>
-      <c r="BV39" s="19"/>
-      <c r="BW39" s="19"/>
-      <c r="BX39" s="19"/>
-      <c r="BY39" s="19"/>
-      <c r="BZ39" s="19"/>
-      <c r="CA39" s="80">
+      <c r="U39" s="18"/>
+      <c r="V39" s="18"/>
+      <c r="W39" s="18"/>
+      <c r="X39" s="18"/>
+      <c r="Y39" s="18"/>
+      <c r="Z39" s="18"/>
+      <c r="AA39" s="18"/>
+      <c r="AB39" s="18"/>
+      <c r="AC39" s="18"/>
+      <c r="AD39" s="18"/>
+      <c r="AE39" s="18"/>
+      <c r="AF39" s="18"/>
+      <c r="AG39" s="18"/>
+      <c r="AH39" s="18"/>
+      <c r="AI39" s="18"/>
+      <c r="AJ39" s="18"/>
+      <c r="AK39" s="18"/>
+      <c r="AL39" s="18"/>
+      <c r="AM39" s="18"/>
+      <c r="AN39" s="19"/>
+      <c r="AO39" s="19"/>
+      <c r="AP39" s="19"/>
+      <c r="AQ39" s="18"/>
+      <c r="AR39" s="18"/>
+      <c r="AS39" s="18"/>
+      <c r="AT39" s="18"/>
+      <c r="AU39" s="18"/>
+      <c r="AV39" s="18"/>
+      <c r="AW39" s="18"/>
+      <c r="AX39" s="18"/>
+      <c r="AY39" s="18"/>
+      <c r="AZ39" s="18"/>
+      <c r="BA39" s="18"/>
+      <c r="BB39" s="18"/>
+      <c r="BC39" s="18"/>
+      <c r="BD39" s="18"/>
+      <c r="BE39" s="18"/>
+      <c r="BF39" s="18"/>
+      <c r="BG39" s="18"/>
+      <c r="BH39" s="18"/>
+      <c r="BI39" s="18"/>
+      <c r="BJ39" s="18"/>
+      <c r="BK39" s="18"/>
+      <c r="BL39" s="18"/>
+      <c r="BM39" s="18"/>
+      <c r="BN39" s="18"/>
+      <c r="BO39" s="18"/>
+      <c r="BP39" s="18"/>
+      <c r="BQ39" s="18"/>
+      <c r="BR39" s="18"/>
+      <c r="BS39" s="18"/>
+      <c r="BT39" s="18"/>
+      <c r="BU39" s="18"/>
+      <c r="BV39" s="18"/>
+      <c r="BW39" s="18"/>
+      <c r="BX39" s="18"/>
+      <c r="BY39" s="18"/>
+      <c r="BZ39" s="18"/>
+      <c r="CA39" s="74">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="CB39" s="80">
+      <c r="CB39" s="74">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="CC39" s="21"/>
-      <c r="CD39" s="19"/>
-      <c r="CE39" s="19"/>
-      <c r="CF39" s="19"/>
-      <c r="CG39" s="19"/>
-      <c r="CH39" s="19"/>
-      <c r="CI39" s="35"/>
-      <c r="CJ39" s="22"/>
-      <c r="CK39" s="17"/>
+      <c r="CC39" s="20"/>
+      <c r="CD39" s="18"/>
+      <c r="CE39" s="18"/>
+      <c r="CF39" s="18"/>
+      <c r="CG39" s="18"/>
+      <c r="CH39" s="18"/>
+      <c r="CI39" s="140"/>
+      <c r="CJ39" s="135"/>
+      <c r="CK39" s="16"/>
     </row>
     <row r="40" spans="1:89" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="94"/>
-      <c r="B40" s="37" t="s">
+      <c r="A40" s="118"/>
+      <c r="B40" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="C40" s="80">
+      <c r="C40" s="74">
         <f>SUM(C33:C39)</f>
         <v>0</v>
       </c>
-      <c r="D40" s="80">
+      <c r="D40" s="74">
         <f t="shared" ref="D40:M40" si="74">SUM(D33:D39)</f>
         <v>0</v>
       </c>
-      <c r="E40" s="80">
+      <c r="E40" s="74">
         <f t="shared" si="74"/>
         <v>0</v>
       </c>
-      <c r="F40" s="80">
+      <c r="F40" s="74">
         <f t="shared" si="74"/>
         <v>0</v>
       </c>
-      <c r="G40" s="80">
+      <c r="G40" s="74">
         <f t="shared" si="74"/>
         <v>0</v>
       </c>
-      <c r="H40" s="80">
+      <c r="H40" s="74">
         <f t="shared" si="74"/>
         <v>0</v>
       </c>
-      <c r="I40" s="80">
+      <c r="I40" s="74">
         <f t="shared" si="74"/>
         <v>0</v>
       </c>
-      <c r="J40" s="80">
+      <c r="J40" s="74">
         <f t="shared" si="74"/>
         <v>0</v>
       </c>
-      <c r="K40" s="80">
+      <c r="K40" s="74">
         <f t="shared" si="74"/>
         <v>0</v>
       </c>
-      <c r="L40" s="80">
+      <c r="L40" s="74">
         <f t="shared" si="74"/>
         <v>0</v>
       </c>
-      <c r="M40" s="80">
+      <c r="M40" s="74">
         <f t="shared" si="74"/>
         <v>0</v>
       </c>
-      <c r="N40" s="80">
+      <c r="N40" s="74">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O40" s="80">
+      <c r="O40" s="74">
         <f t="shared" ref="O40:S40" si="75">SUM(O33:O39)</f>
         <v>0</v>
       </c>
-      <c r="P40" s="80">
+      <c r="P40" s="74">
         <f t="shared" si="75"/>
         <v>0</v>
       </c>
-      <c r="Q40" s="80">
+      <c r="Q40" s="74">
         <f t="shared" si="75"/>
         <v>0</v>
       </c>
-      <c r="R40" s="80">
+      <c r="R40" s="74">
         <f t="shared" si="75"/>
         <v>0</v>
       </c>
-      <c r="S40" s="80">
+      <c r="S40" s="74">
         <f t="shared" si="75"/>
         <v>0</v>
       </c>
-      <c r="T40" s="80">
+      <c r="T40" s="74">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U40" s="80">
+      <c r="U40" s="74">
         <f t="shared" ref="U40:BZ40" si="76">SUM(U33:U39)</f>
         <v>0</v>
       </c>
-      <c r="V40" s="80">
+      <c r="V40" s="74">
         <f t="shared" si="76"/>
         <v>0</v>
       </c>
-      <c r="W40" s="80">
+      <c r="W40" s="74">
         <f t="shared" si="76"/>
         <v>0</v>
       </c>
-      <c r="X40" s="80">
+      <c r="X40" s="74">
         <f t="shared" si="76"/>
         <v>0</v>
       </c>
-      <c r="Y40" s="80">
+      <c r="Y40" s="74">
         <f t="shared" si="76"/>
         <v>0</v>
       </c>
-      <c r="Z40" s="80">
+      <c r="Z40" s="74">
         <f t="shared" si="76"/>
         <v>0</v>
       </c>
-      <c r="AA40" s="80">
+      <c r="AA40" s="74">
         <f t="shared" si="76"/>
         <v>0</v>
       </c>
-      <c r="AB40" s="80">
+      <c r="AB40" s="74">
         <f t="shared" si="76"/>
         <v>0</v>
       </c>
-      <c r="AC40" s="80">
+      <c r="AC40" s="74">
         <f t="shared" si="76"/>
         <v>0</v>
       </c>
-      <c r="AD40" s="80">
+      <c r="AD40" s="74">
         <f t="shared" si="76"/>
         <v>0</v>
       </c>
-      <c r="AE40" s="80">
+      <c r="AE40" s="74">
         <f t="shared" si="76"/>
         <v>0</v>
       </c>
-      <c r="AF40" s="80">
+      <c r="AF40" s="74">
         <f t="shared" si="76"/>
         <v>0</v>
       </c>
-      <c r="AG40" s="80">
+      <c r="AG40" s="74">
         <f t="shared" si="76"/>
         <v>0</v>
       </c>
-      <c r="AH40" s="80">
+      <c r="AH40" s="74">
         <f t="shared" si="76"/>
         <v>0</v>
       </c>
-      <c r="AI40" s="80">
+      <c r="AI40" s="74">
         <f t="shared" si="76"/>
         <v>0</v>
       </c>
-      <c r="AJ40" s="80">
+      <c r="AJ40" s="74">
         <f t="shared" si="76"/>
         <v>0</v>
       </c>
-      <c r="AK40" s="80">
+      <c r="AK40" s="74">
         <f t="shared" si="76"/>
         <v>0</v>
       </c>
-      <c r="AL40" s="80">
+      <c r="AL40" s="74">
         <f t="shared" si="76"/>
         <v>0</v>
       </c>
-      <c r="AM40" s="80">
+      <c r="AM40" s="74">
         <f t="shared" si="76"/>
         <v>0</v>
       </c>
-      <c r="AN40" s="82">
+      <c r="AN40" s="76">
         <f t="shared" si="76"/>
         <v>0</v>
       </c>
-      <c r="AO40" s="82">
+      <c r="AO40" s="76">
         <f t="shared" si="76"/>
         <v>0</v>
       </c>
-      <c r="AP40" s="82">
+      <c r="AP40" s="76">
         <f t="shared" si="76"/>
         <v>0</v>
       </c>
-      <c r="AQ40" s="80">
+      <c r="AQ40" s="74">
         <f t="shared" si="76"/>
         <v>0</v>
       </c>
-      <c r="AR40" s="80">
+      <c r="AR40" s="74">
         <f t="shared" si="76"/>
         <v>0</v>
       </c>
-      <c r="AS40" s="80">
+      <c r="AS40" s="74">
         <f t="shared" si="76"/>
         <v>0</v>
       </c>
-      <c r="AT40" s="80">
+      <c r="AT40" s="74">
         <f t="shared" si="76"/>
         <v>0</v>
       </c>
-      <c r="AU40" s="80">
+      <c r="AU40" s="74">
         <f t="shared" si="76"/>
         <v>0</v>
       </c>
-      <c r="AV40" s="80">
+      <c r="AV40" s="74">
         <f t="shared" si="76"/>
         <v>0</v>
       </c>
-      <c r="AW40" s="80">
+      <c r="AW40" s="74">
         <f t="shared" si="76"/>
         <v>0</v>
       </c>
-      <c r="AX40" s="80">
+      <c r="AX40" s="74">
         <f t="shared" si="76"/>
         <v>0</v>
       </c>
-      <c r="AY40" s="80">
+      <c r="AY40" s="74">
         <f t="shared" si="76"/>
         <v>0</v>
       </c>
-      <c r="AZ40" s="80">
+      <c r="AZ40" s="74">
         <f t="shared" si="76"/>
         <v>0</v>
       </c>
-      <c r="BA40" s="80">
+      <c r="BA40" s="74">
         <f t="shared" si="76"/>
         <v>0</v>
       </c>
-      <c r="BB40" s="80">
+      <c r="BB40" s="74">
         <f t="shared" si="76"/>
         <v>0</v>
       </c>
-      <c r="BC40" s="80">
+      <c r="BC40" s="74">
         <f t="shared" si="76"/>
         <v>0</v>
       </c>
-      <c r="BD40" s="80">
+      <c r="BD40" s="74">
         <f t="shared" si="76"/>
         <v>0</v>
       </c>
-      <c r="BE40" s="80">
+      <c r="BE40" s="74">
         <f t="shared" si="76"/>
         <v>0</v>
       </c>
-      <c r="BF40" s="80">
+      <c r="BF40" s="74">
         <f t="shared" si="76"/>
         <v>0</v>
       </c>
-      <c r="BG40" s="80">
+      <c r="BG40" s="74">
         <f t="shared" si="76"/>
         <v>0</v>
       </c>
-      <c r="BH40" s="80">
+      <c r="BH40" s="74">
         <f t="shared" si="76"/>
         <v>0</v>
       </c>
-      <c r="BI40" s="80">
+      <c r="BI40" s="74">
         <f t="shared" si="76"/>
         <v>0</v>
       </c>
-      <c r="BJ40" s="80">
+      <c r="BJ40" s="74">
         <f t="shared" si="76"/>
         <v>0</v>
       </c>
-      <c r="BK40" s="80">
+      <c r="BK40" s="74">
         <f t="shared" si="76"/>
         <v>0</v>
       </c>
-      <c r="BL40" s="80">
+      <c r="BL40" s="74">
         <f t="shared" si="76"/>
         <v>0</v>
       </c>
-      <c r="BM40" s="80">
+      <c r="BM40" s="74">
         <f t="shared" si="76"/>
         <v>0</v>
       </c>
-      <c r="BN40" s="80">
+      <c r="BN40" s="74">
         <f t="shared" si="76"/>
         <v>0</v>
       </c>
-      <c r="BO40" s="80">
+      <c r="BO40" s="74">
         <f t="shared" si="76"/>
         <v>0</v>
       </c>
-      <c r="BP40" s="80">
+      <c r="BP40" s="74">
         <f t="shared" si="76"/>
         <v>0</v>
       </c>
-      <c r="BQ40" s="80">
+      <c r="BQ40" s="74">
         <f t="shared" si="76"/>
         <v>0</v>
       </c>
-      <c r="BR40" s="80">
+      <c r="BR40" s="74">
         <f t="shared" si="76"/>
         <v>0</v>
       </c>
-      <c r="BS40" s="80">
+      <c r="BS40" s="74">
         <f t="shared" si="76"/>
         <v>0</v>
       </c>
-      <c r="BT40" s="80">
+      <c r="BT40" s="74">
         <f t="shared" si="76"/>
         <v>0</v>
       </c>
-      <c r="BU40" s="80">
+      <c r="BU40" s="74">
         <f t="shared" si="76"/>
         <v>0</v>
       </c>
-      <c r="BV40" s="80">
+      <c r="BV40" s="74">
         <f t="shared" si="76"/>
         <v>0</v>
       </c>
-      <c r="BW40" s="80">
+      <c r="BW40" s="74">
         <f t="shared" si="76"/>
         <v>0</v>
       </c>
-      <c r="BX40" s="80">
+      <c r="BX40" s="74">
         <f t="shared" si="76"/>
         <v>0</v>
       </c>
-      <c r="BY40" s="80">
+      <c r="BY40" s="74">
         <f t="shared" si="76"/>
         <v>0</v>
       </c>
-      <c r="BZ40" s="80">
+      <c r="BZ40" s="74">
         <f t="shared" si="76"/>
         <v>0</v>
       </c>
-      <c r="CA40" s="80">
+      <c r="CA40" s="74">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="CB40" s="80">
+      <c r="CB40" s="74">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="CC40" s="80">
+      <c r="CC40" s="74">
         <f t="shared" ref="CC40:CH40" si="77">SUM(CC33:CC39)</f>
         <v>0</v>
       </c>
-      <c r="CD40" s="80">
+      <c r="CD40" s="74">
         <f t="shared" si="77"/>
         <v>0</v>
       </c>
-      <c r="CE40" s="80">
+      <c r="CE40" s="74">
         <f t="shared" si="77"/>
         <v>0</v>
       </c>
-      <c r="CF40" s="80">
+      <c r="CF40" s="74">
         <f t="shared" si="77"/>
         <v>0</v>
       </c>
-      <c r="CG40" s="80">
+      <c r="CG40" s="74">
         <f t="shared" si="77"/>
         <v>0</v>
       </c>
-      <c r="CH40" s="80">
+      <c r="CH40" s="74">
         <f t="shared" si="77"/>
         <v>0</v>
       </c>
-      <c r="CI40" s="84" t="e">
+      <c r="CI40" s="141" t="e">
         <f>CH40/F40</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="CJ40" s="90" t="e">
+      <c r="CJ40" s="145" t="e">
         <f>CH40/C40</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="CK40" s="17"/>
+      <c r="CK40" s="16"/>
     </row>
     <row r="41" spans="1:89" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="99"/>
-      <c r="B41" s="23" t="s">
+      <c r="A41" s="123"/>
+      <c r="B41" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="C41" s="19"/>
-      <c r="D41" s="19"/>
-      <c r="E41" s="19"/>
-      <c r="F41" s="19"/>
-      <c r="G41" s="19"/>
-      <c r="H41" s="19"/>
-      <c r="I41" s="19"/>
-      <c r="J41" s="19"/>
-      <c r="K41" s="19"/>
-      <c r="L41" s="19"/>
-      <c r="M41" s="19"/>
-      <c r="N41" s="80">
+      <c r="C41" s="18"/>
+      <c r="D41" s="18"/>
+      <c r="E41" s="18"/>
+      <c r="F41" s="18"/>
+      <c r="G41" s="18"/>
+      <c r="H41" s="18"/>
+      <c r="I41" s="18"/>
+      <c r="J41" s="18"/>
+      <c r="K41" s="18"/>
+      <c r="L41" s="18"/>
+      <c r="M41" s="18"/>
+      <c r="N41" s="74">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O41" s="19"/>
-      <c r="P41" s="19"/>
-      <c r="Q41" s="19"/>
-      <c r="R41" s="19"/>
-      <c r="S41" s="19"/>
-      <c r="T41" s="80">
+      <c r="O41" s="18"/>
+      <c r="P41" s="18"/>
+      <c r="Q41" s="18"/>
+      <c r="R41" s="18"/>
+      <c r="S41" s="18"/>
+      <c r="T41" s="74">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U41" s="19"/>
-      <c r="V41" s="19"/>
-      <c r="W41" s="19"/>
-      <c r="X41" s="19"/>
-      <c r="Y41" s="19"/>
-      <c r="Z41" s="19"/>
-      <c r="AA41" s="19"/>
-      <c r="AB41" s="19"/>
-      <c r="AC41" s="19"/>
-      <c r="AD41" s="19"/>
-      <c r="AE41" s="19"/>
-      <c r="AF41" s="19"/>
-      <c r="AG41" s="19"/>
-      <c r="AH41" s="19"/>
-      <c r="AI41" s="19"/>
-      <c r="AJ41" s="19"/>
-      <c r="AK41" s="19"/>
-      <c r="AL41" s="19"/>
-      <c r="AM41" s="19"/>
-      <c r="AN41" s="20"/>
-      <c r="AO41" s="20"/>
-      <c r="AP41" s="20"/>
-      <c r="AQ41" s="19"/>
-      <c r="AR41" s="19"/>
-      <c r="AS41" s="19"/>
-      <c r="AT41" s="19"/>
-      <c r="AU41" s="19"/>
-      <c r="AV41" s="19"/>
-      <c r="AW41" s="19"/>
-      <c r="AX41" s="19"/>
-      <c r="AY41" s="19"/>
-      <c r="AZ41" s="19"/>
-      <c r="BA41" s="19"/>
-      <c r="BB41" s="19"/>
-      <c r="BC41" s="19"/>
-      <c r="BD41" s="19"/>
-      <c r="BE41" s="19"/>
-      <c r="BF41" s="19"/>
-      <c r="BG41" s="19"/>
-      <c r="BH41" s="19"/>
-      <c r="BI41" s="19"/>
-      <c r="BJ41" s="19"/>
-      <c r="BK41" s="19"/>
-      <c r="BL41" s="19"/>
-      <c r="BM41" s="19"/>
-      <c r="BN41" s="19"/>
-      <c r="BO41" s="19"/>
-      <c r="BP41" s="19"/>
-      <c r="BQ41" s="19"/>
-      <c r="BR41" s="19"/>
-      <c r="BS41" s="19"/>
-      <c r="BT41" s="19"/>
-      <c r="BU41" s="19"/>
-      <c r="BV41" s="19"/>
-      <c r="BW41" s="19"/>
-      <c r="BX41" s="19"/>
-      <c r="BY41" s="19"/>
-      <c r="BZ41" s="19"/>
-      <c r="CA41" s="80">
+      <c r="U41" s="18"/>
+      <c r="V41" s="18"/>
+      <c r="W41" s="18"/>
+      <c r="X41" s="18"/>
+      <c r="Y41" s="18"/>
+      <c r="Z41" s="18"/>
+      <c r="AA41" s="18"/>
+      <c r="AB41" s="18"/>
+      <c r="AC41" s="18"/>
+      <c r="AD41" s="18"/>
+      <c r="AE41" s="18"/>
+      <c r="AF41" s="18"/>
+      <c r="AG41" s="18"/>
+      <c r="AH41" s="18"/>
+      <c r="AI41" s="18"/>
+      <c r="AJ41" s="18"/>
+      <c r="AK41" s="18"/>
+      <c r="AL41" s="18"/>
+      <c r="AM41" s="18"/>
+      <c r="AN41" s="19"/>
+      <c r="AO41" s="19"/>
+      <c r="AP41" s="19"/>
+      <c r="AQ41" s="18"/>
+      <c r="AR41" s="18"/>
+      <c r="AS41" s="18"/>
+      <c r="AT41" s="18"/>
+      <c r="AU41" s="18"/>
+      <c r="AV41" s="18"/>
+      <c r="AW41" s="18"/>
+      <c r="AX41" s="18"/>
+      <c r="AY41" s="18"/>
+      <c r="AZ41" s="18"/>
+      <c r="BA41" s="18"/>
+      <c r="BB41" s="18"/>
+      <c r="BC41" s="18"/>
+      <c r="BD41" s="18"/>
+      <c r="BE41" s="18"/>
+      <c r="BF41" s="18"/>
+      <c r="BG41" s="18"/>
+      <c r="BH41" s="18"/>
+      <c r="BI41" s="18"/>
+      <c r="BJ41" s="18"/>
+      <c r="BK41" s="18"/>
+      <c r="BL41" s="18"/>
+      <c r="BM41" s="18"/>
+      <c r="BN41" s="18"/>
+      <c r="BO41" s="18"/>
+      <c r="BP41" s="18"/>
+      <c r="BQ41" s="18"/>
+      <c r="BR41" s="18"/>
+      <c r="BS41" s="18"/>
+      <c r="BT41" s="18"/>
+      <c r="BU41" s="18"/>
+      <c r="BV41" s="18"/>
+      <c r="BW41" s="18"/>
+      <c r="BX41" s="18"/>
+      <c r="BY41" s="18"/>
+      <c r="BZ41" s="18"/>
+      <c r="CA41" s="74">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="CB41" s="80">
+      <c r="CB41" s="74">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="CC41" s="21"/>
-      <c r="CD41" s="19"/>
-      <c r="CE41" s="19"/>
-      <c r="CF41" s="19"/>
-      <c r="CG41" s="19"/>
-      <c r="CH41" s="19"/>
-      <c r="CI41" s="35"/>
-      <c r="CJ41" s="22"/>
-      <c r="CK41" s="17"/>
+      <c r="CC41" s="20"/>
+      <c r="CD41" s="18"/>
+      <c r="CE41" s="18"/>
+      <c r="CF41" s="18"/>
+      <c r="CG41" s="18"/>
+      <c r="CH41" s="18"/>
+      <c r="CI41" s="140"/>
+      <c r="CJ41" s="135"/>
+      <c r="CK41" s="16"/>
     </row>
     <row r="42" spans="1:89" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="96" t="s">
+      <c r="A42" s="120" t="s">
         <v>96</v>
       </c>
-      <c r="B42" s="37" t="s">
+      <c r="B42" s="34" t="s">
         <v>84</v>
       </c>
-      <c r="C42" s="80">
+      <c r="C42" s="74">
         <f>C40+C30+C21</f>
         <v>0</v>
       </c>
-      <c r="D42" s="80">
+      <c r="D42" s="74">
         <f t="shared" ref="D42:M42" si="78">D40+D30+D21</f>
         <v>0</v>
       </c>
-      <c r="E42" s="80">
+      <c r="E42" s="74">
         <f t="shared" si="78"/>
         <v>0</v>
       </c>
-      <c r="F42" s="80">
+      <c r="F42" s="74">
         <f t="shared" si="78"/>
         <v>0</v>
       </c>
-      <c r="G42" s="80">
+      <c r="G42" s="74">
         <f t="shared" si="78"/>
         <v>0</v>
       </c>
-      <c r="H42" s="80">
+      <c r="H42" s="74">
         <f t="shared" si="78"/>
         <v>0</v>
       </c>
-      <c r="I42" s="80">
+      <c r="I42" s="74">
         <f t="shared" si="78"/>
         <v>0</v>
       </c>
-      <c r="J42" s="80">
+      <c r="J42" s="74">
         <f t="shared" si="78"/>
         <v>0</v>
       </c>
-      <c r="K42" s="80">
+      <c r="K42" s="74">
         <f t="shared" si="78"/>
         <v>0</v>
       </c>
-      <c r="L42" s="80">
+      <c r="L42" s="74">
         <f t="shared" si="78"/>
         <v>0</v>
       </c>
-      <c r="M42" s="80">
+      <c r="M42" s="74">
         <f t="shared" si="78"/>
         <v>0</v>
       </c>
-      <c r="N42" s="80">
+      <c r="N42" s="74">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O42" s="80">
+      <c r="O42" s="74">
         <f t="shared" ref="O42:S42" si="79">O40+O30+O21</f>
         <v>0</v>
       </c>
-      <c r="P42" s="80">
+      <c r="P42" s="74">
         <f t="shared" si="79"/>
         <v>0</v>
       </c>
-      <c r="Q42" s="80">
+      <c r="Q42" s="74">
         <f t="shared" si="79"/>
         <v>0</v>
       </c>
-      <c r="R42" s="80">
+      <c r="R42" s="74">
         <f t="shared" si="79"/>
         <v>0</v>
       </c>
-      <c r="S42" s="80">
+      <c r="S42" s="74">
         <f t="shared" si="79"/>
         <v>0</v>
       </c>
-      <c r="T42" s="80">
+      <c r="T42" s="74">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U42" s="80">
+      <c r="U42" s="74">
         <f t="shared" ref="U42:BZ42" si="80">U40+U30+U21</f>
         <v>0</v>
       </c>
-      <c r="V42" s="80">
+      <c r="V42" s="74">
         <f t="shared" si="80"/>
         <v>0</v>
       </c>
-      <c r="W42" s="80">
+      <c r="W42" s="74">
         <f t="shared" si="80"/>
         <v>0</v>
       </c>
-      <c r="X42" s="80">
+      <c r="X42" s="74">
         <f t="shared" si="80"/>
         <v>0</v>
       </c>
-      <c r="Y42" s="80">
+      <c r="Y42" s="74">
         <f t="shared" si="80"/>
         <v>0</v>
       </c>
-      <c r="Z42" s="80">
+      <c r="Z42" s="74">
         <f t="shared" si="80"/>
         <v>0</v>
       </c>
-      <c r="AA42" s="80">
+      <c r="AA42" s="74">
         <f t="shared" si="80"/>
         <v>0</v>
       </c>
-      <c r="AB42" s="80">
+      <c r="AB42" s="74">
         <f t="shared" si="80"/>
         <v>0</v>
       </c>
-      <c r="AC42" s="80">
+      <c r="AC42" s="74">
         <f t="shared" si="80"/>
         <v>0</v>
       </c>
-      <c r="AD42" s="80">
+      <c r="AD42" s="74">
         <f t="shared" si="80"/>
         <v>0</v>
       </c>
-      <c r="AE42" s="80">
+      <c r="AE42" s="74">
         <f t="shared" si="80"/>
         <v>0</v>
       </c>
-      <c r="AF42" s="80">
+      <c r="AF42" s="74">
         <f t="shared" si="80"/>
         <v>0</v>
       </c>
-      <c r="AG42" s="80">
+      <c r="AG42" s="74">
         <f t="shared" si="80"/>
         <v>0</v>
       </c>
-      <c r="AH42" s="80">
+      <c r="AH42" s="74">
         <f t="shared" si="80"/>
         <v>0</v>
       </c>
-      <c r="AI42" s="80">
+      <c r="AI42" s="74">
         <f t="shared" si="80"/>
         <v>0</v>
       </c>
-      <c r="AJ42" s="80">
+      <c r="AJ42" s="74">
         <f t="shared" si="80"/>
         <v>0</v>
       </c>
-      <c r="AK42" s="80">
+      <c r="AK42" s="74">
         <f t="shared" si="80"/>
         <v>0</v>
       </c>
-      <c r="AL42" s="80">
+      <c r="AL42" s="74">
         <f t="shared" si="80"/>
         <v>0</v>
       </c>
-      <c r="AM42" s="80">
+      <c r="AM42" s="74">
         <f t="shared" si="80"/>
         <v>0</v>
       </c>
-      <c r="AN42" s="82">
+      <c r="AN42" s="76">
         <f t="shared" si="80"/>
         <v>0</v>
       </c>
-      <c r="AO42" s="82">
+      <c r="AO42" s="76">
         <f t="shared" si="80"/>
         <v>0</v>
       </c>
-      <c r="AP42" s="82">
+      <c r="AP42" s="76">
         <f t="shared" si="80"/>
         <v>0</v>
       </c>
-      <c r="AQ42" s="80">
+      <c r="AQ42" s="74">
         <f t="shared" si="80"/>
         <v>0</v>
       </c>
-      <c r="AR42" s="80">
+      <c r="AR42" s="74">
         <f t="shared" si="80"/>
         <v>0</v>
       </c>
-      <c r="AS42" s="80">
+      <c r="AS42" s="74">
         <f t="shared" si="80"/>
         <v>0</v>
       </c>
-      <c r="AT42" s="80">
+      <c r="AT42" s="74">
         <f t="shared" si="80"/>
         <v>0</v>
       </c>
-      <c r="AU42" s="80">
+      <c r="AU42" s="74">
         <f t="shared" si="80"/>
         <v>0</v>
       </c>
-      <c r="AV42" s="80">
+      <c r="AV42" s="74">
         <f t="shared" si="80"/>
         <v>0</v>
       </c>
-      <c r="AW42" s="80">
+      <c r="AW42" s="74">
         <f t="shared" si="80"/>
         <v>0</v>
       </c>
-      <c r="AX42" s="80">
+      <c r="AX42" s="74">
         <f t="shared" si="80"/>
         <v>0</v>
       </c>
-      <c r="AY42" s="80">
+      <c r="AY42" s="74">
         <f t="shared" si="80"/>
         <v>0</v>
       </c>
-      <c r="AZ42" s="80">
+      <c r="AZ42" s="74">
         <f t="shared" si="80"/>
         <v>0</v>
       </c>
-      <c r="BA42" s="80">
+      <c r="BA42" s="74">
         <f t="shared" si="80"/>
         <v>0</v>
       </c>
-      <c r="BB42" s="80">
+      <c r="BB42" s="74">
         <f t="shared" si="80"/>
         <v>0</v>
       </c>
-      <c r="BC42" s="80">
+      <c r="BC42" s="74">
         <f t="shared" si="80"/>
         <v>0</v>
       </c>
-      <c r="BD42" s="80">
+      <c r="BD42" s="74">
         <f t="shared" si="80"/>
         <v>0</v>
       </c>
-      <c r="BE42" s="80">
+      <c r="BE42" s="74">
         <f t="shared" si="80"/>
         <v>0</v>
       </c>
-      <c r="BF42" s="80">
+      <c r="BF42" s="74">
         <f t="shared" si="80"/>
         <v>0</v>
       </c>
-      <c r="BG42" s="80">
+      <c r="BG42" s="74">
         <f t="shared" si="80"/>
         <v>0</v>
       </c>
-      <c r="BH42" s="80">
+      <c r="BH42" s="74">
         <f t="shared" si="80"/>
         <v>0</v>
       </c>
-      <c r="BI42" s="80">
+      <c r="BI42" s="74">
         <f t="shared" si="80"/>
         <v>0</v>
       </c>
-      <c r="BJ42" s="80">
+      <c r="BJ42" s="74">
         <f t="shared" si="80"/>
         <v>0</v>
       </c>
-      <c r="BK42" s="80">
+      <c r="BK42" s="74">
         <f t="shared" si="80"/>
         <v>0</v>
       </c>
-      <c r="BL42" s="80">
+      <c r="BL42" s="74">
         <f t="shared" si="80"/>
         <v>0</v>
       </c>
-      <c r="BM42" s="80">
+      <c r="BM42" s="74">
         <f t="shared" si="80"/>
         <v>0</v>
       </c>
-      <c r="BN42" s="80">
+      <c r="BN42" s="74">
         <f t="shared" si="80"/>
         <v>0</v>
       </c>
-      <c r="BO42" s="80">
+      <c r="BO42" s="74">
         <f t="shared" si="80"/>
         <v>0</v>
       </c>
-      <c r="BP42" s="80">
+      <c r="BP42" s="74">
         <f t="shared" si="80"/>
         <v>0</v>
       </c>
-      <c r="BQ42" s="80">
+      <c r="BQ42" s="74">
         <f t="shared" si="80"/>
         <v>0</v>
       </c>
-      <c r="BR42" s="80">
+      <c r="BR42" s="74">
         <f t="shared" si="80"/>
         <v>0</v>
       </c>
-      <c r="BS42" s="80">
+      <c r="BS42" s="74">
         <f t="shared" si="80"/>
         <v>0</v>
       </c>
-      <c r="BT42" s="80">
+      <c r="BT42" s="74">
         <f t="shared" si="80"/>
         <v>0</v>
       </c>
-      <c r="BU42" s="80">
+      <c r="BU42" s="74">
         <f t="shared" si="80"/>
         <v>0</v>
       </c>
-      <c r="BV42" s="80">
+      <c r="BV42" s="74">
         <f t="shared" si="80"/>
         <v>0</v>
       </c>
-      <c r="BW42" s="80">
+      <c r="BW42" s="74">
         <f t="shared" si="80"/>
         <v>0</v>
       </c>
-      <c r="BX42" s="80">
+      <c r="BX42" s="74">
         <f t="shared" si="80"/>
         <v>0</v>
       </c>
-      <c r="BY42" s="80">
+      <c r="BY42" s="74">
         <f t="shared" si="80"/>
         <v>0</v>
       </c>
-      <c r="BZ42" s="80">
+      <c r="BZ42" s="74">
         <f t="shared" si="80"/>
         <v>0</v>
       </c>
-      <c r="CA42" s="80">
+      <c r="CA42" s="74">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="CB42" s="80">
+      <c r="CB42" s="74">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="CC42" s="80">
+      <c r="CC42" s="74">
         <f t="shared" ref="CC42:CH42" si="81">CC40+CC30+CC21</f>
         <v>0</v>
       </c>
-      <c r="CD42" s="80">
+      <c r="CD42" s="74">
         <f t="shared" si="81"/>
         <v>0</v>
       </c>
-      <c r="CE42" s="80">
+      <c r="CE42" s="74">
         <f t="shared" si="81"/>
         <v>0</v>
       </c>
-      <c r="CF42" s="80">
+      <c r="CF42" s="74">
         <f t="shared" si="81"/>
         <v>0</v>
       </c>
-      <c r="CG42" s="80">
+      <c r="CG42" s="74">
         <f t="shared" si="81"/>
         <v>0</v>
       </c>
-      <c r="CH42" s="80">
+      <c r="CH42" s="74">
         <f t="shared" si="81"/>
         <v>0</v>
       </c>
-      <c r="CI42" s="80" t="e">
+      <c r="CI42" s="141" t="e">
         <f>CH42/F42</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="CJ42" s="83" t="e">
+      <c r="CJ42" s="145" t="e">
         <f>CH42/C42</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="CK42" s="17"/>
+      <c r="CK42" s="16"/>
     </row>
     <row r="43" spans="1:89" ht="61.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="96"/>
-      <c r="B43" s="64" t="s">
+      <c r="A43" s="120"/>
+      <c r="B43" s="60" t="s">
         <v>97</v>
       </c>
-      <c r="C43" s="52"/>
-      <c r="D43" s="52"/>
-      <c r="E43" s="52"/>
-      <c r="F43" s="52"/>
-      <c r="G43" s="52"/>
-      <c r="H43" s="52"/>
-      <c r="I43" s="52"/>
-      <c r="J43" s="52"/>
-      <c r="K43" s="52"/>
-      <c r="L43" s="52"/>
-      <c r="M43" s="52"/>
-      <c r="N43" s="89">
+      <c r="C43" s="48"/>
+      <c r="D43" s="48"/>
+      <c r="E43" s="48"/>
+      <c r="F43" s="48"/>
+      <c r="G43" s="48"/>
+      <c r="H43" s="48"/>
+      <c r="I43" s="48"/>
+      <c r="J43" s="48"/>
+      <c r="K43" s="48"/>
+      <c r="L43" s="48"/>
+      <c r="M43" s="48"/>
+      <c r="N43" s="80">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O43" s="52"/>
-      <c r="P43" s="52"/>
-      <c r="Q43" s="52"/>
-      <c r="R43" s="52"/>
-      <c r="S43" s="52"/>
-      <c r="T43" s="89">
+      <c r="O43" s="48"/>
+      <c r="P43" s="48"/>
+      <c r="Q43" s="48"/>
+      <c r="R43" s="48"/>
+      <c r="S43" s="48"/>
+      <c r="T43" s="80">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U43" s="52"/>
-      <c r="V43" s="52"/>
-      <c r="W43" s="52"/>
-      <c r="X43" s="52"/>
-      <c r="Y43" s="52"/>
-      <c r="Z43" s="52"/>
-      <c r="AA43" s="52"/>
-      <c r="AB43" s="52"/>
-      <c r="AC43" s="52"/>
-      <c r="AD43" s="52"/>
-      <c r="AE43" s="52"/>
-      <c r="AF43" s="52"/>
-      <c r="AG43" s="52"/>
-      <c r="AH43" s="52"/>
-      <c r="AI43" s="52"/>
-      <c r="AJ43" s="52"/>
-      <c r="AK43" s="52"/>
-      <c r="AL43" s="52"/>
-      <c r="AM43" s="52"/>
-      <c r="AN43" s="53"/>
-      <c r="AO43" s="53"/>
-      <c r="AP43" s="53"/>
-      <c r="AQ43" s="52"/>
-      <c r="AR43" s="52"/>
-      <c r="AS43" s="52"/>
-      <c r="AT43" s="52"/>
-      <c r="AU43" s="52"/>
-      <c r="AV43" s="52"/>
-      <c r="AW43" s="52"/>
-      <c r="AX43" s="52"/>
-      <c r="AY43" s="52"/>
-      <c r="AZ43" s="52"/>
-      <c r="BA43" s="52"/>
-      <c r="BB43" s="52"/>
-      <c r="BC43" s="52"/>
-      <c r="BD43" s="52"/>
-      <c r="BE43" s="52"/>
-      <c r="BF43" s="52"/>
-      <c r="BG43" s="52"/>
-      <c r="BH43" s="52"/>
-      <c r="BI43" s="52"/>
-      <c r="BJ43" s="52"/>
-      <c r="BK43" s="52"/>
-      <c r="BL43" s="52"/>
-      <c r="BM43" s="52"/>
-      <c r="BN43" s="52"/>
-      <c r="BO43" s="52"/>
-      <c r="BP43" s="52"/>
-      <c r="BQ43" s="52"/>
-      <c r="BR43" s="52"/>
-      <c r="BS43" s="52"/>
-      <c r="BT43" s="52"/>
-      <c r="BU43" s="52"/>
-      <c r="BV43" s="52"/>
-      <c r="BW43" s="52"/>
-      <c r="BX43" s="52"/>
-      <c r="BY43" s="52"/>
-      <c r="BZ43" s="52"/>
-      <c r="CA43" s="89">
+      <c r="U43" s="48"/>
+      <c r="V43" s="48"/>
+      <c r="W43" s="48"/>
+      <c r="X43" s="48"/>
+      <c r="Y43" s="48"/>
+      <c r="Z43" s="48"/>
+      <c r="AA43" s="48"/>
+      <c r="AB43" s="48"/>
+      <c r="AC43" s="48"/>
+      <c r="AD43" s="48"/>
+      <c r="AE43" s="48"/>
+      <c r="AF43" s="48"/>
+      <c r="AG43" s="48"/>
+      <c r="AH43" s="48"/>
+      <c r="AI43" s="48"/>
+      <c r="AJ43" s="48"/>
+      <c r="AK43" s="48"/>
+      <c r="AL43" s="48"/>
+      <c r="AM43" s="48"/>
+      <c r="AN43" s="49"/>
+      <c r="AO43" s="49"/>
+      <c r="AP43" s="49"/>
+      <c r="AQ43" s="48"/>
+      <c r="AR43" s="48"/>
+      <c r="AS43" s="48"/>
+      <c r="AT43" s="48"/>
+      <c r="AU43" s="48"/>
+      <c r="AV43" s="48"/>
+      <c r="AW43" s="48"/>
+      <c r="AX43" s="48"/>
+      <c r="AY43" s="48"/>
+      <c r="AZ43" s="48"/>
+      <c r="BA43" s="48"/>
+      <c r="BB43" s="48"/>
+      <c r="BC43" s="48"/>
+      <c r="BD43" s="48"/>
+      <c r="BE43" s="48"/>
+      <c r="BF43" s="48"/>
+      <c r="BG43" s="48"/>
+      <c r="BH43" s="48"/>
+      <c r="BI43" s="48"/>
+      <c r="BJ43" s="48"/>
+      <c r="BK43" s="48"/>
+      <c r="BL43" s="48"/>
+      <c r="BM43" s="48"/>
+      <c r="BN43" s="48"/>
+      <c r="BO43" s="48"/>
+      <c r="BP43" s="48"/>
+      <c r="BQ43" s="48"/>
+      <c r="BR43" s="48"/>
+      <c r="BS43" s="48"/>
+      <c r="BT43" s="48"/>
+      <c r="BU43" s="48"/>
+      <c r="BV43" s="48"/>
+      <c r="BW43" s="48"/>
+      <c r="BX43" s="48"/>
+      <c r="BY43" s="48"/>
+      <c r="BZ43" s="48"/>
+      <c r="CA43" s="80">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="CB43" s="89">
+      <c r="CB43" s="80">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="CC43" s="52"/>
-      <c r="CD43" s="52"/>
-      <c r="CE43" s="52"/>
-      <c r="CF43" s="52"/>
-      <c r="CG43" s="52"/>
-      <c r="CH43" s="52"/>
-      <c r="CI43" s="65"/>
-      <c r="CJ43" s="66"/>
-      <c r="CK43" s="17"/>
+      <c r="CC43" s="48"/>
+      <c r="CD43" s="48"/>
+      <c r="CE43" s="48"/>
+      <c r="CF43" s="48"/>
+      <c r="CG43" s="48"/>
+      <c r="CH43" s="48"/>
+      <c r="CI43" s="146"/>
+      <c r="CJ43" s="147"/>
+      <c r="CK43" s="16"/>
     </row>
     <row r="44" spans="1:89" ht="59.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="97"/>
-      <c r="B44" s="50" t="s">
+      <c r="A44" s="121"/>
+      <c r="B44" s="46" t="s">
         <v>99</v>
       </c>
-      <c r="C44" s="27"/>
-      <c r="D44" s="27"/>
-      <c r="E44" s="27"/>
-      <c r="F44" s="27"/>
-      <c r="G44" s="27"/>
-      <c r="H44" s="27"/>
-      <c r="I44" s="27"/>
-      <c r="J44" s="27"/>
-      <c r="K44" s="27"/>
-      <c r="L44" s="27"/>
-      <c r="M44" s="27"/>
-      <c r="N44" s="87">
+      <c r="C44" s="25"/>
+      <c r="D44" s="25"/>
+      <c r="E44" s="25"/>
+      <c r="F44" s="25"/>
+      <c r="G44" s="25"/>
+      <c r="H44" s="25"/>
+      <c r="I44" s="25"/>
+      <c r="J44" s="25"/>
+      <c r="K44" s="25"/>
+      <c r="L44" s="25"/>
+      <c r="M44" s="25"/>
+      <c r="N44" s="78">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O44" s="27"/>
-      <c r="P44" s="27"/>
-      <c r="Q44" s="27"/>
-      <c r="R44" s="27"/>
-      <c r="S44" s="27"/>
-      <c r="T44" s="87">
+      <c r="O44" s="25"/>
+      <c r="P44" s="25"/>
+      <c r="Q44" s="25"/>
+      <c r="R44" s="25"/>
+      <c r="S44" s="25"/>
+      <c r="T44" s="78">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U44" s="27"/>
-      <c r="V44" s="27"/>
-      <c r="W44" s="27"/>
-      <c r="X44" s="27"/>
-      <c r="Y44" s="27"/>
-      <c r="Z44" s="27"/>
-      <c r="AA44" s="27"/>
-      <c r="AB44" s="27"/>
-      <c r="AC44" s="27"/>
-      <c r="AD44" s="27"/>
-      <c r="AE44" s="27"/>
-      <c r="AF44" s="27"/>
-      <c r="AG44" s="27"/>
-      <c r="AH44" s="27"/>
-      <c r="AI44" s="27"/>
-      <c r="AJ44" s="27"/>
-      <c r="AK44" s="27"/>
-      <c r="AL44" s="27"/>
-      <c r="AM44" s="27"/>
-      <c r="AN44" s="51"/>
-      <c r="AO44" s="51"/>
-      <c r="AP44" s="51"/>
-      <c r="AQ44" s="27"/>
-      <c r="AR44" s="27"/>
-      <c r="AS44" s="27"/>
-      <c r="AT44" s="27"/>
-      <c r="AU44" s="27"/>
-      <c r="AV44" s="27"/>
-      <c r="AW44" s="27"/>
-      <c r="AX44" s="27"/>
-      <c r="AY44" s="27"/>
-      <c r="AZ44" s="27"/>
-      <c r="BA44" s="27"/>
-      <c r="BB44" s="27"/>
-      <c r="BC44" s="27"/>
-      <c r="BD44" s="27"/>
-      <c r="BE44" s="27"/>
-      <c r="BF44" s="27"/>
-      <c r="BG44" s="27"/>
-      <c r="BH44" s="27"/>
-      <c r="BI44" s="27"/>
-      <c r="BJ44" s="27"/>
-      <c r="BK44" s="27"/>
-      <c r="BL44" s="27"/>
-      <c r="BM44" s="27"/>
-      <c r="BN44" s="27"/>
-      <c r="BO44" s="27"/>
-      <c r="BP44" s="27"/>
-      <c r="BQ44" s="27"/>
-      <c r="BR44" s="27"/>
-      <c r="BS44" s="27"/>
-      <c r="BT44" s="27"/>
-      <c r="BU44" s="27"/>
-      <c r="BV44" s="27"/>
-      <c r="BW44" s="27"/>
-      <c r="BX44" s="27"/>
-      <c r="BY44" s="27"/>
-      <c r="BZ44" s="27"/>
-      <c r="CA44" s="87">
+      <c r="U44" s="25"/>
+      <c r="V44" s="25"/>
+      <c r="W44" s="25"/>
+      <c r="X44" s="25"/>
+      <c r="Y44" s="25"/>
+      <c r="Z44" s="25"/>
+      <c r="AA44" s="25"/>
+      <c r="AB44" s="25"/>
+      <c r="AC44" s="25"/>
+      <c r="AD44" s="25"/>
+      <c r="AE44" s="25"/>
+      <c r="AF44" s="25"/>
+      <c r="AG44" s="25"/>
+      <c r="AH44" s="25"/>
+      <c r="AI44" s="25"/>
+      <c r="AJ44" s="25"/>
+      <c r="AK44" s="25"/>
+      <c r="AL44" s="25"/>
+      <c r="AM44" s="25"/>
+      <c r="AN44" s="47"/>
+      <c r="AO44" s="47"/>
+      <c r="AP44" s="47"/>
+      <c r="AQ44" s="25"/>
+      <c r="AR44" s="25"/>
+      <c r="AS44" s="25"/>
+      <c r="AT44" s="25"/>
+      <c r="AU44" s="25"/>
+      <c r="AV44" s="25"/>
+      <c r="AW44" s="25"/>
+      <c r="AX44" s="25"/>
+      <c r="AY44" s="25"/>
+      <c r="AZ44" s="25"/>
+      <c r="BA44" s="25"/>
+      <c r="BB44" s="25"/>
+      <c r="BC44" s="25"/>
+      <c r="BD44" s="25"/>
+      <c r="BE44" s="25"/>
+      <c r="BF44" s="25"/>
+      <c r="BG44" s="25"/>
+      <c r="BH44" s="25"/>
+      <c r="BI44" s="25"/>
+      <c r="BJ44" s="25"/>
+      <c r="BK44" s="25"/>
+      <c r="BL44" s="25"/>
+      <c r="BM44" s="25"/>
+      <c r="BN44" s="25"/>
+      <c r="BO44" s="25"/>
+      <c r="BP44" s="25"/>
+      <c r="BQ44" s="25"/>
+      <c r="BR44" s="25"/>
+      <c r="BS44" s="25"/>
+      <c r="BT44" s="25"/>
+      <c r="BU44" s="25"/>
+      <c r="BV44" s="25"/>
+      <c r="BW44" s="25"/>
+      <c r="BX44" s="25"/>
+      <c r="BY44" s="25"/>
+      <c r="BZ44" s="25"/>
+      <c r="CA44" s="78">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="CB44" s="87">
+      <c r="CB44" s="78">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="CC44" s="27"/>
-      <c r="CD44" s="27"/>
-      <c r="CE44" s="27"/>
-      <c r="CF44" s="27"/>
-      <c r="CG44" s="27"/>
-      <c r="CH44" s="27"/>
-      <c r="CI44" s="30"/>
-      <c r="CJ44" s="31"/>
-      <c r="CK44" s="17"/>
-    </row>
-    <row r="45" spans="1:89" s="42" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="38"/>
-      <c r="B45" s="38"/>
-      <c r="C45" s="39"/>
-      <c r="D45" s="39"/>
-      <c r="E45" s="39"/>
-      <c r="F45" s="39"/>
-      <c r="G45" s="39"/>
-      <c r="H45" s="39"/>
-      <c r="I45" s="39"/>
-      <c r="J45" s="39"/>
-      <c r="K45" s="39"/>
-      <c r="L45" s="39"/>
-      <c r="M45" s="39"/>
-      <c r="N45" s="39"/>
-      <c r="O45" s="39"/>
-      <c r="P45" s="39"/>
-      <c r="Q45" s="39"/>
-      <c r="R45" s="39"/>
-      <c r="S45" s="39"/>
-      <c r="T45" s="39"/>
-      <c r="U45" s="39"/>
-      <c r="V45" s="39"/>
-      <c r="W45" s="39"/>
-      <c r="X45" s="39"/>
-      <c r="Y45" s="39"/>
-      <c r="Z45" s="39"/>
-      <c r="AA45" s="39"/>
-      <c r="AB45" s="39"/>
-      <c r="AC45" s="39"/>
-      <c r="AD45" s="39"/>
-      <c r="AE45" s="39"/>
-      <c r="AF45" s="39"/>
-      <c r="AG45" s="39"/>
-      <c r="AH45" s="39"/>
-      <c r="AI45" s="39"/>
-      <c r="AJ45" s="39"/>
-      <c r="AK45" s="39"/>
-      <c r="AL45" s="39"/>
-      <c r="AM45" s="39"/>
-      <c r="AN45" s="40"/>
-      <c r="AO45" s="40"/>
-      <c r="AP45" s="40"/>
-      <c r="AQ45" s="39"/>
-      <c r="AR45" s="39"/>
-      <c r="AS45" s="39"/>
-      <c r="AT45" s="39"/>
-      <c r="AU45" s="39"/>
-      <c r="AV45" s="39"/>
-      <c r="AW45" s="39"/>
-      <c r="AX45" s="39"/>
-      <c r="AY45" s="39"/>
-      <c r="AZ45" s="39"/>
-      <c r="BA45" s="39"/>
-      <c r="BB45" s="39"/>
-      <c r="BC45" s="39"/>
-      <c r="BD45" s="39"/>
-      <c r="BE45" s="39"/>
-      <c r="BF45" s="39"/>
-      <c r="BG45" s="39"/>
-      <c r="BH45" s="39"/>
-      <c r="BI45" s="39"/>
-      <c r="BJ45" s="39"/>
-      <c r="BK45" s="39"/>
-      <c r="BL45" s="39"/>
-      <c r="BM45" s="39"/>
-      <c r="BN45" s="39"/>
-      <c r="BO45" s="39"/>
-      <c r="BP45" s="39"/>
-      <c r="BQ45" s="39"/>
-      <c r="BR45" s="39"/>
-      <c r="BS45" s="39"/>
-      <c r="BT45" s="39"/>
-      <c r="BU45" s="39"/>
-      <c r="BV45" s="39"/>
-      <c r="BW45" s="39"/>
-      <c r="BX45" s="39"/>
-      <c r="BY45" s="39"/>
-      <c r="BZ45" s="39"/>
-      <c r="CA45" s="39"/>
-      <c r="CB45" s="39"/>
-      <c r="CC45" s="39"/>
-      <c r="CD45" s="39"/>
-      <c r="CE45" s="39"/>
-      <c r="CF45" s="39"/>
-      <c r="CG45" s="39"/>
-      <c r="CH45" s="39"/>
-      <c r="CI45" s="39"/>
-      <c r="CJ45" s="39"/>
-      <c r="CK45" s="41"/>
+      <c r="CC44" s="25"/>
+      <c r="CD44" s="25"/>
+      <c r="CE44" s="25"/>
+      <c r="CF44" s="25"/>
+      <c r="CG44" s="25"/>
+      <c r="CH44" s="25"/>
+      <c r="CI44" s="137"/>
+      <c r="CJ44" s="138"/>
+      <c r="CK44" s="16"/>
+    </row>
+    <row r="45" spans="1:89" s="39" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="35"/>
+      <c r="B45" s="35"/>
+      <c r="C45" s="36"/>
+      <c r="D45" s="36"/>
+      <c r="E45" s="36"/>
+      <c r="F45" s="36"/>
+      <c r="G45" s="36"/>
+      <c r="H45" s="36"/>
+      <c r="I45" s="36"/>
+      <c r="J45" s="36"/>
+      <c r="K45" s="36"/>
+      <c r="L45" s="36"/>
+      <c r="M45" s="36"/>
+      <c r="N45" s="36"/>
+      <c r="O45" s="36"/>
+      <c r="P45" s="36"/>
+      <c r="Q45" s="36"/>
+      <c r="R45" s="36"/>
+      <c r="S45" s="36"/>
+      <c r="T45" s="36"/>
+      <c r="U45" s="36"/>
+      <c r="V45" s="36"/>
+      <c r="W45" s="36"/>
+      <c r="X45" s="36"/>
+      <c r="Y45" s="36"/>
+      <c r="Z45" s="36"/>
+      <c r="AA45" s="36"/>
+      <c r="AB45" s="36"/>
+      <c r="AC45" s="36"/>
+      <c r="AD45" s="36"/>
+      <c r="AE45" s="36"/>
+      <c r="AF45" s="36"/>
+      <c r="AG45" s="36"/>
+      <c r="AH45" s="36"/>
+      <c r="AI45" s="36"/>
+      <c r="AJ45" s="36"/>
+      <c r="AK45" s="36"/>
+      <c r="AL45" s="36"/>
+      <c r="AM45" s="36"/>
+      <c r="AN45" s="37"/>
+      <c r="AO45" s="37"/>
+      <c r="AP45" s="37"/>
+      <c r="AQ45" s="36"/>
+      <c r="AR45" s="36"/>
+      <c r="AS45" s="36"/>
+      <c r="AT45" s="36"/>
+      <c r="AU45" s="36"/>
+      <c r="AV45" s="36"/>
+      <c r="AW45" s="36"/>
+      <c r="AX45" s="36"/>
+      <c r="AY45" s="36"/>
+      <c r="AZ45" s="36"/>
+      <c r="BA45" s="36"/>
+      <c r="BB45" s="36"/>
+      <c r="BC45" s="36"/>
+      <c r="BD45" s="36"/>
+      <c r="BE45" s="36"/>
+      <c r="BF45" s="36"/>
+      <c r="BG45" s="36"/>
+      <c r="BH45" s="36"/>
+      <c r="BI45" s="36"/>
+      <c r="BJ45" s="36"/>
+      <c r="BK45" s="36"/>
+      <c r="BL45" s="36"/>
+      <c r="BM45" s="36"/>
+      <c r="BN45" s="36"/>
+      <c r="BO45" s="36"/>
+      <c r="BP45" s="36"/>
+      <c r="BQ45" s="36"/>
+      <c r="BR45" s="36"/>
+      <c r="BS45" s="36"/>
+      <c r="BT45" s="36"/>
+      <c r="BU45" s="36"/>
+      <c r="BV45" s="36"/>
+      <c r="BW45" s="36"/>
+      <c r="BX45" s="36"/>
+      <c r="BY45" s="36"/>
+      <c r="BZ45" s="36"/>
+      <c r="CA45" s="36"/>
+      <c r="CB45" s="36"/>
+      <c r="CC45" s="36"/>
+      <c r="CD45" s="36"/>
+      <c r="CE45" s="36"/>
+      <c r="CF45" s="36"/>
+      <c r="CG45" s="36"/>
+      <c r="CH45" s="36"/>
+      <c r="CI45" s="148"/>
+      <c r="CJ45" s="148"/>
+      <c r="CK45" s="38"/>
     </row>
     <row r="46" spans="1:89" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="2"/>
@@ -7658,12 +7693,12 @@
       <c r="CB46" s="2"/>
       <c r="CC46" s="2"/>
       <c r="CD46" s="3"/>
-      <c r="CE46" s="43"/>
-      <c r="CF46" s="43"/>
-      <c r="CG46" s="43"/>
-      <c r="CH46" s="43"/>
-      <c r="CI46" s="43"/>
-      <c r="CJ46" s="43"/>
+      <c r="CE46" s="40"/>
+      <c r="CF46" s="40"/>
+      <c r="CG46" s="40"/>
+      <c r="CH46" s="40"/>
+      <c r="CI46" s="149"/>
+      <c r="CJ46" s="149"/>
     </row>
     <row r="47" spans="1:89" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="2"/>
@@ -7689,12 +7724,12 @@
       <c r="CB47" s="2"/>
       <c r="CC47" s="2"/>
       <c r="CD47" s="3"/>
-      <c r="CE47" s="43"/>
-      <c r="CF47" s="43"/>
-      <c r="CG47" s="43"/>
-      <c r="CH47" s="43"/>
-      <c r="CI47" s="43"/>
-      <c r="CJ47" s="43"/>
+      <c r="CE47" s="40"/>
+      <c r="CF47" s="40"/>
+      <c r="CG47" s="40"/>
+      <c r="CH47" s="40"/>
+      <c r="CI47" s="149"/>
+      <c r="CJ47" s="149"/>
     </row>
     <row r="48" spans="1:89" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D48" s="2"/>
@@ -7708,16 +7743,16 @@
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
       <c r="U49" s="2"/>
-      <c r="V49" s="98"/>
-      <c r="W49" s="98"/>
+      <c r="V49" s="122"/>
+      <c r="W49" s="122"/>
       <c r="X49" s="2"/>
       <c r="Y49" s="2"/>
       <c r="Z49" s="2"/>
-      <c r="AA49" s="98"/>
+      <c r="AA49" s="122"/>
       <c r="AB49" s="2"/>
       <c r="AC49" s="2"/>
       <c r="AD49" s="2"/>
-      <c r="AE49" s="98"/>
+      <c r="AE49" s="122"/>
       <c r="AF49" s="2"/>
       <c r="AG49" s="2"/>
       <c r="AH49" s="2"/>
@@ -7725,9 +7760,9 @@
       <c r="AJ49" s="2"/>
       <c r="AK49" s="2"/>
       <c r="AL49" s="2"/>
-      <c r="AM49" s="98"/>
-      <c r="AQ49" s="98"/>
-      <c r="AR49" s="98"/>
+      <c r="AM49" s="122"/>
+      <c r="AQ49" s="122"/>
+      <c r="AR49" s="122"/>
       <c r="AS49" s="2"/>
       <c r="AT49" s="2"/>
       <c r="AU49" s="2"/>
@@ -7749,26 +7784,26 @@
       <c r="CA49" s="2"/>
       <c r="CB49" s="2"/>
       <c r="CC49" s="2"/>
-      <c r="CD49" s="98"/>
-      <c r="CE49" s="98"/>
-      <c r="CF49" s="98"/>
+      <c r="CD49" s="122"/>
+      <c r="CE49" s="122"/>
+      <c r="CF49" s="122"/>
       <c r="CG49" s="2"/>
       <c r="CH49" s="2"/>
-      <c r="CI49" s="2"/>
-      <c r="CJ49" s="2"/>
+      <c r="CI49" s="124"/>
+      <c r="CJ49" s="124"/>
     </row>
     <row r="50" spans="2:88" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="2"/>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
       <c r="U50" s="2"/>
-      <c r="V50" s="98"/>
-      <c r="W50" s="98"/>
+      <c r="V50" s="122"/>
+      <c r="W50" s="122"/>
       <c r="X50" s="2"/>
       <c r="Y50" s="2"/>
       <c r="Z50" s="2"/>
-      <c r="AA50" s="98"/>
-      <c r="AE50" s="98"/>
+      <c r="AA50" s="122"/>
+      <c r="AE50" s="122"/>
       <c r="AF50" s="2"/>
       <c r="AG50" s="2"/>
       <c r="AH50" s="2"/>
@@ -7776,9 +7811,9 @@
       <c r="AJ50" s="2"/>
       <c r="AK50" s="2"/>
       <c r="AL50" s="2"/>
-      <c r="AM50" s="98"/>
-      <c r="AQ50" s="98"/>
-      <c r="AR50" s="98"/>
+      <c r="AM50" s="122"/>
+      <c r="AQ50" s="122"/>
+      <c r="AR50" s="122"/>
       <c r="AS50" s="2"/>
       <c r="AT50" s="2"/>
       <c r="AU50" s="2"/>
@@ -7800,13 +7835,13 @@
       <c r="CA50" s="2"/>
       <c r="CB50" s="2"/>
       <c r="CC50" s="2"/>
-      <c r="CD50" s="98"/>
-      <c r="CE50" s="98"/>
-      <c r="CF50" s="98"/>
+      <c r="CD50" s="122"/>
+      <c r="CE50" s="122"/>
+      <c r="CF50" s="122"/>
       <c r="CG50" s="2"/>
       <c r="CH50" s="2"/>
-      <c r="CI50" s="2"/>
-      <c r="CJ50" s="2"/>
+      <c r="CI50" s="124"/>
+      <c r="CJ50" s="124"/>
     </row>
     <row r="51" spans="2:88" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="2"/>
@@ -15322,15 +15357,100 @@
     </row>
   </sheetData>
   <mergeCells count="127">
-    <mergeCell ref="D7:T7"/>
-    <mergeCell ref="BT7:CJ7"/>
-    <mergeCell ref="D8:T8"/>
-    <mergeCell ref="BT8:CJ8"/>
-    <mergeCell ref="CC1:CJ1"/>
-    <mergeCell ref="B2:CF2"/>
-    <mergeCell ref="B3:CF3"/>
-    <mergeCell ref="B4:CF4"/>
-    <mergeCell ref="AR5:AX5"/>
+    <mergeCell ref="A23:A32"/>
+    <mergeCell ref="A42:A44"/>
+    <mergeCell ref="AQ49:AQ50"/>
+    <mergeCell ref="AR49:AR50"/>
+    <mergeCell ref="CD49:CD50"/>
+    <mergeCell ref="CE49:CE50"/>
+    <mergeCell ref="CF49:CF50"/>
+    <mergeCell ref="A33:A41"/>
+    <mergeCell ref="V49:V50"/>
+    <mergeCell ref="W49:W50"/>
+    <mergeCell ref="AA49:AA50"/>
+    <mergeCell ref="AE49:AE50"/>
+    <mergeCell ref="AM49:AM50"/>
+    <mergeCell ref="BQ15:BR15"/>
+    <mergeCell ref="BS15:BT15"/>
+    <mergeCell ref="BU15:BV15"/>
+    <mergeCell ref="BW15:BX15"/>
+    <mergeCell ref="BY15:BZ15"/>
+    <mergeCell ref="A18:A22"/>
+    <mergeCell ref="AX15:AY15"/>
+    <mergeCell ref="AZ15:BA15"/>
+    <mergeCell ref="BB15:BC15"/>
+    <mergeCell ref="BD15:BE15"/>
+    <mergeCell ref="BF15:BG15"/>
+    <mergeCell ref="BH15:BI15"/>
+    <mergeCell ref="X12:X16"/>
+    <mergeCell ref="Y12:Y16"/>
+    <mergeCell ref="Z12:Z16"/>
+    <mergeCell ref="AA12:AA16"/>
+    <mergeCell ref="AB12:AE13"/>
+    <mergeCell ref="AB14:AB16"/>
+    <mergeCell ref="AC14:AC16"/>
+    <mergeCell ref="AD14:AD16"/>
+    <mergeCell ref="AE14:AE16"/>
+    <mergeCell ref="R12:R15"/>
+    <mergeCell ref="S12:S15"/>
+    <mergeCell ref="T12:T16"/>
+    <mergeCell ref="BW14:BZ14"/>
+    <mergeCell ref="BO15:BP15"/>
+    <mergeCell ref="BB14:BE14"/>
+    <mergeCell ref="BF14:BI14"/>
+    <mergeCell ref="BK14:BK16"/>
+    <mergeCell ref="BL14:BL16"/>
+    <mergeCell ref="BM14:BM16"/>
+    <mergeCell ref="BN14:BN16"/>
+    <mergeCell ref="AF14:AF16"/>
+    <mergeCell ref="AG14:AG16"/>
+    <mergeCell ref="AH14:AH16"/>
+    <mergeCell ref="AI14:AI16"/>
+    <mergeCell ref="AJ14:AJ16"/>
+    <mergeCell ref="AM14:AM16"/>
+    <mergeCell ref="AK12:AK16"/>
+    <mergeCell ref="AL12:AL16"/>
+    <mergeCell ref="AM12:AO13"/>
+    <mergeCell ref="AP12:AP16"/>
+    <mergeCell ref="AQ12:AR13"/>
+    <mergeCell ref="AS12:AS16"/>
+    <mergeCell ref="AN14:AN16"/>
+    <mergeCell ref="AO14:AO16"/>
+    <mergeCell ref="AQ14:AQ16"/>
+    <mergeCell ref="AR14:AR16"/>
+    <mergeCell ref="BK12:BL13"/>
+    <mergeCell ref="BM12:BN13"/>
+    <mergeCell ref="AT14:AT16"/>
+    <mergeCell ref="AU14:AU16"/>
+    <mergeCell ref="AV14:AV16"/>
+    <mergeCell ref="AW14:AW16"/>
+    <mergeCell ref="CH12:CH16"/>
+    <mergeCell ref="CI12:CI16"/>
+    <mergeCell ref="CJ12:CJ16"/>
+    <mergeCell ref="AX13:BA13"/>
+    <mergeCell ref="BB13:BI13"/>
+    <mergeCell ref="BO13:BR13"/>
+    <mergeCell ref="BS13:BZ13"/>
+    <mergeCell ref="CD13:CD16"/>
+    <mergeCell ref="CE13:CE16"/>
+    <mergeCell ref="AX14:BA14"/>
+    <mergeCell ref="BO12:BZ12"/>
+    <mergeCell ref="CA12:CB15"/>
+    <mergeCell ref="CC12:CC16"/>
+    <mergeCell ref="CD12:CE12"/>
+    <mergeCell ref="CF12:CF16"/>
+    <mergeCell ref="CG12:CG16"/>
+    <mergeCell ref="BO14:BR14"/>
+    <mergeCell ref="BS14:BV14"/>
+    <mergeCell ref="N12:N16"/>
+    <mergeCell ref="O12:O15"/>
+    <mergeCell ref="P12:P15"/>
+    <mergeCell ref="Q12:Q15"/>
+    <mergeCell ref="AT12:AU13"/>
+    <mergeCell ref="AV12:AW13"/>
+    <mergeCell ref="AX12:BI12"/>
+    <mergeCell ref="BJ12:BJ16"/>
+    <mergeCell ref="AF12:AJ13"/>
     <mergeCell ref="BT9:CJ9"/>
     <mergeCell ref="A11:A16"/>
     <mergeCell ref="B11:B16"/>
@@ -15355,100 +15475,15 @@
     <mergeCell ref="W12:W16"/>
     <mergeCell ref="L12:L15"/>
     <mergeCell ref="M12:M15"/>
-    <mergeCell ref="N12:N16"/>
-    <mergeCell ref="O12:O15"/>
-    <mergeCell ref="P12:P15"/>
-    <mergeCell ref="Q12:Q15"/>
-    <mergeCell ref="AT12:AU13"/>
-    <mergeCell ref="AV12:AW13"/>
-    <mergeCell ref="AX12:BI12"/>
-    <mergeCell ref="BJ12:BJ16"/>
-    <mergeCell ref="AF12:AJ13"/>
-    <mergeCell ref="BK12:BL13"/>
-    <mergeCell ref="BM12:BN13"/>
-    <mergeCell ref="AT14:AT16"/>
-    <mergeCell ref="AU14:AU16"/>
-    <mergeCell ref="AV14:AV16"/>
-    <mergeCell ref="AW14:AW16"/>
-    <mergeCell ref="CH12:CH16"/>
-    <mergeCell ref="CI12:CI16"/>
-    <mergeCell ref="CJ12:CJ16"/>
-    <mergeCell ref="AX13:BA13"/>
-    <mergeCell ref="BB13:BI13"/>
-    <mergeCell ref="BO13:BR13"/>
-    <mergeCell ref="BS13:BZ13"/>
-    <mergeCell ref="CD13:CD16"/>
-    <mergeCell ref="CE13:CE16"/>
-    <mergeCell ref="AX14:BA14"/>
-    <mergeCell ref="BO12:BZ12"/>
-    <mergeCell ref="CA12:CB15"/>
-    <mergeCell ref="CC12:CC16"/>
-    <mergeCell ref="CD12:CE12"/>
-    <mergeCell ref="CF12:CF16"/>
-    <mergeCell ref="CG12:CG16"/>
-    <mergeCell ref="BO14:BR14"/>
-    <mergeCell ref="BS14:BV14"/>
-    <mergeCell ref="BW14:BZ14"/>
-    <mergeCell ref="BO15:BP15"/>
-    <mergeCell ref="BB14:BE14"/>
-    <mergeCell ref="BF14:BI14"/>
-    <mergeCell ref="BK14:BK16"/>
-    <mergeCell ref="BL14:BL16"/>
-    <mergeCell ref="BM14:BM16"/>
-    <mergeCell ref="BN14:BN16"/>
-    <mergeCell ref="AF14:AF16"/>
-    <mergeCell ref="AG14:AG16"/>
-    <mergeCell ref="AH14:AH16"/>
-    <mergeCell ref="AI14:AI16"/>
-    <mergeCell ref="AJ14:AJ16"/>
-    <mergeCell ref="AM14:AM16"/>
-    <mergeCell ref="AK12:AK16"/>
-    <mergeCell ref="AL12:AL16"/>
-    <mergeCell ref="AM12:AO13"/>
-    <mergeCell ref="AP12:AP16"/>
-    <mergeCell ref="AQ12:AR13"/>
-    <mergeCell ref="AS12:AS16"/>
-    <mergeCell ref="AN14:AN16"/>
-    <mergeCell ref="AO14:AO16"/>
-    <mergeCell ref="AQ14:AQ16"/>
-    <mergeCell ref="AR14:AR16"/>
-    <mergeCell ref="BQ15:BR15"/>
-    <mergeCell ref="BS15:BT15"/>
-    <mergeCell ref="BU15:BV15"/>
-    <mergeCell ref="BW15:BX15"/>
-    <mergeCell ref="BY15:BZ15"/>
-    <mergeCell ref="A18:A22"/>
-    <mergeCell ref="AX15:AY15"/>
-    <mergeCell ref="AZ15:BA15"/>
-    <mergeCell ref="BB15:BC15"/>
-    <mergeCell ref="BD15:BE15"/>
-    <mergeCell ref="BF15:BG15"/>
-    <mergeCell ref="BH15:BI15"/>
-    <mergeCell ref="X12:X16"/>
-    <mergeCell ref="Y12:Y16"/>
-    <mergeCell ref="Z12:Z16"/>
-    <mergeCell ref="AA12:AA16"/>
-    <mergeCell ref="AB12:AE13"/>
-    <mergeCell ref="AB14:AB16"/>
-    <mergeCell ref="AC14:AC16"/>
-    <mergeCell ref="AD14:AD16"/>
-    <mergeCell ref="AE14:AE16"/>
-    <mergeCell ref="R12:R15"/>
-    <mergeCell ref="S12:S15"/>
-    <mergeCell ref="T12:T16"/>
-    <mergeCell ref="A23:A32"/>
-    <mergeCell ref="A42:A44"/>
-    <mergeCell ref="AQ49:AQ50"/>
-    <mergeCell ref="AR49:AR50"/>
-    <mergeCell ref="CD49:CD50"/>
-    <mergeCell ref="CE49:CE50"/>
-    <mergeCell ref="CF49:CF50"/>
-    <mergeCell ref="A33:A41"/>
-    <mergeCell ref="V49:V50"/>
-    <mergeCell ref="W49:W50"/>
-    <mergeCell ref="AA49:AA50"/>
-    <mergeCell ref="AE49:AE50"/>
-    <mergeCell ref="AM49:AM50"/>
+    <mergeCell ref="D7:T7"/>
+    <mergeCell ref="BT7:CJ7"/>
+    <mergeCell ref="D8:T8"/>
+    <mergeCell ref="BT8:CJ8"/>
+    <mergeCell ref="CC1:CJ1"/>
+    <mergeCell ref="B2:CF2"/>
+    <mergeCell ref="B3:CF3"/>
+    <mergeCell ref="B4:CF4"/>
+    <mergeCell ref="AR5:AX5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
